--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -2,32 +2,46 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\AutoTestSystem\AutoTestSystem\Script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\AutoAMLS\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B75D45-32D9-4E09-BF7E-C4867427B47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855102EC-9F05-4410-82D1-0547D9C6C742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="851" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="7" r:id="rId1"/>
-    <sheet name="FL" sheetId="1" r:id="rId2"/>
-    <sheet name="RL" sheetId="3" r:id="rId3"/>
-    <sheet name="FR" sheetId="2" r:id="rId4"/>
-    <sheet name="RML" sheetId="5" r:id="rId5"/>
-    <sheet name="RMR" sheetId="6" r:id="rId6"/>
-    <sheet name="RR" sheetId="4" r:id="rId7"/>
+    <sheet name="FL_M4" sheetId="1" r:id="rId2"/>
+    <sheet name="FL_SX5GEV" sheetId="8" r:id="rId3"/>
+    <sheet name="RL_M4" sheetId="3" r:id="rId4"/>
+    <sheet name="RL_SX5GEV" sheetId="9" r:id="rId5"/>
+    <sheet name="FR_M4" sheetId="2" r:id="rId6"/>
+    <sheet name="FR_SX5GEV" sheetId="10" r:id="rId7"/>
+    <sheet name="RR_M4" sheetId="4" r:id="rId8"/>
+    <sheet name="RR_SX5GEV" sheetId="12" r:id="rId9"/>
+    <sheet name="RM_SX5GEV" sheetId="13" r:id="rId10"/>
+    <sheet name="RML_M4" sheetId="5" r:id="rId11"/>
+    <sheet name="FLB_SX5GEV" sheetId="14" r:id="rId12"/>
+    <sheet name="RMR_M4" sheetId="6" r:id="rId13"/>
+    <sheet name="FRB_SX5GEV" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FL!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FR!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RL!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">RML!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">RMR!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">RR!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FL_M4!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FL_SX5GEV!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">FLB_SX5GEV!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">FR_M4!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">FR_SX5GEV!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">FRB_SX5GEV!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RL_M4!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">RL_SX5GEV!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">RM_SX5GEV!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">RML_M4!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">RMR_M4!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">RR_M4!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">RR_SX5GEV!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="126">
   <si>
     <t>SuiteName</t>
   </si>
@@ -1277,7 +1291,604 @@
     <cellStyle name="注释 2" xfId="44" xr:uid="{F3AB96AE-817D-4279-B6C1-D2B2EF32D7CF}"/>
     <cellStyle name="警告文本 2" xfId="3" xr:uid="{645DDA24-EC4B-4017-9B81-8545B65B2980}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6E0B4"/>
+          <bgColor rgb="FFC6E0B4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1889,23 +2500,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8374A970-A2E1-4794-B661-21DE73664024}" name="Table3" displayName="Table3" ref="A1:N34" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8374A970-A2E1-4794-B661-21DE73664024}" name="Table3" displayName="Table3" ref="A1:N34" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
   <autoFilter ref="A1:N34" xr:uid="{8374A970-A2E1-4794-B661-21DE73664024}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{8AAF201F-0145-4D91-ADEA-FB752521AED6}" name="SuiteName" dataDxfId="13" dataCellStyle="常规 3"/>
-    <tableColumn id="2" xr3:uid="{AD81E000-39CD-4331-AA31-2FBB1551F68C}" name="StepName" dataDxfId="12" dataCellStyle="常规 3"/>
-    <tableColumn id="3" xr3:uid="{CA83D093-0502-46D1-9C32-35F85E9459D0}" name="Keyword" dataDxfId="11" dataCellStyle="常规 3"/>
-    <tableColumn id="4" xr3:uid="{C5D8CB96-F037-44E0-B5C0-6A875C903F4F}" name="Retry" dataDxfId="10" dataCellStyle="常规 3"/>
-    <tableColumn id="5" xr3:uid="{1E870987-83D6-4F31-8713-C88D7B66DC72}" name="Timeout" dataDxfId="9" dataCellStyle="常规 3"/>
-    <tableColumn id="6" xr3:uid="{F4F16D46-EF7E-4294-B6C8-CC7D22EC4E0D}" name="SubStr1" dataDxfId="8" dataCellStyle="常规 3"/>
-    <tableColumn id="7" xr3:uid="{5977C6AE-95CA-49B3-A4D0-231A784825C6}" name="SubStr2" dataDxfId="7" dataCellStyle="常规 3"/>
-    <tableColumn id="8" xr3:uid="{6984743D-458B-4A8F-BE1A-A5FCD130F0A9}" name="ID" dataDxfId="6" dataCellStyle="常规 3"/>
-    <tableColumn id="9" xr3:uid="{CED2F470-36F6-4006-B975-BB82100CDFDA}" name="NAD" dataDxfId="5" dataCellStyle="常规 3"/>
-    <tableColumn id="10" xr3:uid="{BB6D4779-0586-4D28-9105-6F053830649F}" name="PCI_LEN" dataDxfId="4" dataCellStyle="常规 3"/>
-    <tableColumn id="11" xr3:uid="{612422D5-5B9A-46AB-BB9B-66BE8836DBA8}" name="CmdOrParam" dataDxfId="3" dataCellStyle="常规 3"/>
-    <tableColumn id="12" xr3:uid="{F8D819CD-5E06-4BCE-B1DE-665208FCBD13}" name="SetGlobalVar" dataDxfId="2" dataCellStyle="常规 3"/>
-    <tableColumn id="13" xr3:uid="{E3E26939-D4C9-4A24-84C9-0648CF16175F}" name="CheckStr1" dataDxfId="1" dataCellStyle="常规 3"/>
-    <tableColumn id="14" xr3:uid="{2C319D87-300C-48D4-AC7E-9C1AC28E2A3B}" name="TearDown" dataDxfId="0" dataCellStyle="常规 3"/>
+    <tableColumn id="1" xr3:uid="{8AAF201F-0145-4D91-ADEA-FB752521AED6}" name="SuiteName" dataDxfId="29" dataCellStyle="常规 3"/>
+    <tableColumn id="2" xr3:uid="{AD81E000-39CD-4331-AA31-2FBB1551F68C}" name="StepName" dataDxfId="28" dataCellStyle="常规 3"/>
+    <tableColumn id="3" xr3:uid="{CA83D093-0502-46D1-9C32-35F85E9459D0}" name="Keyword" dataDxfId="27" dataCellStyle="常规 3"/>
+    <tableColumn id="4" xr3:uid="{C5D8CB96-F037-44E0-B5C0-6A875C903F4F}" name="Retry" dataDxfId="26" dataCellStyle="常规 3"/>
+    <tableColumn id="5" xr3:uid="{1E870987-83D6-4F31-8713-C88D7B66DC72}" name="Timeout" dataDxfId="25" dataCellStyle="常规 3"/>
+    <tableColumn id="6" xr3:uid="{F4F16D46-EF7E-4294-B6C8-CC7D22EC4E0D}" name="SubStr1" dataDxfId="24" dataCellStyle="常规 3"/>
+    <tableColumn id="7" xr3:uid="{5977C6AE-95CA-49B3-A4D0-231A784825C6}" name="SubStr2" dataDxfId="23" dataCellStyle="常规 3"/>
+    <tableColumn id="8" xr3:uid="{6984743D-458B-4A8F-BE1A-A5FCD130F0A9}" name="ID" dataDxfId="22" dataCellStyle="常规 3"/>
+    <tableColumn id="9" xr3:uid="{CED2F470-36F6-4006-B975-BB82100CDFDA}" name="NAD" dataDxfId="21" dataCellStyle="常规 3"/>
+    <tableColumn id="10" xr3:uid="{BB6D4779-0586-4D28-9105-6F053830649F}" name="PCI_LEN" dataDxfId="20" dataCellStyle="常规 3"/>
+    <tableColumn id="11" xr3:uid="{612422D5-5B9A-46AB-BB9B-66BE8836DBA8}" name="CmdOrParam" dataDxfId="19" dataCellStyle="常规 3"/>
+    <tableColumn id="12" xr3:uid="{F8D819CD-5E06-4BCE-B1DE-665208FCBD13}" name="SetGlobalVar" dataDxfId="18" dataCellStyle="常规 3"/>
+    <tableColumn id="13" xr3:uid="{E3E26939-D4C9-4A24-84C9-0648CF16175F}" name="CheckStr1" dataDxfId="17" dataCellStyle="常规 3"/>
+    <tableColumn id="14" xr3:uid="{2C319D87-300C-48D4-AC7E-9C1AC28E2A3B}" name="TearDown" dataDxfId="16" dataCellStyle="常规 3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{343806AF-3051-48E9-BCB2-48F067BA5100}" name="Table32" displayName="Table32" ref="A1:N34" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
+  <autoFilter ref="A1:N34" xr:uid="{8374A970-A2E1-4794-B661-21DE73664024}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{4D1DF959-5A00-4B3C-AF2B-33156DC77847}" name="SuiteName" dataDxfId="13" dataCellStyle="常规 3"/>
+    <tableColumn id="2" xr3:uid="{2807D0EC-D824-4293-885B-97A8AD4B3ED7}" name="StepName" dataDxfId="12" dataCellStyle="常规 3"/>
+    <tableColumn id="3" xr3:uid="{89BDCE07-BEDB-4BED-8D1A-D7A306527DB2}" name="Keyword" dataDxfId="11" dataCellStyle="常规 3"/>
+    <tableColumn id="4" xr3:uid="{B3A1D538-4471-484A-A153-8C79AF2FC376}" name="Retry" dataDxfId="10" dataCellStyle="常规 3"/>
+    <tableColumn id="5" xr3:uid="{4E638BFD-45ED-4961-B6C7-E50146BA708C}" name="Timeout" dataDxfId="9" dataCellStyle="常规 3"/>
+    <tableColumn id="6" xr3:uid="{135DB39C-B5C0-47F5-8433-383419003A68}" name="SubStr1" dataDxfId="8" dataCellStyle="常规 3"/>
+    <tableColumn id="7" xr3:uid="{BDDDC804-E7BE-448B-B349-9CE9BEC7F887}" name="SubStr2" dataDxfId="7" dataCellStyle="常规 3"/>
+    <tableColumn id="8" xr3:uid="{A21B452B-B419-48C8-9754-59075784634A}" name="ID" dataDxfId="6" dataCellStyle="常规 3"/>
+    <tableColumn id="9" xr3:uid="{71AFC839-B87B-4101-A1CB-12F42D4ABC72}" name="NAD" dataDxfId="5" dataCellStyle="常规 3"/>
+    <tableColumn id="10" xr3:uid="{D99678D3-CD40-4473-BD81-036679D026D2}" name="PCI_LEN" dataDxfId="4" dataCellStyle="常规 3"/>
+    <tableColumn id="11" xr3:uid="{77C675CD-FEDD-416A-B6B6-09366F492699}" name="CmdOrParam" dataDxfId="3" dataCellStyle="常规 3"/>
+    <tableColumn id="12" xr3:uid="{AA7330C8-D7AD-4BD1-87DE-CACAE7F15675}" name="SetGlobalVar" dataDxfId="2" dataCellStyle="常规 3"/>
+    <tableColumn id="13" xr3:uid="{48025E04-95B0-423D-9FE4-F0BDF147A16C}" name="CheckStr1" dataDxfId="1" dataCellStyle="常规 3"/>
+    <tableColumn id="14" xr3:uid="{784F9F5C-A789-4F50-BCE7-847F38D2C539}" name="TearDown" dataDxfId="0" dataCellStyle="常规 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2174,6 +2808,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B31841-577D-4B74-A02A-C475A4A8B644}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2333,29 +2968,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688DACE5-0F90-4CB2-83BE-414E65E6A3CC}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1">
@@ -2423,8 +3060,8 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="12" t="s">
-        <v>17</v>
+      <c r="K2" s="13">
+        <v>51</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>8</v>
@@ -3486,8 +4123,2319 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261B1219-38CE-4351-AD11-269BFB7FFF97}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13C69ED-C3B9-4662-896B-899D1579730D}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickTop="1">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="13">
+        <v>51</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="7">
+        <v>37</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="7">
+        <v>37</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>5</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>2</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K34" s="9">
+        <v>14</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F059E497-B15E-405E-87DD-46A726DFE9D8}">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickTop="1">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="13">
+        <v>52</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="7">
+        <v>37</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="7">
+        <v>37</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>5</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>2</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K34" s="9">
+        <v>14</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE3E380-37FE-404D-BB5A-4423923555FA}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3577,8 +6525,8 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="13" t="s">
-        <v>110</v>
+      <c r="K2" s="13">
+        <v>52</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>8</v>
@@ -4640,12 +7588,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00BCB73-0A41-4E03-A788-D5EA2C3C0B74}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BF82C3-258C-4984-9472-89B44C2842FD}">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4732,7 +7681,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="13">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>8</v>
@@ -5789,19 +8738,1174 @@
       <c r="N34" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13C69ED-C3B9-4662-896B-899D1579730D}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickTop="1">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="7">
+        <v>37</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="7">
+        <v>37</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>5</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>2</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K34" s="9">
+        <v>14</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187521E3-34CD-4853-96D8-09FEDBCC57EA}">
+  <sheetPr codeName="Sheet3">
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5887,8 +9991,8 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="13">
-        <v>51</v>
+      <c r="K2" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>8</v>
@@ -6950,8 +11054,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE3E380-37FE-404D-BB5A-4423923555FA}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261B1219-38CE-4351-AD11-269BFB7FFF97}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7041,8 +11146,8 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="13">
-        <v>52</v>
+      <c r="K2" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>8</v>
@@ -8104,12 +12209,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295BE820-F643-4CA9-8D2F-6495CEB556CC}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE649F2B-974E-4884-919A-13B065570817}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8195,8 +12301,8 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="13">
-        <v>53</v>
+      <c r="K2" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>8</v>
@@ -9256,4 +13362,4628 @@
   <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00BCB73-0A41-4E03-A788-D5EA2C3C0B74}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickTop="1">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="13">
+        <v>50</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="7">
+        <v>37</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="7">
+        <v>37</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>5</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>2</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K34" s="9">
+        <v>14</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0B433B-22B3-47FF-9A7D-ABAD8D388B79}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickTop="1">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="13">
+        <v>50</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="7">
+        <v>37</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="7">
+        <v>37</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>5</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>2</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K34" s="9">
+        <v>14</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295BE820-F643-4CA9-8D2F-6495CEB556CC}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickTop="1">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="13">
+        <v>53</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="7">
+        <v>37</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="7">
+        <v>37</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>5</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>2</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K34" s="9">
+        <v>14</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A168DF-D4C0-449A-AC46-4FB9A8E3F54F}">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickTop="1">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="13">
+        <v>53</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="7">
+        <v>37</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="7">
+        <v>37</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>5</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>2</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K34" s="9">
+        <v>14</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\AutoAMLS\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855102EC-9F05-4410-82D1-0547D9C6C742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C0D3B2-77AB-44ED-A0CD-F55C7C1443E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="851" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="851" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="7" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="FLB_SX5GEV" sheetId="14" r:id="rId12"/>
     <sheet name="RMR_M4" sheetId="6" r:id="rId13"/>
     <sheet name="FRB_SX5GEV" sheetId="15" r:id="rId14"/>
+    <sheet name="LTT" sheetId="16" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FL_M4!$A$1:$N$1</definedName>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4033" uniqueCount="427">
   <si>
     <t>SuiteName</t>
   </si>
@@ -431,6 +432,909 @@
   </si>
   <si>
     <t>CTT:</t>
+  </si>
+  <si>
+    <t>Json</t>
+  </si>
+  <si>
+    <t>ErrorCode</t>
+  </si>
+  <si>
+    <t>IfElse</t>
+  </si>
+  <si>
+    <t>For</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>ExpectStr</t>
+  </si>
+  <si>
+    <t>CheckStr2</t>
+  </si>
+  <si>
+    <t>NoContain</t>
+  </si>
+  <si>
+    <t>SPEC</t>
+  </si>
+  <si>
+    <t>LSL</t>
+  </si>
+  <si>
+    <t>USL</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>ByPF</t>
+  </si>
+  <si>
+    <t>FTC</t>
+  </si>
+  <si>
+    <t>MesVar</t>
+  </si>
+  <si>
+    <t>WA580Open</t>
+  </si>
+  <si>
+    <t>SerialPortOpen</t>
+  </si>
+  <si>
+    <t>3.1.0: Device.Serial.Timeout</t>
+  </si>
+  <si>
+    <t>COM2</t>
+  </si>
+  <si>
+    <t>ROUT 1,1,1</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>ROUT 1,2,1</t>
+  </si>
+  <si>
+    <t>ROUT 1,3,1</t>
+  </si>
+  <si>
+    <t>ROUT 1,4,1</t>
+  </si>
+  <si>
+    <t>ROUT 1,5,1</t>
+  </si>
+  <si>
+    <t>ROUT 1,6,1</t>
+  </si>
+  <si>
+    <t>ROUT 1,7,1</t>
+  </si>
+  <si>
+    <t>ROUT 1,8,1</t>
+  </si>
+  <si>
+    <t>ROUT 2,1,1</t>
+  </si>
+  <si>
+    <t>ROUT 2,2,1</t>
+  </si>
+  <si>
+    <t>ROUT 2,3,1</t>
+  </si>
+  <si>
+    <t>ROUT 2,4,1</t>
+  </si>
+  <si>
+    <t>ROUT 2,5,1</t>
+  </si>
+  <si>
+    <t>ROUT 2,6,1</t>
+  </si>
+  <si>
+    <t>ROUT 2,7,1</t>
+  </si>
+  <si>
+    <t>ROUT 2,8,1</t>
+  </si>
+  <si>
+    <t>ROUT 3,1,1</t>
+  </si>
+  <si>
+    <t>ROUT 3,2,1</t>
+  </si>
+  <si>
+    <t>ROUT 3,3,1</t>
+  </si>
+  <si>
+    <t>ROUT 3,4,1</t>
+  </si>
+  <si>
+    <t>ROUT 3,5,1</t>
+  </si>
+  <si>
+    <t>ROUT 3,6,1</t>
+  </si>
+  <si>
+    <t>ROUT 3,7,1</t>
+  </si>
+  <si>
+    <t>ROUT 3,8,1</t>
+  </si>
+  <si>
+    <t>ROUT 4,1,1</t>
+  </si>
+  <si>
+    <t>ROUT 4,2,1</t>
+  </si>
+  <si>
+    <t>ROUT 4,3,1</t>
+  </si>
+  <si>
+    <t>ROUT 4,4,1</t>
+  </si>
+  <si>
+    <t>ROUT 4,5,1</t>
+  </si>
+  <si>
+    <t>ROUT 4,6,1</t>
+  </si>
+  <si>
+    <t>ROUT 4,7,1</t>
+  </si>
+  <si>
+    <t>ROUT 4,8,1</t>
+  </si>
+  <si>
+    <t>ROUT 5,1,1</t>
+  </si>
+  <si>
+    <t>ROUT 5,2,1</t>
+  </si>
+  <si>
+    <t>ROUT 5,3,1</t>
+  </si>
+  <si>
+    <t>ROUT 5,4,1</t>
+  </si>
+  <si>
+    <t>ROUT 5,5,1</t>
+  </si>
+  <si>
+    <t>ROUT 5,6,1</t>
+  </si>
+  <si>
+    <t>ROUT 5,7,1</t>
+  </si>
+  <si>
+    <t>ROUT 5,8,1</t>
+  </si>
+  <si>
+    <t>ROUT 6,1,1</t>
+  </si>
+  <si>
+    <t>ROUT 6,2,1</t>
+  </si>
+  <si>
+    <t>ROUT 6,3,1</t>
+  </si>
+  <si>
+    <t>ROUT 6,4,1</t>
+  </si>
+  <si>
+    <t>ROUT 6,5,1</t>
+  </si>
+  <si>
+    <t>ROUT 6,6,1</t>
+  </si>
+  <si>
+    <t>ROUT 6,7,1</t>
+  </si>
+  <si>
+    <t>ROUT 6,8,1</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>ROUT 1,1,0</t>
+  </si>
+  <si>
+    <t>ROUT 1,2,0</t>
+  </si>
+  <si>
+    <t>ROUT 1,3,0</t>
+  </si>
+  <si>
+    <t>ROUT 1,4,0</t>
+  </si>
+  <si>
+    <t>ROUT 1,5,0</t>
+  </si>
+  <si>
+    <t>ROUT 1,6,0</t>
+  </si>
+  <si>
+    <t>ROUT 1,7,0</t>
+  </si>
+  <si>
+    <t>ROUT 1,8,0</t>
+  </si>
+  <si>
+    <t>ROUT 2,1,0</t>
+  </si>
+  <si>
+    <t>ROUT 2,2,0</t>
+  </si>
+  <si>
+    <t>ROUT 2,3,0</t>
+  </si>
+  <si>
+    <t>ROUT 2,4,0</t>
+  </si>
+  <si>
+    <t>ROUT 2,5,0</t>
+  </si>
+  <si>
+    <t>ROUT 2,6,0</t>
+  </si>
+  <si>
+    <t>ROUT 2,7,0</t>
+  </si>
+  <si>
+    <t>ROUT 2,8,0</t>
+  </si>
+  <si>
+    <t>ROUT 3,1,0</t>
+  </si>
+  <si>
+    <t>ROUT 3,2,0</t>
+  </si>
+  <si>
+    <t>ROUT 3,3,0</t>
+  </si>
+  <si>
+    <t>ROUT 3,4,0</t>
+  </si>
+  <si>
+    <t>ROUT 3,5,0</t>
+  </si>
+  <si>
+    <t>ROUT 3,6,0</t>
+  </si>
+  <si>
+    <t>ROUT 3,7,0</t>
+  </si>
+  <si>
+    <t>ROUT 3,8,0</t>
+  </si>
+  <si>
+    <t>ROUT 4,1,0</t>
+  </si>
+  <si>
+    <t>ROUT 4,2,0</t>
+  </si>
+  <si>
+    <t>ROUT 4,3,0</t>
+  </si>
+  <si>
+    <t>ROUT 4,4,0</t>
+  </si>
+  <si>
+    <t>ROUT 4,5,0</t>
+  </si>
+  <si>
+    <t>ROUT 4,6,0</t>
+  </si>
+  <si>
+    <t>ROUT 4,7,0</t>
+  </si>
+  <si>
+    <t>ROUT 4,8,0</t>
+  </si>
+  <si>
+    <t>ROUT 5,1,0</t>
+  </si>
+  <si>
+    <t>ROUT 5,2,0</t>
+  </si>
+  <si>
+    <t>ROUT 5,3,0</t>
+  </si>
+  <si>
+    <t>ROUT 5,4,0</t>
+  </si>
+  <si>
+    <t>ROUT 5,5,0</t>
+  </si>
+  <si>
+    <t>ROUT 5,6,0</t>
+  </si>
+  <si>
+    <t>ROUT 5,7,0</t>
+  </si>
+  <si>
+    <t>ROUT 5,8,0</t>
+  </si>
+  <si>
+    <t>ROUT 6,1,0</t>
+  </si>
+  <si>
+    <t>ROUT 6,2,0</t>
+  </si>
+  <si>
+    <t>ROUT 6,3,0</t>
+  </si>
+  <si>
+    <t>ROUT 6,4,0</t>
+  </si>
+  <si>
+    <t>ROUT 6,5,0</t>
+  </si>
+  <si>
+    <t>ROUT 6,6,0</t>
+  </si>
+  <si>
+    <t>ROUT 6,7,0</t>
+  </si>
+  <si>
+    <t>ROUT 6,8,0</t>
+  </si>
+  <si>
+    <t>PoweSupplySet</t>
+  </si>
+  <si>
+    <t>OpenPS</t>
+  </si>
+  <si>
+    <t>NiVisaOpenInstr</t>
+  </si>
+  <si>
+    <t>2.1.1: NiVisaOpen</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>USB0::0x0957::0x8407::US21D4120S::INSTR</t>
+  </si>
+  <si>
+    <t>PS_SetVOLTProtect</t>
+  </si>
+  <si>
+    <t>NiVisaCmd</t>
+  </si>
+  <si>
+    <t>7.6: Linux.KernelStartTimeout</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>VOLT:PROT:LEV 30</t>
+  </si>
+  <si>
+    <t>PS_SetCURRProtect</t>
+  </si>
+  <si>
+    <t>CURR:PROT:STAT 10</t>
+  </si>
+  <si>
+    <t>PS_SetVOLT</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>VOLT 13.5</t>
+  </si>
+  <si>
+    <t>PS_SetCURR</t>
+  </si>
+  <si>
+    <t>CURR 12</t>
+  </si>
+  <si>
+    <t>PS_SetOutputOn</t>
+  </si>
+  <si>
+    <t>OUTP ON</t>
+  </si>
+  <si>
+    <t>OperationCompleteCheck</t>
+  </si>
+  <si>
+    <t>*OPC?</t>
+  </si>
+  <si>
+    <t>PS_MeasureVOLT</t>
+  </si>
+  <si>
+    <t>Meas:VOLT?</t>
+  </si>
+  <si>
+    <t>PS_MeasureCURR</t>
+  </si>
+  <si>
+    <t>Meas:CURR?</t>
+  </si>
+  <si>
+    <t>PS_ERR</t>
+  </si>
+  <si>
+    <t>Syst:err?</t>
+  </si>
+  <si>
+    <t>No error</t>
+  </si>
+  <si>
+    <t>DAQ</t>
+  </si>
+  <si>
+    <t>OpenDAQ970A-temp</t>
+  </si>
+  <si>
+    <t>FOR(3)</t>
+  </si>
+  <si>
+    <t>USB0::0x2A8D::0x5001::MY58009299::INSTR</t>
+  </si>
+  <si>
+    <t>GetDAQTemp1-1</t>
+  </si>
+  <si>
+    <t>MEAS:TEMP:TCouple? K,(@101:120)</t>
+  </si>
+  <si>
+    <t>GetDAQTemp1-2</t>
+  </si>
+  <si>
+    <t>GetDAQTemp1-3</t>
+  </si>
+  <si>
+    <t>GetDAQTemp1-4</t>
+  </si>
+  <si>
+    <t>GetDAQTemp1-5</t>
+  </si>
+  <si>
+    <t>GetDAQTemp1-6</t>
+  </si>
+  <si>
+    <t>GetDAQTemp1-7</t>
+  </si>
+  <si>
+    <t>GetDAQTemp1-8</t>
+  </si>
+  <si>
+    <t>GetDAQTemp1-9</t>
+  </si>
+  <si>
+    <t>GetDAQTemp1-10</t>
+  </si>
+  <si>
+    <t>GetDAQTemp1-11</t>
+  </si>
+  <si>
+    <t>GetDAQTemp1-12</t>
+  </si>
+  <si>
+    <t>GetDAQTemp1-13</t>
+  </si>
+  <si>
+    <t>GetDAQTemp1-14</t>
+  </si>
+  <si>
+    <t>GetDAQTemp1-15</t>
+  </si>
+  <si>
+    <t>GetDAQTemp1-16</t>
+  </si>
+  <si>
+    <t>GetDAQTemp1-17</t>
+  </si>
+  <si>
+    <t>GetDAQTemp1-18</t>
+  </si>
+  <si>
+    <t>GetDAQTemp1-19</t>
+  </si>
+  <si>
+    <t>GetDAQTemp1-20</t>
+  </si>
+  <si>
+    <t>GetDAQTemp2-1</t>
+  </si>
+  <si>
+    <t>MEAS:TEMP:TCouple? K,(@201:220)</t>
+  </si>
+  <si>
+    <t>GetDAQTemp2-2</t>
+  </si>
+  <si>
+    <t>GetDAQTemp2-3</t>
+  </si>
+  <si>
+    <t>GetDAQTemp2-4</t>
+  </si>
+  <si>
+    <t>GetDAQTemp2-5</t>
+  </si>
+  <si>
+    <t>GetDAQTemp2-6</t>
+  </si>
+  <si>
+    <t>GetDAQTemp2-7</t>
+  </si>
+  <si>
+    <t>GetDAQTemp2-8</t>
+  </si>
+  <si>
+    <t>GetDAQTemp2-9</t>
+  </si>
+  <si>
+    <t>GetDAQTemp2-10</t>
+  </si>
+  <si>
+    <t>GetDAQTemp2-11</t>
+  </si>
+  <si>
+    <t>GetDAQTemp2-12</t>
+  </si>
+  <si>
+    <t>GetDAQTemp2-13</t>
+  </si>
+  <si>
+    <t>GetDAQTemp2-14</t>
+  </si>
+  <si>
+    <t>GetDAQTemp2-15</t>
+  </si>
+  <si>
+    <t>GetDAQTemp2-16</t>
+  </si>
+  <si>
+    <t>GetDAQTemp2-17</t>
+  </si>
+  <si>
+    <t>GetDAQTemp2-18</t>
+  </si>
+  <si>
+    <t>GetDAQTemp2-19</t>
+  </si>
+  <si>
+    <t>GetDAQTemp2-20</t>
+  </si>
+  <si>
+    <t>GetDAQTemp3-1</t>
+  </si>
+  <si>
+    <t>MEAS:TEMP:TCouple? K,(@301:320)</t>
+  </si>
+  <si>
+    <t>GetDAQTemp3-2</t>
+  </si>
+  <si>
+    <t>GetDAQTemp3-3</t>
+  </si>
+  <si>
+    <t>GetDAQTemp3-4</t>
+  </si>
+  <si>
+    <t>GetDAQTemp3-5</t>
+  </si>
+  <si>
+    <t>GetDAQTemp3-6</t>
+  </si>
+  <si>
+    <t>GetDAQTemp3-7</t>
+  </si>
+  <si>
+    <t>GetDAQTemp3-8</t>
+  </si>
+  <si>
+    <t>GetDAQTemp3-9</t>
+  </si>
+  <si>
+    <t>GetDAQTemp3-10</t>
+  </si>
+  <si>
+    <t>GetDAQTemp3-11</t>
+  </si>
+  <si>
+    <t>GetDAQTemp3-12</t>
+  </si>
+  <si>
+    <t>GetDAQTemp3-13</t>
+  </si>
+  <si>
+    <t>GetDAQTemp3-14</t>
+  </si>
+  <si>
+    <t>GetDAQTemp3-15</t>
+  </si>
+  <si>
+    <t>GetDAQTemp3-16</t>
+  </si>
+  <si>
+    <t>GetDAQTemp3-17</t>
+  </si>
+  <si>
+    <t>GetDAQTemp3-18</t>
+  </si>
+  <si>
+    <t>GetDAQTemp3-19</t>
+  </si>
+  <si>
+    <t>GetDAQTemp3-20</t>
+  </si>
+  <si>
+    <t>OpenDAQ970A-Resistor</t>
+  </si>
+  <si>
+    <t>USB0::0x2A8D::0x5001::MY58009297::INSTR</t>
+  </si>
+  <si>
+    <t>GetDAQResistor</t>
+  </si>
+  <si>
+    <t>\n</t>
+  </si>
+  <si>
+    <t>MEASure:FRES? 100,(@101)</t>
+  </si>
+  <si>
+    <t>GetCurDev1/ai0</t>
+  </si>
+  <si>
+    <t>NiDAQmxCur</t>
+  </si>
+  <si>
+    <t>Dev1/ai0</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>GetCurDev1/ai1</t>
+  </si>
+  <si>
+    <t>Dev1/ai1</t>
+  </si>
+  <si>
+    <t>GetCurDev1/ai2</t>
+  </si>
+  <si>
+    <t>Dev1/ai2</t>
+  </si>
+  <si>
+    <t>GetCurDev1/ai3</t>
+  </si>
+  <si>
+    <t>Dev1/ai3</t>
+  </si>
+  <si>
+    <t>GetCurDev1/ai4</t>
+  </si>
+  <si>
+    <t>Dev1/ai4</t>
+  </si>
+  <si>
+    <t>GetCurDev1/ai5</t>
+  </si>
+  <si>
+    <t>Dev1/ai5</t>
+  </si>
+  <si>
+    <t>GetCurDev1/ai6</t>
+  </si>
+  <si>
+    <t>Dev1/ai6</t>
+  </si>
+  <si>
+    <t>GetCurDev1/ai7</t>
+  </si>
+  <si>
+    <t>Dev1/ai7</t>
+  </si>
+  <si>
+    <t>GetCurDev1/ai16</t>
+  </si>
+  <si>
+    <t>Dev1/ai16</t>
+  </si>
+  <si>
+    <t>GetCurDev1/ai17</t>
+  </si>
+  <si>
+    <t>Dev1/ai17</t>
+  </si>
+  <si>
+    <t>GetCurDev1/ai18</t>
+  </si>
+  <si>
+    <t>Dev1/ai18</t>
+  </si>
+  <si>
+    <t>GetCurDev1/ai19</t>
+  </si>
+  <si>
+    <t>Dev1/ai19</t>
+  </si>
+  <si>
+    <t>GetCurDev1/ai20</t>
+  </si>
+  <si>
+    <t>Dev1/ai20</t>
+  </si>
+  <si>
+    <t>GetCurDev1/ai21</t>
+  </si>
+  <si>
+    <t>Dev1/ai21</t>
+  </si>
+  <si>
+    <t>GetCurDev1/ai22</t>
+  </si>
+  <si>
+    <t>Dev1/ai22</t>
+  </si>
+  <si>
+    <t>GetCurDev1/ai23</t>
+  </si>
+  <si>
+    <t>Dev1/ai23</t>
+  </si>
+  <si>
+    <t>GetCurDev3/ai3</t>
+  </si>
+  <si>
+    <t>Dev3/ai3</t>
+  </si>
+  <si>
+    <t>GetCurDev3/ai4</t>
+  </si>
+  <si>
+    <t>Dev3/ai4</t>
+  </si>
+  <si>
+    <t>GetVoltDev2/ai0</t>
+  </si>
+  <si>
+    <t>NiDAQmxVolt</t>
+  </si>
+  <si>
+    <t>Dev2/ai0</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>GetVoltDev2/ai1</t>
+  </si>
+  <si>
+    <t>Dev2/ai1</t>
+  </si>
+  <si>
+    <t>GetVoltDev2/ai2</t>
+  </si>
+  <si>
+    <t>Dev2/ai2</t>
+  </si>
+  <si>
+    <t>GetVoltDev2/ai3</t>
+  </si>
+  <si>
+    <t>Dev2/ai3</t>
+  </si>
+  <si>
+    <t>GetVoltDev2/ai4</t>
+  </si>
+  <si>
+    <t>Dev2/ai4</t>
+  </si>
+  <si>
+    <t>GetVoltDev2/ai5</t>
+  </si>
+  <si>
+    <t>Dev2/ai5</t>
+  </si>
+  <si>
+    <t>GetVoltDev2/ai6</t>
+  </si>
+  <si>
+    <t>Dev2/ai6</t>
+  </si>
+  <si>
+    <t>GetVoltDev2/ai7</t>
+  </si>
+  <si>
+    <t>Dev2/ai7</t>
+  </si>
+  <si>
+    <t>GetVoltDev2/ai16</t>
+  </si>
+  <si>
+    <t>Dev2/ai16</t>
+  </si>
+  <si>
+    <t>GetVoltDev2/ai17</t>
+  </si>
+  <si>
+    <t>Dev2/ai17</t>
+  </si>
+  <si>
+    <t>GetVoltDev2/ai18</t>
+  </si>
+  <si>
+    <t>Dev2/ai18</t>
+  </si>
+  <si>
+    <t>GetVoltDev2/ai19</t>
+  </si>
+  <si>
+    <t>Dev2/ai19</t>
+  </si>
+  <si>
+    <t>GetVoltDev2/ai20</t>
+  </si>
+  <si>
+    <t>Dev2/ai20</t>
+  </si>
+  <si>
+    <t>GetVoltDev2/ai21</t>
+  </si>
+  <si>
+    <t>Dev2/ai21</t>
+  </si>
+  <si>
+    <t>GetVoltDev2/ai22</t>
+  </si>
+  <si>
+    <t>Dev2/ai22</t>
+  </si>
+  <si>
+    <t>GetVoltDev2/ai23</t>
+  </si>
+  <si>
+    <t>Dev2/ai23</t>
+  </si>
+  <si>
+    <t>GetVoltDev3/ai0</t>
+  </si>
+  <si>
+    <t>Dev3/ai0</t>
+  </si>
+  <si>
+    <t>GetVoltDev3/ai1</t>
+  </si>
+  <si>
+    <t>Dev3/ai1</t>
+  </si>
+  <si>
+    <t>ThreadSleep</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>0.1.1: ThreadSleep</t>
+  </si>
+  <si>
+    <t>ENDFOR</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +2082,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1239,6 +2143,15 @@
     <xf numFmtId="49" fontId="25" fillId="37" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="45"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="45" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="45" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="45" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1 2" xfId="20" xr:uid="{16881DAD-12CC-4D93-A015-B4022814418B}"/>
@@ -1291,7 +2204,13 @@
     <cellStyle name="注释 2" xfId="44" xr:uid="{F3AB96AE-817D-4279-B6C1-D2B2EF32D7CF}"/>
     <cellStyle name="警告文本 2" xfId="3" xr:uid="{645DDA24-EC4B-4017-9B81-8545B65B2980}"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="34">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2500,48 +3419,82 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8374A970-A2E1-4794-B661-21DE73664024}" name="Table3" displayName="Table3" ref="A1:N34" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8374A970-A2E1-4794-B661-21DE73664024}" name="Table3" displayName="Table3" ref="A1:N34" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
   <autoFilter ref="A1:N34" xr:uid="{8374A970-A2E1-4794-B661-21DE73664024}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{8AAF201F-0145-4D91-ADEA-FB752521AED6}" name="SuiteName" dataDxfId="29" dataCellStyle="常规 3"/>
-    <tableColumn id="2" xr3:uid="{AD81E000-39CD-4331-AA31-2FBB1551F68C}" name="StepName" dataDxfId="28" dataCellStyle="常规 3"/>
-    <tableColumn id="3" xr3:uid="{CA83D093-0502-46D1-9C32-35F85E9459D0}" name="Keyword" dataDxfId="27" dataCellStyle="常规 3"/>
-    <tableColumn id="4" xr3:uid="{C5D8CB96-F037-44E0-B5C0-6A875C903F4F}" name="Retry" dataDxfId="26" dataCellStyle="常规 3"/>
-    <tableColumn id="5" xr3:uid="{1E870987-83D6-4F31-8713-C88D7B66DC72}" name="Timeout" dataDxfId="25" dataCellStyle="常规 3"/>
-    <tableColumn id="6" xr3:uid="{F4F16D46-EF7E-4294-B6C8-CC7D22EC4E0D}" name="SubStr1" dataDxfId="24" dataCellStyle="常规 3"/>
-    <tableColumn id="7" xr3:uid="{5977C6AE-95CA-49B3-A4D0-231A784825C6}" name="SubStr2" dataDxfId="23" dataCellStyle="常规 3"/>
-    <tableColumn id="8" xr3:uid="{6984743D-458B-4A8F-BE1A-A5FCD130F0A9}" name="ID" dataDxfId="22" dataCellStyle="常规 3"/>
-    <tableColumn id="9" xr3:uid="{CED2F470-36F6-4006-B975-BB82100CDFDA}" name="NAD" dataDxfId="21" dataCellStyle="常规 3"/>
-    <tableColumn id="10" xr3:uid="{BB6D4779-0586-4D28-9105-6F053830649F}" name="PCI_LEN" dataDxfId="20" dataCellStyle="常规 3"/>
-    <tableColumn id="11" xr3:uid="{612422D5-5B9A-46AB-BB9B-66BE8836DBA8}" name="CmdOrParam" dataDxfId="19" dataCellStyle="常规 3"/>
-    <tableColumn id="12" xr3:uid="{F8D819CD-5E06-4BCE-B1DE-665208FCBD13}" name="SetGlobalVar" dataDxfId="18" dataCellStyle="常规 3"/>
-    <tableColumn id="13" xr3:uid="{E3E26939-D4C9-4A24-84C9-0648CF16175F}" name="CheckStr1" dataDxfId="17" dataCellStyle="常规 3"/>
-    <tableColumn id="14" xr3:uid="{2C319D87-300C-48D4-AC7E-9C1AC28E2A3B}" name="TearDown" dataDxfId="16" dataCellStyle="常规 3"/>
+    <tableColumn id="1" xr3:uid="{8AAF201F-0145-4D91-ADEA-FB752521AED6}" name="SuiteName" dataDxfId="31" dataCellStyle="常规 3"/>
+    <tableColumn id="2" xr3:uid="{AD81E000-39CD-4331-AA31-2FBB1551F68C}" name="StepName" dataDxfId="30" dataCellStyle="常规 3"/>
+    <tableColumn id="3" xr3:uid="{CA83D093-0502-46D1-9C32-35F85E9459D0}" name="Keyword" dataDxfId="29" dataCellStyle="常规 3"/>
+    <tableColumn id="4" xr3:uid="{C5D8CB96-F037-44E0-B5C0-6A875C903F4F}" name="Retry" dataDxfId="28" dataCellStyle="常规 3"/>
+    <tableColumn id="5" xr3:uid="{1E870987-83D6-4F31-8713-C88D7B66DC72}" name="Timeout" dataDxfId="27" dataCellStyle="常规 3"/>
+    <tableColumn id="6" xr3:uid="{F4F16D46-EF7E-4294-B6C8-CC7D22EC4E0D}" name="SubStr1" dataDxfId="26" dataCellStyle="常规 3"/>
+    <tableColumn id="7" xr3:uid="{5977C6AE-95CA-49B3-A4D0-231A784825C6}" name="SubStr2" dataDxfId="25" dataCellStyle="常规 3"/>
+    <tableColumn id="8" xr3:uid="{6984743D-458B-4A8F-BE1A-A5FCD130F0A9}" name="ID" dataDxfId="24" dataCellStyle="常规 3"/>
+    <tableColumn id="9" xr3:uid="{CED2F470-36F6-4006-B975-BB82100CDFDA}" name="NAD" dataDxfId="23" dataCellStyle="常规 3"/>
+    <tableColumn id="10" xr3:uid="{BB6D4779-0586-4D28-9105-6F053830649F}" name="PCI_LEN" dataDxfId="22" dataCellStyle="常规 3"/>
+    <tableColumn id="11" xr3:uid="{612422D5-5B9A-46AB-BB9B-66BE8836DBA8}" name="CmdOrParam" dataDxfId="21" dataCellStyle="常规 3"/>
+    <tableColumn id="12" xr3:uid="{F8D819CD-5E06-4BCE-B1DE-665208FCBD13}" name="SetGlobalVar" dataDxfId="20" dataCellStyle="常规 3"/>
+    <tableColumn id="13" xr3:uid="{E3E26939-D4C9-4A24-84C9-0648CF16175F}" name="CheckStr1" dataDxfId="19" dataCellStyle="常规 3"/>
+    <tableColumn id="14" xr3:uid="{2C319D87-300C-48D4-AC7E-9C1AC28E2A3B}" name="TearDown" dataDxfId="18" dataCellStyle="常规 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{343806AF-3051-48E9-BCB2-48F067BA5100}" name="Table32" displayName="Table32" ref="A1:N34" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{343806AF-3051-48E9-BCB2-48F067BA5100}" name="Table32" displayName="Table32" ref="A1:N34" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
   <autoFilter ref="A1:N34" xr:uid="{8374A970-A2E1-4794-B661-21DE73664024}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{4D1DF959-5A00-4B3C-AF2B-33156DC77847}" name="SuiteName" dataDxfId="13" dataCellStyle="常规 3"/>
-    <tableColumn id="2" xr3:uid="{2807D0EC-D824-4293-885B-97A8AD4B3ED7}" name="StepName" dataDxfId="12" dataCellStyle="常规 3"/>
-    <tableColumn id="3" xr3:uid="{89BDCE07-BEDB-4BED-8D1A-D7A306527DB2}" name="Keyword" dataDxfId="11" dataCellStyle="常规 3"/>
-    <tableColumn id="4" xr3:uid="{B3A1D538-4471-484A-A153-8C79AF2FC376}" name="Retry" dataDxfId="10" dataCellStyle="常规 3"/>
-    <tableColumn id="5" xr3:uid="{4E638BFD-45ED-4961-B6C7-E50146BA708C}" name="Timeout" dataDxfId="9" dataCellStyle="常规 3"/>
-    <tableColumn id="6" xr3:uid="{135DB39C-B5C0-47F5-8433-383419003A68}" name="SubStr1" dataDxfId="8" dataCellStyle="常规 3"/>
-    <tableColumn id="7" xr3:uid="{BDDDC804-E7BE-448B-B349-9CE9BEC7F887}" name="SubStr2" dataDxfId="7" dataCellStyle="常规 3"/>
-    <tableColumn id="8" xr3:uid="{A21B452B-B419-48C8-9754-59075784634A}" name="ID" dataDxfId="6" dataCellStyle="常规 3"/>
-    <tableColumn id="9" xr3:uid="{71AFC839-B87B-4101-A1CB-12F42D4ABC72}" name="NAD" dataDxfId="5" dataCellStyle="常规 3"/>
-    <tableColumn id="10" xr3:uid="{D99678D3-CD40-4473-BD81-036679D026D2}" name="PCI_LEN" dataDxfId="4" dataCellStyle="常规 3"/>
-    <tableColumn id="11" xr3:uid="{77C675CD-FEDD-416A-B6B6-09366F492699}" name="CmdOrParam" dataDxfId="3" dataCellStyle="常规 3"/>
-    <tableColumn id="12" xr3:uid="{AA7330C8-D7AD-4BD1-87DE-CACAE7F15675}" name="SetGlobalVar" dataDxfId="2" dataCellStyle="常规 3"/>
-    <tableColumn id="13" xr3:uid="{48025E04-95B0-423D-9FE4-F0BDF147A16C}" name="CheckStr1" dataDxfId="1" dataCellStyle="常规 3"/>
-    <tableColumn id="14" xr3:uid="{784F9F5C-A789-4F50-BCE7-847F38D2C539}" name="TearDown" dataDxfId="0" dataCellStyle="常规 3"/>
+    <tableColumn id="1" xr3:uid="{4D1DF959-5A00-4B3C-AF2B-33156DC77847}" name="SuiteName" dataDxfId="15" dataCellStyle="常规 3"/>
+    <tableColumn id="2" xr3:uid="{2807D0EC-D824-4293-885B-97A8AD4B3ED7}" name="StepName" dataDxfId="14" dataCellStyle="常规 3"/>
+    <tableColumn id="3" xr3:uid="{89BDCE07-BEDB-4BED-8D1A-D7A306527DB2}" name="Keyword" dataDxfId="13" dataCellStyle="常规 3"/>
+    <tableColumn id="4" xr3:uid="{B3A1D538-4471-484A-A153-8C79AF2FC376}" name="Retry" dataDxfId="12" dataCellStyle="常规 3"/>
+    <tableColumn id="5" xr3:uid="{4E638BFD-45ED-4961-B6C7-E50146BA708C}" name="Timeout" dataDxfId="11" dataCellStyle="常规 3"/>
+    <tableColumn id="6" xr3:uid="{135DB39C-B5C0-47F5-8433-383419003A68}" name="SubStr1" dataDxfId="10" dataCellStyle="常规 3"/>
+    <tableColumn id="7" xr3:uid="{BDDDC804-E7BE-448B-B349-9CE9BEC7F887}" name="SubStr2" dataDxfId="9" dataCellStyle="常规 3"/>
+    <tableColumn id="8" xr3:uid="{A21B452B-B419-48C8-9754-59075784634A}" name="ID" dataDxfId="8" dataCellStyle="常规 3"/>
+    <tableColumn id="9" xr3:uid="{71AFC839-B87B-4101-A1CB-12F42D4ABC72}" name="NAD" dataDxfId="7" dataCellStyle="常规 3"/>
+    <tableColumn id="10" xr3:uid="{D99678D3-CD40-4473-BD81-036679D026D2}" name="PCI_LEN" dataDxfId="6" dataCellStyle="常规 3"/>
+    <tableColumn id="11" xr3:uid="{77C675CD-FEDD-416A-B6B6-09366F492699}" name="CmdOrParam" dataDxfId="5" dataCellStyle="常规 3"/>
+    <tableColumn id="12" xr3:uid="{AA7330C8-D7AD-4BD1-87DE-CACAE7F15675}" name="SetGlobalVar" dataDxfId="4" dataCellStyle="常规 3"/>
+    <tableColumn id="13" xr3:uid="{48025E04-95B0-423D-9FE4-F0BDF147A16C}" name="CheckStr1" dataDxfId="3" dataCellStyle="常规 3"/>
+    <tableColumn id="14" xr3:uid="{784F9F5C-A789-4F50-BCE7-847F38D2C539}" name="TearDown" dataDxfId="2" dataCellStyle="常规 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC2F1696-AFE3-42A3-A1DB-60BAB2373F8A}" name="Table2" displayName="Table2" ref="A1:Y208" totalsRowShown="0" headerRowCellStyle="常规 4">
+  <autoFilter ref="A1:Y208" xr:uid="{DC2F1696-AFE3-42A3-A1DB-60BAB2373F8A}"/>
+  <tableColumns count="25">
+    <tableColumn id="1" xr3:uid="{0B91FBF5-068D-4C52-BD06-7DF8ABBF67F6}" name="SuiteName"/>
+    <tableColumn id="2" xr3:uid="{76D4848B-B24B-4FAC-BA00-66EB404CE9A1}" name="StepName" dataCellStyle="常规 4"/>
+    <tableColumn id="3" xr3:uid="{690F7C5A-2964-4B66-B108-D42AFEB80E20}" name="Json" dataCellStyle="常规 4"/>
+    <tableColumn id="4" xr3:uid="{5EA67AAD-DD77-4483-AE63-F89B8635BE50}" name="Keyword" dataCellStyle="常规 4"/>
+    <tableColumn id="5" xr3:uid="{3D7AB76B-EED3-468D-8903-CED61937A267}" name="ErrorCode" dataCellStyle="常规 4"/>
+    <tableColumn id="6" xr3:uid="{D175A9C3-5BC1-4ABD-914F-BD2BE97B5DC3}" name="Retry" dataDxfId="1" dataCellStyle="常规 4"/>
+    <tableColumn id="7" xr3:uid="{ECFAB193-0D4A-4795-9C3A-3F40D573A706}" name="Timeout" dataDxfId="0" dataCellStyle="常规 4"/>
+    <tableColumn id="8" xr3:uid="{7FE65CF0-9C58-49A4-8EEC-DA67A191CFC6}" name="SubStr1"/>
+    <tableColumn id="9" xr3:uid="{1C5E913F-CF78-464F-85E4-96D66473671A}" name="SubStr2"/>
+    <tableColumn id="10" xr3:uid="{D7AC366F-CC60-4030-B9C5-36A4642C385B}" name="IfElse"/>
+    <tableColumn id="11" xr3:uid="{DE30654E-80D0-46D9-86CD-FA06B389336C}" name="For"/>
+    <tableColumn id="12" xr3:uid="{A816CF4A-6923-4651-BB8F-30B1ED818AE1}" name="Model"/>
+    <tableColumn id="13" xr3:uid="{107B6099-AD4F-4E49-A727-8DDBC4A613F9}" name="CmdOrParam" dataCellStyle="常规 4"/>
+    <tableColumn id="14" xr3:uid="{DE290037-FE00-4FA4-8DBA-52EE3BD27CF8}" name="ExpectStr"/>
+    <tableColumn id="15" xr3:uid="{529BE836-DCE5-4B37-B110-60AA8924ECAB}" name="CheckStr1"/>
+    <tableColumn id="16" xr3:uid="{0473CE83-D474-4EE6-AA25-B0C3E536D4DB}" name="CheckStr2"/>
+    <tableColumn id="17" xr3:uid="{ABFAA690-46D7-49AC-827F-A2C185F1D48E}" name="NoContain"/>
+    <tableColumn id="18" xr3:uid="{A68CAC7F-8282-4190-AC65-55980734DBDD}" name="SetGlobalVar"/>
+    <tableColumn id="19" xr3:uid="{5AD65CE6-CA49-4FEA-98D8-239B5A2D181D}" name="SPEC"/>
+    <tableColumn id="20" xr3:uid="{ED14B1A8-B93E-4F13-861A-8A323ACA1855}" name="LSL" dataCellStyle="常规 4"/>
+    <tableColumn id="21" xr3:uid="{62F49DA1-6A7B-4AFF-A9AB-4950DA12ABC3}" name="USL" dataCellStyle="常规 4"/>
+    <tableColumn id="22" xr3:uid="{62A3B901-97D5-4F1C-91B9-729D1DD23015}" name="Unit" dataCellStyle="常规 4"/>
+    <tableColumn id="23" xr3:uid="{63CB2760-1EDB-489C-A6AD-90C4233146E6}" name="ByPF"/>
+    <tableColumn id="24" xr3:uid="{4313C55E-7697-4BF5-9B4A-00855C10EA2C}" name="FTC"/>
+    <tableColumn id="25" xr3:uid="{B63629F1-1A93-4E0F-BC85-CB789F0FEC87}" name="MesVar"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -7593,7 +8546,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -8740,6 +9693,7179 @@
   </sheetData>
   <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5BD5C7-F362-46B8-9E4D-70C77EAB5AEF}">
+  <dimension ref="A1:Y208"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="G171" sqref="G171"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="15.6">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15.6">
+      <c r="A2" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23">
+        <v>3</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="23">
+        <v>9600</v>
+      </c>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+    </row>
+    <row r="3" spans="1:25" ht="15.6">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="23">
+        <v>1</v>
+      </c>
+      <c r="G3" s="23">
+        <v>1</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.6">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="23">
+        <v>1</v>
+      </c>
+      <c r="G4" s="23">
+        <v>1</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+    </row>
+    <row r="5" spans="1:25" ht="15.6">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="23">
+        <v>1</v>
+      </c>
+      <c r="G5" s="23">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+    </row>
+    <row r="6" spans="1:25" ht="15.6">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="23">
+        <v>1</v>
+      </c>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+    </row>
+    <row r="7" spans="1:25" ht="15.6">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="23">
+        <v>1</v>
+      </c>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.6">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="23">
+        <v>1</v>
+      </c>
+      <c r="G8" s="23">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.6">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="23">
+        <v>1</v>
+      </c>
+      <c r="G9" s="23">
+        <v>1</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.6">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="23">
+        <v>1</v>
+      </c>
+      <c r="G10" s="23">
+        <v>1</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+    </row>
+    <row r="11" spans="1:25" ht="15.6">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="23">
+        <v>1</v>
+      </c>
+      <c r="G11" s="23">
+        <v>1</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+    </row>
+    <row r="12" spans="1:25" ht="15.6">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="23">
+        <v>1</v>
+      </c>
+      <c r="G12" s="23">
+        <v>1</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+    </row>
+    <row r="13" spans="1:25" ht="15.6">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="23">
+        <v>1</v>
+      </c>
+      <c r="G13" s="23">
+        <v>1</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+    </row>
+    <row r="14" spans="1:25" ht="15.6">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="23">
+        <v>1</v>
+      </c>
+      <c r="G14" s="23">
+        <v>1</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+    </row>
+    <row r="15" spans="1:25" ht="15.6">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="23">
+        <v>1</v>
+      </c>
+      <c r="G15" s="23">
+        <v>1</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+    </row>
+    <row r="16" spans="1:25" ht="15.6">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="23">
+        <v>1</v>
+      </c>
+      <c r="G16" s="23">
+        <v>1</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+    </row>
+    <row r="17" spans="2:14" ht="15.6">
+      <c r="B17" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="23">
+        <v>1</v>
+      </c>
+      <c r="G17" s="23">
+        <v>1</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="15.6">
+      <c r="B18" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="23">
+        <v>1</v>
+      </c>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="15.6">
+      <c r="B19" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="23">
+        <v>1</v>
+      </c>
+      <c r="G19" s="23">
+        <v>1</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="15.6">
+      <c r="B20" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="23">
+        <v>1</v>
+      </c>
+      <c r="G20" s="23">
+        <v>1</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="15.6">
+      <c r="B21" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="23">
+        <v>1</v>
+      </c>
+      <c r="G21" s="23">
+        <v>1</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="15.6">
+      <c r="B22" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="23">
+        <v>1</v>
+      </c>
+      <c r="G22" s="23">
+        <v>1</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="15.6">
+      <c r="B23" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="15.6">
+      <c r="B24" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="23">
+        <v>1</v>
+      </c>
+      <c r="G24" s="23">
+        <v>1</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="15.6">
+      <c r="B25" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="23">
+        <v>1</v>
+      </c>
+      <c r="G25" s="23">
+        <v>1</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="15.6">
+      <c r="B26" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="23">
+        <v>1</v>
+      </c>
+      <c r="G26" s="23">
+        <v>1</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="N26" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="15.6">
+      <c r="B27" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="23">
+        <v>1</v>
+      </c>
+      <c r="G27" s="23">
+        <v>1</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="N27" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="15.6">
+      <c r="B28" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="23">
+        <v>1</v>
+      </c>
+      <c r="G28" s="23">
+        <v>1</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="15.6">
+      <c r="B29" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="23">
+        <v>1</v>
+      </c>
+      <c r="G29" s="23">
+        <v>1</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="15.6">
+      <c r="B30" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="23">
+        <v>1</v>
+      </c>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="N30" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="15.6">
+      <c r="B31" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="23">
+        <v>1</v>
+      </c>
+      <c r="G31" s="23">
+        <v>1</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="N31" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="15.6">
+      <c r="B32" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="23">
+        <v>1</v>
+      </c>
+      <c r="G32" s="23">
+        <v>1</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="15.6">
+      <c r="B33" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="24">
+        <v>1</v>
+      </c>
+      <c r="G33" s="23">
+        <v>1</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="N33" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="15.6">
+      <c r="B34" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="24">
+        <v>1</v>
+      </c>
+      <c r="G34" s="23">
+        <v>1</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="N34" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="15.6">
+      <c r="B35" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="23">
+        <v>1</v>
+      </c>
+      <c r="G35" s="23">
+        <v>1</v>
+      </c>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="N35" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="15.6">
+      <c r="B36" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="23">
+        <v>1</v>
+      </c>
+      <c r="G36" s="23">
+        <v>1</v>
+      </c>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="N36" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="15.6">
+      <c r="B37" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="23">
+        <v>1</v>
+      </c>
+      <c r="G37" s="23">
+        <v>1</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="N37" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="15.6">
+      <c r="B38" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="23">
+        <v>1</v>
+      </c>
+      <c r="G38" s="23">
+        <v>1</v>
+      </c>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="N38" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="15.6">
+      <c r="B39" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="23">
+        <v>1</v>
+      </c>
+      <c r="G39" s="23">
+        <v>1</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="15.6">
+      <c r="B40" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="23">
+        <v>1</v>
+      </c>
+      <c r="G40" s="23">
+        <v>1</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="N40" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="15.6">
+      <c r="B41" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="24">
+        <v>1</v>
+      </c>
+      <c r="G41" s="23">
+        <v>1</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="N41" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="15.6">
+      <c r="B42" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="24">
+        <v>1</v>
+      </c>
+      <c r="G42" s="23">
+        <v>1</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N42" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="15.6">
+      <c r="B43" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="23">
+        <v>1</v>
+      </c>
+      <c r="G43" s="23">
+        <v>1</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="N43" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="15.6">
+      <c r="B44" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="23">
+        <v>1</v>
+      </c>
+      <c r="G44" s="23">
+        <v>1</v>
+      </c>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="N44" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="15.6">
+      <c r="B45" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="23">
+        <v>1</v>
+      </c>
+      <c r="G45" s="23">
+        <v>1</v>
+      </c>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="N45" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="15.6">
+      <c r="B46" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="23">
+        <v>1</v>
+      </c>
+      <c r="G46" s="23">
+        <v>1</v>
+      </c>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="N46" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" ht="15.6">
+      <c r="B47" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="23">
+        <v>1</v>
+      </c>
+      <c r="G47" s="23">
+        <v>1</v>
+      </c>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="N47" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" ht="15.6">
+      <c r="B48" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="23">
+        <v>1</v>
+      </c>
+      <c r="G48" s="23">
+        <v>1</v>
+      </c>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="N48" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15.6">
+      <c r="A49" s="22"/>
+      <c r="B49" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="24">
+        <v>1</v>
+      </c>
+      <c r="G49" s="23">
+        <v>1</v>
+      </c>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="N49" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15.6">
+      <c r="A50" s="22"/>
+      <c r="B50" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" s="24">
+        <v>1</v>
+      </c>
+      <c r="G50" s="23">
+        <v>1</v>
+      </c>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="N50" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15.6">
+      <c r="A51" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" s="22"/>
+      <c r="D51" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="23">
+        <v>1</v>
+      </c>
+      <c r="G51" s="23">
+        <v>1</v>
+      </c>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="N51" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15.6">
+      <c r="A52" s="22"/>
+      <c r="B52" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" s="22"/>
+      <c r="D52" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="23">
+        <v>1</v>
+      </c>
+      <c r="G52" s="23">
+        <v>1</v>
+      </c>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="N52" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15.6">
+      <c r="A53" s="22"/>
+      <c r="B53" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="D53" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="23">
+        <v>1</v>
+      </c>
+      <c r="G53" s="23">
+        <v>1</v>
+      </c>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="N53" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15.6">
+      <c r="A54" s="22"/>
+      <c r="B54" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F54" s="23">
+        <v>1</v>
+      </c>
+      <c r="G54" s="23">
+        <v>1</v>
+      </c>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="N54" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15.6">
+      <c r="A55" s="22"/>
+      <c r="B55" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="23">
+        <v>1</v>
+      </c>
+      <c r="G55" s="23">
+        <v>1</v>
+      </c>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="N55" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15.6">
+      <c r="A56" s="22"/>
+      <c r="B56" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="23">
+        <v>1</v>
+      </c>
+      <c r="G56" s="23">
+        <v>1</v>
+      </c>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="N56" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.6">
+      <c r="A57" s="22"/>
+      <c r="B57" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="23">
+        <v>1</v>
+      </c>
+      <c r="G57" s="23">
+        <v>1</v>
+      </c>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="N57" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.6">
+      <c r="A58" s="22"/>
+      <c r="B58" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" s="22"/>
+      <c r="D58" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="23">
+        <v>1</v>
+      </c>
+      <c r="G58" s="23">
+        <v>1</v>
+      </c>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="N58" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15.6">
+      <c r="A59" s="22"/>
+      <c r="B59" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="22"/>
+      <c r="D59" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="23">
+        <v>1</v>
+      </c>
+      <c r="G59" s="23">
+        <v>1</v>
+      </c>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="N59" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15.6">
+      <c r="A60" s="22"/>
+      <c r="B60" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C60" s="22"/>
+      <c r="D60" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" s="23">
+        <v>1</v>
+      </c>
+      <c r="G60" s="23">
+        <v>1</v>
+      </c>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="N60" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15.6">
+      <c r="A61" s="22"/>
+      <c r="B61" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C61" s="22"/>
+      <c r="D61" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" s="23">
+        <v>1</v>
+      </c>
+      <c r="G61" s="23">
+        <v>1</v>
+      </c>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="N61" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15.6">
+      <c r="A62" s="22"/>
+      <c r="B62" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C62" s="22"/>
+      <c r="D62" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" s="23">
+        <v>1</v>
+      </c>
+      <c r="G62" s="23">
+        <v>1</v>
+      </c>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="N62" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15.6">
+      <c r="A63" s="22"/>
+      <c r="B63" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="23">
+        <v>1</v>
+      </c>
+      <c r="G63" s="23">
+        <v>1</v>
+      </c>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="N63" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15.6">
+      <c r="A64" s="22"/>
+      <c r="B64" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C64" s="22"/>
+      <c r="D64" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="23">
+        <v>1</v>
+      </c>
+      <c r="G64" s="23">
+        <v>1</v>
+      </c>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="N64" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" ht="15.6">
+      <c r="B65" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C65" s="22"/>
+      <c r="D65" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" s="23">
+        <v>1</v>
+      </c>
+      <c r="G65" s="23">
+        <v>1</v>
+      </c>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="N65" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" ht="15.6">
+      <c r="B66" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" s="22"/>
+      <c r="D66" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" s="23">
+        <v>1</v>
+      </c>
+      <c r="G66" s="23">
+        <v>1</v>
+      </c>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="N66" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" ht="15.6">
+      <c r="B67" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C67" s="22"/>
+      <c r="D67" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F67" s="23">
+        <v>1</v>
+      </c>
+      <c r="G67" s="23">
+        <v>1</v>
+      </c>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="N67" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" ht="15.6">
+      <c r="B68" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C68" s="22"/>
+      <c r="D68" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="23">
+        <v>1</v>
+      </c>
+      <c r="G68" s="23">
+        <v>1</v>
+      </c>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="N68" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" ht="15.6">
+      <c r="B69" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" s="22"/>
+      <c r="D69" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" s="23">
+        <v>1</v>
+      </c>
+      <c r="G69" s="23">
+        <v>1</v>
+      </c>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="N69" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" ht="15.6">
+      <c r="B70" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C70" s="22"/>
+      <c r="D70" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" s="23">
+        <v>1</v>
+      </c>
+      <c r="G70" s="23">
+        <v>1</v>
+      </c>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="N70" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" ht="15.6">
+      <c r="B71" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" s="22"/>
+      <c r="D71" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" s="23">
+        <v>1</v>
+      </c>
+      <c r="G71" s="23">
+        <v>1</v>
+      </c>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="N71" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" ht="15.6">
+      <c r="B72" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72" s="22"/>
+      <c r="D72" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72" s="23">
+        <v>1</v>
+      </c>
+      <c r="G72" s="23">
+        <v>1</v>
+      </c>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="N72" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" ht="15.6">
+      <c r="B73" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" s="22"/>
+      <c r="D73" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F73" s="23">
+        <v>1</v>
+      </c>
+      <c r="G73" s="23">
+        <v>1</v>
+      </c>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="N73" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" ht="15.6">
+      <c r="B74" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="22"/>
+      <c r="D74" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" s="23">
+        <v>1</v>
+      </c>
+      <c r="G74" s="23">
+        <v>1</v>
+      </c>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="N74" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" ht="15.6">
+      <c r="B75" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" s="22"/>
+      <c r="D75" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F75" s="23">
+        <v>1</v>
+      </c>
+      <c r="G75" s="23">
+        <v>1</v>
+      </c>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="N75" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" ht="15.6">
+      <c r="B76" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76" s="22"/>
+      <c r="D76" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" s="23">
+        <v>1</v>
+      </c>
+      <c r="G76" s="23">
+        <v>1</v>
+      </c>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="N76" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" ht="15.6">
+      <c r="B77" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" s="22"/>
+      <c r="D77" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F77" s="23">
+        <v>1</v>
+      </c>
+      <c r="G77" s="23">
+        <v>1</v>
+      </c>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="N77" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" ht="15.6">
+      <c r="B78" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C78" s="22"/>
+      <c r="D78" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F78" s="23">
+        <v>1</v>
+      </c>
+      <c r="G78" s="23">
+        <v>1</v>
+      </c>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="N78" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" ht="15.6">
+      <c r="B79" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" s="23">
+        <v>1</v>
+      </c>
+      <c r="G79" s="23">
+        <v>1</v>
+      </c>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="N79" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" ht="15.6">
+      <c r="B80" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C80" s="22"/>
+      <c r="D80" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F80" s="23">
+        <v>1</v>
+      </c>
+      <c r="G80" s="23">
+        <v>1</v>
+      </c>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="N80" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" ht="15.6">
+      <c r="B81" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C81" s="22"/>
+      <c r="D81" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81" s="24">
+        <v>1</v>
+      </c>
+      <c r="G81" s="23">
+        <v>1</v>
+      </c>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="N81" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" ht="15.6">
+      <c r="B82" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C82" s="22"/>
+      <c r="D82" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" s="24">
+        <v>1</v>
+      </c>
+      <c r="G82" s="23">
+        <v>1</v>
+      </c>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="N82" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" ht="15.6">
+      <c r="B83" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C83" s="22"/>
+      <c r="D83" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F83" s="23">
+        <v>1</v>
+      </c>
+      <c r="G83" s="23">
+        <v>1</v>
+      </c>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="N83" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" ht="15.6">
+      <c r="B84" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C84" s="22"/>
+      <c r="D84" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F84" s="23">
+        <v>1</v>
+      </c>
+      <c r="G84" s="23">
+        <v>1</v>
+      </c>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="N84" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" ht="15.6">
+      <c r="B85" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C85" s="22"/>
+      <c r="D85" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F85" s="23">
+        <v>1</v>
+      </c>
+      <c r="G85" s="23">
+        <v>1</v>
+      </c>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="N85" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" ht="15.6">
+      <c r="B86" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C86" s="22"/>
+      <c r="D86" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F86" s="23">
+        <v>1</v>
+      </c>
+      <c r="G86" s="23">
+        <v>1</v>
+      </c>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="N86" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" ht="15.6">
+      <c r="B87" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C87" s="22"/>
+      <c r="D87" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F87" s="23">
+        <v>1</v>
+      </c>
+      <c r="G87" s="23">
+        <v>1</v>
+      </c>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="N87" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" ht="15.6">
+      <c r="B88" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C88" s="22"/>
+      <c r="D88" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F88" s="23">
+        <v>1</v>
+      </c>
+      <c r="G88" s="23">
+        <v>1</v>
+      </c>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="N88" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" ht="15.6">
+      <c r="B89" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C89" s="22"/>
+      <c r="D89" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F89" s="24">
+        <v>1</v>
+      </c>
+      <c r="G89" s="23">
+        <v>1</v>
+      </c>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="N89" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" ht="15.6">
+      <c r="B90" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C90" s="22"/>
+      <c r="D90" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F90" s="24">
+        <v>1</v>
+      </c>
+      <c r="G90" s="23">
+        <v>1</v>
+      </c>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="N90" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" ht="15.6">
+      <c r="B91" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C91" s="22"/>
+      <c r="D91" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F91" s="23">
+        <v>1</v>
+      </c>
+      <c r="G91" s="23">
+        <v>1</v>
+      </c>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="N91" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" ht="15.6">
+      <c r="B92" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C92" s="22"/>
+      <c r="D92" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F92" s="23">
+        <v>1</v>
+      </c>
+      <c r="G92" s="23">
+        <v>1</v>
+      </c>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N92" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" ht="15.6">
+      <c r="B93" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" s="22"/>
+      <c r="D93" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F93" s="23">
+        <v>1</v>
+      </c>
+      <c r="G93" s="23">
+        <v>1</v>
+      </c>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="N93" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" ht="15.6">
+      <c r="B94" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C94" s="22"/>
+      <c r="D94" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F94" s="23">
+        <v>1</v>
+      </c>
+      <c r="G94" s="23">
+        <v>1</v>
+      </c>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="22"/>
+      <c r="M94" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="N94" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" ht="15.6">
+      <c r="B95" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C95" s="22"/>
+      <c r="D95" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E95" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F95" s="23">
+        <v>1</v>
+      </c>
+      <c r="G95" s="23">
+        <v>1</v>
+      </c>
+      <c r="H95" s="22"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="N95" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" ht="15.6">
+      <c r="B96" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C96" s="22"/>
+      <c r="D96" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F96" s="23">
+        <v>1</v>
+      </c>
+      <c r="G96" s="23">
+        <v>1</v>
+      </c>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="22"/>
+      <c r="M96" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="N96" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="15.6">
+      <c r="A97" s="22"/>
+      <c r="B97" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C97" s="22"/>
+      <c r="D97" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F97" s="24">
+        <v>1</v>
+      </c>
+      <c r="G97" s="23">
+        <v>1</v>
+      </c>
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="22"/>
+      <c r="M97" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="N97" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O97" s="22"/>
+      <c r="P97" s="22"/>
+    </row>
+    <row r="98" spans="1:16" ht="15.6">
+      <c r="A98" s="22"/>
+      <c r="B98" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C98" s="22"/>
+      <c r="D98" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E98" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F98" s="24">
+        <v>1</v>
+      </c>
+      <c r="G98" s="23">
+        <v>1</v>
+      </c>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="22"/>
+      <c r="M98" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="N98" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O98" s="22"/>
+      <c r="P98" s="22"/>
+    </row>
+    <row r="99" spans="1:16" ht="15.6">
+      <c r="A99" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C99" s="22"/>
+      <c r="D99" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="G99" s="24">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="N99" s="22"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="22"/>
+    </row>
+    <row r="100" spans="1:16" ht="15.6">
+      <c r="A100" s="22"/>
+      <c r="B100" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C100" s="22"/>
+      <c r="D100" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E100" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="G100" s="24">
+        <v>1</v>
+      </c>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="N100" s="22"/>
+      <c r="O100" s="22"/>
+      <c r="P100" s="22"/>
+    </row>
+    <row r="101" spans="1:16" ht="15.6">
+      <c r="A101" s="22"/>
+      <c r="B101" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C101" s="22"/>
+      <c r="D101" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="G101" s="24">
+        <v>1</v>
+      </c>
+      <c r="H101" s="22"/>
+      <c r="I101" s="22"/>
+      <c r="J101" s="22"/>
+      <c r="K101" s="22"/>
+      <c r="L101" s="22"/>
+      <c r="M101" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="N101" s="22"/>
+      <c r="O101" s="22"/>
+      <c r="P101" s="22"/>
+    </row>
+    <row r="102" spans="1:16" ht="15.6">
+      <c r="A102" s="22"/>
+      <c r="B102" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E102" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F102" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="G102" s="24">
+        <v>1</v>
+      </c>
+      <c r="H102" s="22"/>
+      <c r="I102" s="22"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="22"/>
+      <c r="L102" s="22"/>
+      <c r="M102" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="N102" s="22"/>
+      <c r="O102" s="22"/>
+      <c r="P102" s="22"/>
+    </row>
+    <row r="103" spans="1:16" ht="15.6">
+      <c r="A103" s="22"/>
+      <c r="B103" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C103" s="22"/>
+      <c r="D103" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="G103" s="24">
+        <v>1</v>
+      </c>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="22"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="N103" s="22"/>
+      <c r="O103" s="22"/>
+      <c r="P103" s="22"/>
+    </row>
+    <row r="104" spans="1:16" ht="15.6">
+      <c r="A104" s="22"/>
+      <c r="B104" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="C104" s="22"/>
+      <c r="D104" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F104" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="G104" s="24">
+        <v>1</v>
+      </c>
+      <c r="H104" s="22"/>
+      <c r="I104" s="22"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="22"/>
+      <c r="L104" s="22"/>
+      <c r="M104" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="N104" s="22"/>
+      <c r="O104" s="22"/>
+      <c r="P104" s="22"/>
+    </row>
+    <row r="105" spans="1:16" ht="15.6">
+      <c r="A105" s="22"/>
+      <c r="B105" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C105" s="22"/>
+      <c r="D105" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="G105" s="24">
+        <v>1</v>
+      </c>
+      <c r="H105" s="22"/>
+      <c r="I105" s="22"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="22"/>
+      <c r="M105" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="N105" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="O105" s="22"/>
+      <c r="P105" s="22"/>
+    </row>
+    <row r="106" spans="1:16" ht="15.6">
+      <c r="A106" s="22"/>
+      <c r="B106" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="C106" s="22"/>
+      <c r="D106" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F106" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="G106" s="24">
+        <v>1</v>
+      </c>
+      <c r="H106" s="22"/>
+      <c r="I106" s="22"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="22"/>
+      <c r="L106" s="22"/>
+      <c r="M106" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="N106" s="22"/>
+      <c r="O106" s="22"/>
+      <c r="P106" s="22"/>
+    </row>
+    <row r="107" spans="1:16" ht="15.6">
+      <c r="A107" s="22"/>
+      <c r="B107" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C107" s="22"/>
+      <c r="D107" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="G107" s="24">
+        <v>1</v>
+      </c>
+      <c r="H107" s="22"/>
+      <c r="I107" s="22"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="22"/>
+      <c r="M107" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="N107" s="22"/>
+      <c r="O107" s="22"/>
+      <c r="P107" s="22"/>
+    </row>
+    <row r="108" spans="1:16" ht="15.6">
+      <c r="A108" s="22"/>
+      <c r="B108" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C108" s="22"/>
+      <c r="D108" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E108" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F108" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="G108" s="24">
+        <v>1</v>
+      </c>
+      <c r="H108" s="22"/>
+      <c r="I108" s="22"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="22"/>
+      <c r="L108" s="22"/>
+      <c r="M108" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="N108" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="O108" s="22"/>
+      <c r="P108" s="22"/>
+    </row>
+    <row r="109" spans="1:16" ht="15.6">
+      <c r="A109" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C109" s="22"/>
+      <c r="D109" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="G109" s="24">
+        <v>1</v>
+      </c>
+      <c r="H109" s="22"/>
+      <c r="I109" s="22"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="L109" s="22"/>
+      <c r="M109" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="N109" s="22"/>
+      <c r="O109" s="22"/>
+      <c r="P109" s="22"/>
+    </row>
+    <row r="110" spans="1:16" ht="15.6">
+      <c r="A110" s="22"/>
+      <c r="B110" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D110" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E110" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F110" s="24">
+        <v>0</v>
+      </c>
+      <c r="G110" s="24">
+        <v>3</v>
+      </c>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N110" s="22"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="15.6">
+      <c r="A111" s="22"/>
+      <c r="B111" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D111" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E111" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F111" s="24">
+        <v>0</v>
+      </c>
+      <c r="G111" s="24">
+        <v>3</v>
+      </c>
+      <c r="H111" s="22"/>
+      <c r="I111" s="22"/>
+      <c r="J111" s="22"/>
+      <c r="K111" s="22"/>
+      <c r="L111" s="22"/>
+      <c r="M111" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N111" s="22"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="15.6">
+      <c r="A112" s="22"/>
+      <c r="B112" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D112" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F112" s="24">
+        <v>0</v>
+      </c>
+      <c r="G112" s="24">
+        <v>3</v>
+      </c>
+      <c r="H112" s="22"/>
+      <c r="I112" s="22"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="22"/>
+      <c r="L112" s="22"/>
+      <c r="M112" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N112" s="22"/>
+      <c r="O112" s="22"/>
+      <c r="P112" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:16" ht="15.6">
+      <c r="B113" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D113" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E113" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F113" s="24">
+        <v>0</v>
+      </c>
+      <c r="G113" s="24">
+        <v>3</v>
+      </c>
+      <c r="H113" s="22"/>
+      <c r="I113" s="22"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="22"/>
+      <c r="L113" s="22"/>
+      <c r="M113" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N113" s="22"/>
+      <c r="O113" s="22"/>
+      <c r="P113" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="2:16" ht="15.6">
+      <c r="B114" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D114" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F114" s="24">
+        <v>0</v>
+      </c>
+      <c r="G114" s="24">
+        <v>3</v>
+      </c>
+      <c r="H114" s="22"/>
+      <c r="I114" s="22"/>
+      <c r="J114" s="22"/>
+      <c r="K114" s="22"/>
+      <c r="L114" s="22"/>
+      <c r="M114" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N114" s="22"/>
+      <c r="O114" s="22"/>
+      <c r="P114" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="2:16" ht="15.6">
+      <c r="B115" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D115" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F115" s="24">
+        <v>0</v>
+      </c>
+      <c r="G115" s="24">
+        <v>3</v>
+      </c>
+      <c r="H115" s="22"/>
+      <c r="I115" s="22"/>
+      <c r="J115" s="22"/>
+      <c r="K115" s="22"/>
+      <c r="L115" s="22"/>
+      <c r="M115" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N115" s="22"/>
+      <c r="O115" s="22"/>
+      <c r="P115" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="2:16" ht="15.6">
+      <c r="B116" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D116" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E116" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F116" s="24">
+        <v>0</v>
+      </c>
+      <c r="G116" s="24">
+        <v>3</v>
+      </c>
+      <c r="H116" s="22"/>
+      <c r="I116" s="22"/>
+      <c r="J116" s="22"/>
+      <c r="K116" s="22"/>
+      <c r="L116" s="22"/>
+      <c r="M116" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N116" s="22"/>
+      <c r="O116" s="22"/>
+      <c r="P116" s="25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="2:16" ht="15.6">
+      <c r="B117" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="C117" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D117" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E117" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F117" s="24">
+        <v>0</v>
+      </c>
+      <c r="G117" s="24">
+        <v>3</v>
+      </c>
+      <c r="H117" s="22"/>
+      <c r="I117" s="22"/>
+      <c r="J117" s="22"/>
+      <c r="K117" s="22"/>
+      <c r="L117" s="22"/>
+      <c r="M117" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N117" s="22"/>
+      <c r="O117" s="22"/>
+      <c r="P117" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="2:16" ht="15.6">
+      <c r="B118" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E118" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F118" s="24">
+        <v>0</v>
+      </c>
+      <c r="G118" s="24">
+        <v>3</v>
+      </c>
+      <c r="H118" s="22"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="22"/>
+      <c r="K118" s="22"/>
+      <c r="L118" s="22"/>
+      <c r="M118" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N118" s="22"/>
+      <c r="O118" s="22"/>
+      <c r="P118" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="2:16" ht="15.6">
+      <c r="B119" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D119" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E119" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F119" s="24">
+        <v>0</v>
+      </c>
+      <c r="G119" s="24">
+        <v>3</v>
+      </c>
+      <c r="H119" s="22"/>
+      <c r="I119" s="22"/>
+      <c r="J119" s="22"/>
+      <c r="K119" s="22"/>
+      <c r="L119" s="22"/>
+      <c r="M119" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N119" s="22"/>
+      <c r="O119" s="22"/>
+      <c r="P119" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="2:16" ht="15.6">
+      <c r="B120" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D120" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F120" s="24">
+        <v>0</v>
+      </c>
+      <c r="G120" s="24">
+        <v>3</v>
+      </c>
+      <c r="H120" s="22"/>
+      <c r="I120" s="22"/>
+      <c r="J120" s="22"/>
+      <c r="K120" s="22"/>
+      <c r="L120" s="22"/>
+      <c r="M120" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N120" s="22"/>
+      <c r="O120" s="22"/>
+      <c r="P120" s="25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="2:16" ht="15.6">
+      <c r="B121" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D121" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E121" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F121" s="24">
+        <v>0</v>
+      </c>
+      <c r="G121" s="24">
+        <v>3</v>
+      </c>
+      <c r="H121" s="22"/>
+      <c r="I121" s="22"/>
+      <c r="J121" s="22"/>
+      <c r="K121" s="22"/>
+      <c r="L121" s="22"/>
+      <c r="M121" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N121" s="22"/>
+      <c r="O121" s="22"/>
+      <c r="P121" s="25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="2:16" ht="15.6">
+      <c r="B122" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D122" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E122" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F122" s="24">
+        <v>0</v>
+      </c>
+      <c r="G122" s="24">
+        <v>3</v>
+      </c>
+      <c r="H122" s="22"/>
+      <c r="I122" s="22"/>
+      <c r="J122" s="22"/>
+      <c r="K122" s="22"/>
+      <c r="L122" s="22"/>
+      <c r="M122" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N122" s="22"/>
+      <c r="O122" s="22"/>
+      <c r="P122" s="25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="2:16" ht="15.6">
+      <c r="B123" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D123" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E123" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F123" s="24">
+        <v>0</v>
+      </c>
+      <c r="G123" s="24">
+        <v>3</v>
+      </c>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
+      <c r="J123" s="22"/>
+      <c r="K123" s="22"/>
+      <c r="L123" s="22"/>
+      <c r="M123" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N123" s="22"/>
+      <c r="O123" s="22"/>
+      <c r="P123" s="25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="2:16" ht="15.6">
+      <c r="B124" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D124" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E124" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F124" s="24">
+        <v>0</v>
+      </c>
+      <c r="G124" s="24">
+        <v>3</v>
+      </c>
+      <c r="H124" s="22"/>
+      <c r="I124" s="22"/>
+      <c r="J124" s="22"/>
+      <c r="K124" s="22"/>
+      <c r="L124" s="22"/>
+      <c r="M124" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N124" s="22"/>
+      <c r="O124" s="22"/>
+      <c r="P124" s="25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="2:16" ht="15.6">
+      <c r="B125" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D125" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E125" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F125" s="24">
+        <v>0</v>
+      </c>
+      <c r="G125" s="24">
+        <v>3</v>
+      </c>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
+      <c r="J125" s="22"/>
+      <c r="K125" s="22"/>
+      <c r="L125" s="22"/>
+      <c r="M125" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N125" s="22"/>
+      <c r="O125" s="22"/>
+      <c r="P125" s="25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="2:16" ht="15.6">
+      <c r="B126" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D126" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E126" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F126" s="24">
+        <v>0</v>
+      </c>
+      <c r="G126" s="24">
+        <v>3</v>
+      </c>
+      <c r="H126" s="22"/>
+      <c r="I126" s="22"/>
+      <c r="J126" s="22"/>
+      <c r="K126" s="22"/>
+      <c r="L126" s="22"/>
+      <c r="M126" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N126" s="22"/>
+      <c r="O126" s="22"/>
+      <c r="P126" s="25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="2:16" ht="15.6">
+      <c r="B127" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D127" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E127" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" s="24">
+        <v>0</v>
+      </c>
+      <c r="G127" s="24">
+        <v>3</v>
+      </c>
+      <c r="H127" s="22"/>
+      <c r="I127" s="22"/>
+      <c r="J127" s="22"/>
+      <c r="K127" s="22"/>
+      <c r="L127" s="22"/>
+      <c r="M127" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N127" s="22"/>
+      <c r="O127" s="22"/>
+      <c r="P127" s="25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="2:16" ht="15.6">
+      <c r="B128" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D128" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E128" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" s="24">
+        <v>0</v>
+      </c>
+      <c r="G128" s="24">
+        <v>3</v>
+      </c>
+      <c r="H128" s="22"/>
+      <c r="I128" s="22"/>
+      <c r="J128" s="22"/>
+      <c r="K128" s="22"/>
+      <c r="L128" s="22"/>
+      <c r="M128" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N128" s="22"/>
+      <c r="O128" s="22"/>
+      <c r="P128" s="25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="2:16" ht="15.6">
+      <c r="B129" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D129" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E129" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F129" s="24">
+        <v>0</v>
+      </c>
+      <c r="G129" s="24">
+        <v>3</v>
+      </c>
+      <c r="H129" s="22"/>
+      <c r="I129" s="22"/>
+      <c r="J129" s="22"/>
+      <c r="K129" s="22"/>
+      <c r="L129" s="22"/>
+      <c r="M129" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N129" s="22"/>
+      <c r="O129" s="22"/>
+      <c r="P129" s="25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="2:16" ht="15.6">
+      <c r="B130" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D130" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E130" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" s="24">
+        <v>0</v>
+      </c>
+      <c r="G130" s="24">
+        <v>3</v>
+      </c>
+      <c r="H130" s="22"/>
+      <c r="I130" s="22"/>
+      <c r="J130" s="22"/>
+      <c r="K130" s="22"/>
+      <c r="L130" s="22"/>
+      <c r="M130" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N130" s="22"/>
+      <c r="O130" s="22"/>
+      <c r="P130" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:16" ht="15.6">
+      <c r="B131" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D131" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E131" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F131" s="24">
+        <v>0</v>
+      </c>
+      <c r="G131" s="24">
+        <v>3</v>
+      </c>
+      <c r="H131" s="22"/>
+      <c r="I131" s="22"/>
+      <c r="J131" s="22"/>
+      <c r="K131" s="22"/>
+      <c r="L131" s="22"/>
+      <c r="M131" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N131" s="22"/>
+      <c r="O131" s="22"/>
+      <c r="P131" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:16" ht="15.6">
+      <c r="B132" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D132" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E132" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F132" s="24">
+        <v>0</v>
+      </c>
+      <c r="G132" s="24">
+        <v>3</v>
+      </c>
+      <c r="H132" s="22"/>
+      <c r="I132" s="22"/>
+      <c r="J132" s="22"/>
+      <c r="K132" s="22"/>
+      <c r="L132" s="22"/>
+      <c r="M132" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N132" s="22"/>
+      <c r="O132" s="22"/>
+      <c r="P132" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16" ht="15.6">
+      <c r="B133" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D133" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E133" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F133" s="24">
+        <v>0</v>
+      </c>
+      <c r="G133" s="24">
+        <v>3</v>
+      </c>
+      <c r="H133" s="22"/>
+      <c r="I133" s="22"/>
+      <c r="J133" s="22"/>
+      <c r="K133" s="22"/>
+      <c r="L133" s="22"/>
+      <c r="M133" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N133" s="22"/>
+      <c r="O133" s="22"/>
+      <c r="P133" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="2:16" ht="15.6">
+      <c r="B134" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="C134" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D134" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E134" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F134" s="24">
+        <v>0</v>
+      </c>
+      <c r="G134" s="24">
+        <v>3</v>
+      </c>
+      <c r="H134" s="22"/>
+      <c r="I134" s="22"/>
+      <c r="J134" s="22"/>
+      <c r="K134" s="22"/>
+      <c r="L134" s="22"/>
+      <c r="M134" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N134" s="22"/>
+      <c r="O134" s="22"/>
+      <c r="P134" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="2:16" ht="15.6">
+      <c r="B135" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D135" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E135" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F135" s="24">
+        <v>0</v>
+      </c>
+      <c r="G135" s="24">
+        <v>3</v>
+      </c>
+      <c r="H135" s="22"/>
+      <c r="I135" s="22"/>
+      <c r="J135" s="22"/>
+      <c r="K135" s="22"/>
+      <c r="L135" s="22"/>
+      <c r="M135" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N135" s="22"/>
+      <c r="O135" s="22"/>
+      <c r="P135" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="2:16" ht="15.6">
+      <c r="B136" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D136" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E136" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F136" s="24">
+        <v>0</v>
+      </c>
+      <c r="G136" s="24">
+        <v>3</v>
+      </c>
+      <c r="H136" s="22"/>
+      <c r="I136" s="22"/>
+      <c r="J136" s="22"/>
+      <c r="K136" s="22"/>
+      <c r="L136" s="22"/>
+      <c r="M136" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N136" s="22"/>
+      <c r="O136" s="22"/>
+      <c r="P136" s="25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="2:16" ht="15.6">
+      <c r="B137" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C137" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D137" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E137" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F137" s="24">
+        <v>0</v>
+      </c>
+      <c r="G137" s="24">
+        <v>3</v>
+      </c>
+      <c r="H137" s="22"/>
+      <c r="I137" s="22"/>
+      <c r="J137" s="22"/>
+      <c r="K137" s="22"/>
+      <c r="L137" s="22"/>
+      <c r="M137" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N137" s="22"/>
+      <c r="O137" s="22"/>
+      <c r="P137" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="2:16" ht="15.6">
+      <c r="B138" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D138" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E138" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F138" s="24">
+        <v>0</v>
+      </c>
+      <c r="G138" s="24">
+        <v>3</v>
+      </c>
+      <c r="H138" s="22"/>
+      <c r="I138" s="22"/>
+      <c r="J138" s="22"/>
+      <c r="K138" s="22"/>
+      <c r="L138" s="22"/>
+      <c r="M138" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N138" s="22"/>
+      <c r="O138" s="22"/>
+      <c r="P138" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="2:16" ht="15.6">
+      <c r="B139" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="C139" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D139" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E139" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F139" s="24">
+        <v>0</v>
+      </c>
+      <c r="G139" s="24">
+        <v>3</v>
+      </c>
+      <c r="H139" s="22"/>
+      <c r="I139" s="22"/>
+      <c r="J139" s="22"/>
+      <c r="K139" s="22"/>
+      <c r="L139" s="22"/>
+      <c r="M139" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N139" s="22"/>
+      <c r="O139" s="22"/>
+      <c r="P139" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="2:16" ht="15.6">
+      <c r="B140" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="C140" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D140" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E140" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F140" s="24">
+        <v>0</v>
+      </c>
+      <c r="G140" s="24">
+        <v>3</v>
+      </c>
+      <c r="H140" s="22"/>
+      <c r="I140" s="22"/>
+      <c r="J140" s="22"/>
+      <c r="K140" s="22"/>
+      <c r="L140" s="22"/>
+      <c r="M140" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N140" s="22"/>
+      <c r="O140" s="22"/>
+      <c r="P140" s="25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="2:16" ht="15.6">
+      <c r="B141" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="C141" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D141" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E141" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F141" s="24">
+        <v>0</v>
+      </c>
+      <c r="G141" s="24">
+        <v>3</v>
+      </c>
+      <c r="H141" s="22"/>
+      <c r="I141" s="22"/>
+      <c r="J141" s="22"/>
+      <c r="K141" s="22"/>
+      <c r="L141" s="22"/>
+      <c r="M141" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N141" s="22"/>
+      <c r="O141" s="22"/>
+      <c r="P141" s="25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="2:16" ht="15.6">
+      <c r="B142" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C142" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D142" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E142" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F142" s="24">
+        <v>0</v>
+      </c>
+      <c r="G142" s="24">
+        <v>3</v>
+      </c>
+      <c r="H142" s="22"/>
+      <c r="I142" s="22"/>
+      <c r="J142" s="22"/>
+      <c r="K142" s="22"/>
+      <c r="L142" s="22"/>
+      <c r="M142" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N142" s="22"/>
+      <c r="O142" s="22"/>
+      <c r="P142" s="25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="2:16" ht="15.6">
+      <c r="B143" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="C143" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D143" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E143" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F143" s="24">
+        <v>0</v>
+      </c>
+      <c r="G143" s="24">
+        <v>3</v>
+      </c>
+      <c r="H143" s="22"/>
+      <c r="I143" s="22"/>
+      <c r="J143" s="22"/>
+      <c r="K143" s="22"/>
+      <c r="L143" s="22"/>
+      <c r="M143" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N143" s="22"/>
+      <c r="O143" s="22"/>
+      <c r="P143" s="25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="2:16" ht="15.6">
+      <c r="B144" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="C144" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D144" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E144" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F144" s="24">
+        <v>0</v>
+      </c>
+      <c r="G144" s="24">
+        <v>3</v>
+      </c>
+      <c r="H144" s="22"/>
+      <c r="I144" s="22"/>
+      <c r="J144" s="22"/>
+      <c r="K144" s="22"/>
+      <c r="L144" s="22"/>
+      <c r="M144" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N144" s="22"/>
+      <c r="O144" s="22"/>
+      <c r="P144" s="25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="2:16" ht="15.6">
+      <c r="B145" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="C145" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D145" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E145" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F145" s="24">
+        <v>0</v>
+      </c>
+      <c r="G145" s="24">
+        <v>3</v>
+      </c>
+      <c r="H145" s="22"/>
+      <c r="I145" s="22"/>
+      <c r="J145" s="22"/>
+      <c r="K145" s="22"/>
+      <c r="L145" s="22"/>
+      <c r="M145" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N145" s="22"/>
+      <c r="O145" s="22"/>
+      <c r="P145" s="25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="2:16" ht="15.6">
+      <c r="B146" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="C146" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D146" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E146" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F146" s="24">
+        <v>0</v>
+      </c>
+      <c r="G146" s="24">
+        <v>3</v>
+      </c>
+      <c r="H146" s="22"/>
+      <c r="I146" s="22"/>
+      <c r="J146" s="22"/>
+      <c r="K146" s="22"/>
+      <c r="L146" s="22"/>
+      <c r="M146" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N146" s="22"/>
+      <c r="O146" s="22"/>
+      <c r="P146" s="25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="2:16" ht="15.6">
+      <c r="B147" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="C147" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D147" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E147" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F147" s="24">
+        <v>0</v>
+      </c>
+      <c r="G147" s="24">
+        <v>3</v>
+      </c>
+      <c r="H147" s="22"/>
+      <c r="I147" s="22"/>
+      <c r="J147" s="22"/>
+      <c r="K147" s="22"/>
+      <c r="L147" s="22"/>
+      <c r="M147" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N147" s="22"/>
+      <c r="O147" s="22"/>
+      <c r="P147" s="25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="2:16" ht="15.6">
+      <c r="B148" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C148" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D148" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E148" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F148" s="24">
+        <v>0</v>
+      </c>
+      <c r="G148" s="24">
+        <v>3</v>
+      </c>
+      <c r="H148" s="22"/>
+      <c r="I148" s="22"/>
+      <c r="J148" s="22"/>
+      <c r="K148" s="22"/>
+      <c r="L148" s="22"/>
+      <c r="M148" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N148" s="22"/>
+      <c r="O148" s="22"/>
+      <c r="P148" s="25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="2:16" ht="15.6">
+      <c r="B149" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="C149" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D149" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E149" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F149" s="24">
+        <v>0</v>
+      </c>
+      <c r="G149" s="24">
+        <v>3</v>
+      </c>
+      <c r="H149" s="22"/>
+      <c r="I149" s="22"/>
+      <c r="J149" s="22"/>
+      <c r="K149" s="22"/>
+      <c r="L149" s="22"/>
+      <c r="M149" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N149" s="22"/>
+      <c r="O149" s="22"/>
+      <c r="P149" s="25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="2:16" ht="15.6">
+      <c r="B150" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C150" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D150" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E150" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F150" s="24">
+        <v>0</v>
+      </c>
+      <c r="G150" s="24">
+        <v>3</v>
+      </c>
+      <c r="H150" s="22"/>
+      <c r="I150" s="22"/>
+      <c r="J150" s="22"/>
+      <c r="K150" s="22"/>
+      <c r="L150" s="22"/>
+      <c r="M150" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="N150" s="22"/>
+      <c r="O150" s="22"/>
+      <c r="P150" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:16" ht="15.6">
+      <c r="B151" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="C151" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D151" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E151" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F151" s="24">
+        <v>0</v>
+      </c>
+      <c r="G151" s="24">
+        <v>3</v>
+      </c>
+      <c r="H151" s="22"/>
+      <c r="I151" s="22"/>
+      <c r="J151" s="22"/>
+      <c r="K151" s="22"/>
+      <c r="L151" s="22"/>
+      <c r="M151" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="N151" s="22"/>
+      <c r="O151" s="22"/>
+      <c r="P151" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="2:16" ht="15.6">
+      <c r="B152" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="C152" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D152" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E152" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F152" s="24">
+        <v>0</v>
+      </c>
+      <c r="G152" s="24">
+        <v>3</v>
+      </c>
+      <c r="H152" s="22"/>
+      <c r="I152" s="22"/>
+      <c r="J152" s="22"/>
+      <c r="K152" s="22"/>
+      <c r="L152" s="22"/>
+      <c r="M152" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="N152" s="22"/>
+      <c r="O152" s="22"/>
+      <c r="P152" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="2:16" ht="15.6">
+      <c r="B153" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="C153" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D153" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E153" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F153" s="24">
+        <v>0</v>
+      </c>
+      <c r="G153" s="24">
+        <v>3</v>
+      </c>
+      <c r="H153" s="22"/>
+      <c r="I153" s="22"/>
+      <c r="J153" s="22"/>
+      <c r="K153" s="22"/>
+      <c r="L153" s="22"/>
+      <c r="M153" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="N153" s="22"/>
+      <c r="O153" s="22"/>
+      <c r="P153" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="2:16" ht="15.6">
+      <c r="B154" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C154" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D154" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E154" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F154" s="24">
+        <v>0</v>
+      </c>
+      <c r="G154" s="24">
+        <v>3</v>
+      </c>
+      <c r="H154" s="22"/>
+      <c r="I154" s="22"/>
+      <c r="J154" s="22"/>
+      <c r="K154" s="22"/>
+      <c r="L154" s="22"/>
+      <c r="M154" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="N154" s="22"/>
+      <c r="O154" s="22"/>
+      <c r="P154" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="2:16" ht="15.6">
+      <c r="B155" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="C155" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D155" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E155" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F155" s="24">
+        <v>0</v>
+      </c>
+      <c r="G155" s="24">
+        <v>3</v>
+      </c>
+      <c r="H155" s="22"/>
+      <c r="I155" s="22"/>
+      <c r="J155" s="22"/>
+      <c r="K155" s="22"/>
+      <c r="L155" s="22"/>
+      <c r="M155" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="N155" s="22"/>
+      <c r="O155" s="22"/>
+      <c r="P155" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="2:16" ht="15.6">
+      <c r="B156" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="C156" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D156" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E156" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F156" s="24">
+        <v>0</v>
+      </c>
+      <c r="G156" s="24">
+        <v>3</v>
+      </c>
+      <c r="H156" s="22"/>
+      <c r="I156" s="22"/>
+      <c r="J156" s="22"/>
+      <c r="K156" s="22"/>
+      <c r="L156" s="22"/>
+      <c r="M156" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="N156" s="22"/>
+      <c r="O156" s="22"/>
+      <c r="P156" s="25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="2:16" ht="15.6">
+      <c r="B157" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="C157" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D157" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E157" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F157" s="24">
+        <v>0</v>
+      </c>
+      <c r="G157" s="24">
+        <v>3</v>
+      </c>
+      <c r="H157" s="22"/>
+      <c r="I157" s="22"/>
+      <c r="J157" s="22"/>
+      <c r="K157" s="22"/>
+      <c r="L157" s="22"/>
+      <c r="M157" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="N157" s="22"/>
+      <c r="O157" s="22"/>
+      <c r="P157" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="2:16" ht="15.6">
+      <c r="B158" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="C158" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D158" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E158" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F158" s="24">
+        <v>0</v>
+      </c>
+      <c r="G158" s="24">
+        <v>3</v>
+      </c>
+      <c r="H158" s="22"/>
+      <c r="I158" s="22"/>
+      <c r="J158" s="22"/>
+      <c r="K158" s="22"/>
+      <c r="L158" s="22"/>
+      <c r="M158" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="N158" s="22"/>
+      <c r="O158" s="22"/>
+      <c r="P158" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="2:16" ht="15.6">
+      <c r="B159" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="C159" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D159" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E159" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F159" s="24">
+        <v>0</v>
+      </c>
+      <c r="G159" s="24">
+        <v>3</v>
+      </c>
+      <c r="H159" s="22"/>
+      <c r="I159" s="22"/>
+      <c r="J159" s="22"/>
+      <c r="K159" s="22"/>
+      <c r="L159" s="22"/>
+      <c r="M159" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="N159" s="22"/>
+      <c r="O159" s="22"/>
+      <c r="P159" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="2:16" ht="15.6">
+      <c r="B160" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="C160" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D160" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E160" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F160" s="24">
+        <v>0</v>
+      </c>
+      <c r="G160" s="24">
+        <v>3</v>
+      </c>
+      <c r="H160" s="22"/>
+      <c r="I160" s="22"/>
+      <c r="J160" s="22"/>
+      <c r="K160" s="22"/>
+      <c r="L160" s="22"/>
+      <c r="M160" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="N160" s="22"/>
+      <c r="O160" s="22"/>
+      <c r="P160" s="25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="2:22" ht="15.6">
+      <c r="B161" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="C161" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D161" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E161" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F161" s="24">
+        <v>0</v>
+      </c>
+      <c r="G161" s="24">
+        <v>3</v>
+      </c>
+      <c r="H161" s="22"/>
+      <c r="I161" s="22"/>
+      <c r="J161" s="22"/>
+      <c r="K161" s="22"/>
+      <c r="L161" s="22"/>
+      <c r="M161" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="N161" s="22"/>
+      <c r="O161" s="22"/>
+      <c r="P161" s="25">
+        <v>12</v>
+      </c>
+      <c r="Q161" s="22"/>
+      <c r="R161" s="22"/>
+      <c r="S161" s="22"/>
+      <c r="T161" s="22"/>
+      <c r="U161" s="22"/>
+      <c r="V161" s="22"/>
+    </row>
+    <row r="162" spans="2:22" ht="15.6">
+      <c r="B162" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="C162" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D162" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E162" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F162" s="24">
+        <v>0</v>
+      </c>
+      <c r="G162" s="24">
+        <v>3</v>
+      </c>
+      <c r="H162" s="22"/>
+      <c r="I162" s="22"/>
+      <c r="J162" s="22"/>
+      <c r="K162" s="22"/>
+      <c r="L162" s="22"/>
+      <c r="M162" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="N162" s="22"/>
+      <c r="O162" s="22"/>
+      <c r="P162" s="25">
+        <v>13</v>
+      </c>
+      <c r="Q162" s="22"/>
+      <c r="R162" s="22"/>
+      <c r="S162" s="22"/>
+      <c r="T162" s="22"/>
+      <c r="U162" s="22"/>
+      <c r="V162" s="22"/>
+    </row>
+    <row r="163" spans="2:22" ht="15.6">
+      <c r="B163" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="C163" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D163" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E163" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F163" s="24">
+        <v>0</v>
+      </c>
+      <c r="G163" s="24">
+        <v>3</v>
+      </c>
+      <c r="H163" s="22"/>
+      <c r="I163" s="22"/>
+      <c r="J163" s="22"/>
+      <c r="K163" s="22"/>
+      <c r="L163" s="22"/>
+      <c r="M163" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="N163" s="22"/>
+      <c r="O163" s="22"/>
+      <c r="P163" s="25">
+        <v>14</v>
+      </c>
+      <c r="Q163" s="22"/>
+      <c r="R163" s="22"/>
+      <c r="S163" s="22"/>
+      <c r="T163" s="22"/>
+      <c r="U163" s="22"/>
+      <c r="V163" s="22"/>
+    </row>
+    <row r="164" spans="2:22" ht="15.6">
+      <c r="B164" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="C164" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D164" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E164" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F164" s="24">
+        <v>0</v>
+      </c>
+      <c r="G164" s="24">
+        <v>3</v>
+      </c>
+      <c r="H164" s="22"/>
+      <c r="I164" s="22"/>
+      <c r="J164" s="22"/>
+      <c r="K164" s="22"/>
+      <c r="L164" s="22"/>
+      <c r="M164" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="N164" s="22"/>
+      <c r="O164" s="22"/>
+      <c r="P164" s="25">
+        <v>15</v>
+      </c>
+      <c r="Q164" s="22"/>
+      <c r="R164" s="22"/>
+      <c r="S164" s="22"/>
+      <c r="T164" s="22"/>
+      <c r="U164" s="22"/>
+      <c r="V164" s="22"/>
+    </row>
+    <row r="165" spans="2:22" ht="15.6">
+      <c r="B165" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="C165" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D165" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E165" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F165" s="24">
+        <v>0</v>
+      </c>
+      <c r="G165" s="24">
+        <v>3</v>
+      </c>
+      <c r="H165" s="22"/>
+      <c r="I165" s="22"/>
+      <c r="J165" s="22"/>
+      <c r="K165" s="22"/>
+      <c r="L165" s="22"/>
+      <c r="M165" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="N165" s="22"/>
+      <c r="O165" s="22"/>
+      <c r="P165" s="25">
+        <v>16</v>
+      </c>
+      <c r="Q165" s="22"/>
+      <c r="R165" s="22"/>
+      <c r="S165" s="22"/>
+      <c r="T165" s="22"/>
+      <c r="U165" s="22"/>
+      <c r="V165" s="22"/>
+    </row>
+    <row r="166" spans="2:22" ht="15.6">
+      <c r="B166" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="C166" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D166" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E166" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F166" s="24">
+        <v>0</v>
+      </c>
+      <c r="G166" s="24">
+        <v>3</v>
+      </c>
+      <c r="H166" s="22"/>
+      <c r="I166" s="22"/>
+      <c r="J166" s="22"/>
+      <c r="K166" s="22"/>
+      <c r="L166" s="22"/>
+      <c r="M166" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="N166" s="22"/>
+      <c r="O166" s="22"/>
+      <c r="P166" s="25">
+        <v>17</v>
+      </c>
+      <c r="Q166" s="22"/>
+      <c r="R166" s="22"/>
+      <c r="S166" s="22"/>
+      <c r="T166" s="22"/>
+      <c r="U166" s="22"/>
+      <c r="V166" s="22"/>
+    </row>
+    <row r="167" spans="2:22" ht="15.6">
+      <c r="B167" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="C167" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D167" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E167" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F167" s="24">
+        <v>0</v>
+      </c>
+      <c r="G167" s="24">
+        <v>3</v>
+      </c>
+      <c r="H167" s="22"/>
+      <c r="I167" s="22"/>
+      <c r="J167" s="22"/>
+      <c r="K167" s="22"/>
+      <c r="L167" s="22"/>
+      <c r="M167" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="N167" s="22"/>
+      <c r="O167" s="22"/>
+      <c r="P167" s="25">
+        <v>18</v>
+      </c>
+      <c r="Q167" s="22"/>
+      <c r="R167" s="22"/>
+      <c r="S167" s="22"/>
+      <c r="T167" s="22"/>
+      <c r="U167" s="22"/>
+      <c r="V167" s="22"/>
+    </row>
+    <row r="168" spans="2:22" ht="15.6">
+      <c r="B168" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="C168" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D168" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E168" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F168" s="24">
+        <v>0</v>
+      </c>
+      <c r="G168" s="24">
+        <v>3</v>
+      </c>
+      <c r="H168" s="22"/>
+      <c r="I168" s="22"/>
+      <c r="J168" s="22"/>
+      <c r="K168" s="22"/>
+      <c r="L168" s="22"/>
+      <c r="M168" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="N168" s="22"/>
+      <c r="O168" s="22"/>
+      <c r="P168" s="25">
+        <v>19</v>
+      </c>
+      <c r="Q168" s="22"/>
+      <c r="R168" s="22"/>
+      <c r="S168" s="22"/>
+      <c r="T168" s="22"/>
+      <c r="U168" s="22"/>
+      <c r="V168" s="22"/>
+    </row>
+    <row r="169" spans="2:22" ht="15.6">
+      <c r="B169" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C169" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D169" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E169" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F169" s="24">
+        <v>0</v>
+      </c>
+      <c r="G169" s="24">
+        <v>3</v>
+      </c>
+      <c r="H169" s="22"/>
+      <c r="I169" s="22"/>
+      <c r="J169" s="22"/>
+      <c r="K169" s="22"/>
+      <c r="L169" s="22"/>
+      <c r="M169" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="N169" s="22"/>
+      <c r="O169" s="22"/>
+      <c r="P169" s="25">
+        <v>20</v>
+      </c>
+      <c r="Q169" s="22"/>
+      <c r="R169" s="22"/>
+      <c r="S169" s="22"/>
+      <c r="T169" s="22"/>
+      <c r="U169" s="22"/>
+      <c r="V169" s="22"/>
+    </row>
+    <row r="170" spans="2:22" ht="15.6">
+      <c r="B170" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="C170" s="22"/>
+      <c r="D170" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E170" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F170" s="24">
+        <v>0</v>
+      </c>
+      <c r="G170" s="24">
+        <v>1</v>
+      </c>
+      <c r="H170" s="22"/>
+      <c r="I170" s="22"/>
+      <c r="J170" s="22"/>
+      <c r="K170" s="22"/>
+      <c r="L170" s="22"/>
+      <c r="M170" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="N170" s="22"/>
+      <c r="O170" s="22"/>
+      <c r="P170" s="22"/>
+      <c r="Q170" s="22"/>
+      <c r="R170" s="22"/>
+      <c r="S170" s="22"/>
+      <c r="T170" s="22"/>
+      <c r="U170" s="22"/>
+      <c r="V170" s="22"/>
+    </row>
+    <row r="171" spans="2:22" ht="15.6">
+      <c r="B171" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="C171" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D171" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E171" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F171" s="24">
+        <v>0</v>
+      </c>
+      <c r="G171" s="24">
+        <v>3</v>
+      </c>
+      <c r="H171" s="22"/>
+      <c r="I171" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="J171" s="22"/>
+      <c r="K171" s="22"/>
+      <c r="L171" s="22"/>
+      <c r="M171" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="N171" s="22"/>
+      <c r="O171" s="22"/>
+      <c r="P171" s="22"/>
+      <c r="Q171" s="22"/>
+      <c r="R171" s="22"/>
+      <c r="S171" s="22"/>
+      <c r="T171" s="22"/>
+      <c r="U171" s="22"/>
+      <c r="V171" s="22"/>
+    </row>
+    <row r="172" spans="2:22" ht="15.6">
+      <c r="B172" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="C172" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D172" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E172" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F172" s="24">
+        <v>0</v>
+      </c>
+      <c r="G172" s="24">
+        <v>10</v>
+      </c>
+      <c r="H172" s="22"/>
+      <c r="I172" s="22"/>
+      <c r="J172" s="22"/>
+      <c r="K172" s="22"/>
+      <c r="L172" s="22"/>
+      <c r="M172" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="N172" s="22"/>
+      <c r="O172" s="22"/>
+      <c r="P172" s="22"/>
+      <c r="Q172" s="22"/>
+      <c r="R172" s="22"/>
+      <c r="S172" s="22"/>
+      <c r="T172" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="U172" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="V172" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="173" spans="2:22" ht="15.6">
+      <c r="B173" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="C173" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D173" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E173" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F173" s="24">
+        <v>0</v>
+      </c>
+      <c r="G173" s="24">
+        <v>10</v>
+      </c>
+      <c r="H173" s="22"/>
+      <c r="I173" s="22"/>
+      <c r="J173" s="22"/>
+      <c r="K173" s="22"/>
+      <c r="L173" s="22"/>
+      <c r="M173" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="N173" s="22"/>
+      <c r="O173" s="22"/>
+      <c r="P173" s="22"/>
+      <c r="Q173" s="22"/>
+      <c r="R173" s="22"/>
+      <c r="S173" s="22"/>
+      <c r="T173" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="U173" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="V173" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="174" spans="2:22" ht="15.6">
+      <c r="B174" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="C174" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D174" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E174" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F174" s="24">
+        <v>0</v>
+      </c>
+      <c r="G174" s="24">
+        <v>10</v>
+      </c>
+      <c r="H174" s="22"/>
+      <c r="I174" s="22"/>
+      <c r="J174" s="22"/>
+      <c r="K174" s="22"/>
+      <c r="L174" s="22"/>
+      <c r="M174" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="N174" s="22"/>
+      <c r="O174" s="22"/>
+      <c r="P174" s="22"/>
+      <c r="Q174" s="22"/>
+      <c r="R174" s="22"/>
+      <c r="S174" s="22"/>
+      <c r="T174" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="U174" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="V174" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="175" spans="2:22" ht="15.6">
+      <c r="B175" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="C175" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D175" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E175" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F175" s="24">
+        <v>0</v>
+      </c>
+      <c r="G175" s="24">
+        <v>10</v>
+      </c>
+      <c r="H175" s="22"/>
+      <c r="I175" s="22"/>
+      <c r="J175" s="22"/>
+      <c r="K175" s="22"/>
+      <c r="L175" s="22"/>
+      <c r="M175" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="N175" s="22"/>
+      <c r="O175" s="22"/>
+      <c r="P175" s="22"/>
+      <c r="Q175" s="22"/>
+      <c r="R175" s="22"/>
+      <c r="S175" s="22"/>
+      <c r="T175" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="U175" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="V175" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="176" spans="2:22" ht="15.6">
+      <c r="B176" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="C176" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D176" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E176" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F176" s="24">
+        <v>0</v>
+      </c>
+      <c r="G176" s="24">
+        <v>10</v>
+      </c>
+      <c r="H176" s="22"/>
+      <c r="I176" s="22"/>
+      <c r="J176" s="22"/>
+      <c r="K176" s="22"/>
+      <c r="L176" s="22"/>
+      <c r="M176" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="N176" s="22"/>
+      <c r="O176" s="22"/>
+      <c r="P176" s="22"/>
+      <c r="Q176" s="22"/>
+      <c r="R176" s="22"/>
+      <c r="S176" s="22"/>
+      <c r="T176" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="U176" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="V176" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="177" spans="2:22" ht="15.6">
+      <c r="B177" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="C177" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D177" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E177" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F177" s="24">
+        <v>0</v>
+      </c>
+      <c r="G177" s="24">
+        <v>10</v>
+      </c>
+      <c r="H177" s="22"/>
+      <c r="I177" s="22"/>
+      <c r="J177" s="22"/>
+      <c r="K177" s="22"/>
+      <c r="L177" s="22"/>
+      <c r="M177" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="N177" s="22"/>
+      <c r="O177" s="22"/>
+      <c r="P177" s="22"/>
+      <c r="Q177" s="22"/>
+      <c r="R177" s="22"/>
+      <c r="S177" s="22"/>
+      <c r="T177" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="U177" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="V177" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="178" spans="2:22" ht="15.6">
+      <c r="B178" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="C178" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D178" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E178" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F178" s="24">
+        <v>0</v>
+      </c>
+      <c r="G178" s="24">
+        <v>10</v>
+      </c>
+      <c r="H178" s="22"/>
+      <c r="I178" s="22"/>
+      <c r="J178" s="22"/>
+      <c r="K178" s="22"/>
+      <c r="L178" s="22"/>
+      <c r="M178" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="N178" s="22"/>
+      <c r="O178" s="22"/>
+      <c r="P178" s="22"/>
+      <c r="Q178" s="22"/>
+      <c r="R178" s="22"/>
+      <c r="S178" s="22"/>
+      <c r="T178" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="U178" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="V178" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="179" spans="2:22" ht="15.6">
+      <c r="B179" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C179" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D179" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E179" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F179" s="24">
+        <v>0</v>
+      </c>
+      <c r="G179" s="24">
+        <v>10</v>
+      </c>
+      <c r="H179" s="22"/>
+      <c r="I179" s="22"/>
+      <c r="J179" s="22"/>
+      <c r="K179" s="22"/>
+      <c r="L179" s="22"/>
+      <c r="M179" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="N179" s="22"/>
+      <c r="O179" s="22"/>
+      <c r="P179" s="22"/>
+      <c r="Q179" s="22"/>
+      <c r="R179" s="22"/>
+      <c r="S179" s="22"/>
+      <c r="T179" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="U179" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="V179" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="180" spans="2:22" ht="15.6">
+      <c r="B180" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="C180" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D180" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E180" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F180" s="24">
+        <v>0</v>
+      </c>
+      <c r="G180" s="24">
+        <v>10</v>
+      </c>
+      <c r="H180" s="22"/>
+      <c r="I180" s="22"/>
+      <c r="J180" s="22"/>
+      <c r="K180" s="22"/>
+      <c r="L180" s="22"/>
+      <c r="M180" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="N180" s="22"/>
+      <c r="O180" s="22"/>
+      <c r="P180" s="22"/>
+      <c r="Q180" s="22"/>
+      <c r="R180" s="22"/>
+      <c r="S180" s="22"/>
+      <c r="T180" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="U180" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="V180" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="181" spans="2:22" ht="15.6">
+      <c r="B181" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="C181" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D181" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E181" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F181" s="24">
+        <v>0</v>
+      </c>
+      <c r="G181" s="24">
+        <v>10</v>
+      </c>
+      <c r="H181" s="22"/>
+      <c r="I181" s="22"/>
+      <c r="J181" s="22"/>
+      <c r="K181" s="22"/>
+      <c r="L181" s="22"/>
+      <c r="M181" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="N181" s="22"/>
+      <c r="O181" s="22"/>
+      <c r="P181" s="22"/>
+      <c r="Q181" s="22"/>
+      <c r="R181" s="22"/>
+      <c r="S181" s="22"/>
+      <c r="T181" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="U181" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="V181" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="182" spans="2:22" ht="15.6">
+      <c r="B182" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="C182" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D182" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E182" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F182" s="24">
+        <v>0</v>
+      </c>
+      <c r="G182" s="24">
+        <v>10</v>
+      </c>
+      <c r="H182" s="22"/>
+      <c r="I182" s="22"/>
+      <c r="J182" s="22"/>
+      <c r="K182" s="22"/>
+      <c r="L182" s="22"/>
+      <c r="M182" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="N182" s="22"/>
+      <c r="O182" s="22"/>
+      <c r="P182" s="22"/>
+      <c r="Q182" s="22"/>
+      <c r="R182" s="22"/>
+      <c r="S182" s="22"/>
+      <c r="T182" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="U182" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="V182" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="183" spans="2:22" ht="15.6">
+      <c r="B183" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="C183" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D183" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E183" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F183" s="24">
+        <v>0</v>
+      </c>
+      <c r="G183" s="24">
+        <v>10</v>
+      </c>
+      <c r="H183" s="22"/>
+      <c r="I183" s="22"/>
+      <c r="J183" s="22"/>
+      <c r="K183" s="22"/>
+      <c r="L183" s="22"/>
+      <c r="M183" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="N183" s="22"/>
+      <c r="O183" s="22"/>
+      <c r="P183" s="22"/>
+      <c r="Q183" s="22"/>
+      <c r="R183" s="22"/>
+      <c r="S183" s="22"/>
+      <c r="T183" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="U183" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="V183" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="184" spans="2:22" ht="15.6">
+      <c r="B184" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="C184" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D184" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E184" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F184" s="24">
+        <v>0</v>
+      </c>
+      <c r="G184" s="24">
+        <v>10</v>
+      </c>
+      <c r="H184" s="22"/>
+      <c r="I184" s="22"/>
+      <c r="J184" s="22"/>
+      <c r="K184" s="22"/>
+      <c r="L184" s="22"/>
+      <c r="M184" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="N184" s="22"/>
+      <c r="O184" s="22"/>
+      <c r="P184" s="22"/>
+      <c r="Q184" s="22"/>
+      <c r="R184" s="22"/>
+      <c r="S184" s="22"/>
+      <c r="T184" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="U184" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="V184" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="185" spans="2:22" ht="15.6">
+      <c r="B185" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="C185" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D185" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E185" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F185" s="24">
+        <v>0</v>
+      </c>
+      <c r="G185" s="24">
+        <v>10</v>
+      </c>
+      <c r="H185" s="22"/>
+      <c r="I185" s="22"/>
+      <c r="J185" s="22"/>
+      <c r="K185" s="22"/>
+      <c r="L185" s="22"/>
+      <c r="M185" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="N185" s="22"/>
+      <c r="O185" s="22"/>
+      <c r="P185" s="22"/>
+      <c r="Q185" s="22"/>
+      <c r="R185" s="22"/>
+      <c r="S185" s="22"/>
+      <c r="T185" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="U185" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="V185" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="186" spans="2:22" ht="15.6">
+      <c r="B186" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C186" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D186" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E186" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F186" s="24">
+        <v>0</v>
+      </c>
+      <c r="G186" s="24">
+        <v>10</v>
+      </c>
+      <c r="H186" s="22"/>
+      <c r="I186" s="22"/>
+      <c r="J186" s="22"/>
+      <c r="K186" s="22"/>
+      <c r="L186" s="22"/>
+      <c r="M186" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="N186" s="22"/>
+      <c r="O186" s="22"/>
+      <c r="P186" s="22"/>
+      <c r="Q186" s="22"/>
+      <c r="R186" s="22"/>
+      <c r="S186" s="22"/>
+      <c r="T186" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="U186" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="V186" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="187" spans="2:22" ht="15.6">
+      <c r="B187" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="C187" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D187" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E187" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F187" s="24">
+        <v>0</v>
+      </c>
+      <c r="G187" s="24">
+        <v>10</v>
+      </c>
+      <c r="H187" s="22"/>
+      <c r="I187" s="22"/>
+      <c r="J187" s="22"/>
+      <c r="K187" s="22"/>
+      <c r="L187" s="22"/>
+      <c r="M187" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="N187" s="22"/>
+      <c r="O187" s="22"/>
+      <c r="P187" s="22"/>
+      <c r="Q187" s="22"/>
+      <c r="R187" s="22"/>
+      <c r="S187" s="22"/>
+      <c r="T187" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="U187" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="V187" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="188" spans="2:22" ht="15.6">
+      <c r="B188" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C188" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D188" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E188" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F188" s="24">
+        <v>0</v>
+      </c>
+      <c r="G188" s="24">
+        <v>10</v>
+      </c>
+      <c r="H188" s="22"/>
+      <c r="I188" s="22"/>
+      <c r="J188" s="22"/>
+      <c r="K188" s="22"/>
+      <c r="L188" s="22"/>
+      <c r="M188" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="N188" s="22"/>
+      <c r="O188" s="22"/>
+      <c r="P188" s="22"/>
+      <c r="Q188" s="22"/>
+      <c r="R188" s="22"/>
+      <c r="S188" s="22"/>
+      <c r="T188" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="U188" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="V188" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="189" spans="2:22" ht="15.6">
+      <c r="B189" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="C189" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D189" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E189" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F189" s="24">
+        <v>0</v>
+      </c>
+      <c r="G189" s="24">
+        <v>10</v>
+      </c>
+      <c r="H189" s="22"/>
+      <c r="I189" s="22"/>
+      <c r="J189" s="22"/>
+      <c r="K189" s="22"/>
+      <c r="L189" s="22"/>
+      <c r="M189" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="N189" s="22"/>
+      <c r="O189" s="22"/>
+      <c r="P189" s="22"/>
+      <c r="Q189" s="22"/>
+      <c r="R189" s="22"/>
+      <c r="S189" s="22"/>
+      <c r="T189" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="U189" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="V189" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="190" spans="2:22" ht="15.6">
+      <c r="B190" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="C190" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D190" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E190" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F190" s="24">
+        <v>0</v>
+      </c>
+      <c r="G190" s="24">
+        <v>10</v>
+      </c>
+      <c r="H190" s="22"/>
+      <c r="I190" s="22"/>
+      <c r="J190" s="22"/>
+      <c r="K190" s="26"/>
+      <c r="L190" s="22"/>
+      <c r="M190" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="N190" s="22"/>
+      <c r="O190" s="22"/>
+      <c r="P190" s="22"/>
+      <c r="Q190" s="22"/>
+      <c r="R190" s="22"/>
+      <c r="S190" s="22"/>
+      <c r="T190" s="23">
+        <v>-20</v>
+      </c>
+      <c r="U190" s="23">
+        <v>30</v>
+      </c>
+      <c r="V190" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="191" spans="2:22" ht="15.6">
+      <c r="B191" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="C191" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D191" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E191" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F191" s="24">
+        <v>0</v>
+      </c>
+      <c r="G191" s="24">
+        <v>10</v>
+      </c>
+      <c r="H191" s="22"/>
+      <c r="I191" s="22"/>
+      <c r="J191" s="22"/>
+      <c r="K191" s="22"/>
+      <c r="L191" s="22"/>
+      <c r="M191" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="N191" s="22"/>
+      <c r="O191" s="22"/>
+      <c r="P191" s="22"/>
+      <c r="Q191" s="22"/>
+      <c r="R191" s="22"/>
+      <c r="S191" s="22"/>
+      <c r="T191" s="23">
+        <v>-20</v>
+      </c>
+      <c r="U191" s="23">
+        <v>30</v>
+      </c>
+      <c r="V191" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="192" spans="2:22" ht="15.6">
+      <c r="B192" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="C192" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D192" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E192" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F192" s="24">
+        <v>0</v>
+      </c>
+      <c r="G192" s="24">
+        <v>10</v>
+      </c>
+      <c r="H192" s="22"/>
+      <c r="I192" s="22"/>
+      <c r="J192" s="22"/>
+      <c r="K192" s="22"/>
+      <c r="L192" s="22"/>
+      <c r="M192" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="N192" s="22"/>
+      <c r="O192" s="22"/>
+      <c r="P192" s="22"/>
+      <c r="Q192" s="22"/>
+      <c r="R192" s="22"/>
+      <c r="S192" s="22"/>
+      <c r="T192" s="23">
+        <v>-20</v>
+      </c>
+      <c r="U192" s="23">
+        <v>30</v>
+      </c>
+      <c r="V192" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="193" spans="2:22" ht="15.6">
+      <c r="B193" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="C193" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D193" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E193" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F193" s="24">
+        <v>0</v>
+      </c>
+      <c r="G193" s="24">
+        <v>10</v>
+      </c>
+      <c r="H193" s="22"/>
+      <c r="I193" s="22"/>
+      <c r="J193" s="22"/>
+      <c r="K193" s="22"/>
+      <c r="L193" s="22"/>
+      <c r="M193" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="N193" s="22"/>
+      <c r="O193" s="22"/>
+      <c r="P193" s="22"/>
+      <c r="Q193" s="22"/>
+      <c r="R193" s="22"/>
+      <c r="S193" s="22"/>
+      <c r="T193" s="23">
+        <v>-20</v>
+      </c>
+      <c r="U193" s="23">
+        <v>30</v>
+      </c>
+      <c r="V193" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="194" spans="2:22" ht="15.6">
+      <c r="B194" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="C194" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D194" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E194" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F194" s="24">
+        <v>0</v>
+      </c>
+      <c r="G194" s="24">
+        <v>10</v>
+      </c>
+      <c r="H194" s="22"/>
+      <c r="I194" s="22"/>
+      <c r="J194" s="22"/>
+      <c r="K194" s="22"/>
+      <c r="L194" s="22"/>
+      <c r="M194" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="N194" s="22"/>
+      <c r="O194" s="22"/>
+      <c r="P194" s="22"/>
+      <c r="Q194" s="22"/>
+      <c r="R194" s="22"/>
+      <c r="S194" s="22"/>
+      <c r="T194" s="23">
+        <v>-20</v>
+      </c>
+      <c r="U194" s="23">
+        <v>30</v>
+      </c>
+      <c r="V194" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="195" spans="2:22" ht="15.6">
+      <c r="B195" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="C195" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D195" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E195" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F195" s="24">
+        <v>0</v>
+      </c>
+      <c r="G195" s="24">
+        <v>10</v>
+      </c>
+      <c r="H195" s="22"/>
+      <c r="I195" s="22"/>
+      <c r="J195" s="22"/>
+      <c r="K195" s="22"/>
+      <c r="L195" s="22"/>
+      <c r="M195" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="N195" s="22"/>
+      <c r="O195" s="22"/>
+      <c r="P195" s="22"/>
+      <c r="Q195" s="22"/>
+      <c r="R195" s="22"/>
+      <c r="S195" s="22"/>
+      <c r="T195" s="23">
+        <v>-20</v>
+      </c>
+      <c r="U195" s="23">
+        <v>30</v>
+      </c>
+      <c r="V195" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="196" spans="2:22" ht="15.6">
+      <c r="B196" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="C196" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D196" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E196" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F196" s="24">
+        <v>0</v>
+      </c>
+      <c r="G196" s="24">
+        <v>10</v>
+      </c>
+      <c r="H196" s="22"/>
+      <c r="I196" s="22"/>
+      <c r="J196" s="22"/>
+      <c r="K196" s="22"/>
+      <c r="L196" s="22"/>
+      <c r="M196" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="N196" s="22"/>
+      <c r="O196" s="22"/>
+      <c r="P196" s="22"/>
+      <c r="Q196" s="22"/>
+      <c r="R196" s="22"/>
+      <c r="S196" s="22"/>
+      <c r="T196" s="23">
+        <v>-20</v>
+      </c>
+      <c r="U196" s="23">
+        <v>30</v>
+      </c>
+      <c r="V196" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="197" spans="2:22" ht="15.6">
+      <c r="B197" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="C197" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D197" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E197" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F197" s="24">
+        <v>0</v>
+      </c>
+      <c r="G197" s="24">
+        <v>10</v>
+      </c>
+      <c r="H197" s="22"/>
+      <c r="I197" s="22"/>
+      <c r="J197" s="22"/>
+      <c r="K197" s="22"/>
+      <c r="L197" s="26"/>
+      <c r="M197" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="N197" s="22"/>
+      <c r="O197" s="22"/>
+      <c r="P197" s="22"/>
+      <c r="Q197" s="22"/>
+      <c r="R197" s="22"/>
+      <c r="S197" s="22"/>
+      <c r="T197" s="23">
+        <v>-20</v>
+      </c>
+      <c r="U197" s="23">
+        <v>30</v>
+      </c>
+      <c r="V197" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="198" spans="2:22" ht="15.6">
+      <c r="B198" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="C198" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D198" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E198" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F198" s="24">
+        <v>0</v>
+      </c>
+      <c r="G198" s="24">
+        <v>10</v>
+      </c>
+      <c r="H198" s="22"/>
+      <c r="I198" s="22"/>
+      <c r="J198" s="22"/>
+      <c r="K198" s="22"/>
+      <c r="L198" s="22"/>
+      <c r="M198" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="N198" s="22"/>
+      <c r="O198" s="22"/>
+      <c r="P198" s="22"/>
+      <c r="Q198" s="22"/>
+      <c r="R198" s="22"/>
+      <c r="S198" s="22"/>
+      <c r="T198" s="23">
+        <v>-20</v>
+      </c>
+      <c r="U198" s="23">
+        <v>30</v>
+      </c>
+      <c r="V198" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="199" spans="2:22" ht="15.6">
+      <c r="B199" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="C199" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D199" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E199" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F199" s="24">
+        <v>0</v>
+      </c>
+      <c r="G199" s="24">
+        <v>10</v>
+      </c>
+      <c r="H199" s="22"/>
+      <c r="I199" s="22"/>
+      <c r="J199" s="22"/>
+      <c r="K199" s="22"/>
+      <c r="L199" s="22"/>
+      <c r="M199" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N199" s="22"/>
+      <c r="O199" s="22"/>
+      <c r="P199" s="22"/>
+      <c r="Q199" s="22"/>
+      <c r="R199" s="22"/>
+      <c r="S199" s="22"/>
+      <c r="T199" s="23">
+        <v>-20</v>
+      </c>
+      <c r="U199" s="23">
+        <v>30</v>
+      </c>
+      <c r="V199" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="200" spans="2:22" ht="15.6">
+      <c r="B200" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="C200" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D200" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E200" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F200" s="24">
+        <v>0</v>
+      </c>
+      <c r="G200" s="24">
+        <v>10</v>
+      </c>
+      <c r="H200" s="22"/>
+      <c r="I200" s="22"/>
+      <c r="J200" s="22"/>
+      <c r="K200" s="22"/>
+      <c r="L200" s="22"/>
+      <c r="M200" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="N200" s="22"/>
+      <c r="O200" s="22"/>
+      <c r="P200" s="22"/>
+      <c r="Q200" s="22"/>
+      <c r="R200" s="22"/>
+      <c r="S200" s="22"/>
+      <c r="T200" s="23">
+        <v>-20</v>
+      </c>
+      <c r="U200" s="23">
+        <v>30</v>
+      </c>
+      <c r="V200" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="201" spans="2:22" ht="15.6">
+      <c r="B201" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="C201" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D201" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E201" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F201" s="24">
+        <v>0</v>
+      </c>
+      <c r="G201" s="24">
+        <v>10</v>
+      </c>
+      <c r="H201" s="22"/>
+      <c r="I201" s="22"/>
+      <c r="J201" s="22"/>
+      <c r="K201" s="22"/>
+      <c r="L201" s="22"/>
+      <c r="M201" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="N201" s="22"/>
+      <c r="O201" s="22"/>
+      <c r="P201" s="22"/>
+      <c r="Q201" s="22"/>
+      <c r="R201" s="22"/>
+      <c r="S201" s="22"/>
+      <c r="T201" s="23">
+        <v>-20</v>
+      </c>
+      <c r="U201" s="23">
+        <v>30</v>
+      </c>
+      <c r="V201" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="202" spans="2:22" ht="15.6">
+      <c r="B202" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="C202" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D202" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E202" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F202" s="24">
+        <v>0</v>
+      </c>
+      <c r="G202" s="24">
+        <v>10</v>
+      </c>
+      <c r="H202" s="22"/>
+      <c r="I202" s="22"/>
+      <c r="J202" s="22"/>
+      <c r="K202" s="22"/>
+      <c r="L202" s="22"/>
+      <c r="M202" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="N202" s="22"/>
+      <c r="O202" s="22"/>
+      <c r="P202" s="22"/>
+      <c r="Q202" s="22"/>
+      <c r="R202" s="22"/>
+      <c r="S202" s="22"/>
+      <c r="T202" s="23">
+        <v>-20</v>
+      </c>
+      <c r="U202" s="23">
+        <v>30</v>
+      </c>
+      <c r="V202" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="203" spans="2:22" ht="15.6">
+      <c r="B203" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="C203" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D203" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E203" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F203" s="24">
+        <v>0</v>
+      </c>
+      <c r="G203" s="24">
+        <v>10</v>
+      </c>
+      <c r="H203" s="22"/>
+      <c r="I203" s="22"/>
+      <c r="J203" s="22"/>
+      <c r="K203" s="22"/>
+      <c r="L203" s="22"/>
+      <c r="M203" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="N203" s="22"/>
+      <c r="O203" s="22"/>
+      <c r="P203" s="22"/>
+      <c r="Q203" s="22"/>
+      <c r="R203" s="22"/>
+      <c r="S203" s="22"/>
+      <c r="T203" s="23">
+        <v>-20</v>
+      </c>
+      <c r="U203" s="23">
+        <v>30</v>
+      </c>
+      <c r="V203" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="204" spans="2:22" ht="15.6">
+      <c r="B204" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="C204" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D204" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E204" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F204" s="24">
+        <v>0</v>
+      </c>
+      <c r="G204" s="24">
+        <v>10</v>
+      </c>
+      <c r="H204" s="22"/>
+      <c r="I204" s="22"/>
+      <c r="J204" s="22"/>
+      <c r="K204" s="22"/>
+      <c r="L204" s="22"/>
+      <c r="M204" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="N204" s="22"/>
+      <c r="O204" s="22"/>
+      <c r="P204" s="22"/>
+      <c r="Q204" s="22"/>
+      <c r="R204" s="22"/>
+      <c r="S204" s="22"/>
+      <c r="T204" s="23">
+        <v>-20</v>
+      </c>
+      <c r="U204" s="23">
+        <v>30</v>
+      </c>
+      <c r="V204" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="205" spans="2:22" ht="15.6">
+      <c r="B205" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="C205" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D205" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E205" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F205" s="24">
+        <v>0</v>
+      </c>
+      <c r="G205" s="24">
+        <v>10</v>
+      </c>
+      <c r="H205" s="22"/>
+      <c r="I205" s="22"/>
+      <c r="J205" s="22"/>
+      <c r="K205" s="22"/>
+      <c r="L205" s="22"/>
+      <c r="M205" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="N205" s="22"/>
+      <c r="O205" s="22"/>
+      <c r="P205" s="22"/>
+      <c r="Q205" s="22"/>
+      <c r="R205" s="22"/>
+      <c r="S205" s="22"/>
+      <c r="T205" s="23">
+        <v>-20</v>
+      </c>
+      <c r="U205" s="23">
+        <v>30</v>
+      </c>
+      <c r="V205" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="206" spans="2:22" ht="15.6">
+      <c r="B206" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="C206" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D206" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E206" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F206" s="24">
+        <v>0</v>
+      </c>
+      <c r="G206" s="24">
+        <v>10</v>
+      </c>
+      <c r="H206" s="22"/>
+      <c r="I206" s="22"/>
+      <c r="J206" s="22"/>
+      <c r="K206" s="22"/>
+      <c r="L206" s="22"/>
+      <c r="M206" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="N206" s="22"/>
+      <c r="O206" s="22"/>
+      <c r="P206" s="22"/>
+      <c r="Q206" s="22"/>
+      <c r="R206" s="22"/>
+      <c r="S206" s="22"/>
+      <c r="T206" s="23">
+        <v>-20</v>
+      </c>
+      <c r="U206" s="23">
+        <v>30</v>
+      </c>
+      <c r="V206" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="207" spans="2:22" ht="15.6">
+      <c r="B207" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="C207" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D207" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E207" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F207" s="24">
+        <v>0</v>
+      </c>
+      <c r="G207" s="24">
+        <v>10</v>
+      </c>
+      <c r="H207" s="22"/>
+      <c r="I207" s="22"/>
+      <c r="J207" s="22"/>
+      <c r="K207" s="22"/>
+      <c r="L207" s="22"/>
+      <c r="M207" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="N207" s="22"/>
+      <c r="O207" s="22"/>
+      <c r="P207" s="22"/>
+      <c r="Q207" s="22"/>
+      <c r="R207" s="22"/>
+      <c r="S207" s="22"/>
+      <c r="T207" s="23">
+        <v>-20</v>
+      </c>
+      <c r="U207" s="23">
+        <v>30</v>
+      </c>
+      <c r="V207" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="208" spans="2:22" ht="15.6">
+      <c r="B208" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="C208" s="22"/>
+      <c r="D208" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E208" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="F208" s="24">
+        <v>0</v>
+      </c>
+      <c r="G208" s="24">
+        <v>10</v>
+      </c>
+      <c r="H208" s="22"/>
+      <c r="I208" s="22"/>
+      <c r="J208" s="22"/>
+      <c r="K208" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="L208" s="22"/>
+      <c r="M208" s="22"/>
+      <c r="N208" s="22"/>
+      <c r="O208" s="22"/>
+      <c r="P208" s="22"/>
+      <c r="Q208" s="22"/>
+      <c r="R208" s="22"/>
+      <c r="S208" s="22"/>
+      <c r="T208" s="22"/>
+      <c r="U208" s="22"/>
+      <c r="V208" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -16838,7 +24964,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\AutoAMLS\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311685F8-613E-4F6C-97AE-91F4F38609D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA3B8C2-93B3-46A7-8983-9E37E930DC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="851" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9751,8 +9751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5BD5C7-F362-46B8-9E4D-70C77EAB5AEF}">
   <dimension ref="A1:Y217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="K111" sqref="K111"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="J219" sqref="J219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12348,6 +12348,9 @@
       <c r="H110" s="23"/>
       <c r="I110" s="23"/>
       <c r="J110" s="23"/>
+      <c r="K110" s="22" t="s">
+        <v>446</v>
+      </c>
       <c r="L110" s="23"/>
       <c r="N110" s="23"/>
       <c r="O110" s="23"/>
@@ -12381,9 +12384,6 @@
       <c r="G111" s="22">
         <v>1</v>
       </c>
-      <c r="K111" s="22" t="s">
-        <v>446</v>
-      </c>
       <c r="M111" s="22" t="s">
         <v>272</v>
       </c>
@@ -12902,9 +12902,7 @@
       <c r="G131" s="22">
         <v>3</v>
       </c>
-      <c r="K131" s="22" t="s">
-        <v>420</v>
-      </c>
+      <c r="K131" s="23"/>
       <c r="M131" s="22" t="s">
         <v>274</v>
       </c>
@@ -15364,7 +15362,9 @@
       <c r="G217" s="22">
         <v>10</v>
       </c>
-      <c r="K217" s="23"/>
+      <c r="K217" s="22" t="s">
+        <v>420</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\AutoAMLS\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA3B8C2-93B3-46A7-8983-9E37E930DC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4B401D-FCD1-47BD-92D2-17B2B2E1305C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="851" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9751,8 +9751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5BD5C7-F362-46B8-9E4D-70C77EAB5AEF}">
   <dimension ref="A1:Y217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="J219" sqref="J219"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H227" sqref="H227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\AutoAMLS\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4B401D-FCD1-47BD-92D2-17B2B2E1305C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E24F25F-CB9D-427F-AC7F-99EFB206F103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="851" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="851" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="LTT" sheetId="16" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FL_M4!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FL_M4!$A$1:$O$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FL_SX5GEV!$A$1:$N$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">FLB_SX5GEV!$A$1:$N$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">FR_M4!$A$1:$N$1</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4088" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4112" uniqueCount="449">
   <si>
     <t>SuiteName</t>
   </si>
@@ -1395,6 +1395,12 @@
   </si>
   <si>
     <t>FOR(3)</t>
+  </si>
+  <si>
+    <t>ReadS19VerionAfterFlash</t>
+  </si>
+  <si>
+    <t>22 F1 55</t>
   </si>
 </sst>
 </file>
@@ -1612,7 +1618,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1819,6 +1825,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2142,7 +2154,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2209,6 +2221,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1 2" xfId="20" xr:uid="{16881DAD-12CC-4D93-A015-B4022814418B}"/>
@@ -9751,7 +9766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5BD5C7-F362-46B8-9E4D-70C77EAB5AEF}">
   <dimension ref="A1:Y217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="H227" sqref="H227"/>
     </sheetView>
   </sheetViews>
@@ -15377,10 +15392,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15388,19 +15403,20 @@
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1">
+    <row r="1" spans="1:15" ht="15" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15411,40 +15427,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickTop="1">
+    <row r="2" spans="1:15" ht="15" thickTop="1">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -15454,27 +15473,28 @@
       <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>18</v>
@@ -15482,27 +15502,28 @@
       <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>21</v>
@@ -15510,27 +15531,28 @@
       <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9"/>
+      <c r="L4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>24</v>
@@ -15538,25 +15560,26 @@
       <c r="C5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="7" t="s">
+      <c r="K5" s="7"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>27</v>
@@ -15564,25 +15587,26 @@
       <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="9"/>
+      <c r="L6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="M6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
         <v>30</v>
@@ -15590,27 +15614,28 @@
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>33</v>
@@ -15618,27 +15643,28 @@
       <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
+      <c r="D8" s="9"/>
       <c r="E8" s="9">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="M8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
         <v>36</v>
@@ -15646,27 +15672,28 @@
       <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>39</v>
@@ -15674,27 +15701,28 @@
       <c r="C10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
+      <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="M10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
@@ -15704,13 +15732,13 @@
       <c r="C11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
         <v>2</v>
       </c>
-      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -15719,8 +15747,9 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>45</v>
@@ -15728,33 +15757,34 @@
       <c r="C12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
         <v>2</v>
       </c>
-      <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="L12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="N12" s="9"/>
+      <c r="O12" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
         <v>51</v>
@@ -15762,33 +15792,34 @@
       <c r="C13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>53</v>
@@ -15796,33 +15827,34 @@
       <c r="C14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
+      <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
       <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="H14" s="9"/>
       <c r="I14" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="L14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="9"/>
+      <c r="N14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
         <v>57</v>
@@ -15830,31 +15862,32 @@
       <c r="C15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="H15" s="7"/>
       <c r="I15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>59</v>
@@ -15862,31 +15895,32 @@
       <c r="C16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
+      <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="H16" s="9"/>
       <c r="I16" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="L16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
         <v>62</v>
@@ -15894,33 +15928,34 @@
       <c r="C17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="H17" s="7"/>
       <c r="I17" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="N17" s="7"/>
+      <c r="O17" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>64</v>
@@ -15928,37 +15963,38 @@
       <c r="C18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
+      <c r="D18" s="9"/>
       <c r="E18" s="9">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="L18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="M18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="N18" s="9"/>
+      <c r="O18" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
         <v>68</v>
@@ -15966,29 +16002,30 @@
       <c r="C19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
         <v>2</v>
       </c>
-      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="7"/>
+      <c r="L19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="N19" s="7"/>
+      <c r="O19" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>71</v>
@@ -15996,535 +16033,620 @@
       <c r="C20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
+      <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
         <v>2</v>
       </c>
-      <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="L20" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="6" t="s">
+      <c r="N20" s="9"/>
+      <c r="O20" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="1" customFormat="1">
+      <c r="B21" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
         <v>2</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="I22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M22" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
+      <c r="N22" s="7"/>
+      <c r="O22" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="9">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
         <v>2</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" s="9" t="s">
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="L23" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9" t="s">
+      <c r="M23" s="9"/>
+      <c r="N23" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="N22" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7" t="s">
+      <c r="O23" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
         <v>2</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="7">
+      <c r="L24" s="7">
         <v>37</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9" t="s">
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
         <v>2</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" s="9" t="s">
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="L25" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9" t="s">
+      <c r="M25" s="9"/>
+      <c r="N25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="N24" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
+      <c r="O25" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
         <v>2</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="8" t="s">
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="9">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9">
         <v>3</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J26" s="9" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="L27" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9" t="s">
+      <c r="M27" s="9"/>
+      <c r="N27" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="N26" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7" t="s">
+      <c r="O27" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
         <v>2</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="I28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="M28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9" t="s">
+      <c r="N28" s="7"/>
+      <c r="O28" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="9">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
         <v>2</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J28" s="9" t="s">
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="L29" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9" t="s">
+      <c r="M29" s="9"/>
+      <c r="N29" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="N28" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7" t="s">
+      <c r="O29" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
         <v>2</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="7">
+      <c r="L30" s="7">
         <v>37</v>
       </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="9">
-        <v>0</v>
-      </c>
-      <c r="E30" s="9">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
         <v>5</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J30" s="9" t="s">
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="L31" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9" t="s">
+      <c r="M31" s="9"/>
+      <c r="N31" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="N30" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="6" t="s">
+      <c r="O31" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7">
         <v>2</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="9">
-        <v>1</v>
-      </c>
-      <c r="E32" s="9">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
         <v>2</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J32" s="9" t="s">
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="L33" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7" t="s">
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-      <c r="E33" s="7">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7">
         <v>2</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J33" s="7" t="s">
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9" t="s">
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="9">
-        <v>1</v>
-      </c>
-      <c r="E34" s="9">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9">
+        <v>1</v>
+      </c>
+      <c r="F35" s="9">
         <v>2</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J34" s="9" t="s">
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K34" s="9">
+      <c r="L35" s="9">
         <v>14</v>
       </c>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="E36" s="25">
+        <v>0</v>
+      </c>
+      <c r="F36" s="25">
+        <v>2</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16533,10 +16655,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17180,504 +17302,533 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="6" t="s">
+      <c r="B21" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
         <v>2</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="H22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
+      <c r="M22" s="7"/>
+      <c r="N22" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="9">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
         <v>2</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" s="9" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K23" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9" t="s">
+      <c r="L23" s="9"/>
+      <c r="M23" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="N22" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7" t="s">
+      <c r="N23" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
         <v>2</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K24" s="7">
         <v>37</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9" t="s">
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
         <v>2</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" s="9" t="s">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K25" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9" t="s">
+      <c r="L25" s="9"/>
+      <c r="M25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="N24" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
+      <c r="N25" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
         <v>2</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="8" t="s">
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="9">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9">
         <v>3</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J26" s="9" t="s">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K27" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9" t="s">
+      <c r="L27" s="9"/>
+      <c r="M27" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="N26" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7" t="s">
+      <c r="N27" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
         <v>2</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="H28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9" t="s">
+      <c r="M28" s="7"/>
+      <c r="N28" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="9">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9">
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
         <v>2</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J28" s="9" t="s">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K29" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9" t="s">
+      <c r="L29" s="9"/>
+      <c r="M29" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="N28" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7" t="s">
+      <c r="N29" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
         <v>2</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K30" s="7">
         <v>37</v>
       </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="9">
-        <v>0</v>
-      </c>
-      <c r="E30" s="9">
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9">
         <v>5</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J30" s="9" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K31" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9" t="s">
+      <c r="L31" s="9"/>
+      <c r="M31" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="N30" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="6" t="s">
+      <c r="N31" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7">
         <v>2</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="9">
-        <v>1</v>
-      </c>
-      <c r="E32" s="9">
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9">
         <v>2</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J32" s="9" t="s">
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K33" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7" t="s">
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-      <c r="E33" s="7">
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7">
         <v>2</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J33" s="7" t="s">
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9" t="s">
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="9">
-        <v>1</v>
-      </c>
-      <c r="E34" s="9">
+      <c r="D35" s="9">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9">
         <v>2</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J34" s="9" t="s">
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K35" s="9">
         <v>14</v>
       </c>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\AutoAMLS\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A283811A-1906-4110-B0A7-5BDAFDB98C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6656D6-32F1-4B2C-9857-1E3563649C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="930" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="7" r:id="rId1"/>
@@ -17992,8 +17992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E668F4-3725-4F00-83E1-178C3BFE7467}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18635,7 +18635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C04C1A-3350-40A3-A3C4-701CA4DBE6F7}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -19203,14 +19203,14 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\AutoAMLS\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A9343D-F32C-4768-8C3A-BE2C30DD1963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7909168A-D182-49C3-85B9-59D24C719469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="930" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="930" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="7" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5085" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5067" uniqueCount="486">
   <si>
     <t>SuiteName</t>
   </si>
@@ -2418,7 +2418,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -2548,34 +2548,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="43" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="14" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2947,14 +2923,14 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2">
+    <row r="1" spans="1:5" ht="18">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3033,7 +3009,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="16"/>
       <c r="B6" s="16" t="s">
         <v>122</v>
@@ -3108,394 +3084,394 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="21"/>
+    <col min="12" max="12" width="20.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="46" t="s">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickTop="1">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:17" ht="15.75" thickTop="1">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48">
-        <v>0</v>
-      </c>
-      <c r="F2" s="48">
-        <v>1</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4">
         <v>52</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50">
-        <v>0</v>
-      </c>
-      <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52">
-        <v>1</v>
-      </c>
-      <c r="F4" s="52">
-        <v>2</v>
-      </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="52" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E5" s="50">
-        <v>1</v>
-      </c>
-      <c r="F5" s="50">
-        <v>2</v>
-      </c>
-      <c r="G5" s="50" t="s">
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="50" t="s">
+      <c r="I5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L5" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50" t="s">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E6" s="50">
-        <v>1</v>
-      </c>
-      <c r="F6" s="50">
-        <v>2</v>
-      </c>
-      <c r="G6" s="50" t="s">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="50" t="s">
+      <c r="I6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50" t="s">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E7" s="52">
-        <v>1</v>
-      </c>
-      <c r="F7" s="52">
-        <v>2</v>
-      </c>
-      <c r="G7" s="52" t="s">
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="52" t="s">
+      <c r="I7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52" t="s">
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50">
-        <v>1</v>
-      </c>
-      <c r="F8" s="50">
-        <v>1</v>
-      </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50">
-        <v>1</v>
-      </c>
-      <c r="F9" s="50">
-        <v>2</v>
-      </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
         <v>32</v>
       </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50" t="s">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50">
-        <v>1</v>
-      </c>
-      <c r="F10" s="50">
-        <v>2</v>
-      </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
         <v>32</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50" t="s">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3511,394 +3487,394 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="21"/>
+    <col min="12" max="12" width="20.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="46" t="s">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickTop="1">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:17" ht="15.75" thickTop="1">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48">
-        <v>0</v>
-      </c>
-      <c r="F2" s="48">
-        <v>1</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4">
         <v>54</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50">
-        <v>0</v>
-      </c>
-      <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52">
-        <v>1</v>
-      </c>
-      <c r="F4" s="52">
-        <v>2</v>
-      </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="52" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E5" s="50">
-        <v>1</v>
-      </c>
-      <c r="F5" s="50">
-        <v>2</v>
-      </c>
-      <c r="G5" s="50" t="s">
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="50" t="s">
+      <c r="I5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L5" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50" t="s">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E6" s="50">
-        <v>1</v>
-      </c>
-      <c r="F6" s="50">
-        <v>2</v>
-      </c>
-      <c r="G6" s="50" t="s">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="50" t="s">
+      <c r="I6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50" t="s">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E7" s="52">
-        <v>1</v>
-      </c>
-      <c r="F7" s="52">
-        <v>2</v>
-      </c>
-      <c r="G7" s="52" t="s">
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="52" t="s">
+      <c r="I7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52" t="s">
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50">
-        <v>1</v>
-      </c>
-      <c r="F8" s="50">
-        <v>1</v>
-      </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50">
-        <v>1</v>
-      </c>
-      <c r="F9" s="50">
-        <v>2</v>
-      </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
         <v>32</v>
       </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50" t="s">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50">
-        <v>1</v>
-      </c>
-      <c r="F10" s="50">
-        <v>2</v>
-      </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
         <v>32</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50" t="s">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3917,26 +3893,26 @@
       <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3986,7 +3962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickTop="1">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -5257,26 +5233,26 @@
       <selection activeCell="O16" sqref="O15:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5326,7 +5302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickTop="1">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -6597,26 +6573,26 @@
       <selection activeCell="B37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6666,7 +6642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickTop="1">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -7938,26 +7914,26 @@
       <selection activeCell="O16" sqref="O15:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -8007,7 +7983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickTop="1">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1">
       <c r="A2" s="25" t="s">
         <v>14</v>
       </c>
@@ -9277,26 +9253,26 @@
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -9346,7 +9322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickTop="1">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1">
       <c r="A2" s="25" t="s">
         <v>14</v>
       </c>
@@ -10616,26 +10592,26 @@
       <selection activeCell="O16" sqref="O15:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10685,7 +10661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickTop="1">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -11956,26 +11932,26 @@
       <selection activeCell="O16" sqref="O15:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12025,7 +12001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickTop="1">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -13296,26 +13272,26 @@
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13365,7 +13341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickTop="1">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -14635,23 +14611,23 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="44" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -15279,26 +15255,26 @@
       <selection activeCell="O16" sqref="O15:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15348,7 +15324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickTop="1">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -16619,26 +16595,26 @@
       <selection activeCell="O16" sqref="O15:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16688,7 +16664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickTop="1">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -17959,26 +17935,26 @@
       <selection activeCell="O16" sqref="O15:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18028,7 +18004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickTop="1">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -19299,26 +19275,26 @@
       <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19368,7 +19344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickTop="1">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -20638,32 +20614,32 @@
       <selection activeCell="H227" sqref="H227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.21875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.21875" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.77734375" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.21875" style="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="21"/>
+    <col min="21" max="21" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -26243,23 +26219,23 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="44" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -26807,30 +26783,30 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13:P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26880,7 +26856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickTop="1">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -27238,9 +27214,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:16" s="37" customFormat="1">
       <c r="A14" s="34"/>
@@ -27316,9 +27290,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="P15" s="6"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="7"/>
@@ -27456,9 +27428,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="P19" s="6"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="7"/>
@@ -27496,9 +27466,7 @@
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="P20" s="8"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="5"/>
@@ -27528,9 +27496,7 @@
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="8"/>
-      <c r="P21" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="P21" s="6"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="7"/>
@@ -27564,9 +27530,7 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="P22" s="8"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="5" t="s">
@@ -27608,9 +27572,7 @@
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="8"/>
-      <c r="P23" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="P23" s="6"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="7"/>
@@ -27646,9 +27608,7 @@
         <v>85</v>
       </c>
       <c r="O24" s="6"/>
-      <c r="P24" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="P24" s="8"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="5"/>
@@ -27682,9 +27642,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="8"/>
-      <c r="P25" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="P25" s="6"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="7"/>
@@ -27720,9 +27678,7 @@
         <v>91</v>
       </c>
       <c r="O26" s="6"/>
-      <c r="P26" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="P26" s="8"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="5"/>
@@ -27756,9 +27712,7 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="8"/>
-      <c r="P27" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="P27" s="6"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="7" t="s">
@@ -27796,9 +27750,7 @@
         <v>99</v>
       </c>
       <c r="O28" s="6"/>
-      <c r="P28" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="P28" s="8"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="5"/>
@@ -27838,9 +27790,7 @@
       </c>
       <c r="N29" s="6"/>
       <c r="O29" s="8"/>
-      <c r="P29" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="P29" s="6"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="7"/>
@@ -27876,9 +27826,7 @@
         <v>102</v>
       </c>
       <c r="O30" s="6"/>
-      <c r="P30" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="P30" s="8"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="5"/>
@@ -27912,9 +27860,7 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="8"/>
-      <c r="P31" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="P31" s="6"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="7"/>
@@ -27950,9 +27896,7 @@
         <v>91</v>
       </c>
       <c r="O32" s="6"/>
-      <c r="P32" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="P32" s="8"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="5" t="s">
@@ -27988,9 +27932,7 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="P33" s="6"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="7"/>
@@ -28024,9 +27966,7 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="6"/>
-      <c r="P34" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="P34" s="8"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="5"/>
@@ -28150,394 +28090,394 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="21"/>
+    <col min="12" max="12" width="20.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="46" t="s">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickTop="1">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:17" ht="15.75" thickTop="1">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48">
-        <v>0</v>
-      </c>
-      <c r="F2" s="48">
-        <v>1</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4">
         <v>53</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50">
-        <v>0</v>
-      </c>
-      <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52">
-        <v>1</v>
-      </c>
-      <c r="F4" s="52">
-        <v>2</v>
-      </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="52" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E5" s="50">
-        <v>1</v>
-      </c>
-      <c r="F5" s="50">
-        <v>2</v>
-      </c>
-      <c r="G5" s="50" t="s">
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="50" t="s">
+      <c r="I5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L5" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50" t="s">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E6" s="50">
-        <v>1</v>
-      </c>
-      <c r="F6" s="50">
-        <v>2</v>
-      </c>
-      <c r="G6" s="50" t="s">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="50" t="s">
+      <c r="I6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50" t="s">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E7" s="52">
-        <v>1</v>
-      </c>
-      <c r="F7" s="52">
-        <v>2</v>
-      </c>
-      <c r="G7" s="52" t="s">
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="52" t="s">
+      <c r="I7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52" t="s">
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50">
-        <v>1</v>
-      </c>
-      <c r="F8" s="50">
-        <v>1</v>
-      </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50">
-        <v>1</v>
-      </c>
-      <c r="F9" s="50">
-        <v>2</v>
-      </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
         <v>32</v>
       </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50" t="s">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50">
-        <v>1</v>
-      </c>
-      <c r="F10" s="50">
-        <v>2</v>
-      </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
         <v>32</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50" t="s">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28553,394 +28493,394 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="21"/>
+    <col min="12" max="12" width="20.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="46" t="s">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickTop="1">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:17" ht="15.75" thickTop="1">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48">
-        <v>0</v>
-      </c>
-      <c r="F2" s="48">
-        <v>1</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4">
         <v>50</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50">
-        <v>0</v>
-      </c>
-      <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52">
-        <v>1</v>
-      </c>
-      <c r="F4" s="52">
-        <v>2</v>
-      </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="52" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E5" s="50">
-        <v>1</v>
-      </c>
-      <c r="F5" s="50">
-        <v>2</v>
-      </c>
-      <c r="G5" s="50" t="s">
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="50" t="s">
+      <c r="I5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L5" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50" t="s">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E6" s="50">
-        <v>1</v>
-      </c>
-      <c r="F6" s="50">
-        <v>2</v>
-      </c>
-      <c r="G6" s="50" t="s">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="50" t="s">
+      <c r="I6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50" t="s">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E7" s="52">
-        <v>1</v>
-      </c>
-      <c r="F7" s="52">
-        <v>2</v>
-      </c>
-      <c r="G7" s="52" t="s">
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="52" t="s">
+      <c r="I7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52" t="s">
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50">
-        <v>1</v>
-      </c>
-      <c r="F8" s="50">
-        <v>1</v>
-      </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50">
-        <v>1</v>
-      </c>
-      <c r="F9" s="50">
-        <v>2</v>
-      </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
         <v>32</v>
       </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50" t="s">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50">
-        <v>1</v>
-      </c>
-      <c r="F10" s="50">
-        <v>2</v>
-      </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
         <v>32</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50" t="s">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28956,394 +28896,394 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="21"/>
+    <col min="12" max="12" width="20.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="46" t="s">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickTop="1">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:17" ht="15.75" thickTop="1">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48">
-        <v>0</v>
-      </c>
-      <c r="F2" s="48">
-        <v>1</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50">
-        <v>0</v>
-      </c>
-      <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52">
-        <v>1</v>
-      </c>
-      <c r="F4" s="52">
-        <v>2</v>
-      </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="52" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E5" s="50">
-        <v>1</v>
-      </c>
-      <c r="F5" s="50">
-        <v>2</v>
-      </c>
-      <c r="G5" s="50" t="s">
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="50" t="s">
+      <c r="I5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L5" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50" t="s">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E6" s="50">
-        <v>1</v>
-      </c>
-      <c r="F6" s="50">
-        <v>2</v>
-      </c>
-      <c r="G6" s="50" t="s">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="50" t="s">
+      <c r="I6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50" t="s">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E7" s="52">
-        <v>1</v>
-      </c>
-      <c r="F7" s="52">
-        <v>2</v>
-      </c>
-      <c r="G7" s="52" t="s">
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="52" t="s">
+      <c r="I7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52" t="s">
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50">
-        <v>1</v>
-      </c>
-      <c r="F8" s="50">
-        <v>1</v>
-      </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50">
-        <v>1</v>
-      </c>
-      <c r="F9" s="50">
-        <v>2</v>
-      </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
         <v>32</v>
       </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50" t="s">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50">
-        <v>1</v>
-      </c>
-      <c r="F10" s="50">
-        <v>2</v>
-      </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
         <v>32</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50" t="s">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29359,394 +29299,394 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="21"/>
+    <col min="12" max="12" width="20.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="46" t="s">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickTop="1">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:17" ht="15.75" thickTop="1">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48">
-        <v>0</v>
-      </c>
-      <c r="F2" s="48">
-        <v>1</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4">
         <v>51</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50">
-        <v>0</v>
-      </c>
-      <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52">
-        <v>1</v>
-      </c>
-      <c r="F4" s="52">
-        <v>2</v>
-      </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="52" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E5" s="50">
-        <v>1</v>
-      </c>
-      <c r="F5" s="50">
-        <v>2</v>
-      </c>
-      <c r="G5" s="50" t="s">
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="50" t="s">
+      <c r="I5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L5" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50" t="s">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E6" s="50">
-        <v>1</v>
-      </c>
-      <c r="F6" s="50">
-        <v>2</v>
-      </c>
-      <c r="G6" s="50" t="s">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="50" t="s">
+      <c r="I6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50" t="s">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E7" s="52">
-        <v>1</v>
-      </c>
-      <c r="F7" s="52">
-        <v>2</v>
-      </c>
-      <c r="G7" s="52" t="s">
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="52" t="s">
+      <c r="I7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52" t="s">
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50">
-        <v>1</v>
-      </c>
-      <c r="F8" s="50">
-        <v>1</v>
-      </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50">
-        <v>1</v>
-      </c>
-      <c r="F9" s="50">
-        <v>2</v>
-      </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
         <v>32</v>
       </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50" t="s">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50">
-        <v>1</v>
-      </c>
-      <c r="F10" s="50">
-        <v>2</v>
-      </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
         <v>32</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50" t="s">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29758,431 +29698,431 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92F937F-868B-4332-A89B-0E80B1BEEA01}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="21"/>
+    <col min="12" max="12" width="20.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="46" t="s">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickTop="1">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:17" ht="15.75" thickTop="1">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48">
-        <v>0</v>
-      </c>
-      <c r="F2" s="48">
-        <v>1</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="45" t="s">
         <v>483</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="46" t="s">
         <v>483</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="46" t="s">
         <v>485</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="54">
-        <v>0</v>
-      </c>
-      <c r="F3" s="54">
-        <v>1</v>
-      </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54" t="s">
+      <c r="E3" s="46">
+        <v>0</v>
+      </c>
+      <c r="F3" s="46">
+        <v>1</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46" t="s">
         <v>484</v>
       </c>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50">
-        <v>0</v>
-      </c>
-      <c r="F4" s="50">
-        <v>2</v>
-      </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52">
-        <v>1</v>
-      </c>
-      <c r="F5" s="52">
-        <v>2</v>
-      </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="52" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E6" s="50">
-        <v>1</v>
-      </c>
-      <c r="F6" s="50">
-        <v>2</v>
-      </c>
-      <c r="G6" s="50" t="s">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="50" t="s">
+      <c r="I6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50" t="s">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E7" s="50">
-        <v>1</v>
-      </c>
-      <c r="F7" s="50">
-        <v>2</v>
-      </c>
-      <c r="G7" s="50" t="s">
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="50" t="s">
+      <c r="I7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="50" t="s">
+      <c r="L7" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50" t="s">
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E8" s="52">
-        <v>1</v>
-      </c>
-      <c r="F8" s="52">
-        <v>2</v>
-      </c>
-      <c r="G8" s="52" t="s">
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="52" t="s">
+      <c r="I8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="52" t="s">
+      <c r="L8" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52" t="s">
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50">
-        <v>1</v>
-      </c>
-      <c r="F9" s="50">
-        <v>1</v>
-      </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50">
-        <v>1</v>
-      </c>
-      <c r="F10" s="50">
-        <v>2</v>
-      </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
         <v>32</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50" t="s">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50">
-        <v>1</v>
-      </c>
-      <c r="F11" s="50">
-        <v>2</v>
-      </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6">
         <v>32</v>
       </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50" t="s">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\AutoAMLS\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7909168A-D182-49C3-85B9-59D24C719469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E27776A-0DF1-44D2-B223-5A3E2312BAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="930" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="930" firstSheet="7" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="7" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5067" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5067" uniqueCount="487">
   <si>
     <t>SuiteName</t>
   </si>
@@ -1521,6 +1521,9 @@
   </si>
   <si>
     <t>QInputDialog</t>
+  </si>
+  <si>
+    <t>DFLZM_SX5GEV_appl_lin.s19</t>
   </si>
 </sst>
 </file>
@@ -3890,7 +3893,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4101,7 +4104,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="10" t="s">
-        <v>28</v>
+        <v>486</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>29</v>
@@ -6570,7 +6573,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B37" sqref="A37:XFD37"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6781,7 +6784,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="10" t="s">
-        <v>28</v>
+        <v>486</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>29</v>
@@ -9250,7 +9253,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9461,7 +9464,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="10" t="s">
-        <v>28</v>
+        <v>486</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>29</v>
@@ -11929,7 +11932,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O16" sqref="O15:O16"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12140,7 +12143,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="10" t="s">
-        <v>28</v>
+        <v>486</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>29</v>
@@ -13269,7 +13272,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13480,7 +13483,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="10" t="s">
-        <v>28</v>
+        <v>486</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>29</v>
@@ -14608,7 +14611,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16592,7 +16595,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O16" sqref="O15:O16"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16803,7 +16806,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="10" t="s">
-        <v>28</v>
+        <v>486</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>29</v>
@@ -19271,8 +19274,8 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19483,7 +19486,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="10" t="s">
-        <v>28</v>
+        <v>486</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>29</v>
@@ -26783,8 +26786,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13:P34"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\AutoAMLS\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\AutoPlasticOmnium\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E27776A-0DF1-44D2-B223-5A3E2312BAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F634272-6593-4EFD-ACA3-E3526EF94774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="930" firstSheet="7" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="930" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="7" r:id="rId1"/>
@@ -23,35 +23,37 @@
     <sheet name="RM_SX5GEV_EOL" sheetId="23" r:id="rId8"/>
     <sheet name="FL_SX5GEV_EOL" sheetId="19" r:id="rId9"/>
     <sheet name="FLB_SX5GEV_EOL" sheetId="24" r:id="rId10"/>
-    <sheet name="FRB_SX5GEV_EOL" sheetId="25" r:id="rId11"/>
-    <sheet name="FL_SX5GEV" sheetId="8" r:id="rId12"/>
-    <sheet name="RL_M4" sheetId="3" r:id="rId13"/>
-    <sheet name="RL_SX5GEV" sheetId="9" r:id="rId14"/>
-    <sheet name="FR_M4" sheetId="2" r:id="rId15"/>
-    <sheet name="FR_SX5GEV" sheetId="10" r:id="rId16"/>
-    <sheet name="RR_M4" sheetId="4" r:id="rId17"/>
-    <sheet name="RR_SX5GEV" sheetId="12" r:id="rId18"/>
-    <sheet name="RM_SX5GEV" sheetId="13" r:id="rId19"/>
-    <sheet name="RML_M4" sheetId="5" r:id="rId20"/>
-    <sheet name="FLB_SX5GEV" sheetId="14" r:id="rId21"/>
-    <sheet name="RMR_M4" sheetId="6" r:id="rId22"/>
-    <sheet name="FRB_SX5GEV" sheetId="15" r:id="rId23"/>
-    <sheet name="LTT" sheetId="16" r:id="rId24"/>
+    <sheet name="ALE" sheetId="26" r:id="rId11"/>
+    <sheet name="FRB_SX5GEV_EOL" sheetId="25" r:id="rId12"/>
+    <sheet name="FL_SX5GEV" sheetId="8" r:id="rId13"/>
+    <sheet name="RL_M4" sheetId="3" r:id="rId14"/>
+    <sheet name="RL_SX5GEV" sheetId="9" r:id="rId15"/>
+    <sheet name="FR_M4" sheetId="2" r:id="rId16"/>
+    <sheet name="FR_SX5GEV" sheetId="10" r:id="rId17"/>
+    <sheet name="RR_M4" sheetId="4" r:id="rId18"/>
+    <sheet name="RR_SX5GEV" sheetId="12" r:id="rId19"/>
+    <sheet name="RM_SX5GEV" sheetId="13" r:id="rId20"/>
+    <sheet name="RML_M4" sheetId="5" r:id="rId21"/>
+    <sheet name="FLB_SX5GEV" sheetId="14" r:id="rId22"/>
+    <sheet name="RMR_M4" sheetId="6" r:id="rId23"/>
+    <sheet name="FRB_SX5GEV" sheetId="15" r:id="rId24"/>
+    <sheet name="LTT" sheetId="16" r:id="rId25"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">ALE!$A$1:$Q$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FL_M4!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">FL_SX5GEV!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">FLB_SX5GEV!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">FR_M4!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">FR_SX5GEV!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">FRB_SX5GEV!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">RL_M4!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">RL_SX5GEV!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">RM_SX5GEV!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">RML_M4!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">RMR_M4!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">RR_M4!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">RR_SX5GEV!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">FL_SX5GEV!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">FLB_SX5GEV!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">FR_M4!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">FR_SX5GEV!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">FRB_SX5GEV!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">RL_M4!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">RL_SX5GEV!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">RM_SX5GEV!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">RML_M4!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">RMR_M4!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">RR_M4!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">RR_SX5GEV!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5067" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5178" uniqueCount="527">
   <si>
     <t>SuiteName</t>
   </si>
@@ -1524,13 +1526,133 @@
   </si>
   <si>
     <t>DFLZM_SX5GEV_appl_lin.s19</t>
+  </si>
+  <si>
+    <t>Unlocking</t>
+  </si>
+  <si>
+    <t>00 00 00 00 00 80 05 00</t>
+  </si>
+  <si>
+    <t>00 00 82 00 00 00 00 00</t>
+  </si>
+  <si>
+    <t>locking32</t>
+  </si>
+  <si>
+    <t>locking33</t>
+  </si>
+  <si>
+    <t>00 08 82 00 00 00 00 00</t>
+  </si>
+  <si>
+    <t>Locking</t>
+  </si>
+  <si>
+    <t>unlocking32</t>
+  </si>
+  <si>
+    <t>unlocking33</t>
+  </si>
+  <si>
+    <t>00 00 00 00 00 84 05 00</t>
+  </si>
+  <si>
+    <t>WelcomeOn</t>
+  </si>
+  <si>
+    <t>welcomeOn32</t>
+  </si>
+  <si>
+    <t>welcomeOn33</t>
+  </si>
+  <si>
+    <t>WelcomeOff</t>
+  </si>
+  <si>
+    <t>welcomeOff32</t>
+  </si>
+  <si>
+    <t>welcomeOff33</t>
+  </si>
+  <si>
+    <t>parking32</t>
+  </si>
+  <si>
+    <t>parking33</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>00 80 00 00 00 80 05 00</t>
+  </si>
+  <si>
+    <t>DoorOpen</t>
+  </si>
+  <si>
+    <t>doorOpen32</t>
+  </si>
+  <si>
+    <t>doorOpen33</t>
+  </si>
+  <si>
+    <t>00 80 00 00 00 84 05 00</t>
+  </si>
+  <si>
+    <t>DoorClose</t>
+  </si>
+  <si>
+    <t>doorClose32</t>
+  </si>
+  <si>
+    <t>doorClose33</t>
+  </si>
+  <si>
+    <t>Autopark</t>
+  </si>
+  <si>
+    <t>autopark32</t>
+  </si>
+  <si>
+    <t>autopark33</t>
+  </si>
+  <si>
+    <t>AutoparkClose</t>
+  </si>
+  <si>
+    <t>autoparkClose32</t>
+  </si>
+  <si>
+    <t>autoparkClose33</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>InitPLIN</t>
+  </si>
+  <si>
+    <t>PLINInitConnectELV</t>
+  </si>
+  <si>
+    <t>WaitingALE</t>
+  </si>
+  <si>
+    <t>PLINGetMsg32</t>
+  </si>
+  <si>
+    <t>PLINGetMsg33</t>
+  </si>
+  <si>
+    <t>00 00 82 00 02 00 00 00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1739,6 +1861,12 @@
       <color theme="1"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="39">
@@ -1958,7 +2086,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2281,6 +2409,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2421,7 +2562,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -2555,6 +2696,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="43" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="28" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2926,14 +3070,14 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
+    <row r="1" spans="1:5" ht="16.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3012,7 +3156,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30">
+    <row r="6" spans="1:5" ht="28.8">
       <c r="A6" s="16"/>
       <c r="B6" s="16" t="s">
         <v>122</v>
@@ -3084,31 +3228,31 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="21"/>
+    <col min="12" max="12" width="20.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+    <row r="1" spans="1:17" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3161,7 +3305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickTop="1">
+    <row r="2" spans="1:17" ht="15" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -3483,35 +3627,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA96ACC4-76A0-4595-9011-9D435733D668}">
-  <dimension ref="A1:Q10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E921F15E-CC09-480D-89AA-1410904B6CB6}">
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="21"/>
+    <col min="12" max="12" width="20.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3564,55 +3708,49 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickTop="1">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4">
-        <v>54</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+    <row r="2" spans="1:17">
+      <c r="A2" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="5" t="s">
-        <v>472</v>
-      </c>
+      <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>471</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>44</v>
+        <v>471</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3627,6 +3765,1053 @@
       <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6">
+        <v>32</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6">
+        <v>33</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" s="47" customFormat="1">
+      <c r="B6" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>523</v>
+      </c>
+      <c r="E6" s="47">
+        <v>1</v>
+      </c>
+      <c r="F6" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6">
+        <v>32</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6">
+        <v>33</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>30</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
+        <v>32</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6">
+        <v>33</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>30</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6">
+        <v>32</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6">
+        <v>33</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6">
+        <v>32</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6">
+        <v>33</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>30</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6">
+        <v>32</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6">
+        <v>33</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>30</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6">
+        <v>32</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6">
+        <v>33</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6">
+        <v>32</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6">
+        <v>33</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>30</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6">
+        <v>32</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6">
+        <v>33</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>3</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6">
+        <v>32</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6">
+        <v>33</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q33" xr:uid="{E921F15E-CC09-480D-89AA-1410904B6CB6}"/>
+  <phoneticPr fontId="26" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA96ACC4-76A0-4595-9011-9D435733D668}">
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickTop="1">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4">
+        <v>54</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>45</v>
@@ -3885,7 +5070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187521E3-34CD-4853-96D8-09FEDBCC57EA}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="0"/>
@@ -3896,26 +5081,26 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3965,7 +5150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1">
+    <row r="2" spans="1:16" ht="15" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -5227,7 +6412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261B1219-38CE-4351-AD11-269BFB7FFF97}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P37"/>
@@ -5236,26 +6421,26 @@
       <selection activeCell="O16" sqref="O15:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5305,7 +6490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1">
+    <row r="2" spans="1:16" ht="15" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -6567,7 +7752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE649F2B-974E-4884-919A-13B065570817}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P37"/>
@@ -6576,26 +7761,26 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6645,7 +7830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1">
+    <row r="2" spans="1:16" ht="15" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -7908,7 +9093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00BCB73-0A41-4E03-A788-D5EA2C3C0B74}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P37"/>
@@ -7917,26 +9102,26 @@
       <selection activeCell="O16" sqref="O15:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -7986,7 +9171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1">
+    <row r="2" spans="1:16" ht="15" thickTop="1">
       <c r="A2" s="25" t="s">
         <v>14</v>
       </c>
@@ -9247,7 +10432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0B433B-22B3-47FF-9A7D-ABAD8D388B79}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P37"/>
@@ -9256,26 +10441,26 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -9325,7 +10510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1">
+    <row r="2" spans="1:16" ht="15" thickTop="1">
       <c r="A2" s="25" t="s">
         <v>14</v>
       </c>
@@ -10586,7 +11771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295BE820-F643-4CA9-8D2F-6495CEB556CC}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:P37"/>
@@ -10595,26 +11780,26 @@
       <selection activeCell="O16" sqref="O15:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10664,7 +11849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1">
+    <row r="2" spans="1:16" ht="15" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -11926,7 +13111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A168DF-D4C0-449A-AC46-4FB9A8E3F54F}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:P37"/>
@@ -11935,26 +13120,26 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12004,7 +13189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1">
+    <row r="2" spans="1:16" ht="15" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -12028,1346 +13213,6 @@
       <c r="K2" s="4"/>
       <c r="L2" s="12">
         <v>53</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>2</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8">
-        <v>2</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="37" customFormat="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="E14" s="35">
-        <v>1</v>
-      </c>
-      <c r="F14" s="35">
-        <v>2</v>
-      </c>
-      <c r="G14" s="35">
-        <v>62</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>449</v>
-      </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35" t="s">
-        <v>451</v>
-      </c>
-      <c r="P14" s="35"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N20" s="8"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
-        <v>2</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
-        <v>2</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>2</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>2</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
-        <v>2</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L25" s="6">
-        <v>37</v>
-      </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
-        <v>2</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="O26" s="6"/>
-      <c r="P26" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>2</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
-        <v>3</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="O28" s="6"/>
-      <c r="P28" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
-        <v>2</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="N29" s="6"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
-        <v>2</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="O30" s="6"/>
-      <c r="P30" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="6">
-        <v>2</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L31" s="6">
-        <v>37</v>
-      </c>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>5</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="O32" s="6"/>
-      <c r="P32" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6">
-        <v>1</v>
-      </c>
-      <c r="F33" s="6">
-        <v>2</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8">
-        <v>1</v>
-      </c>
-      <c r="F34" s="8">
-        <v>2</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6">
-        <v>2</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="6"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8">
-        <v>1</v>
-      </c>
-      <c r="F36" s="8">
-        <v>2</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L36" s="8">
-        <v>14</v>
-      </c>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="8"/>
-    </row>
-    <row r="37" spans="1:16" s="37" customFormat="1">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35" t="s">
-        <v>450</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="E37" s="35">
-        <v>1</v>
-      </c>
-      <c r="F37" s="35">
-        <v>2</v>
-      </c>
-      <c r="G37" s="35">
-        <v>62</v>
-      </c>
-      <c r="H37" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="I37" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="J37" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="K37" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="L37" s="35" t="s">
-        <v>449</v>
-      </c>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688DACE5-0F90-4CB2-83BE-414E65E6A3CC}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:P37"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="12">
-        <v>51</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>8</v>
@@ -14614,23 +14459,23 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="44" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -15250,34 +15095,34 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13C69ED-C3B9-4662-896B-899D1579730D}">
-  <sheetPr codeName="Sheet10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688DACE5-0F90-4CB2-83BE-414E65E6A3CC}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O16" sqref="O15:O16"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15327,7 +15172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1">
+    <row r="2" spans="1:16" ht="15" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -15466,7 +15311,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="10" t="s">
-        <v>28</v>
+        <v>486</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>29</v>
@@ -16590,34 +16435,34 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F059E497-B15E-405E-87DD-46A726DFE9D8}">
-  <sheetPr codeName="Sheet14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13C69ED-C3B9-4662-896B-899D1579730D}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O16" sqref="O15:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16667,7 +16512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1">
+    <row r="2" spans="1:16" ht="15" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -16690,7 +16535,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="12">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>8</v>
@@ -16806,7 +16651,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="10" t="s">
-        <v>486</v>
+        <v>28</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>29</v>
@@ -17930,34 +17775,34 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE3E380-37FE-404D-BB5A-4423923555FA}">
-  <sheetPr codeName="Sheet11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F059E497-B15E-405E-87DD-46A726DFE9D8}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O16" sqref="O15:O16"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18007,7 +17852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1">
+    <row r="2" spans="1:16" ht="15" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -18146,7 +17991,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="10" t="s">
-        <v>28</v>
+        <v>486</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>29</v>
@@ -19270,34 +19115,34 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BF82C3-258C-4984-9472-89B44C2842FD}">
-  <sheetPr codeName="Sheet15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE3E380-37FE-404D-BB5A-4423923555FA}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O16" sqref="O15:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19347,7 +19192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1">
+    <row r="2" spans="1:16" ht="15" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -19370,7 +19215,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="12">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>8</v>
@@ -19486,7 +19331,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="10" t="s">
-        <v>486</v>
+        <v>28</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>29</v>
@@ -20610,39 +20455,1379 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BF82C3-258C-4984-9472-89B44C2842FD}">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickTop="1">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="12">
+        <v>54</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
+        <v>2</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="37" customFormat="1">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="E14" s="35">
+        <v>1</v>
+      </c>
+      <c r="F14" s="35">
+        <v>2</v>
+      </c>
+      <c r="G14" s="35">
+        <v>62</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="N20" s="8"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>2</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>2</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="6">
+        <v>37</v>
+      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>2</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O26" s="6"/>
+      <c r="P26" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>2</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>3</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O28" s="6"/>
+      <c r="P28" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>2</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N29" s="6"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
+        <v>2</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O30" s="6"/>
+      <c r="P30" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>2</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L31" s="6">
+        <v>37</v>
+      </c>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>5</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O32" s="6"/>
+      <c r="P32" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <v>2</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8">
+        <v>1</v>
+      </c>
+      <c r="F34" s="8">
+        <v>2</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>2</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8">
+        <v>1</v>
+      </c>
+      <c r="F36" s="8">
+        <v>2</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L36" s="8">
+        <v>14</v>
+      </c>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="1:16" s="37" customFormat="1">
+      <c r="A37" s="34"/>
+      <c r="B37" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="E37" s="35">
+        <v>1</v>
+      </c>
+      <c r="F37" s="35">
+        <v>2</v>
+      </c>
+      <c r="G37" s="35">
+        <v>62</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:P1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5BD5C7-F362-46B8-9E4D-70C77EAB5AEF}">
   <dimension ref="A1:Y217"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H227" sqref="H227"/>
+    <sheetView topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="21"/>
+    <col min="21" max="21" width="6.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -26222,23 +27407,23 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="44" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -26790,26 +27975,26 @@
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26859,7 +28044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1">
+    <row r="2" spans="1:16" ht="15" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -28093,28 +29278,28 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="21"/>
+    <col min="12" max="12" width="20.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+    <row r="1" spans="1:17" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28167,7 +29352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickTop="1">
+    <row r="2" spans="1:17" ht="15" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -28496,28 +29681,28 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="21"/>
+    <col min="12" max="12" width="20.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+    <row r="1" spans="1:17" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28570,7 +29755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickTop="1">
+    <row r="2" spans="1:17" ht="15" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -28899,28 +30084,28 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="21"/>
+    <col min="12" max="12" width="20.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+    <row r="1" spans="1:17" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28973,7 +30158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickTop="1">
+    <row r="2" spans="1:17" ht="15" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -29302,28 +30487,28 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="21"/>
+    <col min="12" max="12" width="20.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+    <row r="1" spans="1:17" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29376,7 +30561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickTop="1">
+    <row r="2" spans="1:17" ht="15" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -29701,32 +30886,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92F937F-868B-4332-A89B-0E80B1BEEA01}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="21"/>
+    <col min="12" max="12" width="20.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+    <row r="1" spans="1:17" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29779,7 +30964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickTop="1">
+    <row r="2" spans="1:17" ht="15" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\AutoPlasticOmnium\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F634272-6593-4EFD-ACA3-E3526EF94774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C04EB44-1CB9-46B6-BE37-F2B3B1D96B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="930" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3630,8 +3630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E921F15E-CC09-480D-89AA-1410904B6CB6}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -4645,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\AutoPlasticOmnium\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C04EB44-1CB9-46B6-BE37-F2B3B1D96B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81627522-C95B-4377-B002-EE19C6134A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="930" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3631,7 +3631,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -3834,7 +3834,7 @@
         <v>523</v>
       </c>
       <c r="E6" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="47">
         <v>1</v>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="6">
         <v>30</v>
@@ -4642,7 +4642,7 @@
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="6">
         <v>10</v>

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\AutoPlasticOmnium\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE6F77B-B9A7-4018-BC7D-1A4399DBF81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2852D8F6-6088-4FD6-9E93-B228931CB656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="1" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="7" r:id="rId1"/>
@@ -2591,7 +2591,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -2735,10 +2735,28 @@
     <xf numFmtId="0" fontId="20" fillId="41" borderId="14" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="14" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2793,7 +2811,722 @@
     <cellStyle name="注释 2" xfId="44" xr:uid="{F3AB96AE-817D-4279-B6C1-D2B2EF32D7CF}"/>
     <cellStyle name="警告文本 2" xfId="3" xr:uid="{645DDA24-EC4B-4017-9B81-8545B65B2980}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2807,6 +3540,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F7B3D7E6-E8F4-4A99-9E96-5E5CD7355C13}" name="Table3" displayName="Table3" ref="A1:Q33" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
+  <autoFilter ref="A1:Q33" xr:uid="{F7B3D7E6-E8F4-4A99-9E96-5E5CD7355C13}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{87D1869F-E5CC-4E60-ACD3-28ADD945AFD2}" name="SuiteName" dataDxfId="18" dataCellStyle="常规 3"/>
+    <tableColumn id="2" xr3:uid="{5B84D527-C53E-4002-8A0A-F08D9A6482FD}" name="StepName" dataDxfId="17" dataCellStyle="常规 3"/>
+    <tableColumn id="3" xr3:uid="{83EAB9B6-4C5D-44C7-AD13-97EEEFE9B22F}" name="Keyword" dataDxfId="16" dataCellStyle="常规 3"/>
+    <tableColumn id="4" xr3:uid="{89417577-A179-4EDB-BB48-8E03D52E3557}" name="Json" dataDxfId="15" dataCellStyle="常规 3"/>
+    <tableColumn id="5" xr3:uid="{1DE854ED-334F-4043-BDF8-E5AAB32D6F9F}" name="Retry" dataDxfId="14" dataCellStyle="常规 3"/>
+    <tableColumn id="6" xr3:uid="{0105D6E4-750A-46C5-9A14-11BF3C575113}" name="Timeout" dataDxfId="13" dataCellStyle="常规 3"/>
+    <tableColumn id="7" xr3:uid="{56E02C3C-624F-4D47-81FA-3EE5DC3761E9}" name="SubStr1" dataDxfId="12" dataCellStyle="常规 3"/>
+    <tableColumn id="8" xr3:uid="{0D469B1B-13E8-45EE-96CB-5060EC7A877E}" name="SubStr2" dataDxfId="11" dataCellStyle="常规 3"/>
+    <tableColumn id="9" xr3:uid="{3D4B0EC3-8C79-4453-BFB5-3333BB127BAC}" name="ID" dataDxfId="10" dataCellStyle="常规 3"/>
+    <tableColumn id="10" xr3:uid="{26E317CD-9BE1-4ACB-86D6-3FC9540DCFEB}" name="NAD" dataDxfId="9" dataCellStyle="常规 3"/>
+    <tableColumn id="11" xr3:uid="{77C4B434-6477-4B67-86E0-2565AB5F235F}" name="PCI_LEN" dataDxfId="8" dataCellStyle="常规 3"/>
+    <tableColumn id="12" xr3:uid="{F60F9C0D-C8DE-4B2B-942D-489EBC353C44}" name="CmdOrParam" dataDxfId="7" dataCellStyle="常规 3"/>
+    <tableColumn id="13" xr3:uid="{A57B0F6D-EE20-4665-8ADB-F7B477713719}" name="SetGlobalVar" dataDxfId="6" dataCellStyle="常规 3"/>
+    <tableColumn id="14" xr3:uid="{47E0619F-7A93-476C-B065-AD00DD36855A}" name="CheckStr1" dataDxfId="5" dataCellStyle="常规 3"/>
+    <tableColumn id="15" xr3:uid="{C0F86F11-1573-41FF-A474-B99BA57A8786}" name="SPEC" dataDxfId="4" dataCellStyle="常规 3"/>
+    <tableColumn id="16" xr3:uid="{0454BD28-9FF3-4377-968D-8197F5CE0D3A}" name="ByPF" dataDxfId="3" dataCellStyle="常规 3"/>
+    <tableColumn id="17" xr3:uid="{AB7C624F-B63C-451F-98DD-A9E1ECD80C4A}" name="TearDown" dataDxfId="2" dataCellStyle="常规 3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FE7E0029-CF81-4718-8248-5BAD332AF63B}" name="Table2" displayName="Table2" ref="A1:Y217" totalsRowShown="0" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
   <autoFilter ref="A1:Y217" xr:uid="{FE7E0029-CF81-4718-8248-5BAD332AF63B}"/>
   <tableColumns count="25">
@@ -4259,7 +5018,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="6" t="s">
         <v>526</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -4289,7 +5048,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="8" t="s">
         <v>526</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -5411,1040 +6170,1054 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E921F15E-CC09-480D-89AA-1410904B6CB6}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="21" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="21" customWidth="1"/>
+    <col min="7" max="8" width="9.85546875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="5" style="21" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="21" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="21" customWidth="1"/>
     <col min="12" max="12" width="20.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="21" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="21" customWidth="1"/>
     <col min="15" max="15" width="22.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="21" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="21" customWidth="1"/>
     <col min="18" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="52" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:17" ht="15.75" thickTop="1">
+      <c r="A2" s="53" t="s">
         <v>517</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="54" t="s">
         <v>518</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>2</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54">
+        <v>0</v>
+      </c>
+      <c r="F2" s="54">
+        <v>2</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56" t="s">
         <v>467</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="56" t="s">
         <v>467</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56">
+        <v>1</v>
+      </c>
+      <c r="F3" s="56">
+        <v>1</v>
+      </c>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58" t="s">
         <v>486</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="58" t="s">
         <v>520</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6">
+      <c r="D4" s="58"/>
+      <c r="E4" s="58">
+        <v>0</v>
+      </c>
+      <c r="F4" s="58">
+        <v>0</v>
+      </c>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58">
         <v>32</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6" t="s">
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56" t="s">
         <v>487</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="56" t="s">
         <v>521</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56">
+        <v>0</v>
+      </c>
+      <c r="F5" s="56">
+        <v>0</v>
+      </c>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56">
         <v>33</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6" t="s">
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56" t="s">
         <v>488</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
     </row>
     <row r="6" spans="1:17" s="47" customFormat="1">
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="58" t="s">
         <v>414</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="58" t="s">
         <v>519</v>
       </c>
-      <c r="E6" s="47">
-        <v>0</v>
-      </c>
-      <c r="F6" s="47">
-        <v>1</v>
-      </c>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58">
+        <v>0</v>
+      </c>
+      <c r="F6" s="58">
+        <v>1</v>
+      </c>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="55" t="s">
         <v>483</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="56" t="s">
         <v>490</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="56" t="s">
         <v>520</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56">
+        <v>0</v>
+      </c>
+      <c r="F7" s="56">
+        <v>0</v>
+      </c>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56">
         <v>32</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6" t="s">
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56" t="s">
         <v>484</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="58" t="s">
         <v>521</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6">
+      <c r="D8" s="58"/>
+      <c r="E8" s="58">
+        <v>0</v>
+      </c>
+      <c r="F8" s="58">
+        <v>0</v>
+      </c>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58">
         <v>33</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6" t="s">
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58" t="s">
         <v>485</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56" t="s">
         <v>516</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="56" t="s">
         <v>519</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="56"/>
+      <c r="E9" s="56">
+        <v>0</v>
+      </c>
+      <c r="F9" s="56">
         <v>30</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="57" t="s">
         <v>493</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="58" t="s">
         <v>494</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="58" t="s">
         <v>520</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6">
+      <c r="D10" s="58"/>
+      <c r="E10" s="58">
+        <v>0</v>
+      </c>
+      <c r="F10" s="58">
+        <v>0</v>
+      </c>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58">
         <v>32</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6" t="s">
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58" t="s">
         <v>492</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="56" t="s">
         <v>495</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="56" t="s">
         <v>521</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6">
+      <c r="D11" s="56"/>
+      <c r="E11" s="56">
+        <v>0</v>
+      </c>
+      <c r="F11" s="56">
+        <v>0</v>
+      </c>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56">
         <v>33</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6" t="s">
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56" t="s">
         <v>485</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="58" t="s">
         <v>516</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="58" t="s">
         <v>519</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="D12" s="58"/>
+      <c r="E12" s="58">
+        <v>0</v>
+      </c>
+      <c r="F12" s="58">
         <v>30</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="55" t="s">
         <v>496</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="56" t="s">
         <v>497</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="56" t="s">
         <v>520</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6">
+      <c r="D13" s="56"/>
+      <c r="E13" s="56">
+        <v>0</v>
+      </c>
+      <c r="F13" s="56">
+        <v>0</v>
+      </c>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56">
         <v>32</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6" t="s">
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56" t="s">
         <v>484</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="57"/>
+      <c r="B14" s="58" t="s">
         <v>498</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="58" t="s">
         <v>521</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6">
+      <c r="D14" s="58"/>
+      <c r="E14" s="58">
+        <v>0</v>
+      </c>
+      <c r="F14" s="58">
+        <v>0</v>
+      </c>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58">
         <v>33</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6" t="s">
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58" t="s">
         <v>485</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="56" t="s">
         <v>516</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="56" t="s">
         <v>519</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56">
+        <v>0</v>
+      </c>
+      <c r="F15" s="56">
+        <v>1</v>
+      </c>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="57" t="s">
         <v>501</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="58" t="s">
         <v>499</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="58" t="s">
         <v>520</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6">
+      <c r="D16" s="58"/>
+      <c r="E16" s="58">
+        <v>0</v>
+      </c>
+      <c r="F16" s="58">
+        <v>0</v>
+      </c>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58">
         <v>32</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6" t="s">
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58" t="s">
         <v>502</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="56" t="s">
         <v>500</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="56" t="s">
         <v>521</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6">
+      <c r="D17" s="56"/>
+      <c r="E17" s="56">
+        <v>0</v>
+      </c>
+      <c r="F17" s="56">
+        <v>0</v>
+      </c>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56">
         <v>33</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6" t="s">
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56" t="s">
         <v>485</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="58" t="s">
         <v>516</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="58" t="s">
         <v>519</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="D18" s="58"/>
+      <c r="E18" s="58">
+        <v>0</v>
+      </c>
+      <c r="F18" s="58">
         <v>30</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="55" t="s">
         <v>503</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="56" t="s">
         <v>504</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="56" t="s">
         <v>520</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6">
+      <c r="D19" s="56"/>
+      <c r="E19" s="56">
+        <v>0</v>
+      </c>
+      <c r="F19" s="56">
+        <v>0</v>
+      </c>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56">
         <v>32</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6" t="s">
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56" t="s">
         <v>506</v>
       </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="58" t="s">
         <v>505</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="58" t="s">
         <v>521</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6">
+      <c r="D20" s="58"/>
+      <c r="E20" s="58">
+        <v>0</v>
+      </c>
+      <c r="F20" s="58">
+        <v>0</v>
+      </c>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58">
         <v>33</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6" t="s">
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58" t="s">
         <v>485</v>
       </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="55"/>
+      <c r="B21" s="56" t="s">
         <v>516</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="56" t="s">
         <v>519</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="D21" s="56"/>
+      <c r="E21" s="56">
+        <v>0</v>
+      </c>
+      <c r="F21" s="56">
         <v>30</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="57" t="s">
         <v>507</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="58" t="s">
         <v>508</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="58" t="s">
         <v>520</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6">
+      <c r="D22" s="58"/>
+      <c r="E22" s="58">
+        <v>0</v>
+      </c>
+      <c r="F22" s="58">
+        <v>0</v>
+      </c>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58">
         <v>32</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6" t="s">
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58" t="s">
         <v>502</v>
       </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="55"/>
+      <c r="B23" s="56" t="s">
         <v>509</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="56" t="s">
         <v>521</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6">
+      <c r="D23" s="56"/>
+      <c r="E23" s="56">
+        <v>0</v>
+      </c>
+      <c r="F23" s="56">
+        <v>0</v>
+      </c>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56">
         <v>33</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6" t="s">
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56" t="s">
         <v>485</v>
       </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="57"/>
+      <c r="B24" s="58" t="s">
         <v>516</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="58" t="s">
         <v>519</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58">
+        <v>0</v>
+      </c>
+      <c r="F24" s="58">
+        <v>1</v>
+      </c>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="55" t="s">
         <v>510</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="56" t="s">
         <v>511</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="56" t="s">
         <v>520</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6">
+      <c r="D25" s="56"/>
+      <c r="E25" s="56">
+        <v>0</v>
+      </c>
+      <c r="F25" s="56">
+        <v>0</v>
+      </c>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56">
         <v>32</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6" t="s">
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56" t="s">
         <v>502</v>
       </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="57"/>
+      <c r="B26" s="58" t="s">
         <v>512</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="58" t="s">
         <v>521</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6">
+      <c r="D26" s="58"/>
+      <c r="E26" s="58">
+        <v>0</v>
+      </c>
+      <c r="F26" s="58">
+        <v>0</v>
+      </c>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58">
         <v>33</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6" t="s">
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58" t="s">
         <v>522</v>
       </c>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="55"/>
+      <c r="B27" s="56" t="s">
         <v>516</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="56" t="s">
         <v>519</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="D27" s="56"/>
+      <c r="E27" s="56">
+        <v>0</v>
+      </c>
+      <c r="F27" s="56">
         <v>30</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="57" t="s">
         <v>513</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="58" t="s">
         <v>514</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="58" t="s">
         <v>520</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6">
+      <c r="D28" s="58"/>
+      <c r="E28" s="58">
+        <v>0</v>
+      </c>
+      <c r="F28" s="58">
+        <v>0</v>
+      </c>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58">
         <v>32</v>
       </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6" t="s">
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="55"/>
+      <c r="B29" s="56" t="s">
         <v>515</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="56" t="s">
         <v>521</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6">
+      <c r="D29" s="56"/>
+      <c r="E29" s="56">
+        <v>0</v>
+      </c>
+      <c r="F29" s="56">
+        <v>0</v>
+      </c>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56">
         <v>33</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6" t="s">
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56" t="s">
         <v>485</v>
       </c>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="57"/>
+      <c r="B30" s="58" t="s">
         <v>516</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="58" t="s">
         <v>519</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58">
+        <v>0</v>
+      </c>
+      <c r="F30" s="58">
+        <v>1</v>
+      </c>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="55" t="s">
         <v>489</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="56" t="s">
         <v>486</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="56" t="s">
         <v>520</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6">
+      <c r="D31" s="56"/>
+      <c r="E31" s="56">
+        <v>0</v>
+      </c>
+      <c r="F31" s="56">
+        <v>0</v>
+      </c>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56">
         <v>32</v>
       </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6" t="s">
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56" t="s">
         <v>484</v>
       </c>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="57"/>
+      <c r="B32" s="58" t="s">
         <v>487</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="58" t="s">
         <v>521</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="6">
-        <v>0</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6">
+      <c r="D32" s="58"/>
+      <c r="E32" s="58">
+        <v>0</v>
+      </c>
+      <c r="F32" s="58">
+        <v>0</v>
+      </c>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58">
         <v>33</v>
       </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6" t="s">
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58" t="s">
         <v>488</v>
       </c>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="55"/>
+      <c r="B33" s="56" t="s">
         <v>516</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="56" t="s">
         <v>519</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="D33" s="56"/>
+      <c r="E33" s="56">
+        <v>0</v>
+      </c>
+      <c r="F33" s="56">
         <v>10</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q33" xr:uid="{E921F15E-CC09-480D-89AA-1410904B6CB6}"/>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -7011,7 +7784,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="6" t="s">
         <v>526</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -7041,7 +7814,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="8" t="s">
         <v>526</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -8195,7 +8968,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:XFD11"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8347,7 +9120,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="6" t="s">
         <v>526</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -8377,7 +9150,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="8" t="s">
         <v>526</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -9687,7 +10460,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="6" t="s">
         <v>526</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -9717,7 +10490,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="8" t="s">
         <v>526</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -11024,7 +11797,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="6" t="s">
         <v>526</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -11054,7 +11827,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="8" t="s">
         <v>526</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -12362,7 +13135,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="6" t="s">
         <v>526</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -12392,7 +13165,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="8" t="s">
         <v>526</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -14310,7 +15083,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="6" t="s">
         <v>526</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -14340,7 +15113,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="8" t="s">
         <v>526</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -15616,7 +16389,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="6" t="s">
         <v>526</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -15646,7 +16419,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="8" t="s">
         <v>526</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -16798,7 +17571,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
@@ -16951,7 +17724,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="6" t="s">
         <v>526</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -16981,7 +17754,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="8" t="s">
         <v>526</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -18291,7 +19064,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="6" t="s">
         <v>526</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -18321,7 +19094,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="8" t="s">
         <v>526</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -19627,7 +20400,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="6" t="s">
         <v>526</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -19657,7 +20430,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="8" t="s">
         <v>526</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -20963,7 +21736,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="6" t="s">
         <v>526</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -20993,7 +21766,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="8" t="s">
         <v>526</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -22303,7 +23076,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="6" t="s">
         <v>526</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -22333,7 +23106,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="8" t="s">
         <v>526</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -23639,7 +24412,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="6" t="s">
         <v>526</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -23669,7 +24442,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="8" t="s">
         <v>526</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -24979,7 +25752,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="6" t="s">
         <v>526</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -25009,7 +25782,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="8" t="s">
         <v>526</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -32487,7 +33260,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="6" t="s">
         <v>526</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -32517,7 +33290,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="8" t="s">
         <v>526</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -33790,7 +34563,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="6" t="s">
         <v>526</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -33820,7 +34593,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="8" t="s">
         <v>526</v>
       </c>
       <c r="M5" s="8" t="s">

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\pyside2\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\AutoPlasticOmnium\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531D6DBB-C536-4079-98E3-1148663C2549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F9D471-B9C2-4314-A5F1-807E907F62C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="11" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="961" firstSheet="12" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="7" r:id="rId1"/>
@@ -42,6 +42,7 @@
     <sheet name="RMR_M4" sheetId="6" r:id="rId27"/>
     <sheet name="FRB_SX5GEV" sheetId="15" r:id="rId28"/>
     <sheet name="LTT" sheetId="16" r:id="rId29"/>
+    <sheet name="LTT1" sheetId="32" r:id="rId30"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">ALE!$A$1:$Q$33</definedName>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6069" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6209" uniqueCount="541">
   <si>
     <t>SuiteName</t>
   </si>
@@ -1657,6 +1658,45 @@
   </si>
   <si>
     <t>DFLZ_M4_appl_para.s19</t>
+  </si>
+  <si>
+    <t>ROUT Slot,Channel,On</t>
+  </si>
+  <si>
+    <t>ROUT Slot,Channel,Off</t>
+  </si>
+  <si>
+    <t>GetDAQTemp</t>
+  </si>
+  <si>
+    <t>GetDAQResistor</t>
+  </si>
+  <si>
+    <t>GetCurDev1</t>
+  </si>
+  <si>
+    <t>GetVoltDev2</t>
+  </si>
+  <si>
+    <t>Param1</t>
+  </si>
+  <si>
+    <t>ROUT 1,&lt;Channel&gt;,1</t>
+  </si>
+  <si>
+    <t>ROUT 1,&lt;Channel&gt;,0</t>
+  </si>
+  <si>
+    <t>&lt;Channel&gt;</t>
+  </si>
+  <si>
+    <t>MEASure:FRES? 100,(@10&lt;Channel&gt;)</t>
+  </si>
+  <si>
+    <t>Dev1/ai&lt;Channel&gt;</t>
+  </si>
+  <si>
+    <t>Dev2/ai&lt;Channel&gt;</t>
   </si>
 </sst>
 </file>
@@ -2811,7 +2851,655 @@
     <cellStyle name="注释 2" xfId="44" xr:uid="{F3AB96AE-817D-4279-B6C1-D2B2EF32D7CF}"/>
     <cellStyle name="警告文本 2" xfId="3" xr:uid="{645DDA24-EC4B-4017-9B81-8545B65B2980}"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="64">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFDA"/>
+          <bgColor rgb="FFE2EFDA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2835,32 +3523,6 @@
         <patternFill patternType="solid">
           <fgColor theme="9"/>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3856,6 +4518,59 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -4566,60 +5281,85 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F7B3D7E6-E8F4-4A99-9E96-5E5CD7355C13}" name="Table3" displayName="Table3" ref="A1:Q33" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F7B3D7E6-E8F4-4A99-9E96-5E5CD7355C13}" name="Table3" displayName="Table3" ref="A1:Q33" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
   <autoFilter ref="A1:Q33" xr:uid="{F7B3D7E6-E8F4-4A99-9E96-5E5CD7355C13}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{87D1869F-E5CC-4E60-ACD3-28ADD945AFD2}" name="SuiteName" dataDxfId="43" dataCellStyle="常规 3"/>
-    <tableColumn id="2" xr3:uid="{5B84D527-C53E-4002-8A0A-F08D9A6482FD}" name="StepName" dataDxfId="42" dataCellStyle="常规 3"/>
-    <tableColumn id="3" xr3:uid="{83EAB9B6-4C5D-44C7-AD13-97EEEFE9B22F}" name="Keyword" dataDxfId="41" dataCellStyle="常规 3"/>
-    <tableColumn id="4" xr3:uid="{89417577-A179-4EDB-BB48-8E03D52E3557}" name="Json" dataDxfId="40" dataCellStyle="常规 3"/>
-    <tableColumn id="5" xr3:uid="{1DE854ED-334F-4043-BDF8-E5AAB32D6F9F}" name="Retry" dataDxfId="39" dataCellStyle="常规 3"/>
-    <tableColumn id="6" xr3:uid="{0105D6E4-750A-46C5-9A14-11BF3C575113}" name="Timeout" dataDxfId="38" dataCellStyle="常规 3"/>
-    <tableColumn id="7" xr3:uid="{56E02C3C-624F-4D47-81FA-3EE5DC3761E9}" name="SubStr1" dataDxfId="37" dataCellStyle="常规 3"/>
-    <tableColumn id="8" xr3:uid="{0D469B1B-13E8-45EE-96CB-5060EC7A877E}" name="SubStr2" dataDxfId="36" dataCellStyle="常规 3"/>
-    <tableColumn id="9" xr3:uid="{3D4B0EC3-8C79-4453-BFB5-3333BB127BAC}" name="ID" dataDxfId="35" dataCellStyle="常规 3"/>
-    <tableColumn id="10" xr3:uid="{26E317CD-9BE1-4ACB-86D6-3FC9540DCFEB}" name="NAD" dataDxfId="34" dataCellStyle="常规 3"/>
-    <tableColumn id="11" xr3:uid="{77C4B434-6477-4B67-86E0-2565AB5F235F}" name="PCI_LEN" dataDxfId="33" dataCellStyle="常规 3"/>
-    <tableColumn id="12" xr3:uid="{F60F9C0D-C8DE-4B2B-942D-489EBC353C44}" name="CmdOrParam" dataDxfId="32" dataCellStyle="常规 3"/>
-    <tableColumn id="13" xr3:uid="{A57B0F6D-EE20-4665-8ADB-F7B477713719}" name="SetGlobalVar" dataDxfId="31" dataCellStyle="常规 3"/>
-    <tableColumn id="14" xr3:uid="{47E0619F-7A93-476C-B065-AD00DD36855A}" name="CheckStr1" dataDxfId="30" dataCellStyle="常规 3"/>
-    <tableColumn id="15" xr3:uid="{C0F86F11-1573-41FF-A474-B99BA57A8786}" name="SPEC" dataDxfId="29" dataCellStyle="常规 3"/>
-    <tableColumn id="16" xr3:uid="{0454BD28-9FF3-4377-968D-8197F5CE0D3A}" name="ByPF" dataDxfId="28" dataCellStyle="常规 3"/>
-    <tableColumn id="17" xr3:uid="{AB7C624F-B63C-451F-98DD-A9E1ECD80C4A}" name="TearDown" dataDxfId="27" dataCellStyle="常规 3"/>
+    <tableColumn id="1" xr3:uid="{87D1869F-E5CC-4E60-ACD3-28ADD945AFD2}" name="SuiteName" dataDxfId="61" dataCellStyle="常规 3"/>
+    <tableColumn id="2" xr3:uid="{5B84D527-C53E-4002-8A0A-F08D9A6482FD}" name="StepName" dataDxfId="60" dataCellStyle="常规 3"/>
+    <tableColumn id="3" xr3:uid="{83EAB9B6-4C5D-44C7-AD13-97EEEFE9B22F}" name="Keyword" dataDxfId="59" dataCellStyle="常规 3"/>
+    <tableColumn id="4" xr3:uid="{89417577-A179-4EDB-BB48-8E03D52E3557}" name="Json" dataDxfId="58" dataCellStyle="常规 3"/>
+    <tableColumn id="5" xr3:uid="{1DE854ED-334F-4043-BDF8-E5AAB32D6F9F}" name="Retry" dataDxfId="57" dataCellStyle="常规 3"/>
+    <tableColumn id="6" xr3:uid="{0105D6E4-750A-46C5-9A14-11BF3C575113}" name="Timeout" dataDxfId="56" dataCellStyle="常规 3"/>
+    <tableColumn id="7" xr3:uid="{56E02C3C-624F-4D47-81FA-3EE5DC3761E9}" name="SubStr1" dataDxfId="55" dataCellStyle="常规 3"/>
+    <tableColumn id="8" xr3:uid="{0D469B1B-13E8-45EE-96CB-5060EC7A877E}" name="SubStr2" dataDxfId="54" dataCellStyle="常规 3"/>
+    <tableColumn id="9" xr3:uid="{3D4B0EC3-8C79-4453-BFB5-3333BB127BAC}" name="ID" dataDxfId="53" dataCellStyle="常规 3"/>
+    <tableColumn id="10" xr3:uid="{26E317CD-9BE1-4ACB-86D6-3FC9540DCFEB}" name="NAD" dataDxfId="52" dataCellStyle="常规 3"/>
+    <tableColumn id="11" xr3:uid="{77C4B434-6477-4B67-86E0-2565AB5F235F}" name="PCI_LEN" dataDxfId="51" dataCellStyle="常规 3"/>
+    <tableColumn id="12" xr3:uid="{F60F9C0D-C8DE-4B2B-942D-489EBC353C44}" name="CmdOrParam" dataDxfId="50" dataCellStyle="常规 3"/>
+    <tableColumn id="13" xr3:uid="{A57B0F6D-EE20-4665-8ADB-F7B477713719}" name="SetGlobalVar" dataDxfId="49" dataCellStyle="常规 3"/>
+    <tableColumn id="14" xr3:uid="{47E0619F-7A93-476C-B065-AD00DD36855A}" name="CheckStr1" dataDxfId="48" dataCellStyle="常规 3"/>
+    <tableColumn id="15" xr3:uid="{C0F86F11-1573-41FF-A474-B99BA57A8786}" name="SPEC" dataDxfId="47" dataCellStyle="常规 3"/>
+    <tableColumn id="16" xr3:uid="{0454BD28-9FF3-4377-968D-8197F5CE0D3A}" name="ByPF" dataDxfId="46" dataCellStyle="常规 3"/>
+    <tableColumn id="17" xr3:uid="{AB7C624F-B63C-451F-98DD-A9E1ECD80C4A}" name="TearDown" dataDxfId="45" dataCellStyle="常规 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E49FA85-A79E-48ED-A160-D2BFEFA44F76}" name="Table1" displayName="Table1" ref="A1:Y217" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E49FA85-A79E-48ED-A160-D2BFEFA44F76}" name="Table1" displayName="Table1" ref="A1:Y217" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
   <autoFilter ref="A1:Y217" xr:uid="{3E49FA85-A79E-48ED-A160-D2BFEFA44F76}"/>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{4E5D4169-2B23-47E9-A636-2A629C507EAC}" name="SuiteName" dataDxfId="26" dataCellStyle="常规 3"/>
-    <tableColumn id="2" xr3:uid="{8A761701-EDCE-47BF-906F-9E38068AE090}" name="StepName" dataDxfId="25" dataCellStyle="常规 3"/>
-    <tableColumn id="3" xr3:uid="{83C1A4A7-9037-4FEE-9B43-EFC41CDCB6A5}" name="Json" dataDxfId="24" dataCellStyle="常规 3"/>
-    <tableColumn id="4" xr3:uid="{C556A570-2E18-4550-B813-7AED289DC63F}" name="Keyword" dataDxfId="23" dataCellStyle="常规 3"/>
-    <tableColumn id="5" xr3:uid="{D3A22750-A6CB-4538-A349-937F44E93036}" name="ErrorCode" dataDxfId="22" dataCellStyle="常规 3"/>
-    <tableColumn id="6" xr3:uid="{C82EF5EC-27E0-4A0B-AFD4-912756B56314}" name="Retry" dataDxfId="21" dataCellStyle="常规 3"/>
-    <tableColumn id="7" xr3:uid="{F3D9DB3D-ABC0-4D49-A31C-F35EB271275D}" name="Timeout" dataDxfId="20" dataCellStyle="常规 3"/>
-    <tableColumn id="8" xr3:uid="{9DB33ED5-A439-43E6-B49B-3B483DD102D6}" name="SubStr1" dataDxfId="19" dataCellStyle="常规 3"/>
-    <tableColumn id="9" xr3:uid="{BE830706-F564-40AC-9E83-3312E914BF41}" name="SubStr2" dataDxfId="18" dataCellStyle="常规 3"/>
-    <tableColumn id="10" xr3:uid="{CCD00695-D700-4B2E-8BD1-1BAB22C5A0C9}" name="IfElse" dataDxfId="17" dataCellStyle="常规 3"/>
-    <tableColumn id="11" xr3:uid="{E32AC69E-9472-4375-8FEE-51306ED78C3A}" name="For" dataDxfId="16" dataCellStyle="常规 3"/>
-    <tableColumn id="12" xr3:uid="{198FB01F-9F98-4F04-BBDF-A23381248D1A}" name="Model" dataDxfId="15" dataCellStyle="常规 3"/>
-    <tableColumn id="13" xr3:uid="{472AAF58-9710-4B4A-81E0-834936C4835F}" name="CmdOrParam" dataDxfId="14" dataCellStyle="常规 3"/>
-    <tableColumn id="14" xr3:uid="{107FF41C-8841-4FD5-B013-F438DC07CEA3}" name="ExpectStr" dataDxfId="13" dataCellStyle="常规 3"/>
-    <tableColumn id="15" xr3:uid="{5A5DDDAD-4DAA-45C6-B270-53DDAD9BE521}" name="CheckStr1" dataDxfId="12" dataCellStyle="常规 3"/>
-    <tableColumn id="16" xr3:uid="{544CA69B-1394-4F03-A1DD-B17B192A66EC}" name="CheckStr2" dataDxfId="11" dataCellStyle="常规 3"/>
-    <tableColumn id="17" xr3:uid="{65912A58-F1A4-4F49-8605-40A43345F077}" name="NoContain" dataDxfId="10" dataCellStyle="常规 3"/>
-    <tableColumn id="18" xr3:uid="{573F2330-DCCA-45AE-AE55-7478E3708A54}" name="SetGlobalVar" dataDxfId="9" dataCellStyle="常规 3"/>
-    <tableColumn id="19" xr3:uid="{0773A549-425E-41D7-A6ED-B909446F4536}" name="SPEC" dataDxfId="8" dataCellStyle="常规 3"/>
-    <tableColumn id="20" xr3:uid="{2A643E8D-EBCC-4E15-8BFE-E96E3FDAAE0B}" name="LSL" dataDxfId="7" dataCellStyle="常规 3"/>
-    <tableColumn id="21" xr3:uid="{3CED774E-1DBA-405B-9637-FB7DE9F309BD}" name="USL" dataDxfId="6" dataCellStyle="常规 3"/>
-    <tableColumn id="22" xr3:uid="{03F3F8CF-CBEC-416C-9895-0C104E51A070}" name="Unit" dataDxfId="5" dataCellStyle="常规 3"/>
-    <tableColumn id="23" xr3:uid="{69D6EF6E-5C93-4B3E-97B4-990B4E041002}" name="ByPF" dataDxfId="4" dataCellStyle="常规 3"/>
-    <tableColumn id="24" xr3:uid="{5E7E384D-C2B8-4839-99F0-A5710661EFEC}" name="FTC" dataDxfId="3" dataCellStyle="常规 3"/>
-    <tableColumn id="25" xr3:uid="{ADBF4FC6-951F-4EEE-8D16-E50396DAD3B4}" name="MesVar" dataDxfId="2" dataCellStyle="常规 3"/>
+    <tableColumn id="1" xr3:uid="{4E5D4169-2B23-47E9-A636-2A629C507EAC}" name="SuiteName" dataDxfId="42" dataCellStyle="常规 3"/>
+    <tableColumn id="2" xr3:uid="{8A761701-EDCE-47BF-906F-9E38068AE090}" name="StepName" dataDxfId="41" dataCellStyle="常规 3"/>
+    <tableColumn id="3" xr3:uid="{83C1A4A7-9037-4FEE-9B43-EFC41CDCB6A5}" name="Json" dataDxfId="40" dataCellStyle="常规 3"/>
+    <tableColumn id="4" xr3:uid="{C556A570-2E18-4550-B813-7AED289DC63F}" name="Keyword" dataDxfId="39" dataCellStyle="常规 3"/>
+    <tableColumn id="5" xr3:uid="{D3A22750-A6CB-4538-A349-937F44E93036}" name="ErrorCode" dataDxfId="38" dataCellStyle="常规 3"/>
+    <tableColumn id="6" xr3:uid="{C82EF5EC-27E0-4A0B-AFD4-912756B56314}" name="Retry" dataDxfId="37" dataCellStyle="常规 3"/>
+    <tableColumn id="7" xr3:uid="{F3D9DB3D-ABC0-4D49-A31C-F35EB271275D}" name="Timeout" dataDxfId="36" dataCellStyle="常规 3"/>
+    <tableColumn id="8" xr3:uid="{9DB33ED5-A439-43E6-B49B-3B483DD102D6}" name="SubStr1" dataDxfId="35" dataCellStyle="常规 3"/>
+    <tableColumn id="9" xr3:uid="{BE830706-F564-40AC-9E83-3312E914BF41}" name="SubStr2" dataDxfId="34" dataCellStyle="常规 3"/>
+    <tableColumn id="10" xr3:uid="{CCD00695-D700-4B2E-8BD1-1BAB22C5A0C9}" name="IfElse" dataDxfId="33" dataCellStyle="常规 3"/>
+    <tableColumn id="11" xr3:uid="{E32AC69E-9472-4375-8FEE-51306ED78C3A}" name="For" dataDxfId="32" dataCellStyle="常规 3"/>
+    <tableColumn id="12" xr3:uid="{198FB01F-9F98-4F04-BBDF-A23381248D1A}" name="Model" dataDxfId="31" dataCellStyle="常规 3"/>
+    <tableColumn id="13" xr3:uid="{472AAF58-9710-4B4A-81E0-834936C4835F}" name="CmdOrParam" dataDxfId="30" dataCellStyle="常规 3"/>
+    <tableColumn id="14" xr3:uid="{107FF41C-8841-4FD5-B013-F438DC07CEA3}" name="ExpectStr" dataDxfId="29" dataCellStyle="常规 3"/>
+    <tableColumn id="15" xr3:uid="{5A5DDDAD-4DAA-45C6-B270-53DDAD9BE521}" name="CheckStr1" dataDxfId="28" dataCellStyle="常规 3"/>
+    <tableColumn id="16" xr3:uid="{544CA69B-1394-4F03-A1DD-B17B192A66EC}" name="CheckStr2" dataDxfId="27" dataCellStyle="常规 3"/>
+    <tableColumn id="17" xr3:uid="{65912A58-F1A4-4F49-8605-40A43345F077}" name="NoContain" dataDxfId="26" dataCellStyle="常规 3"/>
+    <tableColumn id="18" xr3:uid="{573F2330-DCCA-45AE-AE55-7478E3708A54}" name="SetGlobalVar" dataDxfId="25" dataCellStyle="常规 3"/>
+    <tableColumn id="19" xr3:uid="{0773A549-425E-41D7-A6ED-B909446F4536}" name="SPEC" dataDxfId="24" dataCellStyle="常规 3"/>
+    <tableColumn id="20" xr3:uid="{2A643E8D-EBCC-4E15-8BFE-E96E3FDAAE0B}" name="LSL" dataDxfId="23" dataCellStyle="常规 3"/>
+    <tableColumn id="21" xr3:uid="{3CED774E-1DBA-405B-9637-FB7DE9F309BD}" name="USL" dataDxfId="22" dataCellStyle="常规 3"/>
+    <tableColumn id="22" xr3:uid="{03F3F8CF-CBEC-416C-9895-0C104E51A070}" name="Unit" dataDxfId="21" dataCellStyle="常规 3"/>
+    <tableColumn id="23" xr3:uid="{69D6EF6E-5C93-4B3E-97B4-990B4E041002}" name="ByPF" dataDxfId="20" dataCellStyle="常规 3"/>
+    <tableColumn id="24" xr3:uid="{5E7E384D-C2B8-4839-99F0-A5710661EFEC}" name="FTC" dataDxfId="19" dataCellStyle="常规 3"/>
+    <tableColumn id="25" xr3:uid="{ADBF4FC6-951F-4EEE-8D16-E50396DAD3B4}" name="MesVar" dataDxfId="18" dataCellStyle="常规 3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD3273BC-1097-4232-BA34-0A9B4F394386}" name="Table13" displayName="Table13" ref="A1:P23" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
+  <autoFilter ref="A1:P23" xr:uid="{3E49FA85-A79E-48ED-A160-D2BFEFA44F76}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{C53AABE7-1DC8-4C9D-BB90-5FC23616CC96}" name="SuiteName" dataDxfId="15" dataCellStyle="常规 3"/>
+    <tableColumn id="2" xr3:uid="{FF43D262-39D1-4EF5-A600-564B79840B36}" name="StepName" dataDxfId="14" dataCellStyle="常规 3"/>
+    <tableColumn id="3" xr3:uid="{4BC37492-21E1-4C3F-8E78-4E944E7B8810}" name="Json" dataDxfId="13" dataCellStyle="常规 3"/>
+    <tableColumn id="4" xr3:uid="{57B1BF8F-30F6-4693-AB47-208CEB79723D}" name="Keyword" dataDxfId="12" dataCellStyle="常规 3"/>
+    <tableColumn id="5" xr3:uid="{8C6518DA-19C5-41FE-B070-7742046ECF3B}" name="ErrorCode" dataDxfId="11" dataCellStyle="常规 3"/>
+    <tableColumn id="6" xr3:uid="{FBFE75F8-9865-4884-8CEB-BC4A44C9EFD1}" name="Retry" dataDxfId="10" dataCellStyle="常规 3"/>
+    <tableColumn id="7" xr3:uid="{B46D8C33-7B5D-48B0-AC54-DF1874ECEAAB}" name="Timeout" dataDxfId="9" dataCellStyle="常规 3"/>
+    <tableColumn id="8" xr3:uid="{9F19D014-5BA4-49AA-8461-0A8F911F2A85}" name="SubStr1" dataDxfId="8" dataCellStyle="常规 3"/>
+    <tableColumn id="9" xr3:uid="{8AC9F83D-5C93-4890-9E38-766305F376C7}" name="SubStr2" dataDxfId="7" dataCellStyle="常规 3"/>
+    <tableColumn id="11" xr3:uid="{71B5A645-36EC-45F7-8CEA-5E5903802A68}" name="For" dataDxfId="6" dataCellStyle="常规 3"/>
+    <tableColumn id="13" xr3:uid="{6CBF8460-0D5B-4EDB-8419-FC8E4F5D803F}" name="CmdOrParam" dataDxfId="5" dataCellStyle="常规 3"/>
+    <tableColumn id="14" xr3:uid="{651A7744-F728-484E-AD6E-11F426962855}" name="ExpectStr" dataDxfId="4" dataCellStyle="常规 3"/>
+    <tableColumn id="16" xr3:uid="{325C30D6-AB79-46DA-A9C0-DB50F72EECA1}" name="Param1" dataDxfId="3" dataCellStyle="常规 3"/>
+    <tableColumn id="20" xr3:uid="{3CE2081C-8C4F-493C-8153-6223A1D56529}" name="LSL" dataDxfId="2" dataCellStyle="常规 3"/>
+    <tableColumn id="21" xr3:uid="{24AF5AE9-EC6E-43A5-8D18-3D880E9B6767}" name="USL" dataDxfId="1" dataCellStyle="常规 3"/>
+    <tableColumn id="22" xr3:uid="{3CE1C27E-CE4B-4F59-981C-67AEA6D7AB23}" name="Unit" dataDxfId="0" dataCellStyle="常规 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15957,7 +16697,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD11"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27960,8 +28700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5BD5C7-F362-46B8-9E4D-70C77EAB5AEF}">
   <dimension ref="A1:Y217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R226" sqref="R226"/>
+    <sheetView topLeftCell="A181" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M176" sqref="M176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -27973,7 +28713,8 @@
     <col min="5" max="5" width="25.5546875" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.21875" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.77734375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.88671875" style="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" style="21" bestFit="1" customWidth="1"/>
@@ -37845,6 +38586,806 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DED171-53EA-4963-A620-CD38973C7186}">
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" style="21" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="N1" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="O1" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" s="52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="58">
+        <v>0</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="56">
+        <v>1</v>
+      </c>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" s="58">
+        <v>1</v>
+      </c>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="56">
+        <v>1</v>
+      </c>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="57"/>
+      <c r="B6" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" s="58">
+        <v>1</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="56">
+        <v>1</v>
+      </c>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="57"/>
+      <c r="B8" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" s="58">
+        <v>1</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="56">
+        <v>1</v>
+      </c>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="57"/>
+      <c r="B10" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="58">
+        <v>1</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" thickBot="1">
+      <c r="A11" s="55"/>
+      <c r="B11" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G11" s="56">
+        <v>1</v>
+      </c>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickTop="1">
+      <c r="A12" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54">
+        <v>3</v>
+      </c>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" s="54">
+        <v>9600</v>
+      </c>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="57"/>
+      <c r="B13" s="58" t="s">
+        <v>528</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="58">
+        <v>1</v>
+      </c>
+      <c r="G13" s="58">
+        <v>1</v>
+      </c>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="L13" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56">
+        <v>3</v>
+      </c>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" s="56">
+        <v>9600</v>
+      </c>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="55"/>
+      <c r="B15" s="56" t="s">
+        <v>529</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="56">
+        <v>1</v>
+      </c>
+      <c r="G15" s="56">
+        <v>1</v>
+      </c>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56" t="s">
+        <v>536</v>
+      </c>
+      <c r="L15" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="57" t="s">
+        <v>439</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16" s="58">
+        <v>1</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58" t="s">
+        <v>441</v>
+      </c>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="56">
+        <v>1</v>
+      </c>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="55"/>
+      <c r="B18" s="56" t="s">
+        <v>530</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" s="56">
+        <v>0</v>
+      </c>
+      <c r="G18" s="56">
+        <v>3</v>
+      </c>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56" t="s">
+        <v>537</v>
+      </c>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>331</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F19" s="58">
+        <v>0</v>
+      </c>
+      <c r="G19" s="58">
+        <v>1</v>
+      </c>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="57"/>
+      <c r="B20" s="58" t="s">
+        <v>531</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="58">
+        <v>0</v>
+      </c>
+      <c r="G20" s="58">
+        <v>3</v>
+      </c>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58" t="s">
+        <v>538</v>
+      </c>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="55" t="s">
+        <v>435</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>532</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="56">
+        <v>0</v>
+      </c>
+      <c r="G21" s="56">
+        <v>10</v>
+      </c>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56" t="s">
+        <v>539</v>
+      </c>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="O21" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="P21" s="56" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="55" t="s">
+        <v>436</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>533</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F22" s="56">
+        <v>0</v>
+      </c>
+      <c r="G22" s="56">
+        <v>10</v>
+      </c>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56" t="s">
+        <v>540</v>
+      </c>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56">
+        <v>-20</v>
+      </c>
+      <c r="O22" s="56">
+        <v>30</v>
+      </c>
+      <c r="P22" s="56" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="55" t="s">
+        <v>438</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>437</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56" t="s">
+        <v>413</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="F23" s="56">
+        <v>0</v>
+      </c>
+      <c r="G23" s="56">
+        <v>10</v>
+      </c>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56" t="s">
+        <v>415</v>
+      </c>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\AutoPlasticOmnium\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F9D471-B9C2-4314-A5F1-807E907F62C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDC2F20-3393-43D0-A639-E96DB5CA78FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="961" firstSheet="12" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1681,22 +1681,22 @@
     <t>Param1</t>
   </si>
   <si>
-    <t>ROUT 1,&lt;Channel&gt;,1</t>
-  </si>
-  <si>
-    <t>ROUT 1,&lt;Channel&gt;,0</t>
-  </si>
-  <si>
-    <t>&lt;Channel&gt;</t>
-  </si>
-  <si>
-    <t>MEASure:FRES? 100,(@10&lt;Channel&gt;)</t>
-  </si>
-  <si>
-    <t>Dev1/ai&lt;Channel&gt;</t>
-  </si>
-  <si>
-    <t>Dev2/ai&lt;Channel&gt;</t>
+    <t>ROUT 1,&lt;CellNo&gt;,1</t>
+  </si>
+  <si>
+    <t>ROUT 1,&lt;CellNo&gt;,0</t>
+  </si>
+  <si>
+    <t>&lt;CellNo&gt;</t>
+  </si>
+  <si>
+    <t>MEASure:FRES? 100,(@10&lt;CellNo&gt;)</t>
+  </si>
+  <si>
+    <t>Dev1/ai&lt;CellNo&gt;</t>
+  </si>
+  <si>
+    <t>Dev2/ai&lt;CellNo&gt;</t>
   </si>
 </sst>
 </file>
@@ -22013,7 +22013,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
@@ -38591,7 +38591,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -8,61 +8,62 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\AutoPlasticOmnium\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDC2F20-3393-43D0-A639-E96DB5CA78FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A177DAA-3F8C-4A61-9FC3-20852BDD364A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="961" firstSheet="12" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="961" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="7" r:id="rId1"/>
-    <sheet name="ReadVer_SX5GEV" sheetId="18" r:id="rId2"/>
-    <sheet name="ReadVer_M4" sheetId="17" r:id="rId3"/>
-    <sheet name="FL_M4" sheetId="1" r:id="rId4"/>
-    <sheet name="FL_M6" sheetId="28" r:id="rId5"/>
-    <sheet name="RR_SX5GEV_EOL" sheetId="22" state="hidden" r:id="rId6"/>
-    <sheet name="FR_SX5GEV_EOL" sheetId="21" state="hidden" r:id="rId7"/>
-    <sheet name="RL_SX5GEV_EOL" sheetId="20" state="hidden" r:id="rId8"/>
-    <sheet name="RM_SX5GEV_EOL" sheetId="23" state="hidden" r:id="rId9"/>
-    <sheet name="FL_SX5GEV_EOL" sheetId="19" state="hidden" r:id="rId10"/>
-    <sheet name="FLB_SX5GEV_EOL" sheetId="24" state="hidden" r:id="rId11"/>
-    <sheet name="FLG_M6" sheetId="29" r:id="rId12"/>
-    <sheet name="ALE" sheetId="26" r:id="rId13"/>
-    <sheet name="FRB_SX5GEV_EOL" sheetId="25" state="hidden" r:id="rId14"/>
-    <sheet name="FL_SX5GEV" sheetId="8" r:id="rId15"/>
-    <sheet name="RL_M4" sheetId="3" r:id="rId16"/>
-    <sheet name="RL_SX5GEV" sheetId="9" r:id="rId17"/>
-    <sheet name="FR_M4" sheetId="2" r:id="rId18"/>
-    <sheet name="FR_M6" sheetId="30" r:id="rId19"/>
-    <sheet name="FRG_M6" sheetId="31" r:id="rId20"/>
-    <sheet name="FR_SX5GEV" sheetId="10" r:id="rId21"/>
-    <sheet name="RR_M4" sheetId="4" r:id="rId22"/>
-    <sheet name="RR_SX5GEV" sheetId="12" r:id="rId23"/>
-    <sheet name="RM_SX5GEV" sheetId="13" r:id="rId24"/>
-    <sheet name="RML_M4" sheetId="5" r:id="rId25"/>
-    <sheet name="FLB_SX5GEV" sheetId="14" r:id="rId26"/>
-    <sheet name="RMR_M4" sheetId="6" r:id="rId27"/>
-    <sheet name="FRB_SX5GEV" sheetId="15" r:id="rId28"/>
-    <sheet name="LTT" sheetId="16" r:id="rId29"/>
-    <sheet name="LTT1" sheetId="32" r:id="rId30"/>
+    <sheet name="Sample" sheetId="33" r:id="rId2"/>
+    <sheet name="ReadVer_SX5GEV" sheetId="18" r:id="rId3"/>
+    <sheet name="ReadVer_M4" sheetId="17" r:id="rId4"/>
+    <sheet name="FL_M4" sheetId="1" r:id="rId5"/>
+    <sheet name="FL_M6" sheetId="28" r:id="rId6"/>
+    <sheet name="RR_SX5GEV_EOL" sheetId="22" state="hidden" r:id="rId7"/>
+    <sheet name="FR_SX5GEV_EOL" sheetId="21" state="hidden" r:id="rId8"/>
+    <sheet name="RL_SX5GEV_EOL" sheetId="20" state="hidden" r:id="rId9"/>
+    <sheet name="RM_SX5GEV_EOL" sheetId="23" state="hidden" r:id="rId10"/>
+    <sheet name="FL_SX5GEV_EOL" sheetId="19" state="hidden" r:id="rId11"/>
+    <sheet name="FLB_SX5GEV_EOL" sheetId="24" state="hidden" r:id="rId12"/>
+    <sheet name="FLG_M6" sheetId="29" r:id="rId13"/>
+    <sheet name="ALE" sheetId="26" r:id="rId14"/>
+    <sheet name="FRB_SX5GEV_EOL" sheetId="25" state="hidden" r:id="rId15"/>
+    <sheet name="FL_SX5GEV" sheetId="8" r:id="rId16"/>
+    <sheet name="RL_M4" sheetId="3" r:id="rId17"/>
+    <sheet name="RL_SX5GEV" sheetId="9" r:id="rId18"/>
+    <sheet name="FR_M4" sheetId="2" r:id="rId19"/>
+    <sheet name="FR_M6" sheetId="30" r:id="rId20"/>
+    <sheet name="FRG_M6" sheetId="31" r:id="rId21"/>
+    <sheet name="FR_SX5GEV" sheetId="10" r:id="rId22"/>
+    <sheet name="RR_M4" sheetId="4" r:id="rId23"/>
+    <sheet name="RR_SX5GEV" sheetId="12" r:id="rId24"/>
+    <sheet name="RM_SX5GEV" sheetId="13" r:id="rId25"/>
+    <sheet name="RML_M4" sheetId="5" r:id="rId26"/>
+    <sheet name="FLB_SX5GEV" sheetId="14" r:id="rId27"/>
+    <sheet name="RMR_M4" sheetId="6" r:id="rId28"/>
+    <sheet name="FRB_SX5GEV" sheetId="15" r:id="rId29"/>
+    <sheet name="LTT" sheetId="16" r:id="rId30"/>
+    <sheet name="LTT1" sheetId="32" r:id="rId31"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">ALE!$A$1:$Q$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FL_M4!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FL_M6!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">FL_SX5GEV!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">FLB_SX5GEV!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">FLG_M6!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">FR_M4!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">FR_M6!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">FR_SX5GEV!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="27" hidden="1">FRB_SX5GEV!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">FRG_M6!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">RL_M4!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">RL_SX5GEV!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">RM_SX5GEV!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">RML_M4!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="26" hidden="1">RMR_M4!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">RR_M4!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">RR_SX5GEV!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">ALE!$A$1:$Q$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FL_M4!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">FL_M6!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">FL_SX5GEV!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="26" hidden="1">FLB_SX5GEV!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">FLG_M6!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">FR_M4!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">FR_M6!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">FR_SX5GEV!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="28" hidden="1">FRB_SX5GEV!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">FRG_M6!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">RL_M4!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">RL_SX5GEV!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">RM_SX5GEV!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">RML_M4!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="27" hidden="1">RMR_M4!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">RR_M4!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">RR_SX5GEV!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6209" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6349" uniqueCount="541">
   <si>
     <t>SuiteName</t>
   </si>
@@ -1693,10 +1694,10 @@
     <t>MEASure:FRES? 100,(@10&lt;CellNo&gt;)</t>
   </si>
   <si>
-    <t>Dev1/ai&lt;CellNo&gt;</t>
-  </si>
-  <si>
-    <t>Dev2/ai&lt;CellNo&gt;</t>
+    <t>Dev1/ai{&lt;CellNo&gt;-1}</t>
+  </si>
+  <si>
+    <t>Dev2/ai{&lt;CellNo&gt;-1}</t>
   </si>
 </sst>
 </file>
@@ -2851,7 +2852,682 @@
     <cellStyle name="注释 2" xfId="44" xr:uid="{F3AB96AE-817D-4279-B6C1-D2B2EF32D7CF}"/>
     <cellStyle name="警告文本 2" xfId="3" xr:uid="{645DDA24-EC4B-4017-9B81-8545B65B2980}"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="82">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFDA"/>
+          <bgColor rgb="FFE2EFDA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5281,85 +5957,110 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F7B3D7E6-E8F4-4A99-9E96-5E5CD7355C13}" name="Table3" displayName="Table3" ref="A1:Q33" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{766D7AA2-7ADF-4E8C-8C8F-CB68CB9C4366}" name="Table135" displayName="Table135" ref="A1:P23" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
+  <autoFilter ref="A1:P23" xr:uid="{3E49FA85-A79E-48ED-A160-D2BFEFA44F76}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{EAC61474-7D2C-4AF6-8CDF-9AC2DCE858E0}" name="SuiteName" dataDxfId="15" dataCellStyle="常规 3"/>
+    <tableColumn id="2" xr3:uid="{6CD848EC-3F29-45BA-8755-E250D0374755}" name="StepName" dataDxfId="14" dataCellStyle="常规 3"/>
+    <tableColumn id="3" xr3:uid="{16AC1393-1B72-4EBB-B9BC-A95768144791}" name="Json" dataDxfId="13" dataCellStyle="常规 3"/>
+    <tableColumn id="4" xr3:uid="{7433DB0F-90D1-4CB2-8E4D-2C4ECDA8D606}" name="Keyword" dataDxfId="12" dataCellStyle="常规 3"/>
+    <tableColumn id="5" xr3:uid="{76768E23-FFE8-4D67-BF20-3C6353BDF063}" name="ErrorCode" dataDxfId="11" dataCellStyle="常规 3"/>
+    <tableColumn id="6" xr3:uid="{C17C5CD0-12AA-4507-9A10-F6CBAFBC4A48}" name="Retry" dataDxfId="10" dataCellStyle="常规 3"/>
+    <tableColumn id="7" xr3:uid="{45936396-A88A-44A4-B0F0-753A02530353}" name="Timeout" dataDxfId="9" dataCellStyle="常规 3"/>
+    <tableColumn id="8" xr3:uid="{BD98D564-F957-4E8F-AAAE-6F8DE4F1CB09}" name="SubStr1" dataDxfId="8" dataCellStyle="常规 3"/>
+    <tableColumn id="9" xr3:uid="{7F2FFFF6-2017-4E0A-AE20-F43A4D543496}" name="SubStr2" dataDxfId="7" dataCellStyle="常规 3"/>
+    <tableColumn id="11" xr3:uid="{D42E2113-CD5F-4101-861A-A3609DA0355F}" name="For" dataDxfId="6" dataCellStyle="常规 3"/>
+    <tableColumn id="13" xr3:uid="{8AA6DDA8-DFF6-4AF5-9CCE-0BE8625F301D}" name="CmdOrParam" dataDxfId="5" dataCellStyle="常规 3"/>
+    <tableColumn id="14" xr3:uid="{8BAE2A4F-C7B2-4446-9DC1-90096DA92F4A}" name="ExpectStr" dataDxfId="4" dataCellStyle="常规 3"/>
+    <tableColumn id="16" xr3:uid="{DB320073-3EC5-48FF-BE3B-1D8BBA65BAED}" name="Param1" dataDxfId="3" dataCellStyle="常规 3"/>
+    <tableColumn id="20" xr3:uid="{44EA498E-A0A9-4F36-9CF9-5EA729E792DB}" name="LSL" dataDxfId="2" dataCellStyle="常规 3"/>
+    <tableColumn id="21" xr3:uid="{E5D9EC83-5B9D-4AD3-97D5-4D2543F8AB34}" name="USL" dataDxfId="1" dataCellStyle="常规 3"/>
+    <tableColumn id="22" xr3:uid="{2C56948E-5119-4F88-B316-828CB7DF032C}" name="Unit" dataDxfId="0" dataCellStyle="常规 3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F7B3D7E6-E8F4-4A99-9E96-5E5CD7355C13}" name="Table3" displayName="Table3" ref="A1:Q33" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
   <autoFilter ref="A1:Q33" xr:uid="{F7B3D7E6-E8F4-4A99-9E96-5E5CD7355C13}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{87D1869F-E5CC-4E60-ACD3-28ADD945AFD2}" name="SuiteName" dataDxfId="61" dataCellStyle="常规 3"/>
-    <tableColumn id="2" xr3:uid="{5B84D527-C53E-4002-8A0A-F08D9A6482FD}" name="StepName" dataDxfId="60" dataCellStyle="常规 3"/>
-    <tableColumn id="3" xr3:uid="{83EAB9B6-4C5D-44C7-AD13-97EEEFE9B22F}" name="Keyword" dataDxfId="59" dataCellStyle="常规 3"/>
-    <tableColumn id="4" xr3:uid="{89417577-A179-4EDB-BB48-8E03D52E3557}" name="Json" dataDxfId="58" dataCellStyle="常规 3"/>
-    <tableColumn id="5" xr3:uid="{1DE854ED-334F-4043-BDF8-E5AAB32D6F9F}" name="Retry" dataDxfId="57" dataCellStyle="常规 3"/>
-    <tableColumn id="6" xr3:uid="{0105D6E4-750A-46C5-9A14-11BF3C575113}" name="Timeout" dataDxfId="56" dataCellStyle="常规 3"/>
-    <tableColumn id="7" xr3:uid="{56E02C3C-624F-4D47-81FA-3EE5DC3761E9}" name="SubStr1" dataDxfId="55" dataCellStyle="常规 3"/>
-    <tableColumn id="8" xr3:uid="{0D469B1B-13E8-45EE-96CB-5060EC7A877E}" name="SubStr2" dataDxfId="54" dataCellStyle="常规 3"/>
-    <tableColumn id="9" xr3:uid="{3D4B0EC3-8C79-4453-BFB5-3333BB127BAC}" name="ID" dataDxfId="53" dataCellStyle="常规 3"/>
-    <tableColumn id="10" xr3:uid="{26E317CD-9BE1-4ACB-86D6-3FC9540DCFEB}" name="NAD" dataDxfId="52" dataCellStyle="常规 3"/>
-    <tableColumn id="11" xr3:uid="{77C4B434-6477-4B67-86E0-2565AB5F235F}" name="PCI_LEN" dataDxfId="51" dataCellStyle="常规 3"/>
-    <tableColumn id="12" xr3:uid="{F60F9C0D-C8DE-4B2B-942D-489EBC353C44}" name="CmdOrParam" dataDxfId="50" dataCellStyle="常规 3"/>
-    <tableColumn id="13" xr3:uid="{A57B0F6D-EE20-4665-8ADB-F7B477713719}" name="SetGlobalVar" dataDxfId="49" dataCellStyle="常规 3"/>
-    <tableColumn id="14" xr3:uid="{47E0619F-7A93-476C-B065-AD00DD36855A}" name="CheckStr1" dataDxfId="48" dataCellStyle="常规 3"/>
-    <tableColumn id="15" xr3:uid="{C0F86F11-1573-41FF-A474-B99BA57A8786}" name="SPEC" dataDxfId="47" dataCellStyle="常规 3"/>
-    <tableColumn id="16" xr3:uid="{0454BD28-9FF3-4377-968D-8197F5CE0D3A}" name="ByPF" dataDxfId="46" dataCellStyle="常规 3"/>
-    <tableColumn id="17" xr3:uid="{AB7C624F-B63C-451F-98DD-A9E1ECD80C4A}" name="TearDown" dataDxfId="45" dataCellStyle="常规 3"/>
+    <tableColumn id="1" xr3:uid="{87D1869F-E5CC-4E60-ACD3-28ADD945AFD2}" name="SuiteName" dataDxfId="79" dataCellStyle="常规 3"/>
+    <tableColumn id="2" xr3:uid="{5B84D527-C53E-4002-8A0A-F08D9A6482FD}" name="StepName" dataDxfId="78" dataCellStyle="常规 3"/>
+    <tableColumn id="3" xr3:uid="{83EAB9B6-4C5D-44C7-AD13-97EEEFE9B22F}" name="Keyword" dataDxfId="77" dataCellStyle="常规 3"/>
+    <tableColumn id="4" xr3:uid="{89417577-A179-4EDB-BB48-8E03D52E3557}" name="Json" dataDxfId="76" dataCellStyle="常规 3"/>
+    <tableColumn id="5" xr3:uid="{1DE854ED-334F-4043-BDF8-E5AAB32D6F9F}" name="Retry" dataDxfId="75" dataCellStyle="常规 3"/>
+    <tableColumn id="6" xr3:uid="{0105D6E4-750A-46C5-9A14-11BF3C575113}" name="Timeout" dataDxfId="74" dataCellStyle="常规 3"/>
+    <tableColumn id="7" xr3:uid="{56E02C3C-624F-4D47-81FA-3EE5DC3761E9}" name="SubStr1" dataDxfId="73" dataCellStyle="常规 3"/>
+    <tableColumn id="8" xr3:uid="{0D469B1B-13E8-45EE-96CB-5060EC7A877E}" name="SubStr2" dataDxfId="72" dataCellStyle="常规 3"/>
+    <tableColumn id="9" xr3:uid="{3D4B0EC3-8C79-4453-BFB5-3333BB127BAC}" name="ID" dataDxfId="71" dataCellStyle="常规 3"/>
+    <tableColumn id="10" xr3:uid="{26E317CD-9BE1-4ACB-86D6-3FC9540DCFEB}" name="NAD" dataDxfId="70" dataCellStyle="常规 3"/>
+    <tableColumn id="11" xr3:uid="{77C4B434-6477-4B67-86E0-2565AB5F235F}" name="PCI_LEN" dataDxfId="69" dataCellStyle="常规 3"/>
+    <tableColumn id="12" xr3:uid="{F60F9C0D-C8DE-4B2B-942D-489EBC353C44}" name="CmdOrParam" dataDxfId="68" dataCellStyle="常规 3"/>
+    <tableColumn id="13" xr3:uid="{A57B0F6D-EE20-4665-8ADB-F7B477713719}" name="SetGlobalVar" dataDxfId="67" dataCellStyle="常规 3"/>
+    <tableColumn id="14" xr3:uid="{47E0619F-7A93-476C-B065-AD00DD36855A}" name="CheckStr1" dataDxfId="66" dataCellStyle="常规 3"/>
+    <tableColumn id="15" xr3:uid="{C0F86F11-1573-41FF-A474-B99BA57A8786}" name="SPEC" dataDxfId="65" dataCellStyle="常规 3"/>
+    <tableColumn id="16" xr3:uid="{0454BD28-9FF3-4377-968D-8197F5CE0D3A}" name="ByPF" dataDxfId="64" dataCellStyle="常规 3"/>
+    <tableColumn id="17" xr3:uid="{AB7C624F-B63C-451F-98DD-A9E1ECD80C4A}" name="TearDown" dataDxfId="63" dataCellStyle="常规 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E49FA85-A79E-48ED-A160-D2BFEFA44F76}" name="Table1" displayName="Table1" ref="A1:Y217" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E49FA85-A79E-48ED-A160-D2BFEFA44F76}" name="Table1" displayName="Table1" ref="A1:Y217" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
   <autoFilter ref="A1:Y217" xr:uid="{3E49FA85-A79E-48ED-A160-D2BFEFA44F76}"/>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{4E5D4169-2B23-47E9-A636-2A629C507EAC}" name="SuiteName" dataDxfId="42" dataCellStyle="常规 3"/>
-    <tableColumn id="2" xr3:uid="{8A761701-EDCE-47BF-906F-9E38068AE090}" name="StepName" dataDxfId="41" dataCellStyle="常规 3"/>
-    <tableColumn id="3" xr3:uid="{83C1A4A7-9037-4FEE-9B43-EFC41CDCB6A5}" name="Json" dataDxfId="40" dataCellStyle="常规 3"/>
-    <tableColumn id="4" xr3:uid="{C556A570-2E18-4550-B813-7AED289DC63F}" name="Keyword" dataDxfId="39" dataCellStyle="常规 3"/>
-    <tableColumn id="5" xr3:uid="{D3A22750-A6CB-4538-A349-937F44E93036}" name="ErrorCode" dataDxfId="38" dataCellStyle="常规 3"/>
-    <tableColumn id="6" xr3:uid="{C82EF5EC-27E0-4A0B-AFD4-912756B56314}" name="Retry" dataDxfId="37" dataCellStyle="常规 3"/>
-    <tableColumn id="7" xr3:uid="{F3D9DB3D-ABC0-4D49-A31C-F35EB271275D}" name="Timeout" dataDxfId="36" dataCellStyle="常规 3"/>
-    <tableColumn id="8" xr3:uid="{9DB33ED5-A439-43E6-B49B-3B483DD102D6}" name="SubStr1" dataDxfId="35" dataCellStyle="常规 3"/>
-    <tableColumn id="9" xr3:uid="{BE830706-F564-40AC-9E83-3312E914BF41}" name="SubStr2" dataDxfId="34" dataCellStyle="常规 3"/>
-    <tableColumn id="10" xr3:uid="{CCD00695-D700-4B2E-8BD1-1BAB22C5A0C9}" name="IfElse" dataDxfId="33" dataCellStyle="常规 3"/>
-    <tableColumn id="11" xr3:uid="{E32AC69E-9472-4375-8FEE-51306ED78C3A}" name="For" dataDxfId="32" dataCellStyle="常规 3"/>
-    <tableColumn id="12" xr3:uid="{198FB01F-9F98-4F04-BBDF-A23381248D1A}" name="Model" dataDxfId="31" dataCellStyle="常规 3"/>
-    <tableColumn id="13" xr3:uid="{472AAF58-9710-4B4A-81E0-834936C4835F}" name="CmdOrParam" dataDxfId="30" dataCellStyle="常规 3"/>
-    <tableColumn id="14" xr3:uid="{107FF41C-8841-4FD5-B013-F438DC07CEA3}" name="ExpectStr" dataDxfId="29" dataCellStyle="常规 3"/>
-    <tableColumn id="15" xr3:uid="{5A5DDDAD-4DAA-45C6-B270-53DDAD9BE521}" name="CheckStr1" dataDxfId="28" dataCellStyle="常规 3"/>
-    <tableColumn id="16" xr3:uid="{544CA69B-1394-4F03-A1DD-B17B192A66EC}" name="CheckStr2" dataDxfId="27" dataCellStyle="常规 3"/>
-    <tableColumn id="17" xr3:uid="{65912A58-F1A4-4F49-8605-40A43345F077}" name="NoContain" dataDxfId="26" dataCellStyle="常规 3"/>
-    <tableColumn id="18" xr3:uid="{573F2330-DCCA-45AE-AE55-7478E3708A54}" name="SetGlobalVar" dataDxfId="25" dataCellStyle="常规 3"/>
-    <tableColumn id="19" xr3:uid="{0773A549-425E-41D7-A6ED-B909446F4536}" name="SPEC" dataDxfId="24" dataCellStyle="常规 3"/>
-    <tableColumn id="20" xr3:uid="{2A643E8D-EBCC-4E15-8BFE-E96E3FDAAE0B}" name="LSL" dataDxfId="23" dataCellStyle="常规 3"/>
-    <tableColumn id="21" xr3:uid="{3CED774E-1DBA-405B-9637-FB7DE9F309BD}" name="USL" dataDxfId="22" dataCellStyle="常规 3"/>
-    <tableColumn id="22" xr3:uid="{03F3F8CF-CBEC-416C-9895-0C104E51A070}" name="Unit" dataDxfId="21" dataCellStyle="常规 3"/>
-    <tableColumn id="23" xr3:uid="{69D6EF6E-5C93-4B3E-97B4-990B4E041002}" name="ByPF" dataDxfId="20" dataCellStyle="常规 3"/>
-    <tableColumn id="24" xr3:uid="{5E7E384D-C2B8-4839-99F0-A5710661EFEC}" name="FTC" dataDxfId="19" dataCellStyle="常规 3"/>
-    <tableColumn id="25" xr3:uid="{ADBF4FC6-951F-4EEE-8D16-E50396DAD3B4}" name="MesVar" dataDxfId="18" dataCellStyle="常规 3"/>
+    <tableColumn id="1" xr3:uid="{4E5D4169-2B23-47E9-A636-2A629C507EAC}" name="SuiteName" dataDxfId="60" dataCellStyle="常规 3"/>
+    <tableColumn id="2" xr3:uid="{8A761701-EDCE-47BF-906F-9E38068AE090}" name="StepName" dataDxfId="59" dataCellStyle="常规 3"/>
+    <tableColumn id="3" xr3:uid="{83C1A4A7-9037-4FEE-9B43-EFC41CDCB6A5}" name="Json" dataDxfId="58" dataCellStyle="常规 3"/>
+    <tableColumn id="4" xr3:uid="{C556A570-2E18-4550-B813-7AED289DC63F}" name="Keyword" dataDxfId="57" dataCellStyle="常规 3"/>
+    <tableColumn id="5" xr3:uid="{D3A22750-A6CB-4538-A349-937F44E93036}" name="ErrorCode" dataDxfId="56" dataCellStyle="常规 3"/>
+    <tableColumn id="6" xr3:uid="{C82EF5EC-27E0-4A0B-AFD4-912756B56314}" name="Retry" dataDxfId="55" dataCellStyle="常规 3"/>
+    <tableColumn id="7" xr3:uid="{F3D9DB3D-ABC0-4D49-A31C-F35EB271275D}" name="Timeout" dataDxfId="54" dataCellStyle="常规 3"/>
+    <tableColumn id="8" xr3:uid="{9DB33ED5-A439-43E6-B49B-3B483DD102D6}" name="SubStr1" dataDxfId="53" dataCellStyle="常规 3"/>
+    <tableColumn id="9" xr3:uid="{BE830706-F564-40AC-9E83-3312E914BF41}" name="SubStr2" dataDxfId="52" dataCellStyle="常规 3"/>
+    <tableColumn id="10" xr3:uid="{CCD00695-D700-4B2E-8BD1-1BAB22C5A0C9}" name="IfElse" dataDxfId="51" dataCellStyle="常规 3"/>
+    <tableColumn id="11" xr3:uid="{E32AC69E-9472-4375-8FEE-51306ED78C3A}" name="For" dataDxfId="50" dataCellStyle="常规 3"/>
+    <tableColumn id="12" xr3:uid="{198FB01F-9F98-4F04-BBDF-A23381248D1A}" name="Model" dataDxfId="49" dataCellStyle="常规 3"/>
+    <tableColumn id="13" xr3:uid="{472AAF58-9710-4B4A-81E0-834936C4835F}" name="CmdOrParam" dataDxfId="48" dataCellStyle="常规 3"/>
+    <tableColumn id="14" xr3:uid="{107FF41C-8841-4FD5-B013-F438DC07CEA3}" name="ExpectStr" dataDxfId="47" dataCellStyle="常规 3"/>
+    <tableColumn id="15" xr3:uid="{5A5DDDAD-4DAA-45C6-B270-53DDAD9BE521}" name="CheckStr1" dataDxfId="46" dataCellStyle="常规 3"/>
+    <tableColumn id="16" xr3:uid="{544CA69B-1394-4F03-A1DD-B17B192A66EC}" name="CheckStr2" dataDxfId="45" dataCellStyle="常规 3"/>
+    <tableColumn id="17" xr3:uid="{65912A58-F1A4-4F49-8605-40A43345F077}" name="NoContain" dataDxfId="44" dataCellStyle="常规 3"/>
+    <tableColumn id="18" xr3:uid="{573F2330-DCCA-45AE-AE55-7478E3708A54}" name="SetGlobalVar" dataDxfId="43" dataCellStyle="常规 3"/>
+    <tableColumn id="19" xr3:uid="{0773A549-425E-41D7-A6ED-B909446F4536}" name="SPEC" dataDxfId="42" dataCellStyle="常规 3"/>
+    <tableColumn id="20" xr3:uid="{2A643E8D-EBCC-4E15-8BFE-E96E3FDAAE0B}" name="LSL" dataDxfId="41" dataCellStyle="常规 3"/>
+    <tableColumn id="21" xr3:uid="{3CED774E-1DBA-405B-9637-FB7DE9F309BD}" name="USL" dataDxfId="40" dataCellStyle="常规 3"/>
+    <tableColumn id="22" xr3:uid="{03F3F8CF-CBEC-416C-9895-0C104E51A070}" name="Unit" dataDxfId="39" dataCellStyle="常规 3"/>
+    <tableColumn id="23" xr3:uid="{69D6EF6E-5C93-4B3E-97B4-990B4E041002}" name="ByPF" dataDxfId="38" dataCellStyle="常规 3"/>
+    <tableColumn id="24" xr3:uid="{5E7E384D-C2B8-4839-99F0-A5710661EFEC}" name="FTC" dataDxfId="37" dataCellStyle="常规 3"/>
+    <tableColumn id="25" xr3:uid="{ADBF4FC6-951F-4EEE-8D16-E50396DAD3B4}" name="MesVar" dataDxfId="36" dataCellStyle="常规 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD3273BC-1097-4232-BA34-0A9B4F394386}" name="Table13" displayName="Table13" ref="A1:P23" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD3273BC-1097-4232-BA34-0A9B4F394386}" name="Table13" displayName="Table13" ref="A1:P23" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
   <autoFilter ref="A1:P23" xr:uid="{3E49FA85-A79E-48ED-A160-D2BFEFA44F76}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{C53AABE7-1DC8-4C9D-BB90-5FC23616CC96}" name="SuiteName" dataDxfId="15" dataCellStyle="常规 3"/>
-    <tableColumn id="2" xr3:uid="{FF43D262-39D1-4EF5-A600-564B79840B36}" name="StepName" dataDxfId="14" dataCellStyle="常规 3"/>
-    <tableColumn id="3" xr3:uid="{4BC37492-21E1-4C3F-8E78-4E944E7B8810}" name="Json" dataDxfId="13" dataCellStyle="常规 3"/>
-    <tableColumn id="4" xr3:uid="{57B1BF8F-30F6-4693-AB47-208CEB79723D}" name="Keyword" dataDxfId="12" dataCellStyle="常规 3"/>
-    <tableColumn id="5" xr3:uid="{8C6518DA-19C5-41FE-B070-7742046ECF3B}" name="ErrorCode" dataDxfId="11" dataCellStyle="常规 3"/>
-    <tableColumn id="6" xr3:uid="{FBFE75F8-9865-4884-8CEB-BC4A44C9EFD1}" name="Retry" dataDxfId="10" dataCellStyle="常规 3"/>
-    <tableColumn id="7" xr3:uid="{B46D8C33-7B5D-48B0-AC54-DF1874ECEAAB}" name="Timeout" dataDxfId="9" dataCellStyle="常规 3"/>
-    <tableColumn id="8" xr3:uid="{9F19D014-5BA4-49AA-8461-0A8F911F2A85}" name="SubStr1" dataDxfId="8" dataCellStyle="常规 3"/>
-    <tableColumn id="9" xr3:uid="{8AC9F83D-5C93-4890-9E38-766305F376C7}" name="SubStr2" dataDxfId="7" dataCellStyle="常规 3"/>
-    <tableColumn id="11" xr3:uid="{71B5A645-36EC-45F7-8CEA-5E5903802A68}" name="For" dataDxfId="6" dataCellStyle="常规 3"/>
-    <tableColumn id="13" xr3:uid="{6CBF8460-0D5B-4EDB-8419-FC8E4F5D803F}" name="CmdOrParam" dataDxfId="5" dataCellStyle="常规 3"/>
-    <tableColumn id="14" xr3:uid="{651A7744-F728-484E-AD6E-11F426962855}" name="ExpectStr" dataDxfId="4" dataCellStyle="常规 3"/>
-    <tableColumn id="16" xr3:uid="{325C30D6-AB79-46DA-A9C0-DB50F72EECA1}" name="Param1" dataDxfId="3" dataCellStyle="常规 3"/>
-    <tableColumn id="20" xr3:uid="{3CE2081C-8C4F-493C-8153-6223A1D56529}" name="LSL" dataDxfId="2" dataCellStyle="常规 3"/>
-    <tableColumn id="21" xr3:uid="{24AF5AE9-EC6E-43A5-8D18-3D880E9B6767}" name="USL" dataDxfId="1" dataCellStyle="常规 3"/>
-    <tableColumn id="22" xr3:uid="{3CE1C27E-CE4B-4F59-981C-67AEA6D7AB23}" name="Unit" dataDxfId="0" dataCellStyle="常规 3"/>
+    <tableColumn id="1" xr3:uid="{C53AABE7-1DC8-4C9D-BB90-5FC23616CC96}" name="SuiteName" dataDxfId="33" dataCellStyle="常规 3"/>
+    <tableColumn id="2" xr3:uid="{FF43D262-39D1-4EF5-A600-564B79840B36}" name="StepName" dataDxfId="32" dataCellStyle="常规 3"/>
+    <tableColumn id="3" xr3:uid="{4BC37492-21E1-4C3F-8E78-4E944E7B8810}" name="Json" dataDxfId="31" dataCellStyle="常规 3"/>
+    <tableColumn id="4" xr3:uid="{57B1BF8F-30F6-4693-AB47-208CEB79723D}" name="Keyword" dataDxfId="30" dataCellStyle="常规 3"/>
+    <tableColumn id="5" xr3:uid="{8C6518DA-19C5-41FE-B070-7742046ECF3B}" name="ErrorCode" dataDxfId="29" dataCellStyle="常规 3"/>
+    <tableColumn id="6" xr3:uid="{FBFE75F8-9865-4884-8CEB-BC4A44C9EFD1}" name="Retry" dataDxfId="28" dataCellStyle="常规 3"/>
+    <tableColumn id="7" xr3:uid="{B46D8C33-7B5D-48B0-AC54-DF1874ECEAAB}" name="Timeout" dataDxfId="27" dataCellStyle="常规 3"/>
+    <tableColumn id="8" xr3:uid="{9F19D014-5BA4-49AA-8461-0A8F911F2A85}" name="SubStr1" dataDxfId="26" dataCellStyle="常规 3"/>
+    <tableColumn id="9" xr3:uid="{8AC9F83D-5C93-4890-9E38-766305F376C7}" name="SubStr2" dataDxfId="25" dataCellStyle="常规 3"/>
+    <tableColumn id="11" xr3:uid="{71B5A645-36EC-45F7-8CEA-5E5903802A68}" name="For" dataDxfId="24" dataCellStyle="常规 3"/>
+    <tableColumn id="13" xr3:uid="{6CBF8460-0D5B-4EDB-8419-FC8E4F5D803F}" name="CmdOrParam" dataDxfId="23" dataCellStyle="常规 3"/>
+    <tableColumn id="14" xr3:uid="{651A7744-F728-484E-AD6E-11F426962855}" name="ExpectStr" dataDxfId="22" dataCellStyle="常规 3"/>
+    <tableColumn id="16" xr3:uid="{325C30D6-AB79-46DA-A9C0-DB50F72EECA1}" name="Param1" dataDxfId="21" dataCellStyle="常规 3"/>
+    <tableColumn id="20" xr3:uid="{3CE2081C-8C4F-493C-8153-6223A1D56529}" name="LSL" dataDxfId="20" dataCellStyle="常规 3"/>
+    <tableColumn id="21" xr3:uid="{24AF5AE9-EC6E-43A5-8D18-3D880E9B6767}" name="USL" dataDxfId="19" dataCellStyle="常规 3"/>
+    <tableColumn id="22" xr3:uid="{3CE1C27E-CE4B-4F59-981C-67AEA6D7AB23}" name="Unit" dataDxfId="18" dataCellStyle="常规 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5789,6 +6490,409 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEF87B2-74DD-460C-8E2D-A96015F97FC3}">
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickTop="1">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4">
+        <v>51</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
+        <v>32</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
+        <v>32</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92F937F-868B-4332-A89B-0E80B1BEEA01}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
@@ -6224,7 +7328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C441DD7-3DF6-4AF4-ABE8-78C94200A3D5}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
@@ -6627,7 +7731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80E1408-2656-44A8-BB37-C3EC23CD2F6F}">
   <dimension ref="A1:P37"/>
   <sheetViews>
@@ -7932,7 +9036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E921F15E-CC09-480D-89AA-1410904B6CB6}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
@@ -8987,7 +10091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA96ACC4-76A0-4595-9011-9D435733D668}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
@@ -9390,7 +10494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187521E3-34CD-4853-96D8-09FEDBCC57EA}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="0"/>
@@ -10728,7 +11832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261B1219-38CE-4351-AD11-269BFB7FFF97}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P37"/>
@@ -12068,7 +13172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE649F2B-974E-4884-919A-13B065570817}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P37"/>
@@ -13405,7 +14509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00BCB73-0A41-4E03-A788-D5EA2C3C0B74}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P37"/>
@@ -14744,7 +15848,807 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191F1AD8-46D4-49AD-BA96-79E402DE8928}">
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="9" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" style="21" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" style="21" customWidth="1"/>
+    <col min="14" max="14" width="6" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="N1" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="O1" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" s="52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="58">
+        <v>0</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="56">
+        <v>1</v>
+      </c>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" s="58">
+        <v>1</v>
+      </c>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="56">
+        <v>1</v>
+      </c>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="57"/>
+      <c r="B6" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" s="58">
+        <v>1</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="56">
+        <v>1</v>
+      </c>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="57"/>
+      <c r="B8" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" s="58">
+        <v>1</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="56">
+        <v>1</v>
+      </c>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="57"/>
+      <c r="B10" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="58">
+        <v>1</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" thickBot="1">
+      <c r="A11" s="55"/>
+      <c r="B11" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G11" s="56">
+        <v>1</v>
+      </c>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickTop="1">
+      <c r="A12" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54">
+        <v>3</v>
+      </c>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" s="54">
+        <v>9600</v>
+      </c>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="57"/>
+      <c r="B13" s="58" t="s">
+        <v>528</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="58">
+        <v>1</v>
+      </c>
+      <c r="G13" s="58">
+        <v>1</v>
+      </c>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="L13" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56">
+        <v>3</v>
+      </c>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" s="56">
+        <v>9600</v>
+      </c>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="55"/>
+      <c r="B15" s="56" t="s">
+        <v>529</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="56">
+        <v>1</v>
+      </c>
+      <c r="G15" s="56">
+        <v>1</v>
+      </c>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56" t="s">
+        <v>536</v>
+      </c>
+      <c r="L15" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="57" t="s">
+        <v>439</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16" s="58">
+        <v>1</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58" t="s">
+        <v>441</v>
+      </c>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="56">
+        <v>1</v>
+      </c>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="55"/>
+      <c r="B18" s="56" t="s">
+        <v>530</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" s="56">
+        <v>0</v>
+      </c>
+      <c r="G18" s="56">
+        <v>3</v>
+      </c>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56" t="s">
+        <v>537</v>
+      </c>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>331</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F19" s="58">
+        <v>0</v>
+      </c>
+      <c r="G19" s="58">
+        <v>1</v>
+      </c>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="57"/>
+      <c r="B20" s="58" t="s">
+        <v>531</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="58">
+        <v>0</v>
+      </c>
+      <c r="G20" s="58">
+        <v>3</v>
+      </c>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58" t="s">
+        <v>538</v>
+      </c>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="55" t="s">
+        <v>435</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>532</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="56">
+        <v>0</v>
+      </c>
+      <c r="G21" s="56">
+        <v>10</v>
+      </c>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56" t="s">
+        <v>539</v>
+      </c>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="O21" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="P21" s="56" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="55" t="s">
+        <v>436</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>533</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F22" s="56">
+        <v>0</v>
+      </c>
+      <c r="G22" s="56">
+        <v>10</v>
+      </c>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56" t="s">
+        <v>540</v>
+      </c>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56">
+        <v>-20</v>
+      </c>
+      <c r="O22" s="56">
+        <v>30</v>
+      </c>
+      <c r="P22" s="56" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="55" t="s">
+        <v>438</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>437</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56" t="s">
+        <v>413</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="F23" s="56">
+        <v>0</v>
+      </c>
+      <c r="G23" s="56">
+        <v>10</v>
+      </c>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56" t="s">
+        <v>415</v>
+      </c>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2691B70F-315F-4A5D-941A-0BD96D5EE913}">
   <dimension ref="A1:P37"/>
   <sheetViews>
@@ -16049,650 +17953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E668F4-3725-4F00-83E1-178C3BFE7467}">
-  <dimension ref="A1:P16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="38" t="s">
-        <v>453</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>2</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="39"/>
-      <c r="B3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" s="37" customFormat="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="35" t="s">
-        <v>454</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="E4" s="35">
-        <v>1</v>
-      </c>
-      <c r="F4" s="35">
-        <v>1</v>
-      </c>
-      <c r="G4" s="35">
-        <v>62</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="P4" s="35"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="39"/>
-      <c r="B5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="42">
-        <v>50</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" s="37" customFormat="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="35" t="s">
-        <v>455</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" s="35">
-        <v>1</v>
-      </c>
-      <c r="F6" s="35">
-        <v>1</v>
-      </c>
-      <c r="G6" s="35">
-        <v>62</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="43">
-        <v>50</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="P6" s="35"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="39"/>
-      <c r="B7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" s="37" customFormat="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="E8" s="35">
-        <v>1</v>
-      </c>
-      <c r="F8" s="35">
-        <v>1</v>
-      </c>
-      <c r="G8" s="35">
-        <v>62</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="P8" s="35"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="39"/>
-      <c r="B9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="42">
-        <v>51</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" s="37" customFormat="1">
-      <c r="A10" s="39"/>
-      <c r="B10" s="35" t="s">
-        <v>457</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="E10" s="35">
-        <v>1</v>
-      </c>
-      <c r="F10" s="35">
-        <v>1</v>
-      </c>
-      <c r="G10" s="35">
-        <v>62</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="43">
-        <v>51</v>
-      </c>
-      <c r="K10" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="P10" s="35"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="39"/>
-      <c r="B11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="42">
-        <v>52</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" s="37" customFormat="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="35" t="s">
-        <v>458</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="E12" s="35">
-        <v>1</v>
-      </c>
-      <c r="F12" s="35">
-        <v>1</v>
-      </c>
-      <c r="G12" s="35">
-        <v>62</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="43">
-        <v>52</v>
-      </c>
-      <c r="K12" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="P12" s="35"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="39"/>
-      <c r="B13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="42">
-        <v>53</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" s="37" customFormat="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="35" t="s">
-        <v>459</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="E14" s="35">
-        <v>1</v>
-      </c>
-      <c r="F14" s="35">
-        <v>1</v>
-      </c>
-      <c r="G14" s="35">
-        <v>62</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="43">
-        <v>53</v>
-      </c>
-      <c r="K14" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="P14" s="35"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="39"/>
-      <c r="B15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="42">
-        <v>54</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" s="37" customFormat="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="35" t="s">
-        <v>460</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="E16" s="35">
-        <v>1</v>
-      </c>
-      <c r="F16" s="35">
-        <v>1</v>
-      </c>
-      <c r="G16" s="35">
-        <v>62</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="43">
-        <v>54</v>
-      </c>
-      <c r="K16" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="P16" s="35"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14FEA90-2B50-426C-82EF-B8449D92DB7D}">
   <dimension ref="A1:P37"/>
   <sheetViews>
@@ -17997,7 +19258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0B433B-22B3-47FF-9A7D-ABAD8D388B79}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P37"/>
@@ -19332,7 +20593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295BE820-F643-4CA9-8D2F-6495CEB556CC}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:P37"/>
@@ -20672,7 +21933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A168DF-D4C0-449A-AC46-4FB9A8E3F54F}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:P37"/>
@@ -22008,7 +23269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688DACE5-0F90-4CB2-83BE-414E65E6A3CC}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:P37"/>
@@ -23344,7 +24605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13C69ED-C3B9-4662-896B-899D1579730D}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:P37"/>
@@ -24684,7 +25945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F059E497-B15E-405E-87DD-46A726DFE9D8}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:P37"/>
@@ -26020,7 +27281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE3E380-37FE-404D-BB5A-4423923555FA}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:P37"/>
@@ -27360,7 +28621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BF82C3-258C-4984-9472-89B44C2842FD}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:P37"/>
@@ -28696,7 +29957,650 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E668F4-3725-4F00-83E1-178C3BFE7467}">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="39"/>
+      <c r="B3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" s="37" customFormat="1">
+      <c r="A4" s="39"/>
+      <c r="B4" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="35">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35">
+        <v>1</v>
+      </c>
+      <c r="G4" s="35">
+        <v>62</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="P4" s="35"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="39"/>
+      <c r="B5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="42">
+        <v>50</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" s="37" customFormat="1">
+      <c r="A6" s="39"/>
+      <c r="B6" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="35">
+        <v>1</v>
+      </c>
+      <c r="F6" s="35">
+        <v>1</v>
+      </c>
+      <c r="G6" s="35">
+        <v>62</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="43">
+        <v>50</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="P6" s="35"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="39"/>
+      <c r="B7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" s="37" customFormat="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" s="35">
+        <v>1</v>
+      </c>
+      <c r="F8" s="35">
+        <v>1</v>
+      </c>
+      <c r="G8" s="35">
+        <v>62</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="P8" s="35"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="39"/>
+      <c r="B9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="42">
+        <v>51</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" s="37" customFormat="1">
+      <c r="A10" s="39"/>
+      <c r="B10" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" s="35">
+        <v>1</v>
+      </c>
+      <c r="F10" s="35">
+        <v>1</v>
+      </c>
+      <c r="G10" s="35">
+        <v>62</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="43">
+        <v>51</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="P10" s="35"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="39"/>
+      <c r="B11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="42">
+        <v>52</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" s="37" customFormat="1">
+      <c r="A12" s="39"/>
+      <c r="B12" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" s="35">
+        <v>1</v>
+      </c>
+      <c r="F12" s="35">
+        <v>1</v>
+      </c>
+      <c r="G12" s="35">
+        <v>62</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="43">
+        <v>52</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="P12" s="35"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="39"/>
+      <c r="B13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="42">
+        <v>53</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" s="37" customFormat="1">
+      <c r="A14" s="39"/>
+      <c r="B14" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" s="35">
+        <v>1</v>
+      </c>
+      <c r="F14" s="35">
+        <v>1</v>
+      </c>
+      <c r="G14" s="35">
+        <v>62</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="43">
+        <v>53</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="39"/>
+      <c r="B15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="42">
+        <v>54</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" s="37" customFormat="1">
+      <c r="A16" s="39"/>
+      <c r="B16" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="E16" s="35">
+        <v>1</v>
+      </c>
+      <c r="F16" s="35">
+        <v>1</v>
+      </c>
+      <c r="G16" s="35">
+        <v>62</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="43">
+        <v>54</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="P16" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5BD5C7-F362-46B8-9E4D-70C77EAB5AEF}">
   <dimension ref="A1:Y217"/>
   <sheetViews>
@@ -38019,7 +39923,807 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DED171-53EA-4963-A620-CD38973C7186}">
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="9" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" style="21" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" style="21" customWidth="1"/>
+    <col min="14" max="14" width="6" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="N1" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="O1" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" s="52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="58">
+        <v>0</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="56">
+        <v>1</v>
+      </c>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" s="58">
+        <v>1</v>
+      </c>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="56">
+        <v>1</v>
+      </c>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="57"/>
+      <c r="B6" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" s="58">
+        <v>1</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="56">
+        <v>1</v>
+      </c>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="57"/>
+      <c r="B8" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" s="58">
+        <v>1</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="56">
+        <v>1</v>
+      </c>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="57"/>
+      <c r="B10" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="58">
+        <v>1</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" thickBot="1">
+      <c r="A11" s="55"/>
+      <c r="B11" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G11" s="56">
+        <v>1</v>
+      </c>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickTop="1">
+      <c r="A12" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54">
+        <v>3</v>
+      </c>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" s="54">
+        <v>9600</v>
+      </c>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="57"/>
+      <c r="B13" s="58" t="s">
+        <v>528</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="58">
+        <v>1</v>
+      </c>
+      <c r="G13" s="58">
+        <v>1</v>
+      </c>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="L13" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56">
+        <v>3</v>
+      </c>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" s="56">
+        <v>9600</v>
+      </c>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="55"/>
+      <c r="B15" s="56" t="s">
+        <v>529</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="56">
+        <v>1</v>
+      </c>
+      <c r="G15" s="56">
+        <v>1</v>
+      </c>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56" t="s">
+        <v>536</v>
+      </c>
+      <c r="L15" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="57" t="s">
+        <v>439</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16" s="58">
+        <v>1</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58" t="s">
+        <v>441</v>
+      </c>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="56">
+        <v>1</v>
+      </c>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="55"/>
+      <c r="B18" s="56" t="s">
+        <v>530</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" s="56">
+        <v>0</v>
+      </c>
+      <c r="G18" s="56">
+        <v>3</v>
+      </c>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56" t="s">
+        <v>537</v>
+      </c>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>331</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F19" s="58">
+        <v>0</v>
+      </c>
+      <c r="G19" s="58">
+        <v>1</v>
+      </c>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="57"/>
+      <c r="B20" s="58" t="s">
+        <v>531</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="58">
+        <v>0</v>
+      </c>
+      <c r="G20" s="58">
+        <v>3</v>
+      </c>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58" t="s">
+        <v>538</v>
+      </c>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="55" t="s">
+        <v>435</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>532</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="56">
+        <v>0</v>
+      </c>
+      <c r="G21" s="56">
+        <v>10</v>
+      </c>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56" t="s">
+        <v>539</v>
+      </c>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="O21" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="P21" s="56" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="55" t="s">
+        <v>436</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>533</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F22" s="56">
+        <v>0</v>
+      </c>
+      <c r="G22" s="56">
+        <v>10</v>
+      </c>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56" t="s">
+        <v>540</v>
+      </c>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56">
+        <v>-20</v>
+      </c>
+      <c r="O22" s="56">
+        <v>30</v>
+      </c>
+      <c r="P22" s="56" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="55" t="s">
+        <v>438</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>437</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56" t="s">
+        <v>413</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="F23" s="56">
+        <v>0</v>
+      </c>
+      <c r="G23" s="56">
+        <v>10</v>
+      </c>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56" t="s">
+        <v>415</v>
+      </c>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C04C1A-3350-40A3-A3C4-701CA4DBE6F7}">
   <dimension ref="A1:P14"/>
   <sheetViews>
@@ -38586,807 +41290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DED171-53EA-4963-A620-CD38973C7186}">
-  <dimension ref="A1:P23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" style="21" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="M1" s="52" t="s">
-        <v>534</v>
-      </c>
-      <c r="N1" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="O1" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="P1" s="52" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>241</v>
-      </c>
-      <c r="G2" s="58">
-        <v>0</v>
-      </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G3" s="56">
-        <v>1</v>
-      </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58" t="s">
-        <v>248</v>
-      </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>245</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="G4" s="58">
-        <v>1</v>
-      </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G5" s="56">
-        <v>1</v>
-      </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56" t="s">
-        <v>252</v>
-      </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>245</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="G6" s="58">
-        <v>1</v>
-      </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58" t="s">
-        <v>254</v>
-      </c>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="F7" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G7" s="56">
-        <v>1</v>
-      </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56" t="s">
-        <v>256</v>
-      </c>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>245</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="G8" s="58">
-        <v>1</v>
-      </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58" t="s">
-        <v>258</v>
-      </c>
-      <c r="L8" s="58" t="s">
-        <v>241</v>
-      </c>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="E9" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G9" s="56">
-        <v>1</v>
-      </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>245</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="G10" s="58">
-        <v>1</v>
-      </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58" t="s">
-        <v>262</v>
-      </c>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-    </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="56" t="s">
-        <v>263</v>
-      </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="F11" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G11" s="56">
-        <v>1</v>
-      </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56" t="s">
-        <v>264</v>
-      </c>
-      <c r="L11" s="56" t="s">
-        <v>265</v>
-      </c>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" thickTop="1">
-      <c r="A12" s="53" t="s">
-        <v>417</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54">
-        <v>3</v>
-      </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="L12" s="54">
-        <v>9600</v>
-      </c>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="57"/>
-      <c r="B13" s="58" t="s">
-        <v>528</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="58">
-        <v>1</v>
-      </c>
-      <c r="G13" s="58">
-        <v>1</v>
-      </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58" t="s">
-        <v>535</v>
-      </c>
-      <c r="L13" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="55" t="s">
-        <v>416</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56">
-        <v>3</v>
-      </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="L14" s="56">
-        <v>9600</v>
-      </c>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56" t="s">
-        <v>529</v>
-      </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" s="56">
-        <v>1</v>
-      </c>
-      <c r="G15" s="56">
-        <v>1</v>
-      </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56" t="s">
-        <v>536</v>
-      </c>
-      <c r="L15" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="57" t="s">
-        <v>439</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>440</v>
-      </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58" t="s">
-        <v>440</v>
-      </c>
-      <c r="E16" s="58" t="s">
-        <v>245</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="G16" s="58">
-        <v>1</v>
-      </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58" t="s">
-        <v>441</v>
-      </c>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="55" t="s">
-        <v>433</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>266</v>
-      </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="E17" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="F17" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G17" s="56">
-        <v>1</v>
-      </c>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56" t="s">
-        <v>267</v>
-      </c>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56" t="s">
-        <v>530</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="F18" s="56">
-        <v>0</v>
-      </c>
-      <c r="G18" s="56">
-        <v>3</v>
-      </c>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56" t="s">
-        <v>269</v>
-      </c>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56" t="s">
-        <v>537</v>
-      </c>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="57" t="s">
-        <v>434</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>331</v>
-      </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>245</v>
-      </c>
-      <c r="F19" s="58">
-        <v>0</v>
-      </c>
-      <c r="G19" s="58">
-        <v>1</v>
-      </c>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58" t="s">
-        <v>332</v>
-      </c>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="57"/>
-      <c r="B20" s="58" t="s">
-        <v>531</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>251</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="E20" s="58" t="s">
-        <v>245</v>
-      </c>
-      <c r="F20" s="58">
-        <v>0</v>
-      </c>
-      <c r="G20" s="58">
-        <v>3</v>
-      </c>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58" t="s">
-        <v>333</v>
-      </c>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58" t="s">
-        <v>538</v>
-      </c>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="55" t="s">
-        <v>435</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>532</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>336</v>
-      </c>
-      <c r="E21" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="F21" s="56">
-        <v>0</v>
-      </c>
-      <c r="G21" s="56">
-        <v>10</v>
-      </c>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56" t="s">
-        <v>539</v>
-      </c>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56" t="s">
-        <v>338</v>
-      </c>
-      <c r="O21" s="56" t="s">
-        <v>339</v>
-      </c>
-      <c r="P21" s="56" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="55" t="s">
-        <v>436</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>533</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>376</v>
-      </c>
-      <c r="E22" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="F22" s="56">
-        <v>0</v>
-      </c>
-      <c r="G22" s="56">
-        <v>10</v>
-      </c>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56" t="s">
-        <v>540</v>
-      </c>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56">
-        <v>-20</v>
-      </c>
-      <c r="O22" s="56">
-        <v>30</v>
-      </c>
-      <c r="P22" s="56" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="55" t="s">
-        <v>438</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>437</v>
-      </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56" t="s">
-        <v>413</v>
-      </c>
-      <c r="E23" s="56" t="s">
-        <v>414</v>
-      </c>
-      <c r="F23" s="56">
-        <v>0</v>
-      </c>
-      <c r="G23" s="56">
-        <v>10</v>
-      </c>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56" t="s">
-        <v>415</v>
-      </c>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P37"/>
@@ -40690,7 +42594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37A5AEB-AFC5-4C68-96AE-2B96117E6D79}">
   <dimension ref="A1:P37"/>
   <sheetViews>
@@ -41995,7 +43899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE7E189-8F47-48B1-817E-CA8B4A2FAC3F}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
@@ -42398,7 +44302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2263DECB-9F73-46F7-853B-AD274E3C44BF}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
@@ -42801,7 +44705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193D8F50-7808-49AB-9564-4AD2405F9E9D}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
@@ -43202,407 +45106,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEF87B2-74DD-460C-8E2D-A96015F97FC3}">
-  <dimension ref="A1:Q10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickTop="1">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4">
-        <v>51</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>2</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>2</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>2</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <v>2</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6">
-        <v>32</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>2</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6">
-        <v>32</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\AutoPlasticOmnium\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A177DAA-3F8C-4A61-9FC3-20852BDD364A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB1CD3B-9522-45A9-ADA9-A607C802177F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="961" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4140,7 +4140,9 @@
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
         <right/>
         <top style="thin">
           <color theme="0"/>
@@ -4149,59 +4151,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFDA"/>
-          <bgColor rgb="FFE2EFDA"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4514,6 +4463,96 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5841,45 +5880,6 @@
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -5902,16 +5902,16 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <fgColor rgb="FFE2EFDA"/>
+          <bgColor rgb="FFE2EFDA"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5957,110 +5957,110 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{766D7AA2-7ADF-4E8C-8C8F-CB68CB9C4366}" name="Table135" displayName="Table135" ref="A1:P23" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{766D7AA2-7ADF-4E8C-8C8F-CB68CB9C4366}" name="Table135" displayName="Table135" ref="A1:P23" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
   <autoFilter ref="A1:P23" xr:uid="{3E49FA85-A79E-48ED-A160-D2BFEFA44F76}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{EAC61474-7D2C-4AF6-8CDF-9AC2DCE858E0}" name="SuiteName" dataDxfId="15" dataCellStyle="常规 3"/>
-    <tableColumn id="2" xr3:uid="{6CD848EC-3F29-45BA-8755-E250D0374755}" name="StepName" dataDxfId="14" dataCellStyle="常规 3"/>
-    <tableColumn id="3" xr3:uid="{16AC1393-1B72-4EBB-B9BC-A95768144791}" name="Json" dataDxfId="13" dataCellStyle="常规 3"/>
-    <tableColumn id="4" xr3:uid="{7433DB0F-90D1-4CB2-8E4D-2C4ECDA8D606}" name="Keyword" dataDxfId="12" dataCellStyle="常规 3"/>
-    <tableColumn id="5" xr3:uid="{76768E23-FFE8-4D67-BF20-3C6353BDF063}" name="ErrorCode" dataDxfId="11" dataCellStyle="常规 3"/>
-    <tableColumn id="6" xr3:uid="{C17C5CD0-12AA-4507-9A10-F6CBAFBC4A48}" name="Retry" dataDxfId="10" dataCellStyle="常规 3"/>
-    <tableColumn id="7" xr3:uid="{45936396-A88A-44A4-B0F0-753A02530353}" name="Timeout" dataDxfId="9" dataCellStyle="常规 3"/>
-    <tableColumn id="8" xr3:uid="{BD98D564-F957-4E8F-AAAE-6F8DE4F1CB09}" name="SubStr1" dataDxfId="8" dataCellStyle="常规 3"/>
-    <tableColumn id="9" xr3:uid="{7F2FFFF6-2017-4E0A-AE20-F43A4D543496}" name="SubStr2" dataDxfId="7" dataCellStyle="常规 3"/>
-    <tableColumn id="11" xr3:uid="{D42E2113-CD5F-4101-861A-A3609DA0355F}" name="For" dataDxfId="6" dataCellStyle="常规 3"/>
-    <tableColumn id="13" xr3:uid="{8AA6DDA8-DFF6-4AF5-9CCE-0BE8625F301D}" name="CmdOrParam" dataDxfId="5" dataCellStyle="常规 3"/>
-    <tableColumn id="14" xr3:uid="{8BAE2A4F-C7B2-4446-9DC1-90096DA92F4A}" name="ExpectStr" dataDxfId="4" dataCellStyle="常规 3"/>
-    <tableColumn id="16" xr3:uid="{DB320073-3EC5-48FF-BE3B-1D8BBA65BAED}" name="Param1" dataDxfId="3" dataCellStyle="常规 3"/>
-    <tableColumn id="20" xr3:uid="{44EA498E-A0A9-4F36-9CF9-5EA729E792DB}" name="LSL" dataDxfId="2" dataCellStyle="常规 3"/>
-    <tableColumn id="21" xr3:uid="{E5D9EC83-5B9D-4AD3-97D5-4D2543F8AB34}" name="USL" dataDxfId="1" dataCellStyle="常规 3"/>
-    <tableColumn id="22" xr3:uid="{2C56948E-5119-4F88-B316-828CB7DF032C}" name="Unit" dataDxfId="0" dataCellStyle="常规 3"/>
+    <tableColumn id="1" xr3:uid="{EAC61474-7D2C-4AF6-8CDF-9AC2DCE858E0}" name="SuiteName" dataDxfId="79" dataCellStyle="常规 3"/>
+    <tableColumn id="2" xr3:uid="{6CD848EC-3F29-45BA-8755-E250D0374755}" name="StepName" dataDxfId="78" dataCellStyle="常规 3"/>
+    <tableColumn id="3" xr3:uid="{16AC1393-1B72-4EBB-B9BC-A95768144791}" name="Json" dataDxfId="77" dataCellStyle="常规 3"/>
+    <tableColumn id="4" xr3:uid="{7433DB0F-90D1-4CB2-8E4D-2C4ECDA8D606}" name="Keyword" dataDxfId="76" dataCellStyle="常规 3"/>
+    <tableColumn id="5" xr3:uid="{76768E23-FFE8-4D67-BF20-3C6353BDF063}" name="ErrorCode" dataDxfId="75" dataCellStyle="常规 3"/>
+    <tableColumn id="6" xr3:uid="{C17C5CD0-12AA-4507-9A10-F6CBAFBC4A48}" name="Retry" dataDxfId="74" dataCellStyle="常规 3"/>
+    <tableColumn id="7" xr3:uid="{45936396-A88A-44A4-B0F0-753A02530353}" name="Timeout" dataDxfId="73" dataCellStyle="常规 3"/>
+    <tableColumn id="8" xr3:uid="{BD98D564-F957-4E8F-AAAE-6F8DE4F1CB09}" name="SubStr1" dataDxfId="72" dataCellStyle="常规 3"/>
+    <tableColumn id="9" xr3:uid="{7F2FFFF6-2017-4E0A-AE20-F43A4D543496}" name="SubStr2" dataDxfId="71" dataCellStyle="常规 3"/>
+    <tableColumn id="11" xr3:uid="{D42E2113-CD5F-4101-861A-A3609DA0355F}" name="For" dataDxfId="70" dataCellStyle="常规 3"/>
+    <tableColumn id="13" xr3:uid="{8AA6DDA8-DFF6-4AF5-9CCE-0BE8625F301D}" name="CmdOrParam" dataDxfId="69" dataCellStyle="常规 3"/>
+    <tableColumn id="14" xr3:uid="{8BAE2A4F-C7B2-4446-9DC1-90096DA92F4A}" name="ExpectStr" dataDxfId="68" dataCellStyle="常规 3"/>
+    <tableColumn id="16" xr3:uid="{DB320073-3EC5-48FF-BE3B-1D8BBA65BAED}" name="Param1" dataDxfId="67" dataCellStyle="常规 3"/>
+    <tableColumn id="20" xr3:uid="{44EA498E-A0A9-4F36-9CF9-5EA729E792DB}" name="LSL" dataDxfId="66" dataCellStyle="常规 3"/>
+    <tableColumn id="21" xr3:uid="{E5D9EC83-5B9D-4AD3-97D5-4D2543F8AB34}" name="USL" dataDxfId="65" dataCellStyle="常规 3"/>
+    <tableColumn id="22" xr3:uid="{2C56948E-5119-4F88-B316-828CB7DF032C}" name="Unit" dataDxfId="64" dataCellStyle="常规 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F7B3D7E6-E8F4-4A99-9E96-5E5CD7355C13}" name="Table3" displayName="Table3" ref="A1:Q33" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F7B3D7E6-E8F4-4A99-9E96-5E5CD7355C13}" name="Table3" displayName="Table3" ref="A1:Q33" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
   <autoFilter ref="A1:Q33" xr:uid="{F7B3D7E6-E8F4-4A99-9E96-5E5CD7355C13}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{87D1869F-E5CC-4E60-ACD3-28ADD945AFD2}" name="SuiteName" dataDxfId="79" dataCellStyle="常规 3"/>
-    <tableColumn id="2" xr3:uid="{5B84D527-C53E-4002-8A0A-F08D9A6482FD}" name="StepName" dataDxfId="78" dataCellStyle="常规 3"/>
-    <tableColumn id="3" xr3:uid="{83EAB9B6-4C5D-44C7-AD13-97EEEFE9B22F}" name="Keyword" dataDxfId="77" dataCellStyle="常规 3"/>
-    <tableColumn id="4" xr3:uid="{89417577-A179-4EDB-BB48-8E03D52E3557}" name="Json" dataDxfId="76" dataCellStyle="常规 3"/>
-    <tableColumn id="5" xr3:uid="{1DE854ED-334F-4043-BDF8-E5AAB32D6F9F}" name="Retry" dataDxfId="75" dataCellStyle="常规 3"/>
-    <tableColumn id="6" xr3:uid="{0105D6E4-750A-46C5-9A14-11BF3C575113}" name="Timeout" dataDxfId="74" dataCellStyle="常规 3"/>
-    <tableColumn id="7" xr3:uid="{56E02C3C-624F-4D47-81FA-3EE5DC3761E9}" name="SubStr1" dataDxfId="73" dataCellStyle="常规 3"/>
-    <tableColumn id="8" xr3:uid="{0D469B1B-13E8-45EE-96CB-5060EC7A877E}" name="SubStr2" dataDxfId="72" dataCellStyle="常规 3"/>
-    <tableColumn id="9" xr3:uid="{3D4B0EC3-8C79-4453-BFB5-3333BB127BAC}" name="ID" dataDxfId="71" dataCellStyle="常规 3"/>
-    <tableColumn id="10" xr3:uid="{26E317CD-9BE1-4ACB-86D6-3FC9540DCFEB}" name="NAD" dataDxfId="70" dataCellStyle="常规 3"/>
-    <tableColumn id="11" xr3:uid="{77C4B434-6477-4B67-86E0-2565AB5F235F}" name="PCI_LEN" dataDxfId="69" dataCellStyle="常规 3"/>
-    <tableColumn id="12" xr3:uid="{F60F9C0D-C8DE-4B2B-942D-489EBC353C44}" name="CmdOrParam" dataDxfId="68" dataCellStyle="常规 3"/>
-    <tableColumn id="13" xr3:uid="{A57B0F6D-EE20-4665-8ADB-F7B477713719}" name="SetGlobalVar" dataDxfId="67" dataCellStyle="常规 3"/>
-    <tableColumn id="14" xr3:uid="{47E0619F-7A93-476C-B065-AD00DD36855A}" name="CheckStr1" dataDxfId="66" dataCellStyle="常规 3"/>
-    <tableColumn id="15" xr3:uid="{C0F86F11-1573-41FF-A474-B99BA57A8786}" name="SPEC" dataDxfId="65" dataCellStyle="常规 3"/>
-    <tableColumn id="16" xr3:uid="{0454BD28-9FF3-4377-968D-8197F5CE0D3A}" name="ByPF" dataDxfId="64" dataCellStyle="常规 3"/>
-    <tableColumn id="17" xr3:uid="{AB7C624F-B63C-451F-98DD-A9E1ECD80C4A}" name="TearDown" dataDxfId="63" dataCellStyle="常规 3"/>
+    <tableColumn id="1" xr3:uid="{87D1869F-E5CC-4E60-ACD3-28ADD945AFD2}" name="SuiteName" dataDxfId="61" dataCellStyle="常规 3"/>
+    <tableColumn id="2" xr3:uid="{5B84D527-C53E-4002-8A0A-F08D9A6482FD}" name="StepName" dataDxfId="60" dataCellStyle="常规 3"/>
+    <tableColumn id="3" xr3:uid="{83EAB9B6-4C5D-44C7-AD13-97EEEFE9B22F}" name="Keyword" dataDxfId="59" dataCellStyle="常规 3"/>
+    <tableColumn id="4" xr3:uid="{89417577-A179-4EDB-BB48-8E03D52E3557}" name="Json" dataDxfId="58" dataCellStyle="常规 3"/>
+    <tableColumn id="5" xr3:uid="{1DE854ED-334F-4043-BDF8-E5AAB32D6F9F}" name="Retry" dataDxfId="57" dataCellStyle="常规 3"/>
+    <tableColumn id="6" xr3:uid="{0105D6E4-750A-46C5-9A14-11BF3C575113}" name="Timeout" dataDxfId="56" dataCellStyle="常规 3"/>
+    <tableColumn id="7" xr3:uid="{56E02C3C-624F-4D47-81FA-3EE5DC3761E9}" name="SubStr1" dataDxfId="55" dataCellStyle="常规 3"/>
+    <tableColumn id="8" xr3:uid="{0D469B1B-13E8-45EE-96CB-5060EC7A877E}" name="SubStr2" dataDxfId="54" dataCellStyle="常规 3"/>
+    <tableColumn id="9" xr3:uid="{3D4B0EC3-8C79-4453-BFB5-3333BB127BAC}" name="ID" dataDxfId="53" dataCellStyle="常规 3"/>
+    <tableColumn id="10" xr3:uid="{26E317CD-9BE1-4ACB-86D6-3FC9540DCFEB}" name="NAD" dataDxfId="52" dataCellStyle="常规 3"/>
+    <tableColumn id="11" xr3:uid="{77C4B434-6477-4B67-86E0-2565AB5F235F}" name="PCI_LEN" dataDxfId="51" dataCellStyle="常规 3"/>
+    <tableColumn id="12" xr3:uid="{F60F9C0D-C8DE-4B2B-942D-489EBC353C44}" name="CmdOrParam" dataDxfId="50" dataCellStyle="常规 3"/>
+    <tableColumn id="13" xr3:uid="{A57B0F6D-EE20-4665-8ADB-F7B477713719}" name="SetGlobalVar" dataDxfId="49" dataCellStyle="常规 3"/>
+    <tableColumn id="14" xr3:uid="{47E0619F-7A93-476C-B065-AD00DD36855A}" name="CheckStr1" dataDxfId="48" dataCellStyle="常规 3"/>
+    <tableColumn id="15" xr3:uid="{C0F86F11-1573-41FF-A474-B99BA57A8786}" name="SPEC" dataDxfId="47" dataCellStyle="常规 3"/>
+    <tableColumn id="16" xr3:uid="{0454BD28-9FF3-4377-968D-8197F5CE0D3A}" name="ByPF" dataDxfId="46" dataCellStyle="常规 3"/>
+    <tableColumn id="17" xr3:uid="{AB7C624F-B63C-451F-98DD-A9E1ECD80C4A}" name="TearDown" dataDxfId="45" dataCellStyle="常规 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E49FA85-A79E-48ED-A160-D2BFEFA44F76}" name="Table1" displayName="Table1" ref="A1:Y217" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E49FA85-A79E-48ED-A160-D2BFEFA44F76}" name="Table1" displayName="Table1" ref="A1:Y217" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
   <autoFilter ref="A1:Y217" xr:uid="{3E49FA85-A79E-48ED-A160-D2BFEFA44F76}"/>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{4E5D4169-2B23-47E9-A636-2A629C507EAC}" name="SuiteName" dataDxfId="60" dataCellStyle="常规 3"/>
-    <tableColumn id="2" xr3:uid="{8A761701-EDCE-47BF-906F-9E38068AE090}" name="StepName" dataDxfId="59" dataCellStyle="常规 3"/>
-    <tableColumn id="3" xr3:uid="{83C1A4A7-9037-4FEE-9B43-EFC41CDCB6A5}" name="Json" dataDxfId="58" dataCellStyle="常规 3"/>
-    <tableColumn id="4" xr3:uid="{C556A570-2E18-4550-B813-7AED289DC63F}" name="Keyword" dataDxfId="57" dataCellStyle="常规 3"/>
-    <tableColumn id="5" xr3:uid="{D3A22750-A6CB-4538-A349-937F44E93036}" name="ErrorCode" dataDxfId="56" dataCellStyle="常规 3"/>
-    <tableColumn id="6" xr3:uid="{C82EF5EC-27E0-4A0B-AFD4-912756B56314}" name="Retry" dataDxfId="55" dataCellStyle="常规 3"/>
-    <tableColumn id="7" xr3:uid="{F3D9DB3D-ABC0-4D49-A31C-F35EB271275D}" name="Timeout" dataDxfId="54" dataCellStyle="常规 3"/>
-    <tableColumn id="8" xr3:uid="{9DB33ED5-A439-43E6-B49B-3B483DD102D6}" name="SubStr1" dataDxfId="53" dataCellStyle="常规 3"/>
-    <tableColumn id="9" xr3:uid="{BE830706-F564-40AC-9E83-3312E914BF41}" name="SubStr2" dataDxfId="52" dataCellStyle="常规 3"/>
-    <tableColumn id="10" xr3:uid="{CCD00695-D700-4B2E-8BD1-1BAB22C5A0C9}" name="IfElse" dataDxfId="51" dataCellStyle="常规 3"/>
-    <tableColumn id="11" xr3:uid="{E32AC69E-9472-4375-8FEE-51306ED78C3A}" name="For" dataDxfId="50" dataCellStyle="常规 3"/>
-    <tableColumn id="12" xr3:uid="{198FB01F-9F98-4F04-BBDF-A23381248D1A}" name="Model" dataDxfId="49" dataCellStyle="常规 3"/>
-    <tableColumn id="13" xr3:uid="{472AAF58-9710-4B4A-81E0-834936C4835F}" name="CmdOrParam" dataDxfId="48" dataCellStyle="常规 3"/>
-    <tableColumn id="14" xr3:uid="{107FF41C-8841-4FD5-B013-F438DC07CEA3}" name="ExpectStr" dataDxfId="47" dataCellStyle="常规 3"/>
-    <tableColumn id="15" xr3:uid="{5A5DDDAD-4DAA-45C6-B270-53DDAD9BE521}" name="CheckStr1" dataDxfId="46" dataCellStyle="常规 3"/>
-    <tableColumn id="16" xr3:uid="{544CA69B-1394-4F03-A1DD-B17B192A66EC}" name="CheckStr2" dataDxfId="45" dataCellStyle="常规 3"/>
-    <tableColumn id="17" xr3:uid="{65912A58-F1A4-4F49-8605-40A43345F077}" name="NoContain" dataDxfId="44" dataCellStyle="常规 3"/>
-    <tableColumn id="18" xr3:uid="{573F2330-DCCA-45AE-AE55-7478E3708A54}" name="SetGlobalVar" dataDxfId="43" dataCellStyle="常规 3"/>
-    <tableColumn id="19" xr3:uid="{0773A549-425E-41D7-A6ED-B909446F4536}" name="SPEC" dataDxfId="42" dataCellStyle="常规 3"/>
-    <tableColumn id="20" xr3:uid="{2A643E8D-EBCC-4E15-8BFE-E96E3FDAAE0B}" name="LSL" dataDxfId="41" dataCellStyle="常规 3"/>
-    <tableColumn id="21" xr3:uid="{3CED774E-1DBA-405B-9637-FB7DE9F309BD}" name="USL" dataDxfId="40" dataCellStyle="常规 3"/>
-    <tableColumn id="22" xr3:uid="{03F3F8CF-CBEC-416C-9895-0C104E51A070}" name="Unit" dataDxfId="39" dataCellStyle="常规 3"/>
-    <tableColumn id="23" xr3:uid="{69D6EF6E-5C93-4B3E-97B4-990B4E041002}" name="ByPF" dataDxfId="38" dataCellStyle="常规 3"/>
-    <tableColumn id="24" xr3:uid="{5E7E384D-C2B8-4839-99F0-A5710661EFEC}" name="FTC" dataDxfId="37" dataCellStyle="常规 3"/>
-    <tableColumn id="25" xr3:uid="{ADBF4FC6-951F-4EEE-8D16-E50396DAD3B4}" name="MesVar" dataDxfId="36" dataCellStyle="常规 3"/>
+    <tableColumn id="1" xr3:uid="{4E5D4169-2B23-47E9-A636-2A629C507EAC}" name="SuiteName" dataDxfId="42" dataCellStyle="常规 3"/>
+    <tableColumn id="2" xr3:uid="{8A761701-EDCE-47BF-906F-9E38068AE090}" name="StepName" dataDxfId="41" dataCellStyle="常规 3"/>
+    <tableColumn id="3" xr3:uid="{83C1A4A7-9037-4FEE-9B43-EFC41CDCB6A5}" name="Json" dataDxfId="40" dataCellStyle="常规 3"/>
+    <tableColumn id="4" xr3:uid="{C556A570-2E18-4550-B813-7AED289DC63F}" name="Keyword" dataDxfId="39" dataCellStyle="常规 3"/>
+    <tableColumn id="5" xr3:uid="{D3A22750-A6CB-4538-A349-937F44E93036}" name="ErrorCode" dataDxfId="38" dataCellStyle="常规 3"/>
+    <tableColumn id="6" xr3:uid="{C82EF5EC-27E0-4A0B-AFD4-912756B56314}" name="Retry" dataDxfId="37" dataCellStyle="常规 3"/>
+    <tableColumn id="7" xr3:uid="{F3D9DB3D-ABC0-4D49-A31C-F35EB271275D}" name="Timeout" dataDxfId="36" dataCellStyle="常规 3"/>
+    <tableColumn id="8" xr3:uid="{9DB33ED5-A439-43E6-B49B-3B483DD102D6}" name="SubStr1" dataDxfId="35" dataCellStyle="常规 3"/>
+    <tableColumn id="9" xr3:uid="{BE830706-F564-40AC-9E83-3312E914BF41}" name="SubStr2" dataDxfId="34" dataCellStyle="常规 3"/>
+    <tableColumn id="10" xr3:uid="{CCD00695-D700-4B2E-8BD1-1BAB22C5A0C9}" name="IfElse" dataDxfId="33" dataCellStyle="常规 3"/>
+    <tableColumn id="11" xr3:uid="{E32AC69E-9472-4375-8FEE-51306ED78C3A}" name="For" dataDxfId="32" dataCellStyle="常规 3"/>
+    <tableColumn id="12" xr3:uid="{198FB01F-9F98-4F04-BBDF-A23381248D1A}" name="Model" dataDxfId="31" dataCellStyle="常规 3"/>
+    <tableColumn id="13" xr3:uid="{472AAF58-9710-4B4A-81E0-834936C4835F}" name="CmdOrParam" dataDxfId="30" dataCellStyle="常规 3"/>
+    <tableColumn id="14" xr3:uid="{107FF41C-8841-4FD5-B013-F438DC07CEA3}" name="ExpectStr" dataDxfId="29" dataCellStyle="常规 3"/>
+    <tableColumn id="15" xr3:uid="{5A5DDDAD-4DAA-45C6-B270-53DDAD9BE521}" name="CheckStr1" dataDxfId="28" dataCellStyle="常规 3"/>
+    <tableColumn id="16" xr3:uid="{544CA69B-1394-4F03-A1DD-B17B192A66EC}" name="CheckStr2" dataDxfId="27" dataCellStyle="常规 3"/>
+    <tableColumn id="17" xr3:uid="{65912A58-F1A4-4F49-8605-40A43345F077}" name="NoContain" dataDxfId="26" dataCellStyle="常规 3"/>
+    <tableColumn id="18" xr3:uid="{573F2330-DCCA-45AE-AE55-7478E3708A54}" name="SetGlobalVar" dataDxfId="25" dataCellStyle="常规 3"/>
+    <tableColumn id="19" xr3:uid="{0773A549-425E-41D7-A6ED-B909446F4536}" name="SPEC" dataDxfId="24" dataCellStyle="常规 3"/>
+    <tableColumn id="20" xr3:uid="{2A643E8D-EBCC-4E15-8BFE-E96E3FDAAE0B}" name="LSL" dataDxfId="23" dataCellStyle="常规 3"/>
+    <tableColumn id="21" xr3:uid="{3CED774E-1DBA-405B-9637-FB7DE9F309BD}" name="USL" dataDxfId="22" dataCellStyle="常规 3"/>
+    <tableColumn id="22" xr3:uid="{03F3F8CF-CBEC-416C-9895-0C104E51A070}" name="Unit" dataDxfId="21" dataCellStyle="常规 3"/>
+    <tableColumn id="23" xr3:uid="{69D6EF6E-5C93-4B3E-97B4-990B4E041002}" name="ByPF" dataDxfId="20" dataCellStyle="常规 3"/>
+    <tableColumn id="24" xr3:uid="{5E7E384D-C2B8-4839-99F0-A5710661EFEC}" name="FTC" dataDxfId="19" dataCellStyle="常规 3"/>
+    <tableColumn id="25" xr3:uid="{ADBF4FC6-951F-4EEE-8D16-E50396DAD3B4}" name="MesVar" dataDxfId="18" dataCellStyle="常规 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD3273BC-1097-4232-BA34-0A9B4F394386}" name="Table13" displayName="Table13" ref="A1:P23" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD3273BC-1097-4232-BA34-0A9B4F394386}" name="Table13" displayName="Table13" ref="A1:P23" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
   <autoFilter ref="A1:P23" xr:uid="{3E49FA85-A79E-48ED-A160-D2BFEFA44F76}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{C53AABE7-1DC8-4C9D-BB90-5FC23616CC96}" name="SuiteName" dataDxfId="33" dataCellStyle="常规 3"/>
-    <tableColumn id="2" xr3:uid="{FF43D262-39D1-4EF5-A600-564B79840B36}" name="StepName" dataDxfId="32" dataCellStyle="常规 3"/>
-    <tableColumn id="3" xr3:uid="{4BC37492-21E1-4C3F-8E78-4E944E7B8810}" name="Json" dataDxfId="31" dataCellStyle="常规 3"/>
-    <tableColumn id="4" xr3:uid="{57B1BF8F-30F6-4693-AB47-208CEB79723D}" name="Keyword" dataDxfId="30" dataCellStyle="常规 3"/>
-    <tableColumn id="5" xr3:uid="{8C6518DA-19C5-41FE-B070-7742046ECF3B}" name="ErrorCode" dataDxfId="29" dataCellStyle="常规 3"/>
-    <tableColumn id="6" xr3:uid="{FBFE75F8-9865-4884-8CEB-BC4A44C9EFD1}" name="Retry" dataDxfId="28" dataCellStyle="常规 3"/>
-    <tableColumn id="7" xr3:uid="{B46D8C33-7B5D-48B0-AC54-DF1874ECEAAB}" name="Timeout" dataDxfId="27" dataCellStyle="常规 3"/>
-    <tableColumn id="8" xr3:uid="{9F19D014-5BA4-49AA-8461-0A8F911F2A85}" name="SubStr1" dataDxfId="26" dataCellStyle="常规 3"/>
-    <tableColumn id="9" xr3:uid="{8AC9F83D-5C93-4890-9E38-766305F376C7}" name="SubStr2" dataDxfId="25" dataCellStyle="常规 3"/>
-    <tableColumn id="11" xr3:uid="{71B5A645-36EC-45F7-8CEA-5E5903802A68}" name="For" dataDxfId="24" dataCellStyle="常规 3"/>
-    <tableColumn id="13" xr3:uid="{6CBF8460-0D5B-4EDB-8419-FC8E4F5D803F}" name="CmdOrParam" dataDxfId="23" dataCellStyle="常规 3"/>
-    <tableColumn id="14" xr3:uid="{651A7744-F728-484E-AD6E-11F426962855}" name="ExpectStr" dataDxfId="22" dataCellStyle="常规 3"/>
-    <tableColumn id="16" xr3:uid="{325C30D6-AB79-46DA-A9C0-DB50F72EECA1}" name="Param1" dataDxfId="21" dataCellStyle="常规 3"/>
-    <tableColumn id="20" xr3:uid="{3CE2081C-8C4F-493C-8153-6223A1D56529}" name="LSL" dataDxfId="20" dataCellStyle="常规 3"/>
-    <tableColumn id="21" xr3:uid="{24AF5AE9-EC6E-43A5-8D18-3D880E9B6767}" name="USL" dataDxfId="19" dataCellStyle="常规 3"/>
-    <tableColumn id="22" xr3:uid="{3CE1C27E-CE4B-4F59-981C-67AEA6D7AB23}" name="Unit" dataDxfId="18" dataCellStyle="常规 3"/>
+    <tableColumn id="1" xr3:uid="{C53AABE7-1DC8-4C9D-BB90-5FC23616CC96}" name="SuiteName" dataDxfId="15" dataCellStyle="常规 3"/>
+    <tableColumn id="2" xr3:uid="{FF43D262-39D1-4EF5-A600-564B79840B36}" name="StepName" dataDxfId="14" dataCellStyle="常规 3"/>
+    <tableColumn id="3" xr3:uid="{4BC37492-21E1-4C3F-8E78-4E944E7B8810}" name="Json" dataDxfId="13" dataCellStyle="常规 3"/>
+    <tableColumn id="4" xr3:uid="{57B1BF8F-30F6-4693-AB47-208CEB79723D}" name="Keyword" dataDxfId="12" dataCellStyle="常规 3"/>
+    <tableColumn id="5" xr3:uid="{8C6518DA-19C5-41FE-B070-7742046ECF3B}" name="ErrorCode" dataDxfId="11" dataCellStyle="常规 3"/>
+    <tableColumn id="6" xr3:uid="{FBFE75F8-9865-4884-8CEB-BC4A44C9EFD1}" name="Retry" dataDxfId="10" dataCellStyle="常规 3"/>
+    <tableColumn id="7" xr3:uid="{B46D8C33-7B5D-48B0-AC54-DF1874ECEAAB}" name="Timeout" dataDxfId="9" dataCellStyle="常规 3"/>
+    <tableColumn id="8" xr3:uid="{9F19D014-5BA4-49AA-8461-0A8F911F2A85}" name="SubStr1" dataDxfId="8" dataCellStyle="常规 3"/>
+    <tableColumn id="9" xr3:uid="{8AC9F83D-5C93-4890-9E38-766305F376C7}" name="SubStr2" dataDxfId="7" dataCellStyle="常规 3"/>
+    <tableColumn id="11" xr3:uid="{71B5A645-36EC-45F7-8CEA-5E5903802A68}" name="For" dataDxfId="6" dataCellStyle="常规 3"/>
+    <tableColumn id="13" xr3:uid="{6CBF8460-0D5B-4EDB-8419-FC8E4F5D803F}" name="CmdOrParam" dataDxfId="5" dataCellStyle="常规 3"/>
+    <tableColumn id="14" xr3:uid="{651A7744-F728-484E-AD6E-11F426962855}" name="ExpectStr" dataDxfId="4" dataCellStyle="常规 3"/>
+    <tableColumn id="16" xr3:uid="{325C30D6-AB79-46DA-A9C0-DB50F72EECA1}" name="Param1" dataDxfId="3" dataCellStyle="常规 3"/>
+    <tableColumn id="20" xr3:uid="{3CE2081C-8C4F-493C-8153-6223A1D56529}" name="LSL" dataDxfId="2" dataCellStyle="常规 3"/>
+    <tableColumn id="21" xr3:uid="{24AF5AE9-EC6E-43A5-8D18-3D880E9B6767}" name="USL" dataDxfId="1" dataCellStyle="常规 3"/>
+    <tableColumn id="22" xr3:uid="{3CE1C27E-CE4B-4F59-981C-67AEA6D7AB23}" name="Unit" dataDxfId="0" dataCellStyle="常规 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15853,27 +15853,26 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="21" customWidth="1"/>
     <col min="2" max="2" width="23.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" style="21" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="21" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.88671875" style="21" customWidth="1"/>
-    <col min="14" max="14" width="6" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.77734375" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.88671875" style="21" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\AutoPlasticOmnium\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3814C07-92B0-4E90-8578-6C92B1E7B656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5DBF98-43D5-4BF8-9CC8-EF8C535544C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="961" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="961" firstSheet="13" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2140,7 +2140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -2476,6 +2476,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2616,7 +2740,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2769,6 +2893,66 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="18" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="32" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="33" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="34" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="35" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="36" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="37" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="38" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="37" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="14" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="38" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="29" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="30" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="31" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
@@ -2821,666 +3005,7 @@
     <cellStyle name="注释 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
     <cellStyle name="警告文本 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3491,32 +3016,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:Q33" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="常规 3" dataCellStyle="常规 3">
-  <autoFilter ref="A1:Q33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SuiteName" dataDxfId="16" dataCellStyle="常规 3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="StepName" dataDxfId="15" dataCellStyle="常规 3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Keyword" dataDxfId="14" dataCellStyle="常规 3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Json" dataDxfId="13" dataCellStyle="常规 3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Retry" dataDxfId="12" dataCellStyle="常规 3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Timeout" dataDxfId="11" dataCellStyle="常规 3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="SubStr1" dataDxfId="10" dataCellStyle="常规 3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="SubStr2" dataDxfId="9" dataCellStyle="常规 3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ID" dataDxfId="8" dataCellStyle="常规 3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="NAD" dataDxfId="7" dataCellStyle="常规 3"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="PCI_LEN" dataDxfId="6" dataCellStyle="常规 3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="CmdOrParam" dataDxfId="5" dataCellStyle="常规 3"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="SetGlobalVar" dataDxfId="4" dataCellStyle="常规 3"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="CheckStr1" dataDxfId="3" dataCellStyle="常规 3"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="SPEC" dataDxfId="2" dataCellStyle="常规 3"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="ByPF" dataDxfId="1" dataCellStyle="常规 3"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="TearDown" dataDxfId="0" dataCellStyle="常规 3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5192,7 +4691,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD11"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6487,7 +5986,6 @@
       <c r="P37" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6497,7 +5995,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -6522,1028 +6020,1025 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="56" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" thickTop="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39">
-        <v>0</v>
-      </c>
-      <c r="F2" s="39">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58">
+        <v>0</v>
+      </c>
+      <c r="F2" s="58">
         <v>2</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="59"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="4"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40">
-        <v>1</v>
-      </c>
-      <c r="F3" s="40">
-        <v>1</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61">
+        <v>1</v>
+      </c>
+      <c r="F3" s="61">
+        <v>1</v>
+      </c>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="62"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="5"/>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41">
-        <v>0</v>
-      </c>
-      <c r="F4" s="41">
-        <v>0</v>
-      </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41">
+      <c r="D4" s="64"/>
+      <c r="E4" s="64">
+        <v>0</v>
+      </c>
+      <c r="F4" s="64">
+        <v>0</v>
+      </c>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64">
         <v>32</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41" t="s">
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="65"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="4"/>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40">
-        <v>0</v>
-      </c>
-      <c r="F5" s="40">
-        <v>0</v>
-      </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40">
+      <c r="D5" s="61"/>
+      <c r="E5" s="61">
+        <v>0</v>
+      </c>
+      <c r="F5" s="61">
+        <v>0</v>
+      </c>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61">
         <v>33</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40" t="s">
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="62"/>
     </row>
     <row r="6" spans="1:17" s="35" customFormat="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="63"/>
+      <c r="B6" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41">
-        <v>0</v>
-      </c>
-      <c r="F6" s="41">
-        <v>1</v>
-      </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64">
+        <v>0</v>
+      </c>
+      <c r="F6" s="64">
+        <v>1</v>
+      </c>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="65"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40">
-        <v>0</v>
-      </c>
-      <c r="F7" s="40">
-        <v>0</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40">
+      <c r="D7" s="61"/>
+      <c r="E7" s="61">
+        <v>0</v>
+      </c>
+      <c r="F7" s="61">
+        <v>0</v>
+      </c>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61">
         <v>32</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40" t="s">
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="62"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="5"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="63"/>
+      <c r="B8" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41">
-        <v>0</v>
-      </c>
-      <c r="F8" s="41">
-        <v>0</v>
-      </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41">
+      <c r="D8" s="64"/>
+      <c r="E8" s="64">
+        <v>0</v>
+      </c>
+      <c r="F8" s="64">
+        <v>0</v>
+      </c>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64">
         <v>33</v>
       </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41" t="s">
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="65"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="4"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40">
-        <v>0</v>
-      </c>
-      <c r="F9" s="40">
+      <c r="D9" s="61"/>
+      <c r="E9" s="61">
+        <v>0</v>
+      </c>
+      <c r="F9" s="61">
         <v>30</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="62"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41">
-        <v>0</v>
-      </c>
-      <c r="F10" s="41">
-        <v>0</v>
-      </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41">
+      <c r="D10" s="64"/>
+      <c r="E10" s="64">
+        <v>0</v>
+      </c>
+      <c r="F10" s="64">
+        <v>0</v>
+      </c>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64">
         <v>32</v>
       </c>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41" t="s">
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="65"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="4"/>
-      <c r="B11" s="40" t="s">
+      <c r="A11" s="60"/>
+      <c r="B11" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40">
-        <v>0</v>
-      </c>
-      <c r="F11" s="40">
-        <v>0</v>
-      </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40">
+      <c r="D11" s="61"/>
+      <c r="E11" s="61">
+        <v>0</v>
+      </c>
+      <c r="F11" s="61">
+        <v>0</v>
+      </c>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61">
         <v>33</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40" t="s">
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="62"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="5"/>
-      <c r="B12" s="41" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41">
-        <v>0</v>
-      </c>
-      <c r="F12" s="41">
+      <c r="D12" s="64"/>
+      <c r="E12" s="64">
+        <v>0</v>
+      </c>
+      <c r="F12" s="64">
         <v>30</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="65"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40">
-        <v>0</v>
-      </c>
-      <c r="F13" s="40">
-        <v>0</v>
-      </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40">
+      <c r="D13" s="61"/>
+      <c r="E13" s="61">
+        <v>0</v>
+      </c>
+      <c r="F13" s="61">
+        <v>0</v>
+      </c>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61">
         <v>32</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40" t="s">
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="62"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="5"/>
-      <c r="B14" s="41" t="s">
+      <c r="A14" s="63"/>
+      <c r="B14" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41">
-        <v>0</v>
-      </c>
-      <c r="F14" s="41">
-        <v>0</v>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41">
+      <c r="D14" s="64"/>
+      <c r="E14" s="64">
+        <v>0</v>
+      </c>
+      <c r="F14" s="64">
+        <v>0</v>
+      </c>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64">
         <v>33</v>
       </c>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41" t="s">
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="65"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="4"/>
-      <c r="B15" s="40" t="s">
+      <c r="A15" s="60"/>
+      <c r="B15" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40">
-        <v>0</v>
-      </c>
-      <c r="F15" s="40">
-        <v>1</v>
-      </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61">
+        <v>0</v>
+      </c>
+      <c r="F15" s="61">
+        <v>1</v>
+      </c>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="62"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41">
-        <v>0</v>
-      </c>
-      <c r="F16" s="41">
-        <v>0</v>
-      </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41">
+      <c r="D16" s="64"/>
+      <c r="E16" s="64">
+        <v>0</v>
+      </c>
+      <c r="F16" s="64">
+        <v>0</v>
+      </c>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64">
         <v>32</v>
       </c>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41" t="s">
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="65"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="4"/>
-      <c r="B17" s="40" t="s">
+      <c r="A17" s="60"/>
+      <c r="B17" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40">
-        <v>0</v>
-      </c>
-      <c r="F17" s="40">
-        <v>0</v>
-      </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40">
+      <c r="D17" s="61"/>
+      <c r="E17" s="61">
+        <v>0</v>
+      </c>
+      <c r="F17" s="61">
+        <v>0</v>
+      </c>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61">
         <v>33</v>
       </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40" t="s">
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="62"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="5"/>
-      <c r="B18" s="41" t="s">
+      <c r="A18" s="63"/>
+      <c r="B18" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41">
-        <v>0</v>
-      </c>
-      <c r="F18" s="41">
+      <c r="D18" s="64"/>
+      <c r="E18" s="64">
+        <v>0</v>
+      </c>
+      <c r="F18" s="64">
         <v>30</v>
       </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="65"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40">
-        <v>0</v>
-      </c>
-      <c r="F19" s="40">
-        <v>0</v>
-      </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40">
+      <c r="D19" s="61"/>
+      <c r="E19" s="61">
+        <v>0</v>
+      </c>
+      <c r="F19" s="61">
+        <v>0</v>
+      </c>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61">
         <v>32</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40" t="s">
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="62"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="5"/>
-      <c r="B20" s="41" t="s">
+      <c r="A20" s="63"/>
+      <c r="B20" s="64" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41">
-        <v>0</v>
-      </c>
-      <c r="F20" s="41">
-        <v>0</v>
-      </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41">
+      <c r="D20" s="64"/>
+      <c r="E20" s="64">
+        <v>0</v>
+      </c>
+      <c r="F20" s="64">
+        <v>0</v>
+      </c>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64">
         <v>33</v>
       </c>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41" t="s">
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="65"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="4"/>
-      <c r="B21" s="40" t="s">
+      <c r="A21" s="60"/>
+      <c r="B21" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40">
-        <v>0</v>
-      </c>
-      <c r="F21" s="40">
+      <c r="D21" s="61"/>
+      <c r="E21" s="61">
+        <v>0</v>
+      </c>
+      <c r="F21" s="61">
         <v>30</v>
       </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="62"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41">
-        <v>0</v>
-      </c>
-      <c r="F22" s="41">
-        <v>0</v>
-      </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41">
+      <c r="D22" s="64"/>
+      <c r="E22" s="64">
+        <v>0</v>
+      </c>
+      <c r="F22" s="64">
+        <v>0</v>
+      </c>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64">
         <v>32</v>
       </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41" t="s">
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="65"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="4"/>
-      <c r="B23" s="40" t="s">
+      <c r="A23" s="60"/>
+      <c r="B23" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40">
-        <v>0</v>
-      </c>
-      <c r="F23" s="40">
-        <v>0</v>
-      </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40">
+      <c r="D23" s="61"/>
+      <c r="E23" s="61">
+        <v>0</v>
+      </c>
+      <c r="F23" s="61">
+        <v>0</v>
+      </c>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61">
         <v>33</v>
       </c>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40" t="s">
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="62"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="5"/>
-      <c r="B24" s="41" t="s">
+      <c r="A24" s="63"/>
+      <c r="B24" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41">
-        <v>0</v>
-      </c>
-      <c r="F24" s="41">
-        <v>1</v>
-      </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64">
+        <v>0</v>
+      </c>
+      <c r="F24" s="64">
+        <v>1</v>
+      </c>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="65"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40">
-        <v>0</v>
-      </c>
-      <c r="F25" s="40">
-        <v>0</v>
-      </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40">
+      <c r="D25" s="61"/>
+      <c r="E25" s="61">
+        <v>0</v>
+      </c>
+      <c r="F25" s="61">
+        <v>0</v>
+      </c>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61">
         <v>32</v>
       </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40" t="s">
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="62"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="5"/>
-      <c r="B26" s="41" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41">
-        <v>0</v>
-      </c>
-      <c r="F26" s="41">
-        <v>0</v>
-      </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41">
+      <c r="D26" s="64"/>
+      <c r="E26" s="64">
+        <v>0</v>
+      </c>
+      <c r="F26" s="64">
+        <v>0</v>
+      </c>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64">
         <v>33</v>
       </c>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41" t="s">
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="65"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="4"/>
-      <c r="B27" s="40" t="s">
+      <c r="A27" s="60"/>
+      <c r="B27" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40">
-        <v>0</v>
-      </c>
-      <c r="F27" s="40">
+      <c r="D27" s="61"/>
+      <c r="E27" s="61">
+        <v>0</v>
+      </c>
+      <c r="F27" s="61">
         <v>30</v>
       </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="62"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41">
-        <v>0</v>
-      </c>
-      <c r="F28" s="41">
-        <v>0</v>
-      </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41">
+      <c r="D28" s="64"/>
+      <c r="E28" s="64">
+        <v>0</v>
+      </c>
+      <c r="F28" s="64">
+        <v>0</v>
+      </c>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64">
         <v>32</v>
       </c>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41" t="s">
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="65"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="4"/>
-      <c r="B29" s="40" t="s">
+      <c r="A29" s="60"/>
+      <c r="B29" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40">
-        <v>0</v>
-      </c>
-      <c r="F29" s="40">
-        <v>0</v>
-      </c>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40">
+      <c r="D29" s="61"/>
+      <c r="E29" s="61">
+        <v>0</v>
+      </c>
+      <c r="F29" s="61">
+        <v>0</v>
+      </c>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61">
         <v>33</v>
       </c>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40" t="s">
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="62"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="5"/>
-      <c r="B30" s="41" t="s">
+      <c r="A30" s="63"/>
+      <c r="B30" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41">
-        <v>0</v>
-      </c>
-      <c r="F30" s="41">
-        <v>1</v>
-      </c>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64">
+        <v>0</v>
+      </c>
+      <c r="F30" s="64">
+        <v>1</v>
+      </c>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="65"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40">
-        <v>0</v>
-      </c>
-      <c r="F31" s="40">
-        <v>0</v>
-      </c>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40">
+      <c r="D31" s="61"/>
+      <c r="E31" s="61">
+        <v>0</v>
+      </c>
+      <c r="F31" s="61">
+        <v>0</v>
+      </c>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61">
         <v>32</v>
       </c>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40" t="s">
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="62"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="5"/>
-      <c r="B32" s="41" t="s">
+      <c r="A32" s="63"/>
+      <c r="B32" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41">
-        <v>0</v>
-      </c>
-      <c r="F32" s="41">
-        <v>0</v>
-      </c>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41">
+      <c r="D32" s="64"/>
+      <c r="E32" s="64">
+        <v>0</v>
+      </c>
+      <c r="F32" s="64">
+        <v>0</v>
+      </c>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64">
         <v>33</v>
       </c>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41" t="s">
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="65"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="4"/>
-      <c r="B33" s="40" t="s">
+      <c r="A33" s="66"/>
+      <c r="B33" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40">
-        <v>0</v>
-      </c>
-      <c r="F33" s="40">
+      <c r="D33" s="67"/>
+      <c r="E33" s="67">
+        <v>0</v>
+      </c>
+      <c r="F33" s="67">
         <v>10</v>
       </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -7959,7 +7454,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9284,7 +8779,6 @@
       <c r="P37" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-00000F000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9295,7 +8789,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10624,7 +10118,6 @@
       <c r="P37" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-000010000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10635,7 +10128,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11960,7 +11453,6 @@
       <c r="P37" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-000011000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
 </worksheet>
@@ -11972,7 +11464,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD11"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13309,8 +12801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -18053,7 +17545,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19382,7 +18874,6 @@
       <c r="P37" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-000016000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19393,7 +18884,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20718,7 +20209,6 @@
       <c r="P37" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-000017000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20728,8 +20218,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22054,7 +21544,6 @@
       <c r="P37" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-000018000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22065,7 +21554,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD11"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23394,7 +22883,6 @@
       <c r="P37" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-000019000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -23405,7 +22893,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24730,7 +24218,6 @@
       <c r="P37" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-00001A000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24741,7 +24228,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26070,7 +25557,6 @@
       <c r="P37" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-00001B000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -26081,7 +25567,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27406,7 +26892,6 @@
       <c r="P37" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-00001C000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -28058,8 +27543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:Y217"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J201" sqref="J201"/>
+    <sheetView topLeftCell="A124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -37379,8 +36864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -37389,14 +36874,14 @@
     <col min="2" max="2" width="23.44140625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.88671875" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="18" customWidth="1"/>
     <col min="6" max="6" width="9" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" style="18" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="18" customWidth="1"/>
     <col min="10" max="10" width="7.88671875" style="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" style="18" customWidth="1"/>
     <col min="13" max="13" width="10.88671875" style="18" customWidth="1"/>
     <col min="14" max="14" width="6" style="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.44140625" style="18" bestFit="1" customWidth="1"/>
@@ -37405,767 +36890,767 @@
     <col min="19" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="43" t="s">
+    <row r="1" spans="1:16" ht="15" thickBot="1">
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="70" t="s">
         <v>214</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="70" t="s">
         <v>528</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="70" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:16" ht="15" thickTop="1">
+      <c r="A2" s="71" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="58" t="s">
         <v>328</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58" t="s">
         <v>329</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="58" t="s">
         <v>330</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="58" t="s">
         <v>331</v>
       </c>
-      <c r="G2" s="41">
-        <v>0</v>
-      </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41" t="s">
+      <c r="G2" s="58">
+        <v>0</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58" t="s">
         <v>332</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="46"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="47"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61" t="s">
         <v>334</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="61" t="s">
         <v>336</v>
       </c>
-      <c r="G3" s="40">
-        <v>1</v>
-      </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40" t="s">
+      <c r="G3" s="61">
+        <v>1</v>
+      </c>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61" t="s">
         <v>337</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="48"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="45"/>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="64" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64" t="s">
         <v>334</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="64" t="s">
         <v>336</v>
       </c>
-      <c r="G4" s="41">
-        <v>1</v>
-      </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41" t="s">
+      <c r="G4" s="64">
+        <v>1</v>
+      </c>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64" t="s">
         <v>339</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="46"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="47"/>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="72"/>
+      <c r="B5" s="61" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="61" t="s">
         <v>334</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="61" t="s">
         <v>336</v>
       </c>
-      <c r="G5" s="40">
-        <v>1</v>
-      </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40" t="s">
+      <c r="G5" s="61">
+        <v>1</v>
+      </c>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61" t="s">
         <v>341</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="48"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="45"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="73"/>
+      <c r="B6" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="64" t="s">
         <v>334</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="64" t="s">
         <v>336</v>
       </c>
-      <c r="G6" s="41">
-        <v>1</v>
-      </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41" t="s">
+      <c r="G6" s="64">
+        <v>1</v>
+      </c>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64" t="s">
         <v>343</v>
       </c>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="46"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="47"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="72"/>
+      <c r="B7" s="61" t="s">
         <v>344</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40" t="s">
+      <c r="C7" s="61"/>
+      <c r="D7" s="61" t="s">
         <v>334</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="61" t="s">
         <v>336</v>
       </c>
-      <c r="G7" s="40">
-        <v>1</v>
-      </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40" t="s">
+      <c r="G7" s="61">
+        <v>1</v>
+      </c>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61" t="s">
         <v>345</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="48"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="45"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="73"/>
+      <c r="B8" s="64" t="s">
         <v>346</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="64"/>
+      <c r="D8" s="64" t="s">
         <v>334</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="64" t="s">
         <v>336</v>
       </c>
-      <c r="G8" s="41">
-        <v>1</v>
-      </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41" t="s">
+      <c r="G8" s="64">
+        <v>1</v>
+      </c>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64" t="s">
         <v>347</v>
       </c>
-      <c r="L8" s="41" t="s">
+      <c r="L8" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="46"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="47"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="72"/>
+      <c r="B9" s="61" t="s">
         <v>348</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="61" t="s">
         <v>334</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="61" t="s">
         <v>336</v>
       </c>
-      <c r="G9" s="40">
-        <v>1</v>
-      </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40" t="s">
+      <c r="G9" s="61">
+        <v>1</v>
+      </c>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61" t="s">
         <v>349</v>
       </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="48"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="45"/>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="73"/>
+      <c r="B10" s="64" t="s">
         <v>350</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="64" t="s">
         <v>334</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="64" t="s">
         <v>336</v>
       </c>
-      <c r="G10" s="41">
-        <v>1</v>
-      </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41" t="s">
+      <c r="G10" s="64">
+        <v>1</v>
+      </c>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64" t="s">
         <v>351</v>
       </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="46"/>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="40" t="s">
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1">
+      <c r="A11" s="72"/>
+      <c r="B11" s="61" t="s">
         <v>352</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40" t="s">
+      <c r="C11" s="61"/>
+      <c r="D11" s="61" t="s">
         <v>334</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="61" t="s">
         <v>336</v>
       </c>
-      <c r="G11" s="40">
-        <v>1</v>
-      </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40" t="s">
+      <c r="G11" s="61">
+        <v>1</v>
+      </c>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61" t="s">
         <v>353</v>
       </c>
-      <c r="L11" s="40" t="s">
+      <c r="L11" s="61" t="s">
         <v>354</v>
       </c>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="48"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" thickTop="1">
-      <c r="A12" s="49" t="s">
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1">
+      <c r="A12" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39" t="s">
+      <c r="C12" s="64"/>
+      <c r="D12" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39">
+      <c r="F12" s="64"/>
+      <c r="G12" s="64">
         <v>3</v>
       </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39" t="s">
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="64">
         <v>9600</v>
       </c>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="50"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="45"/>
-      <c r="B13" s="41" t="s">
+      <c r="A13" s="73"/>
+      <c r="B13" s="64" t="s">
         <v>529</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="F13" s="41">
-        <v>1</v>
-      </c>
-      <c r="G13" s="41">
-        <v>1</v>
-      </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41" t="s">
+      <c r="F13" s="64">
+        <v>1</v>
+      </c>
+      <c r="G13" s="64">
+        <v>1</v>
+      </c>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64" t="s">
         <v>530</v>
       </c>
-      <c r="L13" s="41" t="s">
+      <c r="L13" s="64" t="s">
         <v>230</v>
       </c>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="46"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40" t="s">
+      <c r="C14" s="61"/>
+      <c r="D14" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40">
+      <c r="F14" s="61"/>
+      <c r="G14" s="61">
         <v>3</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40" t="s">
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="61">
         <v>9600</v>
       </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="48"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="47"/>
-      <c r="B15" s="40" t="s">
+      <c r="A15" s="72"/>
+      <c r="B15" s="61" t="s">
         <v>531</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="F15" s="40">
-        <v>1</v>
-      </c>
-      <c r="G15" s="40">
-        <v>1</v>
-      </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40" t="s">
+      <c r="F15" s="61">
+        <v>1</v>
+      </c>
+      <c r="G15" s="61">
+        <v>1</v>
+      </c>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61" t="s">
         <v>532</v>
       </c>
-      <c r="L15" s="40" t="s">
+      <c r="L15" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="48"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="73" t="s">
         <v>355</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="64" t="s">
         <v>356</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41" t="s">
+      <c r="C16" s="64"/>
+      <c r="D16" s="64" t="s">
         <v>356</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="64" t="s">
         <v>336</v>
       </c>
-      <c r="G16" s="41">
-        <v>1</v>
-      </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41" t="s">
+      <c r="G16" s="64">
+        <v>1</v>
+      </c>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="46"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="72" t="s">
         <v>358</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="61" t="s">
         <v>359</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40" t="s">
+      <c r="C17" s="61"/>
+      <c r="D17" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="61" t="s">
         <v>336</v>
       </c>
-      <c r="G17" s="40">
-        <v>1</v>
-      </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40" t="s">
+      <c r="G17" s="61">
+        <v>1</v>
+      </c>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61" t="s">
         <v>360</v>
       </c>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="48"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="47"/>
-      <c r="B18" s="40" t="s">
+      <c r="A18" s="72"/>
+      <c r="B18" s="61" t="s">
         <v>533</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="61" t="s">
         <v>334</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="F18" s="40">
-        <v>0</v>
-      </c>
-      <c r="G18" s="40">
+      <c r="F18" s="61">
+        <v>0</v>
+      </c>
+      <c r="G18" s="61">
         <v>3</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40" t="s">
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61" t="s">
         <v>362</v>
       </c>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40" t="s">
+      <c r="L18" s="61"/>
+      <c r="M18" s="61" t="s">
         <v>534</v>
       </c>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="48"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="73" t="s">
         <v>424</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41" t="s">
+      <c r="C19" s="64"/>
+      <c r="D19" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="F19" s="41">
-        <v>0</v>
-      </c>
-      <c r="G19" s="41">
-        <v>1</v>
-      </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41" t="s">
+      <c r="F19" s="64">
+        <v>0</v>
+      </c>
+      <c r="G19" s="64">
+        <v>1</v>
+      </c>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="46"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="45"/>
-      <c r="B20" s="41" t="s">
+      <c r="A20" s="73"/>
+      <c r="B20" s="64" t="s">
         <v>535</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="64" t="s">
         <v>334</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="F20" s="41">
-        <v>0</v>
-      </c>
-      <c r="G20" s="41">
+      <c r="F20" s="64">
+        <v>0</v>
+      </c>
+      <c r="G20" s="64">
         <v>3</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41" t="s">
+      <c r="H20" s="64"/>
+      <c r="I20" s="64" t="s">
         <v>428</v>
       </c>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41" t="s">
+      <c r="J20" s="64"/>
+      <c r="K20" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="46"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="72" t="s">
         <v>444</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="61" t="s">
         <v>537</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="61" t="s">
         <v>446</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="F21" s="40">
-        <v>0</v>
-      </c>
-      <c r="G21" s="40">
+      <c r="F21" s="61">
+        <v>0</v>
+      </c>
+      <c r="G21" s="61">
         <v>10</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40" t="s">
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61" t="s">
         <v>538</v>
       </c>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40" t="s">
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61" t="s">
         <v>448</v>
       </c>
-      <c r="O21" s="40" t="s">
+      <c r="O21" s="61" t="s">
         <v>449</v>
       </c>
-      <c r="P21" s="48" t="s">
+      <c r="P21" s="61" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="72" t="s">
         <v>485</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="61" t="s">
         <v>539</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="61" t="s">
         <v>487</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="F22" s="40">
-        <v>0</v>
-      </c>
-      <c r="G22" s="40">
+      <c r="F22" s="61">
+        <v>0</v>
+      </c>
+      <c r="G22" s="61">
         <v>10</v>
       </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40" t="s">
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61" t="s">
         <v>540</v>
       </c>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40">
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61">
         <v>-20</v>
       </c>
-      <c r="O22" s="40">
+      <c r="O22" s="61">
         <v>30</v>
       </c>
-      <c r="P22" s="48" t="s">
+      <c r="P22" s="61" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="72" t="s">
         <v>524</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="61" t="s">
         <v>525</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52" t="s">
+      <c r="C23" s="61"/>
+      <c r="D23" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="61" t="s">
         <v>526</v>
       </c>
-      <c r="F23" s="52">
-        <v>0</v>
-      </c>
-      <c r="G23" s="52">
+      <c r="F23" s="61">
+        <v>0</v>
+      </c>
+      <c r="G23" s="61">
         <v>10</v>
       </c>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52" t="s">
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61" t="s">
         <v>527</v>
       </c>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="53"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38746,7 +38231,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -40039,7 +39524,6 @@
       <c r="P37" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -40049,7 +39533,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD11"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -41344,7 +40828,6 @@
       <c r="P37" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\AutoPlasticOmnium\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2452B84-491F-4A23-830D-8148A4F66620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F39893-42C2-48C9-8781-2633DC7BB8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="961" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="Sample" sheetId="2" r:id="rId2"/>
-    <sheet name="ReadVer_SX5GEV" sheetId="3" r:id="rId3"/>
+    <sheet name="ReadVer" sheetId="3" r:id="rId3"/>
     <sheet name="ReadVer_M4" sheetId="4" r:id="rId4"/>
-    <sheet name="FL_M4" sheetId="5" r:id="rId5"/>
-    <sheet name="FL_M6" sheetId="6" r:id="rId6"/>
-    <sheet name="RR_SX5GEV_EOL" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="M4" sheetId="5" r:id="rId5"/>
+    <sheet name="M6" sheetId="6" r:id="rId6"/>
+    <sheet name="SX5GEV_EOL" sheetId="7" r:id="rId7"/>
     <sheet name="FR_SX5GEV_EOL" sheetId="8" state="hidden" r:id="rId8"/>
     <sheet name="RL_SX5GEV_EOL" sheetId="9" state="hidden" r:id="rId9"/>
     <sheet name="RM_SX5GEV_EOL" sheetId="10" state="hidden" r:id="rId10"/>
@@ -28,7 +28,7 @@
     <sheet name="FLG_M6" sheetId="13" r:id="rId13"/>
     <sheet name="ALE" sheetId="14" r:id="rId14"/>
     <sheet name="FRB_SX5GEV_EOL" sheetId="15" state="hidden" r:id="rId15"/>
-    <sheet name="FL_SX5GEV" sheetId="16" r:id="rId16"/>
+    <sheet name="SX5GEV" sheetId="16" r:id="rId16"/>
     <sheet name="RL_M4" sheetId="17" r:id="rId17"/>
     <sheet name="RL_SX5GEV" sheetId="18" r:id="rId18"/>
     <sheet name="FR_M4" sheetId="19" r:id="rId19"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6500" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6522" uniqueCount="561">
   <si>
     <t>SuiteName</t>
   </si>
@@ -1715,13 +1715,31 @@
   </si>
   <si>
     <t>Dev3/ai1</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>RML</t>
+  </si>
+  <si>
+    <t>RMR</t>
+  </si>
+  <si>
+    <t>RR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1923,8 +1941,21 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC7832"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2116,8 +2147,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2406,6 +2455,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2546,7 +2622,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="24" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2614,6 +2690,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2707,32 +2802,6 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="FL_SX5GEV_EOL" displayName="FL_SX5GEV_EOL" ref="A1:Q11">
-  <autoFilter ref="A1:Q11" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SuiteName"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="StepName"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Keyword"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Retry"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Timeout"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="SubStr1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="SubStr2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="ID"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="NAD"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="PCI_LEN"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="CmdOrParam"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="CheckStr1"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="SPEC"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="ByPF"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="Json"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="SetGlobalVar"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="TearDown"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="FLB_SX5GEV_EOL" displayName="FLB_SX5GEV_EOL" ref="A1:Q10">
   <autoFilter ref="A1:Q10" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="17">
@@ -2758,7 +2827,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="FLG_M6" displayName="FLG_M6" ref="A1:P37">
   <autoFilter ref="A1:P37" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="16">
@@ -2783,7 +2852,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="ALE" displayName="ALE" ref="A1:Q33">
   <autoFilter ref="A1:Q33" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="17">
@@ -2809,7 +2878,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="FRB_SX5GEV_EOL" displayName="FRB_SX5GEV_EOL" ref="A1:Q10">
   <autoFilter ref="A1:Q10" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="17">
@@ -2835,7 +2904,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="FL_SX5GEV" displayName="FL_SX5GEV" ref="A1:P37">
   <autoFilter ref="A1:P37" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="16">
@@ -2860,7 +2929,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="RL_M4" displayName="RL_M4" ref="A1:P37">
   <autoFilter ref="A1:P37" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="16">
@@ -2885,7 +2954,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="RL_SX5GEV" displayName="RL_SX5GEV" ref="A1:P37">
   <autoFilter ref="A1:P37" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="16">
@@ -2910,7 +2979,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="FR_M4" displayName="FR_M4" ref="A1:P37">
   <autoFilter ref="A1:P37" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="16">
@@ -2935,7 +3004,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="FR_M6" displayName="FR_M6" ref="A1:P37">
   <autoFilter ref="A1:P37" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="16">
@@ -2955,6 +3024,31 @@
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-1200-00000E000000}" name="Json"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-1200-00000F000000}" name="SetGlobalVar"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-1200-000010000000}" name="TearDown"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="FRG_M6" displayName="FRG_M6" ref="A1:P37">
+  <autoFilter ref="A1:P37" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="SuiteName"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="StepName"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="Keyword"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Retry"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="Timeout"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="SubStr1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="SubStr2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" name="ID"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1300-000009000000}" name="NAD"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1300-00000A000000}" name="PCI_LEN"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1300-00000B000000}" name="CmdOrParam"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1300-00000C000000}" name="CheckStr1"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1300-00000D000000}" name="ByPF"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1300-00000E000000}" name="Json"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1300-00000F000000}" name="SetGlobalVar"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1300-000010000000}" name="TearDown"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2986,31 +3080,6 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="FRG_M6" displayName="FRG_M6" ref="A1:P37">
-  <autoFilter ref="A1:P37" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="SuiteName"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="StepName"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="Keyword"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Retry"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="Timeout"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="SubStr1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="SubStr2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" name="ID"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1300-000009000000}" name="NAD"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1300-00000A000000}" name="PCI_LEN"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1300-00000B000000}" name="CmdOrParam"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1300-00000C000000}" name="CheckStr1"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1300-00000D000000}" name="ByPF"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1300-00000E000000}" name="Json"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1300-00000F000000}" name="SetGlobalVar"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1300-000010000000}" name="TearDown"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="FR_SX5GEV" displayName="FR_SX5GEV" ref="A1:P37">
   <autoFilter ref="A1:P37" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="16">
@@ -3035,7 +3104,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="RR_M4" displayName="RR_M4" ref="A1:P37">
   <autoFilter ref="A1:P37" xr:uid="{00000000-0009-0000-0100-000016000000}"/>
   <tableColumns count="16">
@@ -3060,7 +3129,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="RR_SX5GEV" displayName="RR_SX5GEV" ref="A1:P37">
   <autoFilter ref="A1:P37" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
   <tableColumns count="16">
@@ -3085,7 +3154,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="RM_SX5GEV" displayName="RM_SX5GEV" ref="A1:P37">
   <autoFilter ref="A1:P37" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
   <tableColumns count="16">
@@ -3110,7 +3179,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="RML_M4" displayName="RML_M4" ref="A1:P37">
   <autoFilter ref="A1:P37" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
   <tableColumns count="16">
@@ -3135,7 +3204,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="FLB_SX5GEV" displayName="FLB_SX5GEV" ref="A1:P37">
   <autoFilter ref="A1:P37" xr:uid="{00000000-0009-0000-0100-00001A000000}"/>
   <tableColumns count="16">
@@ -3160,7 +3229,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="RMR_M4" displayName="RMR_M4" ref="A1:P37">
   <autoFilter ref="A1:P37" xr:uid="{00000000-0009-0000-0100-00001B000000}"/>
   <tableColumns count="16">
@@ -3185,7 +3254,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="FRB_SX5GEV" displayName="FRB_SX5GEV" ref="A1:P37">
   <autoFilter ref="A1:P37" xr:uid="{00000000-0009-0000-0100-00001C000000}"/>
   <tableColumns count="16">
@@ -3210,7 +3279,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF1C000000}" name="LTT1" displayName="LTT1_" ref="A1:P23">
   <autoFilter ref="A1:P23" xr:uid="{00000000-0009-0000-0100-00001D000000}"/>
   <tableColumns count="16">
@@ -3261,31 +3330,6 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="FL_M4" displayName="FL_M4" ref="A1:P37">
-  <autoFilter ref="A1:P37" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="SuiteName"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="StepName"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Keyword"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Retry"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Timeout"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="SubStr1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="SubStr2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="ID"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="NAD"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="PCI_LEN"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="CmdOrParam"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="CheckStr1"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="ByPF"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Json"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="SetGlobalVar"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="TearDown"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="FL_M6" displayName="FL_M6" ref="A1:P37">
   <autoFilter ref="A1:P37" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="16">
@@ -3310,7 +3354,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="RR_SX5GEV_EOL" displayName="RR_SX5GEV_EOL" ref="A1:Q10">
   <autoFilter ref="A1:Q10" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="17">
@@ -3336,7 +3380,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="FR_SX5GEV_EOL" displayName="FR_SX5GEV_EOL" ref="A1:Q10">
   <autoFilter ref="A1:Q10" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="17">
@@ -3362,7 +3406,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="RL_SX5GEV_EOL" displayName="RL_SX5GEV_EOL" ref="A1:Q10">
   <autoFilter ref="A1:Q10" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="17">
@@ -3388,7 +3432,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="RM_SX5GEV_EOL" displayName="RM_SX5GEV_EOL" ref="A1:Q10">
   <autoFilter ref="A1:Q10" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="17">
@@ -3409,6 +3453,32 @@
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0800-00000F000000}" name="Json"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0800-000010000000}" name="SetGlobalVar"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0800-000011000000}" name="TearDown"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="FL_SX5GEV_EOL" displayName="FL_SX5GEV_EOL" ref="A1:Q11">
+  <autoFilter ref="A1:Q11" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SuiteName"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="StepName"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Keyword"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Retry"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Timeout"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="SubStr1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="SubStr2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="ID"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="NAD"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="PCI_LEN"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="CmdOrParam"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="CheckStr1"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="SPEC"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="ByPF"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="Json"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="SetGlobalVar"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="TearDown"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6883,7 +6953,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22406,7 +22476,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -32895,7 +32965,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD14"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33380,10 +33450,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33391,1010 +33461,1459 @@
     <col min="1" max="1" width="16.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.88671875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="11" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="11" customWidth="1"/>
+    <col min="10" max="10" width="10" style="11" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="46.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="45.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" style="11" customWidth="1"/>
     <col min="17" max="20" width="8.88671875" style="11" customWidth="1"/>
     <col min="21" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="L1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="P1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" thickTop="1">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A2" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="D2" s="29">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29">
+        <v>1</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="L2" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="O2" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="B3" t="s">
+    <row r="3" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="29">
+        <v>0</v>
+      </c>
+      <c r="E3" s="29">
+        <v>1</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="34" t="s">
+        <v>556</v>
+      </c>
+      <c r="L3" s="33">
+        <v>50</v>
+      </c>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="29">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29">
+        <v>1</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="35" t="s">
+        <v>557</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="29">
+        <v>0</v>
+      </c>
+      <c r="E5" s="29">
+        <v>1</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="L5" s="33">
+        <v>51</v>
+      </c>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0</v>
+      </c>
+      <c r="E6" s="29">
+        <v>1</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="35" t="s">
+        <v>559</v>
+      </c>
+      <c r="L6" s="33">
+        <v>52</v>
+      </c>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" thickTop="1">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="34" t="s">
+        <v>560</v>
+      </c>
+      <c r="L7" s="33">
+        <v>53</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="30"/>
+      <c r="B8" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C8" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="D8" s="25">
+        <v>0</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="O3" t="s">
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="B4" t="s">
+    <row r="9" spans="1:16">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C9" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="D9" s="31">
+        <v>0</v>
+      </c>
+      <c r="E9" s="31">
+        <v>1</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="O4" t="s">
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="B5" t="s">
+    <row r="10" spans="1:16">
+      <c r="A10" s="30"/>
+      <c r="B10" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="D10" s="25">
+        <v>0</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="O5" t="s">
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="B6" t="s">
+    <row r="11" spans="1:16">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C11" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="D11" s="31">
+        <v>0</v>
+      </c>
+      <c r="E11" s="31">
+        <v>1</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="B7" t="s">
+    <row r="12" spans="1:16">
+      <c r="A12" s="30"/>
+      <c r="B12" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C12" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="D12" s="25">
+        <v>0</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="O7" t="s">
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="B8" t="s">
+    <row r="13" spans="1:16">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C13" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="D13" s="31">
+        <v>0</v>
+      </c>
+      <c r="E13" s="31">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="O8" t="s">
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="B9" t="s">
+    <row r="14" spans="1:16">
+      <c r="A14" s="30"/>
+      <c r="B14" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C14" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="D14" s="25">
+        <v>0</v>
+      </c>
+      <c r="E14" s="25">
+        <v>1</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="O9" t="s">
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="B10" t="s">
+    <row r="15" spans="1:16">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C15" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="D15" s="31">
+        <v>0</v>
+      </c>
+      <c r="E15" s="31">
+        <v>1</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="O10" t="s">
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="B11" t="s">
+    <row r="16" spans="1:16">
+      <c r="A16" s="30"/>
+      <c r="B16" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C16" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>173</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="D16" s="25">
+        <v>0</v>
+      </c>
+      <c r="E16" s="25">
+        <v>2</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
+      <c r="P16" s="25"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B17" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C17" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="B13" t="s">
+      <c r="D17" s="31">
+        <v>0</v>
+      </c>
+      <c r="E17" s="31">
+        <v>2</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="30"/>
+      <c r="B18" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C18" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" t="s">
-        <v>175</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="D18" s="25">
+        <v>1</v>
+      </c>
+      <c r="E18" s="25">
+        <v>2</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K18" s="25"/>
+      <c r="L18" s="25" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="B14" t="s">
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C19" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D19" s="31">
+        <v>1</v>
+      </c>
+      <c r="E19" s="31">
+        <v>2</v>
+      </c>
+      <c r="F19" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G19" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="H14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I14" t="s">
-        <v>175</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="H19" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K19" s="31"/>
+      <c r="L19" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M19" s="31"/>
+      <c r="N19" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O19" s="31" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="B15" t="s">
+      <c r="P19" s="31"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="30"/>
+      <c r="B20" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C20" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>117</v>
-      </c>
-      <c r="I15" t="s">
-        <v>175</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="D20" s="25">
+        <v>0</v>
+      </c>
+      <c r="E20" s="25">
+        <v>1</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J20" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K20" s="25"/>
+      <c r="L20" s="25" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="B16" t="s">
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C21" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>117</v>
-      </c>
-      <c r="I16" t="s">
-        <v>175</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="D21" s="31">
+        <v>0</v>
+      </c>
+      <c r="E21" s="31">
+        <v>1</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K21" s="31"/>
+      <c r="L21" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M21" s="31" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="B17" t="s">
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="30"/>
+      <c r="B22" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C22" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" t="s">
-        <v>175</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="D22" s="25">
+        <v>0</v>
+      </c>
+      <c r="E22" s="25">
+        <v>1</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K22" s="25"/>
+      <c r="L22" s="25" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="B18" t="s">
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C23" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I18" t="s">
-        <v>175</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="D23" s="31">
+        <v>0</v>
+      </c>
+      <c r="E23" s="31">
+        <v>1</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K23" s="31"/>
+      <c r="L23" s="31" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="B19" t="s">
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="30"/>
+      <c r="B24" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C24" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="D24" s="25">
+        <v>0</v>
+      </c>
+      <c r="E24" s="25">
+        <v>1</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K24" s="25"/>
+      <c r="L24" s="25" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="B20" t="s">
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C25" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="D25" s="31">
+        <v>0</v>
+      </c>
+      <c r="E25" s="31">
+        <v>1</v>
+      </c>
+      <c r="F25" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="H20" t="s">
-        <v>117</v>
-      </c>
-      <c r="I20" t="s">
-        <v>175</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="G25" s="31"/>
+      <c r="H25" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="J25" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K25" s="31"/>
+      <c r="L25" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="O20" t="s">
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="B21" t="s">
+    <row r="26" spans="1:16">
+      <c r="A26" s="30"/>
+      <c r="B26" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C26" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="D26" s="25">
+        <v>0</v>
+      </c>
+      <c r="E26" s="25">
+        <v>2</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="O21" t="s">
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="B22" t="s">
+    <row r="27" spans="1:16">
+      <c r="A27" s="30"/>
+      <c r="B27" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C27" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="H22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I22" t="s">
-        <v>175</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="D27" s="31">
+        <v>0</v>
+      </c>
+      <c r="E27" s="31">
+        <v>2</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="J27" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K27" s="31"/>
+      <c r="L27" s="31" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" t="s">
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B28" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C28" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="D28" s="25">
+        <v>0</v>
+      </c>
+      <c r="E28" s="25">
+        <v>2</v>
+      </c>
+      <c r="F28" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G28" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H23" t="s">
-        <v>117</v>
-      </c>
-      <c r="I23" t="s">
-        <v>175</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="H28" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J28" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K28" s="25"/>
+      <c r="L28" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="O23" t="s">
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="B24" t="s">
+    <row r="29" spans="1:16">
+      <c r="A29" s="30"/>
+      <c r="B29" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C29" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="H24" t="s">
-        <v>117</v>
-      </c>
-      <c r="I24" t="s">
-        <v>175</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="D29" s="31">
+        <v>0</v>
+      </c>
+      <c r="E29" s="31">
+        <v>2</v>
+      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="J29" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="K24" t="s">
-        <v>208</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="K29" s="31"/>
+      <c r="L29" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="M29" s="31" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="B25" t="s">
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="30"/>
+      <c r="B30" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C30" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="H25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I25" t="s">
-        <v>175</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="D30" s="25">
+        <v>0</v>
+      </c>
+      <c r="E30" s="25">
+        <v>2</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J30" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K30" s="25"/>
+      <c r="L30" s="25" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="B26" t="s">
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="30"/>
+      <c r="B31" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C31" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="H26" t="s">
-        <v>117</v>
-      </c>
-      <c r="I26" t="s">
-        <v>175</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="D31" s="31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="31">
+        <v>2</v>
+      </c>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="J31" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K31" s="31"/>
+      <c r="L31" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M31" s="31" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="B27" t="s">
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="30"/>
+      <c r="B32" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C32" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="H27" t="s">
-        <v>117</v>
-      </c>
-      <c r="I27" t="s">
-        <v>175</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="D32" s="25">
+        <v>0</v>
+      </c>
+      <c r="E32" s="25">
+        <v>2</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J32" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K32" s="25"/>
+      <c r="L32" s="25" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" t="s">
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B33" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C33" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="D33" s="31">
+        <v>0</v>
+      </c>
+      <c r="E33" s="31">
         <v>3</v>
       </c>
-      <c r="H28" t="s">
-        <v>117</v>
-      </c>
-      <c r="I28" t="s">
-        <v>175</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="J33" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K33" s="31"/>
+      <c r="L33" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M33" s="31" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="B29" t="s">
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="30"/>
+      <c r="B34" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C34" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="D34" s="25">
+        <v>0</v>
+      </c>
+      <c r="E34" s="25">
+        <v>2</v>
+      </c>
+      <c r="F34" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G34" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H29" t="s">
-        <v>117</v>
-      </c>
-      <c r="I29" t="s">
-        <v>175</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="H34" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J34" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K34" s="25"/>
+      <c r="L34" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="O29" t="s">
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="B30" t="s">
+    <row r="35" spans="1:16">
+      <c r="A35" s="30"/>
+      <c r="B35" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C35" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="H30" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" t="s">
-        <v>175</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="D35" s="31">
+        <v>0</v>
+      </c>
+      <c r="E35" s="31">
+        <v>2</v>
+      </c>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="J35" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="K30" t="s">
-        <v>173</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="K35" s="31"/>
+      <c r="L35" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="M35" s="31" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="B31" t="s">
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="30"/>
+      <c r="B36" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C36" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="H31" t="s">
-        <v>117</v>
-      </c>
-      <c r="I31" t="s">
-        <v>175</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="D36" s="25">
+        <v>0</v>
+      </c>
+      <c r="E36" s="25">
+        <v>2</v>
+      </c>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J36" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K36" s="25"/>
+      <c r="L36" s="25" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="B32" t="s">
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="30"/>
+      <c r="B37" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C37" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
+      <c r="D37" s="31">
+        <v>0</v>
+      </c>
+      <c r="E37" s="31">
         <v>5</v>
       </c>
-      <c r="H32" t="s">
-        <v>117</v>
-      </c>
-      <c r="I32" t="s">
-        <v>175</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="J37" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K37" s="31"/>
+      <c r="L37" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M37" s="31" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" t="s">
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B38" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C38" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="H33" t="s">
-        <v>117</v>
-      </c>
-      <c r="I33" t="s">
-        <v>175</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="D38" s="25">
+        <v>1</v>
+      </c>
+      <c r="E38" s="25">
+        <v>2</v>
+      </c>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J38" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K38" s="25"/>
+      <c r="L38" s="25" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="B34" t="s">
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="30"/>
+      <c r="B39" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C39" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="H34" t="s">
-        <v>117</v>
-      </c>
-      <c r="I34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="D39" s="31">
+        <v>1</v>
+      </c>
+      <c r="E39" s="31">
+        <v>2</v>
+      </c>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="J39" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K39" s="31"/>
+      <c r="L39" s="31" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="B35" t="s">
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="30"/>
+      <c r="B40" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C40" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="H35" t="s">
-        <v>117</v>
-      </c>
-      <c r="I35" t="s">
-        <v>175</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="D40" s="25">
+        <v>1</v>
+      </c>
+      <c r="E40" s="25">
+        <v>2</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J40" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K40" s="25"/>
+      <c r="L40" s="25" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="B36" t="s">
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="30"/>
+      <c r="B41" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C41" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="H36" t="s">
-        <v>117</v>
-      </c>
-      <c r="I36" t="s">
-        <v>175</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="D41" s="31">
+        <v>1</v>
+      </c>
+      <c r="E41" s="31">
+        <v>2</v>
+      </c>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I41" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="J41" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K41" s="31"/>
+      <c r="L41" s="31" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="B37" t="s">
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="30"/>
+      <c r="B42" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C42" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="D42" s="25">
+        <v>1</v>
+      </c>
+      <c r="E42" s="25">
+        <v>2</v>
+      </c>
+      <c r="F42" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G42" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H37" t="s">
-        <v>117</v>
-      </c>
-      <c r="I37" t="s">
-        <v>175</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="H42" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J42" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K42" s="25"/>
+      <c r="L42" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="N37" t="s">
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25" t="s">
         <v>44</v>
       </c>
+      <c r="P42" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -34402,8 +34921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -35712,7 +36231,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\AutoPlasticOmnium\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD20C260-6B24-46B6-B6E9-0CD7A5B60248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EE9E47-B15D-4FF5-B5E4-276265938F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="961" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="961" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="342">
   <si>
     <t>SuiteName</t>
   </si>
@@ -1051,6 +1051,12 @@
   </si>
   <si>
     <t>F4 01 32 00 00 00 00 00</t>
+  </si>
+  <si>
+    <t>CURR &lt;Config.LTT.Curr&gt;</t>
+  </si>
+  <si>
+    <t>VOLT &lt;Config.LTT.Volt&gt;</t>
   </si>
 </sst>
 </file>
@@ -2349,17 +2355,17 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" customHeight="1">
+    <row r="1" spans="1:5" ht="16.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2438,7 +2444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" customHeight="1">
+    <row r="6" spans="1:5" ht="28.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>13</v>
@@ -2513,24 +2519,24 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="12" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.54296875" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="8.88671875" style="11" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="11"/>
+    <col min="8" max="8" width="8.90625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="17.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="8.90625" style="11" customWidth="1"/>
+    <col min="20" max="16384" width="8.90625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -2969,10 +2975,10 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="18" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="11" bestFit="1" customWidth="1"/>
@@ -2981,8 +2987,8 @@
     <col min="5" max="5" width="9" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="19" width="8.88671875" style="11" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="11"/>
+    <col min="8" max="19" width="8.90625" style="11" customWidth="1"/>
+    <col min="20" max="16384" width="8.90625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -3454,11 +3460,11 @@
   </sheetPr>
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="19" style="11" customWidth="1"/>
     <col min="2" max="2" width="24" style="11" bestFit="1" customWidth="1"/>
@@ -3474,8 +3480,8 @@
     <col min="12" max="13" width="5" style="11" customWidth="1"/>
     <col min="14" max="15" width="6" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="28" width="8.88671875" style="11" customWidth="1"/>
-    <col min="29" max="16384" width="8.88671875" style="11"/>
+    <col min="17" max="28" width="8.90625" style="11" customWidth="1"/>
+    <col min="29" max="16384" width="8.90625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
@@ -3608,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>341</v>
       </c>
       <c r="O5" t="s">
         <v>44</v>
@@ -3631,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4053,7 +4059,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CD3B" sheet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
   <tableParts count="1">
@@ -4070,10 +4075,10 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="19" style="11" customWidth="1"/>
     <col min="2" max="2" width="24" style="11" bestFit="1" customWidth="1"/>
@@ -4089,8 +4094,8 @@
     <col min="12" max="13" width="5" style="11" customWidth="1"/>
     <col min="14" max="15" width="6" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="24" width="8.88671875" style="11" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="11"/>
+    <col min="17" max="24" width="8.90625" style="11" customWidth="1"/>
+    <col min="25" max="16384" width="8.90625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
@@ -4685,24 +4690,24 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.36328125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.453125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -5234,7 +5239,7 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="10" bestFit="1" customWidth="1"/>
@@ -5710,11 +5715,11 @@
   </sheetPr>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="19" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="10" bestFit="1" customWidth="1"/>
@@ -5730,8 +5735,8 @@
     <col min="13" max="13" width="13" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="6" style="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="25" width="8.88671875" style="10" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="17" max="25" width="8.90625" style="10" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
@@ -6850,11 +6855,11 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="19" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="10" bestFit="1" customWidth="1"/>
@@ -6871,8 +6876,8 @@
     <col min="14" max="14" width="6" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" style="10" customWidth="1"/>
     <col min="16" max="16" width="14" style="10" customWidth="1"/>
-    <col min="17" max="25" width="8.88671875" style="10" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="17" max="25" width="8.90625" style="10" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
@@ -7949,10 +7954,10 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="19" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="10" bestFit="1" customWidth="1"/>
@@ -7968,8 +7973,8 @@
     <col min="13" max="13" width="13" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="6" style="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="25" width="8.88671875" style="10" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="17" max="25" width="8.90625" style="10" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
@@ -9106,10 +9111,10 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="11" bestFit="1" customWidth="1"/>
@@ -9127,8 +9132,8 @@
     <col min="14" max="14" width="19" style="11" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" style="11" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="29" width="8.88671875" style="11" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="11"/>
+    <col min="18" max="29" width="8.90625" style="11" customWidth="1"/>
+    <col min="30" max="16384" width="8.90625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1">
@@ -9575,11 +9580,11 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="11" bestFit="1" customWidth="1"/>
@@ -9588,8 +9593,8 @@
     <col min="5" max="5" width="9" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="19" width="8.88671875" style="11" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="11"/>
+    <col min="8" max="19" width="8.90625" style="11" customWidth="1"/>
+    <col min="20" max="16384" width="8.90625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\AutoPlasticOmnium\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EE9E47-B15D-4FF5-B5E4-276265938F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C298D01C-9BE3-4D98-B0FB-631046D5C14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="961" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,7 @@
     <sheet name="LTT1" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -108,6 +109,9 @@
     <t>CmdOrParam</t>
   </si>
   <si>
+    <t>Param1</t>
+  </si>
+  <si>
     <t>ExpectStr</t>
   </si>
   <si>
@@ -123,9 +127,6 @@
     <t>Json</t>
   </si>
   <si>
-    <t>Param1</t>
-  </si>
-  <si>
     <t>PoweSupplySet</t>
   </si>
   <si>
@@ -1053,10 +1054,10 @@
     <t>F4 01 32 00 00 00 00 00</t>
   </si>
   <si>
+    <t>VOLT &lt;Config.LTT.Volt&gt;</t>
+  </si>
+  <si>
     <t>CURR &lt;Config.LTT.Curr&gt;</t>
-  </si>
-  <si>
-    <t>VOLT &lt;Config.LTT.Volt&gt;</t>
   </si>
 </sst>
 </file>
@@ -1855,12 +1856,12 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="SubStr1"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="SubStr2"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="CmdOrParam"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="ExpectStr"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="LSL"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="USL"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Unit"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Json"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Param1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Param1"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="ExpectStr"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="LSL"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="USL"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Unit"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Json"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1875,8 +1876,8 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Keyword"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Retry"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Timeout"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="ID"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="CmdOrParam"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="ID"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="CmdOrParam"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1896,12 +1897,12 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="SubStr1"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="SubStr2"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="CmdOrParam"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="ExpectStr"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="LSL"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0A00-00000D000000}" name="USL"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0A00-00000E000000}" name="Unit"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0A00-00000F000000}" name="Json"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0A00-000010000000}" name="Param1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="Param1"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="ExpectStr"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0A00-00000D000000}" name="LSL"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0A00-00000E000000}" name="USL"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0A00-00000F000000}" name="Unit"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0A00-000010000000}" name="Json"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1970,9 +1971,9 @@
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="PCI_LEN"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="CmdOrParam"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="CheckStr1"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="ByPF"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="Json"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="SetGlobalVar"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="SetGlobalVar"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="ByPF"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Json"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1995,9 +1996,9 @@
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="PCI_LEN"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="CmdOrParam"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="CheckStr1"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="ByPF"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Json"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="SetGlobalVar"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="SetGlobalVar"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="ByPF"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="Json"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2020,9 +2021,9 @@
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="PCI_LEN"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="CmdOrParam"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" name="CheckStr1"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0500-00000E000000}" name="ByPF"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="Json"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="SetGlobalVar"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0500-00000E000000}" name="SetGlobalVar"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="ByPF"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="Json"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2046,9 +2047,9 @@
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="CmdOrParam"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" name="CheckStr1"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" name="SPEC"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" name="ByPF"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0600-000010000000}" name="Json"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0600-000011000000}" name="SetGlobalVar"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" name="SetGlobalVar"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0600-000010000000}" name="ByPF"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0600-000011000000}" name="Json"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2063,8 +2064,8 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Keyword"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Retry"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Timeout"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="ID"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="CmdOrParam"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="ID"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="CmdOrParam"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2079,8 +2080,8 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Keyword"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Retry"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Timeout"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="ID"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="CmdOrParam"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="ID"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="CmdOrParam"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2529,14 +2530,14 @@
     <col min="3" max="3" width="21" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.90625" style="11" customWidth="1"/>
     <col min="9" max="9" width="17.6328125" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="8.90625" style="11" customWidth="1"/>
-    <col min="20" max="16384" width="8.90625" style="11"/>
+    <col min="12" max="23" width="8.90625" style="11" customWidth="1"/>
+    <col min="24" max="16384" width="8.90625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -2578,11 +2579,8 @@
       <c r="E2">
         <v>2</v>
       </c>
-      <c r="F2"/>
-      <c r="G2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3"/>
       <c r="B3" t="s">
         <v>261</v>
       </c>
@@ -2595,8 +2593,6 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3"/>
-      <c r="G3"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
@@ -2622,7 +2618,6 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5"/>
       <c r="B5" t="s">
         <v>280</v>
       </c>
@@ -2635,8 +2630,6 @@
       <c r="E5">
         <v>10</v>
       </c>
-      <c r="F5"/>
-      <c r="G5"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -2662,7 +2655,6 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7"/>
       <c r="B7" t="s">
         <v>280</v>
       </c>
@@ -2675,8 +2667,6 @@
       <c r="E7">
         <v>10</v>
       </c>
-      <c r="F7"/>
-      <c r="G7"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -2702,7 +2692,6 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9"/>
       <c r="B9" t="s">
         <v>280</v>
       </c>
@@ -2715,8 +2704,6 @@
       <c r="E9">
         <v>10</v>
       </c>
-      <c r="F9"/>
-      <c r="G9"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -2742,7 +2729,6 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11"/>
       <c r="B11" t="s">
         <v>280</v>
       </c>
@@ -2755,8 +2741,6 @@
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11"/>
-      <c r="G11"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -2782,7 +2766,6 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13"/>
       <c r="B13" t="s">
         <v>280</v>
       </c>
@@ -2795,8 +2778,6 @@
       <c r="E13">
         <v>10</v>
       </c>
-      <c r="F13"/>
-      <c r="G13"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -2822,7 +2803,6 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15"/>
       <c r="B15" t="s">
         <v>280</v>
       </c>
@@ -2835,8 +2815,6 @@
       <c r="E15">
         <v>10</v>
       </c>
-      <c r="F15"/>
-      <c r="G15"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -2862,7 +2840,6 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17"/>
       <c r="B17" t="s">
         <v>280</v>
       </c>
@@ -2875,8 +2852,6 @@
       <c r="E17">
         <v>10</v>
       </c>
-      <c r="F17"/>
-      <c r="G17"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -2902,7 +2877,6 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19"/>
       <c r="B19" t="s">
         <v>280</v>
       </c>
@@ -2915,8 +2889,6 @@
       <c r="E19">
         <v>10</v>
       </c>
-      <c r="F19"/>
-      <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -2942,7 +2914,6 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21"/>
       <c r="B21" t="s">
         <v>280</v>
       </c>
@@ -2955,8 +2926,6 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21"/>
-      <c r="G21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2987,8 +2956,8 @@
     <col min="5" max="5" width="9" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="19" width="8.90625" style="11" customWidth="1"/>
-    <col min="20" max="16384" width="8.90625" style="11"/>
+    <col min="8" max="23" width="8.90625" style="11" customWidth="1"/>
+    <col min="24" max="16384" width="8.90625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -3461,27 +3430,28 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="11" customWidth="1"/>
-    <col min="10" max="10" width="41" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5" style="11" customWidth="1"/>
-    <col min="14" max="15" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="28" width="8.90625" style="11" customWidth="1"/>
-    <col min="29" max="16384" width="8.90625" style="11"/>
+    <col min="1" max="1" width="16.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.08984375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="32" width="8.90625" style="11" customWidth="1"/>
+    <col min="33" max="16384" width="8.90625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
@@ -3553,11 +3523,21 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
       <c r="J2" t="s">
         <v>35</v>
       </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
     </row>
     <row r="3" spans="1:16">
+      <c r="A3"/>
       <c r="B3" t="s">
         <v>36</v>
       </c>
@@ -3573,11 +3553,21 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
       <c r="J3" t="s">
         <v>39</v>
       </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
     </row>
     <row r="4" spans="1:16">
+      <c r="A4"/>
       <c r="B4" t="s">
         <v>40</v>
       </c>
@@ -3593,11 +3583,21 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
       <c r="J4" t="s">
         <v>41</v>
       </c>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
     </row>
     <row r="5" spans="1:16">
+      <c r="A5"/>
       <c r="B5" t="s">
         <v>42</v>
       </c>
@@ -3613,14 +3613,23 @@
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
       <c r="J5" t="s">
-        <v>341</v>
-      </c>
-      <c r="O5" t="s">
+        <v>340</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:16">
+      <c r="A6"/>
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -3636,11 +3645,21 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
       <c r="J6" t="s">
-        <v>340</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
     </row>
     <row r="7" spans="1:16">
+      <c r="A7"/>
       <c r="B7" t="s">
         <v>47</v>
       </c>
@@ -3656,11 +3675,21 @@
       <c r="F7">
         <v>1</v>
       </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
       <c r="J7" t="s">
         <v>48</v>
       </c>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
     </row>
     <row r="8" spans="1:16">
+      <c r="A8"/>
       <c r="B8" t="s">
         <v>49</v>
       </c>
@@ -3676,14 +3705,23 @@
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
       <c r="J8" t="s">
         <v>50</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8"/>
+      <c r="L8" t="s">
         <v>51</v>
       </c>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
     </row>
     <row r="9" spans="1:16">
+      <c r="A9"/>
       <c r="B9" t="s">
         <v>52</v>
       </c>
@@ -3699,11 +3737,21 @@
       <c r="F9">
         <v>1</v>
       </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
       <c r="J9" t="s">
         <v>53</v>
       </c>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
     </row>
     <row r="10" spans="1:16">
+      <c r="A10"/>
       <c r="B10" t="s">
         <v>54</v>
       </c>
@@ -3719,11 +3767,21 @@
       <c r="F10">
         <v>1</v>
       </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
       <c r="J10" t="s">
         <v>55</v>
       </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1">
+      <c r="A11"/>
       <c r="B11" t="s">
         <v>56</v>
       </c>
@@ -3739,12 +3797,20 @@
       <c r="F11">
         <v>1</v>
       </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
       <c r="J11" t="s">
         <v>57</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11"/>
+      <c r="L11" t="s">
         <v>58</v>
       </c>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12" t="s">
@@ -3765,14 +3831,23 @@
       <c r="F12">
         <v>3</v>
       </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
       <c r="J12" t="s">
         <v>62</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12"/>
+      <c r="L12" t="s">
         <v>63</v>
       </c>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
     </row>
     <row r="13" spans="1:16">
+      <c r="A13"/>
       <c r="B13" t="s">
         <v>64</v>
       </c>
@@ -3788,12 +3863,20 @@
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
       <c r="J13" t="s">
         <v>66</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13"/>
+      <c r="L13" t="s">
         <v>67</v>
       </c>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
@@ -3814,14 +3897,23 @@
       <c r="F14">
         <v>3</v>
       </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
       <c r="J14" t="s">
         <v>62</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14"/>
+      <c r="L14" t="s">
         <v>63</v>
       </c>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
     </row>
     <row r="15" spans="1:16">
+      <c r="A15"/>
       <c r="B15" t="s">
         <v>69</v>
       </c>
@@ -3837,12 +3929,20 @@
       <c r="F15">
         <v>1</v>
       </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
       <c r="J15" t="s">
         <v>70</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15"/>
+      <c r="L15" t="s">
         <v>67</v>
       </c>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
@@ -3866,6 +3966,15 @@
       <c r="G16" t="s">
         <v>73</v>
       </c>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
@@ -3886,11 +3995,21 @@
       <c r="F17">
         <v>1</v>
       </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
       <c r="J17" t="s">
         <v>76</v>
       </c>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
     </row>
     <row r="18" spans="1:16">
+      <c r="A18"/>
       <c r="B18" t="s">
         <v>77</v>
       </c>
@@ -3906,14 +4025,21 @@
       <c r="F18">
         <v>3</v>
       </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
       <c r="J18" t="s">
         <v>78</v>
       </c>
-      <c r="O18" t="s">
+      <c r="K18" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18" t="s">
         <v>44</v>
-      </c>
-      <c r="P18" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -3935,11 +4061,21 @@
       <c r="F19">
         <v>1</v>
       </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
       <c r="J19" t="s">
         <v>82</v>
       </c>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
     </row>
     <row r="20" spans="1:16">
+      <c r="A20"/>
       <c r="B20" t="s">
         <v>83</v>
       </c>
@@ -3955,13 +4091,20 @@
       <c r="F20">
         <v>3</v>
       </c>
+      <c r="G20"/>
+      <c r="H20"/>
       <c r="I20" t="s">
         <v>84</v>
       </c>
       <c r="J20" t="s">
         <v>85</v>
       </c>
-      <c r="O20" t="s">
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3984,19 +4127,24 @@
       <c r="F21">
         <v>10</v>
       </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
       <c r="J21" t="s">
         <v>89</v>
       </c>
-      <c r="L21" t="s">
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21" t="s">
         <v>90</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>91</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>92</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4019,19 +4167,24 @@
       <c r="F22">
         <v>10</v>
       </c>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
       <c r="J22" t="s">
         <v>96</v>
       </c>
-      <c r="L22" t="s">
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22" t="s">
         <v>97</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>98</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>99</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4057,6 +4210,15 @@
       <c r="G23" t="s">
         <v>104</v>
       </c>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4075,7 +4237,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -4090,12 +4252,14 @@
     <col min="8" max="8" width="9" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="11" customWidth="1"/>
     <col min="10" max="10" width="41" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5" style="11" customWidth="1"/>
-    <col min="14" max="15" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="24" width="8.90625" style="11" customWidth="1"/>
-    <col min="25" max="16384" width="8.90625" style="11"/>
+    <col min="11" max="11" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="11" customWidth="1"/>
+    <col min="13" max="13" width="5" style="10" customWidth="1"/>
+    <col min="14" max="14" width="5" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" style="10" customWidth="1"/>
+    <col min="16" max="16" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="28" width="8.90625" style="11" customWidth="1"/>
+    <col min="29" max="16384" width="8.90625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
@@ -4230,7 +4394,7 @@
       <c r="J5" t="s">
         <v>43</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4293,7 +4457,7 @@
       <c r="J8" t="s">
         <v>50</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4356,7 +4520,7 @@
       <c r="J11" t="s">
         <v>57</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4382,7 +4546,7 @@
       <c r="J12" t="s">
         <v>62</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4405,7 +4569,7 @@
       <c r="J13" t="s">
         <v>66</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4431,7 +4595,7 @@
       <c r="J14" t="s">
         <v>62</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4454,7 +4618,7 @@
       <c r="J15" t="s">
         <v>70</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4523,11 +4687,11 @@
       <c r="J18" t="s">
         <v>78</v>
       </c>
-      <c r="O18" t="s">
+      <c r="K18" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" t="s">
         <v>44</v>
-      </c>
-      <c r="P18" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -4575,7 +4739,7 @@
       <c r="J20" t="s">
         <v>85</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4601,16 +4765,16 @@
       <c r="J21" t="s">
         <v>89</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>90</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>91</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>92</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4636,16 +4800,16 @@
       <c r="J22" t="s">
         <v>96</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>97</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>98</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>99</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4695,19 +4859,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="10" customWidth="1"/>
+    <col min="8" max="8" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4751,7 +4914,7 @@
         <v>109</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -5245,13 +5408,15 @@
     <col min="2" max="2" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="10" customWidth="1"/>
     <col min="4" max="4" width="7" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="10" customWidth="1"/>
     <col min="8" max="8" width="4" style="10" customWidth="1"/>
     <col min="9" max="9" width="5" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -5295,7 +5460,7 @@
         <v>109</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -5716,27 +5881,28 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="10" customWidth="1"/>
-    <col min="8" max="8" width="7" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="52" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="25" width="8.90625" style="10" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="10"/>
+    <col min="1" max="1" width="17.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="29" width="8.90625" style="10" customWidth="1"/>
+    <col min="30" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
@@ -5780,13 +5946,13 @@
         <v>108</v>
       </c>
       <c r="N1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" t="s">
         <v>109</v>
       </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
       <c r="P1" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
@@ -5811,7 +5977,7 @@
       <c r="L2" t="s">
         <v>116</v>
       </c>
-      <c r="P2" t="s">
+      <c r="N2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5834,7 +6000,7 @@
       <c r="L3" t="s">
         <v>125</v>
       </c>
-      <c r="P3" t="s">
+      <c r="N3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5857,7 +6023,7 @@
       <c r="L4" t="s">
         <v>127</v>
       </c>
-      <c r="P4" t="s">
+      <c r="N4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5880,7 +6046,7 @@
       <c r="L5" t="s">
         <v>129</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5903,7 +6069,7 @@
       <c r="L6" t="s">
         <v>131</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5926,7 +6092,7 @@
       <c r="L7" t="s">
         <v>133</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5946,7 +6112,7 @@
       <c r="L8" t="s">
         <v>155</v>
       </c>
-      <c r="P8" t="s">
+      <c r="N8" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5966,7 +6132,7 @@
       <c r="L9" t="s">
         <v>159</v>
       </c>
-      <c r="P9" t="s">
+      <c r="N9" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5986,7 +6152,7 @@
       <c r="L10" t="s">
         <v>159</v>
       </c>
-      <c r="P10" t="s">
+      <c r="N10" t="s">
         <v>163</v>
       </c>
     </row>
@@ -6003,7 +6169,7 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="P11" t="s">
+      <c r="N11" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6023,7 +6189,7 @@
       <c r="L12" t="s">
         <v>168</v>
       </c>
-      <c r="P12" t="s">
+      <c r="N12" t="s">
         <v>169</v>
       </c>
     </row>
@@ -6043,7 +6209,7 @@
       <c r="L13" t="s">
         <v>171</v>
       </c>
-      <c r="P13" t="s">
+      <c r="N13" t="s">
         <v>172</v>
       </c>
     </row>
@@ -6063,7 +6229,7 @@
       <c r="L14" t="s">
         <v>171</v>
       </c>
-      <c r="P14" t="s">
+      <c r="N14" t="s">
         <v>174</v>
       </c>
     </row>
@@ -6083,7 +6249,7 @@
       <c r="L15" t="s">
         <v>176</v>
       </c>
-      <c r="P15" t="s">
+      <c r="N15" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6103,7 +6269,7 @@
       <c r="L16" t="s">
         <v>159</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>44</v>
       </c>
     </row>
@@ -6181,10 +6347,10 @@
       <c r="L19" t="s">
         <v>123</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>124</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>44</v>
       </c>
     </row>
@@ -6349,7 +6515,7 @@
       <c r="L25" t="s">
         <v>196</v>
       </c>
-      <c r="P25" t="s">
+      <c r="N25" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6369,7 +6535,7 @@
       <c r="L26" t="s">
         <v>199</v>
       </c>
-      <c r="P26" t="s">
+      <c r="N26" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6433,7 +6599,7 @@
       <c r="L28" t="s">
         <v>209</v>
       </c>
-      <c r="P28" t="s">
+      <c r="N28" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6610,7 +6776,7 @@
       <c r="L34" t="s">
         <v>229</v>
       </c>
-      <c r="P34" t="s">
+      <c r="N34" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6836,7 +7002,7 @@
       <c r="L42" t="s">
         <v>123</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>44</v>
       </c>
     </row>
@@ -6856,7 +7022,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -6873,11 +7039,10 @@
     <col min="11" max="11" width="14" style="10" customWidth="1"/>
     <col min="12" max="12" width="52" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6" style="10" customWidth="1"/>
-    <col min="16" max="16" width="14" style="10" customWidth="1"/>
-    <col min="17" max="25" width="8.90625" style="10" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="10"/>
+    <col min="14" max="14" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6" style="10" customWidth="1"/>
+    <col min="17" max="29" width="8.90625" style="10" customWidth="1"/>
+    <col min="30" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
@@ -6921,13 +7086,13 @@
         <v>108</v>
       </c>
       <c r="N1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" t="s">
         <v>109</v>
       </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
       <c r="P1" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
@@ -6952,7 +7117,7 @@
       <c r="L2" t="s">
         <v>116</v>
       </c>
-      <c r="P2" t="s">
+      <c r="N2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6975,7 +7140,7 @@
       <c r="L3" t="s">
         <v>131</v>
       </c>
-      <c r="P3" t="s">
+      <c r="N3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6998,7 +7163,7 @@
       <c r="L4" t="s">
         <v>125</v>
       </c>
-      <c r="P4" t="s">
+      <c r="N4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -7021,7 +7186,7 @@
       <c r="L5" t="s">
         <v>135</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
         <v>106</v>
       </c>
     </row>
@@ -7041,7 +7206,7 @@
       <c r="L6" t="s">
         <v>242</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -7061,7 +7226,7 @@
       <c r="L7" t="s">
         <v>159</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7081,7 +7246,7 @@
       <c r="L8" t="s">
         <v>159</v>
       </c>
-      <c r="P8" t="s">
+      <c r="N8" t="s">
         <v>163</v>
       </c>
     </row>
@@ -7098,7 +7263,7 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="P9" t="s">
+      <c r="N9" t="s">
         <v>166</v>
       </c>
     </row>
@@ -7118,7 +7283,7 @@
       <c r="L10" t="s">
         <v>168</v>
       </c>
-      <c r="P10" t="s">
+      <c r="N10" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7138,7 +7303,7 @@
       <c r="L11" t="s">
         <v>171</v>
       </c>
-      <c r="P11" t="s">
+      <c r="N11" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7158,7 +7323,7 @@
       <c r="L12" t="s">
         <v>171</v>
       </c>
-      <c r="P12" t="s">
+      <c r="N12" t="s">
         <v>174</v>
       </c>
     </row>
@@ -7178,7 +7343,7 @@
       <c r="L13" t="s">
         <v>176</v>
       </c>
-      <c r="P13" t="s">
+      <c r="N13" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7198,7 +7363,7 @@
       <c r="L14" t="s">
         <v>159</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7276,10 +7441,10 @@
       <c r="L17" t="s">
         <v>123</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>124</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7444,7 +7609,7 @@
       <c r="L23" t="s">
         <v>196</v>
       </c>
-      <c r="P23" t="s">
+      <c r="N23" t="s">
         <v>197</v>
       </c>
     </row>
@@ -7464,7 +7629,7 @@
       <c r="L24" t="s">
         <v>199</v>
       </c>
-      <c r="P24" t="s">
+      <c r="N24" t="s">
         <v>200</v>
       </c>
     </row>
@@ -7528,7 +7693,7 @@
       <c r="L26" t="s">
         <v>209</v>
       </c>
-      <c r="P26" t="s">
+      <c r="N26" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7705,11 +7870,11 @@
       <c r="L32" t="s">
         <v>229</v>
       </c>
-      <c r="P32" t="s">
+      <c r="N32" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:16">
       <c r="B33" t="s">
         <v>211</v>
       </c>
@@ -7738,7 +7903,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:16">
       <c r="B34" t="s">
         <v>214</v>
       </c>
@@ -7764,7 +7929,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:16">
       <c r="B35" t="s">
         <v>217</v>
       </c>
@@ -7793,7 +7958,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>232</v>
       </c>
@@ -7822,7 +7987,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:16">
       <c r="B37" t="s">
         <v>113</v>
       </c>
@@ -7848,7 +8013,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:16">
       <c r="B38" t="s">
         <v>235</v>
       </c>
@@ -7874,7 +8039,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:16">
       <c r="B39" t="s">
         <v>237</v>
       </c>
@@ -7900,7 +8065,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:16">
       <c r="B40" t="s">
         <v>239</v>
       </c>
@@ -7931,10 +8096,10 @@
       <c r="L40" t="s">
         <v>123</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>124</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7963,18 +8128,19 @@
     <col min="2" max="2" width="25" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="10" customWidth="1"/>
     <col min="8" max="8" width="7" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="10" customWidth="1"/>
     <col min="12" max="12" width="52" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="25" width="8.90625" style="10" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="10"/>
+    <col min="14" max="14" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" style="10" customWidth="1"/>
+    <col min="16" max="16" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="29" width="8.90625" style="10" customWidth="1"/>
+    <col min="30" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
@@ -8018,13 +8184,13 @@
         <v>108</v>
       </c>
       <c r="N1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" t="s">
         <v>109</v>
       </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
       <c r="P1" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
@@ -8049,7 +8215,7 @@
       <c r="L2" t="s">
         <v>116</v>
       </c>
-      <c r="P2" t="s">
+      <c r="N2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -8072,7 +8238,7 @@
       <c r="L3" t="s">
         <v>125</v>
       </c>
-      <c r="P3" t="s">
+      <c r="N3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -8095,7 +8261,7 @@
       <c r="L4" t="s">
         <v>127</v>
       </c>
-      <c r="P4" t="s">
+      <c r="N4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -8118,7 +8284,7 @@
       <c r="L5" t="s">
         <v>129</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
         <v>106</v>
       </c>
     </row>
@@ -8141,7 +8307,7 @@
       <c r="L6" t="s">
         <v>133</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
         <v>106</v>
       </c>
     </row>
@@ -8164,7 +8330,7 @@
       <c r="L7" t="s">
         <v>131</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
         <v>106</v>
       </c>
     </row>
@@ -8187,7 +8353,7 @@
       <c r="L8" t="s">
         <v>135</v>
       </c>
-      <c r="P8" t="s">
+      <c r="N8" t="s">
         <v>106</v>
       </c>
     </row>
@@ -8207,7 +8373,7 @@
       <c r="L9" t="s">
         <v>246</v>
       </c>
-      <c r="P9" t="s">
+      <c r="N9" t="s">
         <v>156</v>
       </c>
     </row>
@@ -8227,7 +8393,7 @@
       <c r="L10" t="s">
         <v>159</v>
       </c>
-      <c r="P10" t="s">
+      <c r="N10" t="s">
         <v>160</v>
       </c>
     </row>
@@ -8247,7 +8413,7 @@
       <c r="L11" t="s">
         <v>159</v>
       </c>
-      <c r="P11" t="s">
+      <c r="N11" t="s">
         <v>163</v>
       </c>
     </row>
@@ -8264,7 +8430,7 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="P12" t="s">
+      <c r="N12" t="s">
         <v>166</v>
       </c>
     </row>
@@ -8284,7 +8450,7 @@
       <c r="L13" t="s">
         <v>168</v>
       </c>
-      <c r="P13" t="s">
+      <c r="N13" t="s">
         <v>169</v>
       </c>
     </row>
@@ -8304,7 +8470,7 @@
       <c r="L14" t="s">
         <v>171</v>
       </c>
-      <c r="P14" t="s">
+      <c r="N14" t="s">
         <v>172</v>
       </c>
     </row>
@@ -8324,7 +8490,7 @@
       <c r="L15" t="s">
         <v>171</v>
       </c>
-      <c r="P15" t="s">
+      <c r="N15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -8344,7 +8510,7 @@
       <c r="L16" t="s">
         <v>176</v>
       </c>
-      <c r="P16" t="s">
+      <c r="N16" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8364,7 +8530,7 @@
       <c r="L17" t="s">
         <v>159</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -8442,10 +8608,10 @@
       <c r="L20" t="s">
         <v>123</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>124</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>44</v>
       </c>
     </row>
@@ -8610,7 +8776,7 @@
       <c r="L26" t="s">
         <v>196</v>
       </c>
-      <c r="P26" t="s">
+      <c r="N26" t="s">
         <v>197</v>
       </c>
     </row>
@@ -8630,7 +8796,7 @@
       <c r="L27" t="s">
         <v>199</v>
       </c>
-      <c r="P27" t="s">
+      <c r="N27" t="s">
         <v>200</v>
       </c>
     </row>
@@ -8694,7 +8860,7 @@
       <c r="L29" t="s">
         <v>209</v>
       </c>
-      <c r="P29" t="s">
+      <c r="N29" t="s">
         <v>210</v>
       </c>
     </row>
@@ -8868,7 +9034,7 @@
       <c r="L35" t="s">
         <v>229</v>
       </c>
-      <c r="P35" t="s">
+      <c r="N35" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9091,7 +9257,7 @@
       <c r="L43" t="s">
         <v>123</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>44</v>
       </c>
     </row>
@@ -9130,10 +9296,11 @@
     <col min="12" max="12" width="25" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="29" width="8.90625" style="11" customWidth="1"/>
-    <col min="30" max="16384" width="8.90625" style="11"/>
+    <col min="15" max="15" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" style="10" customWidth="1"/>
+    <col min="17" max="17" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="33" width="8.90625" style="11" customWidth="1"/>
+    <col min="34" max="16384" width="8.90625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1">
@@ -9180,13 +9347,13 @@
         <v>247</v>
       </c>
       <c r="O1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" t="s">
         <v>109</v>
       </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
       <c r="Q1" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1">
@@ -9211,7 +9378,7 @@
       <c r="L2" t="s">
         <v>116</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="O2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -9234,7 +9401,7 @@
       <c r="L3" t="s">
         <v>125</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="O3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -9257,7 +9424,7 @@
       <c r="L4" t="s">
         <v>127</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="O4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -9280,7 +9447,7 @@
       <c r="L5" t="s">
         <v>129</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="O5" t="s">
         <v>106</v>
       </c>
     </row>
@@ -9303,7 +9470,7 @@
       <c r="L6" t="s">
         <v>133</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="O6" t="s">
         <v>106</v>
       </c>
     </row>
@@ -9326,7 +9493,7 @@
       <c r="L7" t="s">
         <v>131</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="O7" t="s">
         <v>106</v>
       </c>
     </row>
@@ -9349,7 +9516,7 @@
       <c r="L8" t="s">
         <v>135</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="O8" t="s">
         <v>106</v>
       </c>
     </row>
@@ -9430,7 +9597,7 @@
       <c r="N11" t="s">
         <v>251</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -9468,7 +9635,7 @@
       <c r="N12" t="s">
         <v>255</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -9506,7 +9673,7 @@
       <c r="N13" t="s">
         <v>260</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>44</v>
       </c>
     </row>
@@ -9593,8 +9760,8 @@
     <col min="5" max="5" width="9" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="19" width="8.90625" style="11" customWidth="1"/>
-    <col min="20" max="16384" width="8.90625" style="11"/>
+    <col min="8" max="23" width="8.90625" style="11" customWidth="1"/>
+    <col min="24" max="16384" width="8.90625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\AutoPlasticOmnium\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C298D01C-9BE3-4D98-B0FB-631046D5C14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0CA2D2-A06D-47F6-AD10-EBB8228CE73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="961" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,12 +27,11 @@
     <sheet name="LTT1" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="345">
   <si>
     <t>SuiteName</t>
   </si>
@@ -760,9 +759,6 @@
     <t>FRG</t>
   </si>
   <si>
-    <t>DFLZM_M6_appl_lin.s19</t>
-  </si>
-  <si>
     <t>RM</t>
   </si>
   <si>
@@ -1058,13 +1054,25 @@
   </si>
   <si>
     <t>CURR &lt;Config.LTT.Curr&gt;</t>
+  </si>
+  <si>
+    <t>DFLZM_M6_appl_para.s19</t>
+  </si>
+  <si>
+    <t>DFLZ_M4_appl_para_crc.s19</t>
+  </si>
+  <si>
+    <t>DFLZM_M6_appl_para_crc.s19</t>
+  </si>
+  <si>
+    <t>DFLZM_SX5GEV_appl_para_crc.s19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1265,6 +1273,12 @@
       <color theme="1"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -2565,13 +2579,13 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
         <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2582,10 +2596,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2596,33 +2610,33 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>307</v>
       </c>
-      <c r="B4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>308</v>
-      </c>
-      <c r="G4" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2633,13 +2647,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" t="s">
         <v>281</v>
       </c>
-      <c r="B6" t="s">
-        <v>282</v>
-      </c>
       <c r="C6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2648,18 +2662,18 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2670,33 +2684,33 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G8" t="s">
         <v>311</v>
-      </c>
-      <c r="B8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>308</v>
-      </c>
-      <c r="G8" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2707,33 +2721,33 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>307</v>
+      </c>
+      <c r="G10" t="s">
         <v>313</v>
-      </c>
-      <c r="B10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C10" t="s">
-        <v>269</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>308</v>
-      </c>
-      <c r="G10" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2744,33 +2758,33 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>307</v>
+      </c>
+      <c r="G12" t="s">
         <v>315</v>
-      </c>
-      <c r="B12" t="s">
-        <v>268</v>
-      </c>
-      <c r="C12" t="s">
-        <v>269</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>308</v>
-      </c>
-      <c r="G12" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2781,13 +2795,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14" t="s">
         <v>288</v>
       </c>
-      <c r="B14" t="s">
-        <v>289</v>
-      </c>
       <c r="C14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2796,18 +2810,18 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2818,13 +2832,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>298</v>
+      </c>
+      <c r="B16" t="s">
         <v>299</v>
       </c>
-      <c r="B16" t="s">
-        <v>300</v>
-      </c>
       <c r="C16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2833,18 +2847,18 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2855,33 +2869,33 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" t="s">
         <v>319</v>
-      </c>
-      <c r="B18" t="s">
-        <v>304</v>
-      </c>
-      <c r="C18" t="s">
-        <v>269</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>273</v>
-      </c>
-      <c r="G18" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2892,33 +2906,33 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
+        <v>320</v>
+      </c>
+      <c r="B20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>307</v>
+      </c>
+      <c r="G20" t="s">
         <v>321</v>
-      </c>
-      <c r="B20" t="s">
-        <v>268</v>
-      </c>
-      <c r="C20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>308</v>
-      </c>
-      <c r="G20" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2985,13 +2999,13 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
         <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3002,10 +3016,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3016,53 +3030,53 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" t="s">
         <v>323</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" t="s">
         <v>324</v>
-      </c>
-      <c r="C4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>264</v>
-      </c>
-      <c r="G4" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G5" t="s">
         <v>326</v>
-      </c>
-      <c r="C5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3073,53 +3087,53 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G7" t="s">
         <v>328</v>
-      </c>
-      <c r="B7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G8" t="s">
         <v>326</v>
-      </c>
-      <c r="C8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G8" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3130,14 +3144,14 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" t="s">
         <v>268</v>
       </c>
-      <c r="C10" t="s">
-        <v>269</v>
-      </c>
       <c r="D10">
         <v>0</v>
       </c>
@@ -3145,38 +3159,38 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" t="s">
         <v>271</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
         <v>272</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>273</v>
-      </c>
       <c r="G11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3187,13 +3201,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" t="s">
         <v>276</v>
       </c>
-      <c r="B13" t="s">
-        <v>277</v>
-      </c>
       <c r="C13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3202,38 +3216,38 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>272</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>273</v>
-      </c>
       <c r="G14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3244,13 +3258,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B16" t="s">
         <v>288</v>
       </c>
-      <c r="B16" t="s">
-        <v>289</v>
-      </c>
       <c r="C16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3259,38 +3273,38 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
         <v>272</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>273</v>
-      </c>
       <c r="G17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3301,13 +3315,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B19" t="s">
         <v>332</v>
       </c>
-      <c r="B19" t="s">
-        <v>333</v>
-      </c>
       <c r="C19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3316,38 +3330,38 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>272</v>
+      </c>
+      <c r="G20" t="s">
         <v>334</v>
-      </c>
-      <c r="C20" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>273</v>
-      </c>
-      <c r="G20" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3358,13 +3372,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
+        <v>335</v>
+      </c>
+      <c r="B22" t="s">
         <v>336</v>
       </c>
-      <c r="B22" t="s">
-        <v>337</v>
-      </c>
       <c r="C22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3373,38 +3387,38 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="B23" t="s">
+        <v>337</v>
+      </c>
+      <c r="C23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G23" t="s">
         <v>338</v>
-      </c>
-      <c r="C23" t="s">
-        <v>272</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>273</v>
-      </c>
-      <c r="G23" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="B24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3430,7 +3444,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -3454,7 +3468,7 @@
     <col min="33" max="16384" width="8.90625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:16" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3504,7 +3518,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" thickTop="1">
+    <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3617,7 +3631,7 @@
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K5"/>
       <c r="L5"/>
@@ -3649,7 +3663,7 @@
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K6"/>
       <c r="L6"/>
@@ -4221,6 +4235,7 @@
       <c r="P23"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
   <tableParts count="1">
@@ -5880,8 +5895,8 @@
   </sheetPr>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -6169,6 +6184,9 @@
       <c r="E11">
         <v>1</v>
       </c>
+      <c r="L11" s="10" t="s">
+        <v>342</v>
+      </c>
       <c r="N11" t="s">
         <v>166</v>
       </c>
@@ -7021,8 +7039,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -7204,7 +7222,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>242</v>
+        <v>341</v>
       </c>
       <c r="N6" t="s">
         <v>156</v>
@@ -7262,6 +7280,9 @@
       </c>
       <c r="E9">
         <v>1</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="N9" t="s">
         <v>166</v>
@@ -8119,7 +8140,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -8279,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L5" t="s">
         <v>129</v>
@@ -8325,7 +8346,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L7" t="s">
         <v>131</v>
@@ -8348,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L8" t="s">
         <v>135</v>
@@ -8371,7 +8392,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N9" t="s">
         <v>156</v>
@@ -8429,6 +8450,9 @@
       </c>
       <c r="E12">
         <v>1</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="N12" t="s">
         <v>166</v>
@@ -9344,7 +9368,7 @@
         <v>108</v>
       </c>
       <c r="N1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O1" t="s">
         <v>144</v>
@@ -9442,7 +9466,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L5" t="s">
         <v>129</v>
@@ -9488,7 +9512,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L7" t="s">
         <v>131</v>
@@ -9511,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L8" t="s">
         <v>135</v>
@@ -9522,7 +9546,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B9" t="s">
         <v>111</v>
@@ -9565,7 +9589,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="B11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
         <v>114</v>
@@ -9577,7 +9601,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G11" t="s">
         <v>121</v>
@@ -9595,7 +9619,7 @@
         <v>123</v>
       </c>
       <c r="N11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q11" t="s">
         <v>44</v>
@@ -9603,7 +9627,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="B12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C12" t="s">
         <v>114</v>
@@ -9615,7 +9639,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G12" t="s">
         <v>121</v>
@@ -9630,10 +9654,10 @@
         <v>122</v>
       </c>
       <c r="L12" t="s">
+        <v>253</v>
+      </c>
+      <c r="N12" t="s">
         <v>254</v>
-      </c>
-      <c r="N12" t="s">
-        <v>255</v>
       </c>
       <c r="Q12" t="s">
         <v>44</v>
@@ -9641,10 +9665,10 @@
     </row>
     <row r="13" spans="1:17">
       <c r="B13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" t="s">
         <v>256</v>
-      </c>
-      <c r="C13" t="s">
-        <v>257</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -9653,7 +9677,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G13" t="s">
         <v>121</v>
@@ -9668,10 +9692,10 @@
         <v>122</v>
       </c>
       <c r="L13" t="s">
+        <v>258</v>
+      </c>
+      <c r="N13" t="s">
         <v>259</v>
-      </c>
-      <c r="N13" t="s">
-        <v>260</v>
       </c>
       <c r="Q13" t="s">
         <v>44</v>
@@ -9679,10 +9703,10 @@
     </row>
     <row r="14" spans="1:17">
       <c r="B14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -9693,10 +9717,10 @@
     </row>
     <row r="15" spans="1:17">
       <c r="B15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" t="s">
         <v>262</v>
-      </c>
-      <c r="C15" t="s">
-        <v>263</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -9705,18 +9729,18 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
+        <v>263</v>
+      </c>
+      <c r="L15" t="s">
         <v>264</v>
-      </c>
-      <c r="L15" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="B16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" t="s">
         <v>262</v>
-      </c>
-      <c r="C16" t="s">
-        <v>263</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -9725,10 +9749,10 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
+        <v>263</v>
+      </c>
+      <c r="L16" t="s">
         <v>264</v>
-      </c>
-      <c r="L16" t="s">
-        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -9789,13 +9813,13 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
         <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9806,10 +9830,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -9820,42 +9844,42 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" t="s">
         <v>268</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" t="s">
         <v>269</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>264</v>
-      </c>
-      <c r="G4" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" t="s">
         <v>271</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>272</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>273</v>
-      </c>
-      <c r="G5" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="12" customFormat="1">
@@ -9863,7 +9887,7 @@
         <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9874,53 +9898,53 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" t="s">
         <v>276</v>
       </c>
-      <c r="B7" t="s">
-        <v>277</v>
-      </c>
       <c r="C7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G7" t="s">
         <v>269</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G8" t="s">
         <v>278</v>
-      </c>
-      <c r="C8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G8" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -9931,53 +9955,53 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" t="s">
         <v>281</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>263</v>
+      </c>
+      <c r="G10" t="s">
         <v>282</v>
-      </c>
-      <c r="C10" t="s">
-        <v>269</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>264</v>
-      </c>
-      <c r="G10" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
         <v>272</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>273</v>
-      </c>
       <c r="G11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -9988,53 +10012,53 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" t="s">
         <v>285</v>
       </c>
-      <c r="B13" t="s">
-        <v>286</v>
-      </c>
       <c r="C13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" t="s">
         <v>269</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>264</v>
-      </c>
-      <c r="G13" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>272</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>273</v>
-      </c>
       <c r="G14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -10045,53 +10069,53 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B16" t="s">
         <v>288</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>263</v>
+      </c>
+      <c r="G16" t="s">
         <v>289</v>
-      </c>
-      <c r="C16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>264</v>
-      </c>
-      <c r="G16" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
         <v>272</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>273</v>
-      </c>
       <c r="G17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -10102,53 +10126,53 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" t="s">
         <v>292</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>263</v>
+      </c>
+      <c r="G19" t="s">
         <v>293</v>
-      </c>
-      <c r="C19" t="s">
-        <v>269</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>264</v>
-      </c>
-      <c r="G19" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
         <v>272</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>273</v>
-      </c>
       <c r="G20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -10159,13 +10183,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
+        <v>295</v>
+      </c>
+      <c r="B22" t="s">
         <v>296</v>
       </c>
-      <c r="B22" t="s">
-        <v>297</v>
-      </c>
       <c r="C22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -10174,38 +10198,38 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="B23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
         <v>272</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>273</v>
-      </c>
       <c r="G23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="B24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -10216,13 +10240,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" t="s">
         <v>299</v>
       </c>
-      <c r="B25" t="s">
-        <v>300</v>
-      </c>
       <c r="C25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -10231,38 +10255,38 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="B26" t="s">
+        <v>300</v>
+      </c>
+      <c r="C26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>272</v>
+      </c>
+      <c r="G26" t="s">
         <v>301</v>
-      </c>
-      <c r="C26" t="s">
-        <v>272</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>273</v>
-      </c>
-      <c r="G26" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="B27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -10273,53 +10297,53 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
+        <v>302</v>
+      </c>
+      <c r="B28" t="s">
         <v>303</v>
       </c>
-      <c r="B28" t="s">
-        <v>304</v>
-      </c>
       <c r="C28" t="s">
+        <v>268</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" t="s">
         <v>269</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>264</v>
-      </c>
-      <c r="G28" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="B29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C29" t="s">
+        <v>271</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
         <v>272</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>273</v>
-      </c>
       <c r="G29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="B30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -10330,53 +10354,53 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C31" t="s">
         <v>268</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>263</v>
+      </c>
+      <c r="G31" t="s">
         <v>269</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>264</v>
-      </c>
-      <c r="G31" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="B32" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" t="s">
         <v>271</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
         <v>272</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>273</v>
-      </c>
-      <c r="G32" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D33">
         <v>0</v>

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\AutoPlasticOmnium\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E6F21C-7196-41A1-99B5-2952F049B6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E2E250-6148-407A-A2E0-165D5933B975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="961" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -579,9 +579,6 @@
     <t>&lt;NAD&gt;</t>
   </si>
   <si>
-    <t>VersionBefore</t>
-  </si>
-  <si>
     <t>ExtendedSession</t>
   </si>
   <si>
@@ -600,21 +597,12 @@
     <t>71 01 FF 02</t>
   </si>
   <si>
-    <t>ControlDTCSettingsOFF</t>
-  </si>
-  <si>
     <t>85 02</t>
   </si>
   <si>
-    <t>CommunicationControlOFF</t>
-  </si>
-  <si>
     <t>28 03 03</t>
   </si>
   <si>
-    <t>ProgrammingSession</t>
-  </si>
-  <si>
     <t>10 02</t>
   </si>
   <si>
@@ -753,9 +741,6 @@
     <t>14</t>
   </si>
   <si>
-    <t>VersionAfter</t>
-  </si>
-  <si>
     <t>FLG</t>
   </si>
   <si>
@@ -1066,6 +1051,21 @@
   </si>
   <si>
     <t>PLINWriteALE</t>
+  </si>
+  <si>
+    <t>DisableDTCSettings</t>
+  </si>
+  <si>
+    <t>DisableNormalCommunication</t>
+  </si>
+  <si>
+    <t>StartProgrammingSession</t>
+  </si>
+  <si>
+    <t>ShowVersionBeforeFlash</t>
+  </si>
+  <si>
+    <t>ShowVersionAfterFlash</t>
   </si>
 </sst>
 </file>
@@ -2367,14 +2367,14 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.25" customHeight="1">
+    <row r="1" spans="1:5" ht="16.2" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.75" customHeight="1">
+    <row r="6" spans="1:5" ht="28.8" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>13</v>
@@ -2531,7 +2531,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="11" bestFit="1" customWidth="1"/>
@@ -2540,12 +2540,12 @@
     <col min="5" max="5" width="9" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="17.6328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="24" width="8.90625" style="11" customWidth="1"/>
-    <col min="25" max="16384" width="8.90625" style="11"/>
+    <col min="8" max="8" width="8.88671875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="24" width="8.88671875" style="11" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -2573,13 +2573,13 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
         <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2590,10 +2590,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2604,13 +2604,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2619,18 +2619,18 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2641,13 +2641,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2656,18 +2656,18 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2678,13 +2678,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C8" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2693,18 +2693,18 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G8" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C9" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2715,13 +2715,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2730,18 +2730,18 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G10" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C11" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2752,13 +2752,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C12" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2767,18 +2767,18 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G12" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C13" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2789,13 +2789,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C14" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2804,18 +2804,18 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G14" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C15" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2826,13 +2826,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B16" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C16" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2841,18 +2841,18 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G16" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C17" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2863,13 +2863,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B18" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C18" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2878,18 +2878,18 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G18" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C19" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2900,13 +2900,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B20" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C20" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2915,18 +2915,18 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G20" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C21" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2955,7 +2955,7 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="11" bestFit="1" customWidth="1"/>
@@ -2964,8 +2964,8 @@
     <col min="5" max="5" width="9" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="24" width="8.90625" style="11" customWidth="1"/>
-    <col min="25" max="16384" width="8.90625" style="11"/>
+    <col min="8" max="24" width="8.88671875" style="11" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -2993,13 +2993,13 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
         <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3013,10 +3013,10 @@
     <row r="3" spans="1:7">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3029,13 +3029,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3044,19 +3044,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3065,19 +3065,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3090,34 +3090,34 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G7" t="s">
         <v>326</v>
-      </c>
-      <c r="C7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3126,19 +3126,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C9" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3151,13 +3151,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3166,19 +3166,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G10" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3187,19 +3187,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G11" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C12" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3212,13 +3212,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B13" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C13" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3227,19 +3227,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G13" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C14" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3248,19 +3248,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G14" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C15" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3273,13 +3273,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C16" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3288,19 +3288,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C17" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3309,19 +3309,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G17" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C18" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3334,13 +3334,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B19" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C19" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3349,19 +3349,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G19" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C20" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3370,19 +3370,19 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G20" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C21" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3395,13 +3395,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B22" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C22" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3410,19 +3410,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G22" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C23" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3431,19 +3431,19 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G23" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C24" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3474,25 +3474,25 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.08984375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.6328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="33" width="8.90625" style="11" customWidth="1"/>
-    <col min="34" max="16384" width="8.90625" style="11"/>
+    <col min="7" max="7" width="8.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="33" width="8.88671875" style="11" customWidth="1"/>
+    <col min="34" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1">
@@ -3625,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="P5" t="s">
         <v>44</v>
@@ -3648,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4089,7 +4089,7 @@
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19" style="11" customWidth="1"/>
     <col min="2" max="2" width="24" style="11" bestFit="1" customWidth="1"/>
@@ -4107,8 +4107,8 @@
     <col min="14" max="14" width="5" style="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" style="10" customWidth="1"/>
     <col min="16" max="16" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="29" width="8.90625" style="11" customWidth="1"/>
-    <col min="30" max="16384" width="8.90625" style="11"/>
+    <col min="17" max="29" width="8.88671875" style="11" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
@@ -4706,7 +4706,7 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="10" bestFit="1" customWidth="1"/>
@@ -5251,7 +5251,7 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="10" bestFit="1" customWidth="1"/>
@@ -5729,29 +5729,29 @@
   </sheetPr>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="46.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="30" width="8.90625" style="10" customWidth="1"/>
-    <col min="31" max="16384" width="8.90625" style="10"/>
+    <col min="15" max="15" width="8.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="30" width="8.88671875" style="10" customWidth="1"/>
+    <col min="31" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
@@ -6170,7 +6170,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="B19" t="s">
-        <v>182</v>
+        <v>343</v>
       </c>
       <c r="C19" t="s">
         <v>114</v>
@@ -6208,7 +6208,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="B20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" t="s">
         <v>114</v>
@@ -6229,12 +6229,12 @@
         <v>117</v>
       </c>
       <c r="L20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s">
         <v>114</v>
@@ -6252,18 +6252,18 @@
         <v>181</v>
       </c>
       <c r="K21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s">
         <v>186</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>187</v>
-      </c>
-      <c r="M21" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
-        <v>189</v>
+        <v>340</v>
       </c>
       <c r="C22" t="s">
         <v>114</v>
@@ -6284,12 +6284,12 @@
         <v>117</v>
       </c>
       <c r="L22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="C23" t="s">
         <v>114</v>
@@ -6310,12 +6310,12 @@
         <v>122</v>
       </c>
       <c r="L23" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="B24" t="s">
-        <v>193</v>
+        <v>342</v>
       </c>
       <c r="C24" t="s">
         <v>114</v>
@@ -6336,12 +6336,12 @@
         <v>117</v>
       </c>
       <c r="L24" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="B25" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C25" t="s">
         <v>114</v>
@@ -6353,7 +6353,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I25" t="s">
         <v>115</v>
@@ -6365,18 +6365,18 @@
         <v>117</v>
       </c>
       <c r="L25" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N25" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C26" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -6385,15 +6385,15 @@
         <v>2</v>
       </c>
       <c r="L26" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="N26" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="B27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s">
         <v>114</v>
@@ -6411,21 +6411,21 @@
         <v>181</v>
       </c>
       <c r="K27" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B28" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C28" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G28" t="s">
         <v>121</v>
@@ -6446,21 +6446,21 @@
         <v>181</v>
       </c>
       <c r="K28" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="N28" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="B29" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C29" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -6475,18 +6475,18 @@
         <v>181</v>
       </c>
       <c r="K29" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s">
         <v>172</v>
       </c>
       <c r="M29" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="B30" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C30" t="s">
         <v>114</v>
@@ -6504,18 +6504,18 @@
         <v>181</v>
       </c>
       <c r="K30" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L30" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="B31" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C31" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -6530,21 +6530,21 @@
         <v>181</v>
       </c>
       <c r="K31" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L31" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M31" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="B32" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -6559,21 +6559,21 @@
         <v>181</v>
       </c>
       <c r="K32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B33" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C33" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -6588,21 +6588,21 @@
         <v>181</v>
       </c>
       <c r="K33" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L33" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M33" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="B34" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C34" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -6611,7 +6611,7 @@
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G34" t="s">
         <v>121</v>
@@ -6623,21 +6623,21 @@
         <v>181</v>
       </c>
       <c r="K34" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L34" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N34" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="B35" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C35" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -6652,18 +6652,18 @@
         <v>181</v>
       </c>
       <c r="K35" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L35" t="s">
         <v>159</v>
       </c>
       <c r="M35" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="B36" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C36" t="s">
         <v>114</v>
@@ -6681,18 +6681,18 @@
         <v>181</v>
       </c>
       <c r="K36" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L36" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="B37" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -6707,21 +6707,21 @@
         <v>181</v>
       </c>
       <c r="K37" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L37" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M37" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B38" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C38" t="s">
         <v>114</v>
@@ -6739,10 +6739,10 @@
         <v>181</v>
       </c>
       <c r="K38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L38" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -6773,7 +6773,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="B40" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C40" t="s">
         <v>114</v>
@@ -6794,12 +6794,12 @@
         <v>117</v>
       </c>
       <c r="L40" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="B41" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C41" t="s">
         <v>114</v>
@@ -6817,15 +6817,15 @@
         <v>181</v>
       </c>
       <c r="K41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L41" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="B42" t="s">
-        <v>240</v>
+        <v>344</v>
       </c>
       <c r="C42" t="s">
         <v>114</v>
@@ -6873,11 +6873,11 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="10" bestFit="1" customWidth="1"/>
@@ -6893,8 +6893,8 @@
     <col min="13" max="13" width="13" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" style="10" customWidth="1"/>
-    <col min="17" max="30" width="8.90625" style="10" customWidth="1"/>
-    <col min="31" max="16384" width="8.90625" style="10"/>
+    <col min="17" max="30" width="8.88671875" style="10" customWidth="1"/>
+    <col min="31" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
@@ -6987,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L3" t="s">
         <v>131</v>
@@ -7033,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L5" t="s">
         <v>135</v>
@@ -7056,7 +7056,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="N6" t="s">
         <v>156</v>
@@ -7116,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="N9" t="s">
         <v>167</v>
@@ -7266,8 +7266,8 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="B17" t="s">
-        <v>182</v>
+      <c r="B17" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="C17" t="s">
         <v>114</v>
@@ -7304,8 +7304,8 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="B18" t="s">
-        <v>183</v>
+      <c r="B18" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="C18" t="s">
         <v>114</v>
@@ -7326,12 +7326,12 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="B19" s="10" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="B19" t="s">
-        <v>185</v>
       </c>
       <c r="C19" t="s">
         <v>114</v>
@@ -7349,18 +7349,18 @@
         <v>181</v>
       </c>
       <c r="K19" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" t="s">
         <v>186</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>187</v>
       </c>
-      <c r="M19" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="B20" t="s">
-        <v>189</v>
+      <c r="B20" s="10" t="s">
+        <v>340</v>
       </c>
       <c r="C20" t="s">
         <v>114</v>
@@ -7381,12 +7381,12 @@
         <v>117</v>
       </c>
       <c r="L20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="B21" t="s">
-        <v>191</v>
+      <c r="B21" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="C21" t="s">
         <v>114</v>
@@ -7407,12 +7407,12 @@
         <v>122</v>
       </c>
       <c r="L21" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="B22" t="s">
-        <v>193</v>
+      <c r="B22" s="10" t="s">
+        <v>342</v>
       </c>
       <c r="C22" t="s">
         <v>114</v>
@@ -7433,12 +7433,12 @@
         <v>117</v>
       </c>
       <c r="L22" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C23" t="s">
         <v>114</v>
@@ -7450,7 +7450,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I23" t="s">
         <v>115</v>
@@ -7462,18 +7462,18 @@
         <v>117</v>
       </c>
       <c r="L23" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N23" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="B24" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C24" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -7482,15 +7482,15 @@
         <v>2</v>
       </c>
       <c r="L24" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="N24" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="B25" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C25" t="s">
         <v>114</v>
@@ -7508,21 +7508,21 @@
         <v>181</v>
       </c>
       <c r="K25" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L25" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B26" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -7531,7 +7531,7 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G26" t="s">
         <v>121</v>
@@ -7543,21 +7543,21 @@
         <v>181</v>
       </c>
       <c r="K26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="N26" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="B27" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C27" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -7572,18 +7572,18 @@
         <v>181</v>
       </c>
       <c r="K27" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s">
         <v>172</v>
       </c>
       <c r="M27" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="B28" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C28" t="s">
         <v>114</v>
@@ -7601,18 +7601,18 @@
         <v>181</v>
       </c>
       <c r="K28" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="B29" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -7627,21 +7627,21 @@
         <v>181</v>
       </c>
       <c r="K29" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M29" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="B30" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C30" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -7656,21 +7656,21 @@
         <v>181</v>
       </c>
       <c r="K30" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L30" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B31" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C31" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -7685,21 +7685,21 @@
         <v>181</v>
       </c>
       <c r="K31" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L31" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M31" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="B32" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G32" t="s">
         <v>121</v>
@@ -7720,21 +7720,21 @@
         <v>181</v>
       </c>
       <c r="K32" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L32" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N32" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="B33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -7749,18 +7749,18 @@
         <v>181</v>
       </c>
       <c r="K33" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L33" t="s">
         <v>159</v>
       </c>
       <c r="M33" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="B34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C34" t="s">
         <v>114</v>
@@ -7778,18 +7778,18 @@
         <v>181</v>
       </c>
       <c r="K34" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L34" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="B35" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C35" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -7804,21 +7804,21 @@
         <v>181</v>
       </c>
       <c r="K35" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M35" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B36" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C36" t="s">
         <v>114</v>
@@ -7836,10 +7836,10 @@
         <v>181</v>
       </c>
       <c r="K36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L36" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -7870,7 +7870,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="B38" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C38" t="s">
         <v>114</v>
@@ -7891,12 +7891,12 @@
         <v>117</v>
       </c>
       <c r="L38" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="B39" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C39" t="s">
         <v>114</v>
@@ -7914,15 +7914,15 @@
         <v>181</v>
       </c>
       <c r="K39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L39" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="B40" t="s">
-        <v>240</v>
+      <c r="B40" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="C40" t="s">
         <v>114</v>
@@ -7973,11 +7973,11 @@
   </sheetPr>
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="10" bestFit="1" customWidth="1"/>
@@ -7994,8 +7994,8 @@
     <col min="14" max="14" width="14" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" style="10" customWidth="1"/>
     <col min="16" max="16" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="30" width="8.90625" style="10" customWidth="1"/>
-    <col min="31" max="16384" width="8.90625" style="10"/>
+    <col min="17" max="30" width="8.88671875" style="10" customWidth="1"/>
+    <col min="31" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
@@ -8134,7 +8134,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L5" t="s">
         <v>129</v>
@@ -8180,7 +8180,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L7" t="s">
         <v>131</v>
@@ -8203,7 +8203,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L8" t="s">
         <v>135</v>
@@ -8226,7 +8226,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="N9" t="s">
         <v>156</v>
@@ -8286,7 +8286,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="N12" t="s">
         <v>167</v>
@@ -8436,8 +8436,8 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="B20" t="s">
-        <v>182</v>
+      <c r="B20" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="C20" t="s">
         <v>114</v>
@@ -8474,8 +8474,8 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="B21" t="s">
-        <v>183</v>
+      <c r="B21" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="C21" t="s">
         <v>114</v>
@@ -8496,12 +8496,12 @@
         <v>117</v>
       </c>
       <c r="L21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="B22" s="10" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="B22" t="s">
-        <v>185</v>
       </c>
       <c r="C22" t="s">
         <v>114</v>
@@ -8519,18 +8519,18 @@
         <v>181</v>
       </c>
       <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
         <v>186</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>187</v>
       </c>
-      <c r="M22" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="B23" t="s">
-        <v>189</v>
+      <c r="B23" s="10" t="s">
+        <v>340</v>
       </c>
       <c r="C23" t="s">
         <v>114</v>
@@ -8551,12 +8551,12 @@
         <v>117</v>
       </c>
       <c r="L23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="B24" t="s">
-        <v>191</v>
+      <c r="B24" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="C24" t="s">
         <v>114</v>
@@ -8577,12 +8577,12 @@
         <v>122</v>
       </c>
       <c r="L24" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="B25" t="s">
-        <v>193</v>
+      <c r="B25" s="10" t="s">
+        <v>342</v>
       </c>
       <c r="C25" t="s">
         <v>114</v>
@@ -8603,12 +8603,12 @@
         <v>117</v>
       </c>
       <c r="L25" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C26" t="s">
         <v>114</v>
@@ -8620,7 +8620,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I26" t="s">
         <v>115</v>
@@ -8632,18 +8632,18 @@
         <v>117</v>
       </c>
       <c r="L26" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N26" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="B27" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -8652,15 +8652,15 @@
         <v>2</v>
       </c>
       <c r="L27" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="N27" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="B28" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C28" t="s">
         <v>114</v>
@@ -8678,21 +8678,21 @@
         <v>181</v>
       </c>
       <c r="K28" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L28" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G29" t="s">
         <v>121</v>
@@ -8713,21 +8713,21 @@
         <v>181</v>
       </c>
       <c r="K29" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L29" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="N29" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="B30" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C30" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -8742,7 +8742,7 @@
         <v>181</v>
       </c>
       <c r="K30" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L30" t="s">
         <v>172</v>
@@ -8750,7 +8750,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="B31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C31" t="s">
         <v>114</v>
@@ -8768,18 +8768,18 @@
         <v>181</v>
       </c>
       <c r="K31" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="B32" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -8794,21 +8794,21 @@
         <v>181</v>
       </c>
       <c r="K32" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L32" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M32" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="B33" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C33" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -8823,21 +8823,21 @@
         <v>181</v>
       </c>
       <c r="K33" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L33" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B34" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C34" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -8852,21 +8852,21 @@
         <v>181</v>
       </c>
       <c r="K34" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L34" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M34" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="B35" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -8875,7 +8875,7 @@
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G35" t="s">
         <v>121</v>
@@ -8887,21 +8887,21 @@
         <v>181</v>
       </c>
       <c r="K35" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L35" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N35" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="B36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -8916,7 +8916,7 @@
         <v>181</v>
       </c>
       <c r="K36" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L36" t="s">
         <v>159</v>
@@ -8924,7 +8924,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="B37" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C37" t="s">
         <v>114</v>
@@ -8942,18 +8942,18 @@
         <v>181</v>
       </c>
       <c r="K37" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L37" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="B38" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -8968,21 +8968,21 @@
         <v>181</v>
       </c>
       <c r="K38" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L38" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M38" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B39" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C39" t="s">
         <v>114</v>
@@ -9000,10 +9000,10 @@
         <v>181</v>
       </c>
       <c r="K39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L39" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -9034,7 +9034,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="B41" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C41" t="s">
         <v>114</v>
@@ -9055,12 +9055,12 @@
         <v>117</v>
       </c>
       <c r="L41" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="B42" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C42" t="s">
         <v>114</v>
@@ -9078,15 +9078,15 @@
         <v>181</v>
       </c>
       <c r="K42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L42" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:16">
-      <c r="B43" t="s">
-        <v>240</v>
+      <c r="B43" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="C43" t="s">
         <v>114</v>
@@ -9134,11 +9134,11 @@
   </sheetPr>
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="11" bestFit="1" customWidth="1"/>
@@ -9157,8 +9157,8 @@
     <col min="15" max="15" width="14" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="10" customWidth="1"/>
     <col min="17" max="17" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="34" width="8.90625" style="11" customWidth="1"/>
-    <col min="35" max="16384" width="8.90625" style="11"/>
+    <col min="18" max="34" width="8.88671875" style="11" customWidth="1"/>
+    <col min="35" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1">
@@ -9202,7 +9202,7 @@
         <v>108</v>
       </c>
       <c r="N1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="O1" t="s">
         <v>144</v>
@@ -9300,7 +9300,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L5" t="s">
         <v>129</v>
@@ -9346,7 +9346,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L7" t="s">
         <v>131</v>
@@ -9369,7 +9369,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L8" t="s">
         <v>135</v>
@@ -9380,7 +9380,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B9" t="s">
         <v>111</v>
@@ -9423,7 +9423,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="B11" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C11" t="s">
         <v>114</v>
@@ -9435,7 +9435,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G11" t="s">
         <v>121</v>
@@ -9453,7 +9453,7 @@
         <v>123</v>
       </c>
       <c r="N11" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="Q11" t="s">
         <v>44</v>
@@ -9461,7 +9461,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="B12" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C12" t="s">
         <v>114</v>
@@ -9473,7 +9473,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G12" t="s">
         <v>121</v>
@@ -9488,10 +9488,10 @@
         <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="N12" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q12" t="s">
         <v>44</v>
@@ -9499,10 +9499,10 @@
     </row>
     <row r="13" spans="1:17">
       <c r="B13" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C13" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -9511,7 +9511,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G13" t="s">
         <v>121</v>
@@ -9526,10 +9526,10 @@
         <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="N13" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Q13" t="s">
         <v>44</v>
@@ -9537,10 +9537,10 @@
     </row>
     <row r="14" spans="1:17">
       <c r="B14" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C14" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -9551,10 +9551,10 @@
     </row>
     <row r="15" spans="1:17">
       <c r="B15" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C15" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -9563,18 +9563,18 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L15" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="B16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C16" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -9583,10 +9583,10 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L16" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -9609,7 +9609,7 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="11" bestFit="1" customWidth="1"/>
@@ -9618,8 +9618,8 @@
     <col min="5" max="5" width="9" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="24" width="8.90625" style="11" customWidth="1"/>
-    <col min="25" max="16384" width="8.90625" style="11"/>
+    <col min="8" max="24" width="8.88671875" style="11" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -9647,13 +9647,13 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
         <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9664,10 +9664,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -9678,10 +9678,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -9690,18 +9690,18 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -9710,10 +9710,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="12" customFormat="1">
@@ -9721,7 +9721,7 @@
         <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9732,13 +9732,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9747,18 +9747,18 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -9767,18 +9767,18 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G8" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C9" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -9789,13 +9789,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -9804,18 +9804,18 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G10" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -9824,18 +9824,18 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G11" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C12" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -9846,13 +9846,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B13" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C13" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -9861,18 +9861,18 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G13" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C14" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -9881,18 +9881,18 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G14" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C15" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -9903,13 +9903,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C16" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -9918,18 +9918,18 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G16" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C17" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -9938,18 +9938,18 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G17" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C18" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -9960,13 +9960,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B19" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C19" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -9975,18 +9975,18 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G19" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C20" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -9995,18 +9995,18 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G20" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C21" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -10017,13 +10017,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B22" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C22" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -10032,18 +10032,18 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G22" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="B23" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C23" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -10052,18 +10052,18 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G23" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="B24" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C24" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -10074,13 +10074,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B25" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C25" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -10089,18 +10089,18 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G25" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="B26" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C26" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -10109,18 +10109,18 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G26" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="B27" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C27" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -10131,13 +10131,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B28" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C28" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -10146,18 +10146,18 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G28" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="B29" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C29" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -10166,18 +10166,18 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G29" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="B30" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C30" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -10188,13 +10188,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B31" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C31" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -10203,18 +10203,18 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G31" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="B32" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C32" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -10223,18 +10223,18 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G32" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C33" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D33">
         <v>0</v>

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\AutoPlasticOmnium\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E2E250-6148-407A-A2E0-165D5933B975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047029BB-AE76-4354-B277-7E4F3EBFDBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="351">
   <si>
     <t>SuiteName</t>
   </si>
@@ -1066,13 +1066,31 @@
   </si>
   <si>
     <t>ShowVersionAfterFlash</t>
+  </si>
+  <si>
+    <t>IfElse</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>elif</t>
+  </si>
+  <si>
+    <t>&amp;if</t>
+  </si>
+  <si>
+    <t>||if</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1273,6 +1291,12 @@
       <color theme="1"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1751,7 +1775,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="24" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1785,6 +1809,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
@@ -1963,9 +1988,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="M4" displayName="M4_" ref="A1:P42">
-  <autoFilter ref="A1:P42" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="M4" displayName="M4_" ref="A1:Q42">
+  <autoFilter ref="A1:Q42" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="SuiteName"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="StepName"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Keyword"/>
@@ -1973,6 +1998,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Timeout"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="SubStr1"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="SubStr2"/>
+    <tableColumn id="18" xr3:uid="{81FD3D3F-B221-4A71-A13F-61537B5EA5F9}" name="IfElse"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Model"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="ID"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="NAD"/>
@@ -5727,10 +5753,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -5741,7 +5767,7 @@
     <col min="4" max="4" width="8.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="10" customWidth="1"/>
     <col min="9" max="9" width="5.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.21875" style="10" bestFit="1" customWidth="1"/>
@@ -5754,7 +5780,7 @@
     <col min="31" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:17" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5776,35 +5802,38 @@
       <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="I1" t="s">
         <v>143</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>105</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>106</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>107</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>108</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>144</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>109</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="1:17" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -5820,17 +5849,17 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>148</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>116</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="1:17" ht="15" customHeight="1">
       <c r="B3" t="s">
         <v>146</v>
       </c>
@@ -5843,17 +5872,17 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>149</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>125</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="4" spans="1:17" ht="15" customHeight="1">
       <c r="B4" t="s">
         <v>146</v>
       </c>
@@ -5866,17 +5895,17 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>150</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>127</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="B5" t="s">
         <v>146</v>
       </c>
@@ -5889,17 +5918,20 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="I5" t="s">
         <v>151</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>129</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:17" ht="15" customHeight="1">
       <c r="B6" t="s">
         <v>146</v>
       </c>
@@ -5912,17 +5944,20 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="I6" t="s">
         <v>152</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>131</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" thickTop="1">
+    <row r="7" spans="1:17" ht="15" customHeight="1">
       <c r="B7" t="s">
         <v>146</v>
       </c>
@@ -5935,17 +5970,20 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="I7" t="s">
         <v>153</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>133</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="B8" t="s">
         <v>154</v>
       </c>
@@ -5958,14 +5996,17 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
+      <c r="H8" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="M8" t="s">
         <v>155</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="B9" t="s">
         <v>157</v>
       </c>
@@ -5978,14 +6019,17 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="L9" t="s">
+      <c r="H9" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="M9" t="s">
         <v>159</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="B10" t="s">
         <v>161</v>
       </c>
@@ -5998,14 +6042,17 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="L10" t="s">
+      <c r="H10" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="M10" t="s">
         <v>159</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="B11" t="s">
         <v>164</v>
       </c>
@@ -6018,14 +6065,17 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="L11" t="s">
+      <c r="H11" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="M11" t="s">
         <v>166</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="B12" t="s">
         <v>168</v>
       </c>
@@ -6038,14 +6088,14 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>169</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="B13" t="s">
         <v>171</v>
       </c>
@@ -6058,14 +6108,14 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>172</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="B14" t="s">
         <v>174</v>
       </c>
@@ -6078,14 +6128,14 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>172</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="B15" t="s">
         <v>176</v>
       </c>
@@ -6098,14 +6148,14 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>177</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="B16" t="s">
         <v>179</v>
       </c>
@@ -6118,14 +6168,14 @@
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>159</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>180</v>
       </c>
@@ -6142,7 +6192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:17">
       <c r="B18" t="s">
         <v>113</v>
       </c>
@@ -6155,20 +6205,20 @@
       <c r="E18">
         <v>2</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>115</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>181</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>117</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:17">
       <c r="B19" t="s">
         <v>343</v>
       </c>
@@ -6187,26 +6237,26 @@
       <c r="G19" t="s">
         <v>121</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>115</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>181</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>122</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>123</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>124</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:17">
       <c r="B20" t="s">
         <v>182</v>
       </c>
@@ -6219,20 +6269,20 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>115</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>181</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>117</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:17">
       <c r="B21" t="s">
         <v>184</v>
       </c>
@@ -6245,23 +6295,23 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>115</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>181</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>185</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>186</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:17">
       <c r="B22" t="s">
         <v>340</v>
       </c>
@@ -6274,20 +6324,20 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>115</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>181</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>117</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:17">
       <c r="B23" t="s">
         <v>341</v>
       </c>
@@ -6300,20 +6350,20 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>115</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>181</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>122</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:17">
       <c r="B24" t="s">
         <v>342</v>
       </c>
@@ -6326,20 +6376,20 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>115</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>181</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>117</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:17">
       <c r="B25" t="s">
         <v>191</v>
       </c>
@@ -6355,23 +6405,23 @@
       <c r="F25" t="s">
         <v>192</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>115</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>181</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>117</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>193</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:17">
       <c r="B26" t="s">
         <v>195</v>
       </c>
@@ -6384,14 +6434,14 @@
       <c r="E26">
         <v>2</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>196</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:17">
       <c r="B27" t="s">
         <v>198</v>
       </c>
@@ -6404,20 +6454,20 @@
       <c r="E27">
         <v>2</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>115</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>181</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>199</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>201</v>
       </c>
@@ -6439,23 +6489,23 @@
       <c r="G28" t="s">
         <v>121</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>115</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>181</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>205</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>206</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:17">
       <c r="B29" t="s">
         <v>208</v>
       </c>
@@ -6468,23 +6518,23 @@
       <c r="E29">
         <v>2</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>115</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>181</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>209</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>172</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:17">
       <c r="B30" t="s">
         <v>211</v>
       </c>
@@ -6497,20 +6547,20 @@
       <c r="E30">
         <v>2</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>115</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>181</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>212</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:17">
       <c r="B31" t="s">
         <v>214</v>
       </c>
@@ -6523,23 +6573,23 @@
       <c r="E31">
         <v>2</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>115</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>181</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>215</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>216</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:17">
       <c r="B32" t="s">
         <v>218</v>
       </c>
@@ -6552,20 +6602,20 @@
       <c r="E32">
         <v>2</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>115</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>181</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>219</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>221</v>
       </c>
@@ -6581,23 +6631,23 @@
       <c r="E33">
         <v>3</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>115</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>181</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>223</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>224</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:17">
       <c r="B34" t="s">
         <v>202</v>
       </c>
@@ -6616,23 +6666,23 @@
       <c r="G34" t="s">
         <v>121</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>115</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>181</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>205</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>226</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:17">
       <c r="B35" t="s">
         <v>208</v>
       </c>
@@ -6645,23 +6695,23 @@
       <c r="E35">
         <v>2</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>115</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>181</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>209</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>159</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:17">
       <c r="B36" t="s">
         <v>211</v>
       </c>
@@ -6674,20 +6724,20 @@
       <c r="E36">
         <v>2</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>115</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>181</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>212</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:17">
       <c r="B37" t="s">
         <v>214</v>
       </c>
@@ -6700,23 +6750,23 @@
       <c r="E37">
         <v>5</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>115</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>181</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>215</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>228</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>229</v>
       </c>
@@ -6732,20 +6782,20 @@
       <c r="E38">
         <v>2</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>115</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>181</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>185</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:17">
       <c r="B39" t="s">
         <v>113</v>
       </c>
@@ -6758,20 +6808,20 @@
       <c r="E39">
         <v>2</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>115</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>181</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>117</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:17">
       <c r="B40" t="s">
         <v>232</v>
       </c>
@@ -6784,20 +6834,20 @@
       <c r="E40">
         <v>2</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>115</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>181</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>117</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:17">
       <c r="B41" t="s">
         <v>234</v>
       </c>
@@ -6810,20 +6860,20 @@
       <c r="E41">
         <v>2</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>115</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>181</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>185</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:17">
       <c r="B42" t="s">
         <v>344</v>
       </c>
@@ -6842,26 +6892,28 @@
       <c r="G42" t="s">
         <v>121</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>115</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>181</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>122</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>123</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7973,7 +8025,7 @@
   </sheetPr>
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\AutoPlasticOmnium\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047029BB-AE76-4354-B277-7E4F3EBFDBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3070CF3-5AEC-4190-9386-29FCB07719D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="351">
   <si>
     <t>SuiteName</t>
   </si>
@@ -5755,8 +5755,8 @@
   </sheetPr>
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -5858,6 +5858,9 @@
       <c r="O2" t="s">
         <v>106</v>
       </c>
+      <c r="Q2" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
       <c r="B3" t="s">
@@ -5881,6 +5884,9 @@
       <c r="O3" t="s">
         <v>106</v>
       </c>
+      <c r="Q3" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1">
       <c r="B4" t="s">
@@ -5904,6 +5910,9 @@
       <c r="O4" t="s">
         <v>106</v>
       </c>
+      <c r="Q4" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="B5" t="s">
@@ -5930,6 +5939,9 @@
       <c r="O5" t="s">
         <v>106</v>
       </c>
+      <c r="Q5" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1">
       <c r="B6" t="s">
@@ -5956,6 +5968,9 @@
       <c r="O6" t="s">
         <v>106</v>
       </c>
+      <c r="Q6" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1">
       <c r="B7" t="s">
@@ -5982,6 +5997,9 @@
       <c r="O7" t="s">
         <v>106</v>
       </c>
+      <c r="Q7" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:17">
       <c r="B8" t="s">
@@ -6005,6 +6023,9 @@
       <c r="O8" t="s">
         <v>156</v>
       </c>
+      <c r="Q8" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:17">
       <c r="B9" t="s">
@@ -6028,6 +6049,9 @@
       <c r="O9" t="s">
         <v>160</v>
       </c>
+      <c r="Q9" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:17">
       <c r="B10" t="s">
@@ -6051,6 +6075,9 @@
       <c r="O10" t="s">
         <v>163</v>
       </c>
+      <c r="Q10" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:17">
       <c r="B11" t="s">
@@ -6074,6 +6101,9 @@
       <c r="O11" t="s">
         <v>167</v>
       </c>
+      <c r="Q11" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="B12" t="s">
@@ -6094,6 +6124,9 @@
       <c r="O12" t="s">
         <v>170</v>
       </c>
+      <c r="Q12" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:17">
       <c r="B13" t="s">
@@ -6114,6 +6147,9 @@
       <c r="O13" t="s">
         <v>173</v>
       </c>
+      <c r="Q13" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:17">
       <c r="B14" t="s">
@@ -6134,6 +6170,9 @@
       <c r="O14" t="s">
         <v>175</v>
       </c>
+      <c r="Q14" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:17">
       <c r="B15" t="s">
@@ -6154,6 +6193,9 @@
       <c r="O15" t="s">
         <v>178</v>
       </c>
+      <c r="Q15" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:17">
       <c r="B16" t="s">
@@ -6171,7 +6213,7 @@
       <c r="M16" t="s">
         <v>159</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -6191,6 +6233,9 @@
       <c r="E17">
         <v>2</v>
       </c>
+      <c r="Q17" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="1:17">
       <c r="B18" t="s">
@@ -6217,6 +6262,9 @@
       <c r="M18" t="s">
         <v>118</v>
       </c>
+      <c r="Q18" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="1:17">
       <c r="B19" t="s">
@@ -6252,7 +6300,7 @@
       <c r="P19" t="s">
         <v>124</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -8025,8 +8073,8 @@
   </sheetPr>
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -8125,6 +8173,9 @@
       <c r="N2" t="s">
         <v>106</v>
       </c>
+      <c r="P2" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="B3" t="s">
@@ -8148,6 +8199,9 @@
       <c r="N3" t="s">
         <v>106</v>
       </c>
+      <c r="P3" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="B4" t="s">
@@ -8171,6 +8225,9 @@
       <c r="N4" t="s">
         <v>106</v>
       </c>
+      <c r="P4" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="B5" t="s">
@@ -8194,6 +8251,9 @@
       <c r="N5" t="s">
         <v>106</v>
       </c>
+      <c r="P5" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="B6" t="s">
@@ -8217,6 +8277,9 @@
       <c r="N6" t="s">
         <v>106</v>
       </c>
+      <c r="P6" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="B7" t="s">
@@ -8240,6 +8303,9 @@
       <c r="N7" t="s">
         <v>106</v>
       </c>
+      <c r="P7" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" thickTop="1">
       <c r="B8" t="s">
@@ -8263,6 +8329,9 @@
       <c r="N8" t="s">
         <v>106</v>
       </c>
+      <c r="P8" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:16">
       <c r="B9" t="s">
@@ -8283,6 +8352,9 @@
       <c r="N9" t="s">
         <v>156</v>
       </c>
+      <c r="P9" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:16">
       <c r="B10" t="s">
@@ -8303,6 +8375,9 @@
       <c r="N10" t="s">
         <v>160</v>
       </c>
+      <c r="P10" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="B11" t="s">
@@ -8323,6 +8398,9 @@
       <c r="N11" t="s">
         <v>163</v>
       </c>
+      <c r="P11" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="B12" t="s">
@@ -8343,6 +8421,9 @@
       <c r="N12" t="s">
         <v>167</v>
       </c>
+      <c r="P12" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="B13" t="s">
@@ -8363,6 +8444,9 @@
       <c r="N13" t="s">
         <v>170</v>
       </c>
+      <c r="P13" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="B14" t="s">
@@ -8383,6 +8467,9 @@
       <c r="N14" t="s">
         <v>173</v>
       </c>
+      <c r="P14" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:16">
       <c r="B15" t="s">
@@ -8403,6 +8490,9 @@
       <c r="N15" t="s">
         <v>175</v>
       </c>
+      <c r="P15" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -8423,6 +8513,9 @@
       <c r="N16" t="s">
         <v>178</v>
       </c>
+      <c r="P16" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -8440,7 +8533,7 @@
       <c r="L17" t="s">
         <v>159</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -8460,6 +8553,9 @@
       <c r="E18">
         <v>2</v>
       </c>
+      <c r="P18" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="1:16">
       <c r="B19" t="s">
@@ -8485,6 +8581,9 @@
       </c>
       <c r="L19" t="s">
         <v>118</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:16">

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\AutoPlasticOmnium\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3070CF3-5AEC-4190-9386-29FCB07719D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29833FBB-2AA1-4BE5-927E-6F6AD41321B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="352">
   <si>
     <t>SuiteName</t>
   </si>
@@ -1084,6 +1084,9 @@
   </si>
   <si>
     <t>||if</t>
+  </si>
+  <si>
+    <t>LightOnMsg32</t>
   </si>
 </sst>
 </file>
@@ -2977,8 +2980,8 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -8073,7 +8076,7 @@
   </sheetPr>
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="P2" sqref="P2:P19"/>
     </sheetView>
   </sheetViews>
@@ -9285,8 +9288,8 @@
   </sheetPr>
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -9701,22 +9704,22 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="B15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" t="s">
-        <v>339</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="B15" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="10" t="s">
         <v>262</v>
       </c>
     </row>
@@ -9728,17 +9731,13 @@
         <v>339</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="I16" t="s">
-        <v>261</v>
-      </c>
-      <c r="L16" t="s">
-        <v>262</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16"/>
+      <c r="L16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9757,7 +9756,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\AutoPlasticOmnium\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\StevenPOL\PythonDev\AutoPlasticOmnium\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29833FBB-2AA1-4BE5-927E-6F6AD41321B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48853A8-DB95-4123-848E-8143336DB826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,20 @@
     <sheet name="M4" sheetId="5" r:id="rId5"/>
     <sheet name="M6" sheetId="6" r:id="rId6"/>
     <sheet name="SX5GEV" sheetId="7" r:id="rId7"/>
-    <sheet name="SX5GEV_EOL" sheetId="8" r:id="rId8"/>
-    <sheet name="ALE_M4" sheetId="9" r:id="rId9"/>
-    <sheet name="ALE_M6" sheetId="10" r:id="rId10"/>
-    <sheet name="ALE_SX5GEV" sheetId="11" r:id="rId11"/>
-    <sheet name="LTT1" sheetId="12" r:id="rId12"/>
+    <sheet name="UDSonCAN (2)" sheetId="14" r:id="rId8"/>
+    <sheet name="UDSonCAN" sheetId="13" r:id="rId9"/>
+    <sheet name="SX5GEV_EOL" sheetId="8" r:id="rId10"/>
+    <sheet name="ALE_M4" sheetId="9" r:id="rId11"/>
+    <sheet name="ALE_M6" sheetId="10" r:id="rId12"/>
+    <sheet name="ALE_SX5GEV" sheetId="11" r:id="rId13"/>
+    <sheet name="LTT1" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="420">
   <si>
     <t>SuiteName</t>
   </si>
@@ -1087,24 +1089,296 @@
   </si>
   <si>
     <t>LightOnMsg32</t>
+  </si>
+  <si>
+    <t>RxID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRxID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdOrParam</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOSCAN</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1939CAN</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>069A</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>06A4</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>0690</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>18DA49F9</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>18DBFFF9</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>18DAF949</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>RxID,GRxID,TxID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalibratableBaudRate</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalibratableCANID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckCANID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBaudRate</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConnectCANDevice</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>CANConnect</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>CANSingleFrame</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-Calibratable</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetTesterPresent</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetBaudRate</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECUReset</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetCANID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>CANMultiFrame</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;RxID&gt;</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;GRxID&gt;</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;TxID&gt;</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetID_Original</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetID_Calibrate</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetVars</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>cRxID,cGRxID,cTxID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisConnectCANDevice</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 0B</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;lenOfBlock&gt;</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 08</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowVersionAfter</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowVersionBerfore</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;sRxID&gt;</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;sGRxID&gt;</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;sTxID&gt;</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetCANIDIndex</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>3E 00</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 01</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 03</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_cRxID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_cGRxID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_cTxID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>2E F1 25 4&lt;RxIDIndex&gt; &lt;cRxID&gt;</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>RxIDIndex,GRxIDIndex,TxIDIndex</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>0FFF</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>0FFFFFFF</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>2E F1 25 4&lt;GRxIDIndex&gt; &lt;cGRxID&gt;</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>2E F1 25 8&lt;TxIDIndex&gt; &lt;cTxID&gt;</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;cRxID&gt;</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;cGRxID&gt;</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;cTxID&gt;</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>oRxID,oGRxID,oTxID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;oRxID&gt;</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;oGRxID&gt;</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;oTxID&gt;</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1112,7 +1386,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1120,7 +1394,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1134,7 +1408,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -1143,7 +1417,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1152,7 +1426,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1161,7 +1435,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1169,7 +1443,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1177,7 +1451,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1185,7 +1459,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1193,7 +1467,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1202,7 +1476,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1211,7 +1485,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1219,7 +1493,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1228,7 +1502,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1237,7 +1511,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1246,7 +1520,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1254,7 +1528,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1262,7 +1536,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1270,7 +1544,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1297,8 +1571,15 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1778,7 +2059,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="24" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1805,14 +2086,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
@@ -1851,21 +2135,34 @@
     <cellStyle name="Input 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Linked Cell 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Neutral 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Title 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Total 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Warning Text 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="常规 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="常规 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="常规 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="常规 4" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="常规 5" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="警告文本 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="注释 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="警告文本 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1904,6 +2201,38 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="ALE_M4" displayName="ALE_M4" ref="A1:G33">
+  <autoFilter ref="A1:G33" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="SuiteName"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="StepName"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Keyword"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Retry"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Timeout"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="ID"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="CmdOrParam"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="ALE_M6" displayName="ALE_M6" ref="A1:G21">
+  <autoFilter ref="A1:G21" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SuiteName"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="StepName"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Keyword"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Retry"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Timeout"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="ID"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="CmdOrParam"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="ALE_SX5GEV" displayName="ALE_SX5GEV" ref="A1:G24">
   <autoFilter ref="A1:G24" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="7">
@@ -1919,7 +2248,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="LTT1" displayName="LTT1_" ref="A1:P23">
   <autoFilter ref="A1:P23" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="16">
@@ -2067,6 +2396,58 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{DB00601B-8546-4E34-A717-D655F942120D}" name="SX5GEV1314" displayName="SX5GEV1314" ref="A1:Q23">
+  <autoFilter ref="A1:Q23" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{76D3F06C-A7C7-4485-B10A-F3DBC7D99E25}" name="SuiteName"/>
+    <tableColumn id="2" xr3:uid="{FFD71CF9-75F4-42AA-9BCC-52560B95C6D8}" name="StepName"/>
+    <tableColumn id="3" xr3:uid="{C494B77C-9753-4ABC-8776-86ED51F57064}" name="Keyword"/>
+    <tableColumn id="4" xr3:uid="{907F7289-45DE-44E8-A049-6E05CB9A3A5A}" name="Retry"/>
+    <tableColumn id="5" xr3:uid="{3BDD0FCE-98CA-4A32-BE3E-9AE02A1B9952}" name="Timeout"/>
+    <tableColumn id="6" xr3:uid="{ECB8F24F-5BEE-434F-9FE0-C16DBBFFAE43}" name="SubStr1"/>
+    <tableColumn id="7" xr3:uid="{100DCFDA-4D56-4F21-B9E2-1FF60202F0BB}" name="SubStr2"/>
+    <tableColumn id="8" xr3:uid="{03E7F57F-3606-40EA-B48B-952DA962FEDB}" name="Model"/>
+    <tableColumn id="9" xr3:uid="{3EA1023F-513B-4C48-8792-6A81FB14EF5E}" name="RxID"/>
+    <tableColumn id="17" xr3:uid="{6EB59848-7F08-4020-B420-1A6521F078C8}" name="GRxID" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{BB53061B-F5BE-42B2-9E79-4B82CF6F5084}" name="TxID"/>
+    <tableColumn id="11" xr3:uid="{05054148-7942-452E-8BD0-A52679635019}" name="PCI_LEN" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{EC64DBF7-CCE5-4711-BDC6-4A213EEACDA9}" name="CmdOrParam"/>
+    <tableColumn id="13" xr3:uid="{3DEF6DB2-CF47-45D1-8E2C-3B2FED81FCE2}" name="CheckStr1"/>
+    <tableColumn id="14" xr3:uid="{B0EEDB0A-40B9-4064-AA23-605F308A0675}" name="SetGlobalVar"/>
+    <tableColumn id="15" xr3:uid="{6B683761-3729-427F-BE71-998AD1BACDD6}" name="ByPF"/>
+    <tableColumn id="16" xr3:uid="{08BFA7C0-F172-45C8-9ACC-B12AEE01B22D}" name="Json"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{73D88F03-D52D-473F-94D0-743D33E8E1D1}" name="SX5GEV13" displayName="SX5GEV13" ref="A1:Q20">
+  <autoFilter ref="A1:Q20" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{C2559A15-B6C1-4C53-B557-04A1F90C0C1C}" name="SuiteName"/>
+    <tableColumn id="2" xr3:uid="{3F1C22B2-09BE-4958-9869-DF6EE39BA0D3}" name="StepName"/>
+    <tableColumn id="3" xr3:uid="{8C6BA8E2-F50E-4ADE-8DA1-3143512123C5}" name="Keyword"/>
+    <tableColumn id="4" xr3:uid="{10428378-DEA8-41A0-888E-BA736CE15F67}" name="Retry"/>
+    <tableColumn id="5" xr3:uid="{018E57B8-FC1C-476F-8293-B6720384B11C}" name="Timeout"/>
+    <tableColumn id="6" xr3:uid="{F1FF823F-568E-4F5B-9CBA-5720BC993275}" name="SubStr1"/>
+    <tableColumn id="7" xr3:uid="{D1E432C6-B803-4190-AD5E-5AA07E3BA8FE}" name="SubStr2"/>
+    <tableColumn id="8" xr3:uid="{AB51EFF0-9761-440F-A2BF-EC536B12FE76}" name="Model"/>
+    <tableColumn id="9" xr3:uid="{64901502-3174-4C8F-B654-6516C704103C}" name="RxID"/>
+    <tableColumn id="17" xr3:uid="{28B77DE1-5C9F-4EFC-AD58-5740FDBADF94}" name="GRxID" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{250F4844-DD21-4130-B58F-7BF21E9B2175}" name="TxID"/>
+    <tableColumn id="11" xr3:uid="{B5512F7A-69F2-4E94-AB75-AF026ECE1B49}" name="PCI_LEN" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{F1C7D58B-1721-4F9F-85A6-06C53B2988CD}" name="CmdOrParam"/>
+    <tableColumn id="13" xr3:uid="{C75A9AEA-57DC-4C85-AC8D-0425A90CCF28}" name="CheckStr1"/>
+    <tableColumn id="14" xr3:uid="{400AF953-118C-47B0-9767-260F0850EA36}" name="SetGlobalVar"/>
+    <tableColumn id="15" xr3:uid="{58DE2151-F047-490D-945F-B87CA11481A3}" name="ByPF"/>
+    <tableColumn id="16" xr3:uid="{67F76188-E9B2-4A3B-9699-B99FF1FBAB7D}" name="Json"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="SX5GEV_EOL" displayName="SX5GEV_EOL" ref="A1:Q16">
   <autoFilter ref="A1:Q16" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="17">
@@ -2087,38 +2468,6 @@
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" name="SetGlobalVar"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0600-000010000000}" name="ByPF"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0600-000011000000}" name="Json"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="ALE_M4" displayName="ALE_M4" ref="A1:G33">
-  <autoFilter ref="A1:G33" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="SuiteName"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="StepName"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Keyword"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Retry"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Timeout"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="ID"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="CmdOrParam"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="ALE_M6" displayName="ALE_M6" ref="A1:G21">
-  <autoFilter ref="A1:G21" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SuiteName"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="StepName"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Keyword"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Retry"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Timeout"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="ID"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="CmdOrParam"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2396,14 +2745,14 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" customHeight="1">
+    <row r="1" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2420,7 +2769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2437,7 +2786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -2452,7 +2801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -2467,7 +2816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>11</v>
@@ -2482,7 +2831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" customHeight="1">
+    <row r="6" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>13</v>
@@ -2497,7 +2846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>15</v>
@@ -2512,7 +2861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>16</v>
@@ -2527,7 +2876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -2545,11 +2894,1135 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="7" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="7" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="10" customWidth="1"/>
+    <col min="12" max="12" width="25" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" customWidth="1"/>
+    <col min="17" max="17" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="34" width="8.88671875" style="10" customWidth="1"/>
+    <col min="35" max="16384" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" t="s">
+        <v>245</v>
+      </c>
+      <c r="O1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" t="s">
+        <v>127</v>
+      </c>
+      <c r="O4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>240</v>
+      </c>
+      <c r="L5" t="s">
+        <v>129</v>
+      </c>
+      <c r="O5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>153</v>
+      </c>
+      <c r="L6" t="s">
+        <v>133</v>
+      </c>
+      <c r="O6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L7" t="s">
+        <v>131</v>
+      </c>
+      <c r="O7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>242</v>
+      </c>
+      <c r="L8" t="s">
+        <v>135</v>
+      </c>
+      <c r="O8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>181</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>252</v>
+      </c>
+      <c r="N12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>256</v>
+      </c>
+      <c r="G13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>181</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>257</v>
+      </c>
+      <c r="N13" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>261</v>
+      </c>
+      <c r="L15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" t="s">
+        <v>339</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="I16"/>
+      <c r="L16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="24" width="8.88671875" style="10" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>261</v>
+      </c>
+      <c r="G13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>261</v>
+      </c>
+      <c r="G16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>270</v>
+      </c>
+      <c r="G17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>261</v>
+      </c>
+      <c r="G19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>270</v>
+      </c>
+      <c r="G20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>261</v>
+      </c>
+      <c r="G22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C23" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>270</v>
+      </c>
+      <c r="G23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>296</v>
+      </c>
+      <c r="B25" t="s">
+        <v>297</v>
+      </c>
+      <c r="C25" t="s">
+        <v>266</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>261</v>
+      </c>
+      <c r="G25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>270</v>
+      </c>
+      <c r="G26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>277</v>
+      </c>
+      <c r="C27" t="s">
+        <v>272</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C28" t="s">
+        <v>266</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>302</v>
+      </c>
+      <c r="C29" t="s">
+        <v>269</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C30" t="s">
+        <v>272</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>303</v>
+      </c>
+      <c r="B31" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" t="s">
+        <v>266</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>261</v>
+      </c>
+      <c r="G31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" t="s">
+        <v>269</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C33" t="s">
+        <v>272</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -2560,24 +4033,24 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="24" width="8.88671875" style="11" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="24" width="8.88671875" style="10" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2600,7 +4073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>263</v>
       </c>
@@ -2617,7 +4090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>259</v>
       </c>
@@ -2631,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>304</v>
       </c>
@@ -2654,7 +4127,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>277</v>
       </c>
@@ -2668,7 +4141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>278</v>
       </c>
@@ -2691,7 +4164,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>277</v>
       </c>
@@ -2705,7 +4178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>308</v>
       </c>
@@ -2728,7 +4201,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>277</v>
       </c>
@@ -2742,7 +4215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>310</v>
       </c>
@@ -2765,7 +4238,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>277</v>
       </c>
@@ -2779,7 +4252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>312</v>
       </c>
@@ -2802,7 +4275,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>277</v>
       </c>
@@ -2816,7 +4289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>285</v>
       </c>
@@ -2839,7 +4312,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>277</v>
       </c>
@@ -2853,7 +4326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>296</v>
       </c>
@@ -2876,7 +4349,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>277</v>
       </c>
@@ -2890,7 +4363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>316</v>
       </c>
@@ -2913,7 +4386,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>277</v>
       </c>
@@ -2927,7 +4400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>318</v>
       </c>
@@ -2950,7 +4423,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>277</v>
       </c>
@@ -2965,6 +4438,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
   <tableParts count="1">
@@ -2973,7 +4447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -2984,20 +4458,20 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="24" width="8.88671875" style="11" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="18" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="24" width="8.88671875" style="10" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3020,7 +4494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>263</v>
       </c>
@@ -3039,7 +4513,7 @@
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" t="s">
         <v>259</v>
@@ -3056,7 +4530,7 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>320</v>
       </c>
@@ -3079,7 +4553,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" t="s">
         <v>323</v>
@@ -3100,7 +4574,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" t="s">
         <v>277</v>
@@ -3117,7 +4591,7 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>325</v>
       </c>
@@ -3140,7 +4614,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>323</v>
@@ -3161,7 +4635,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>277</v>
@@ -3178,7 +4652,7 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>303</v>
       </c>
@@ -3201,7 +4675,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>268</v>
@@ -3222,7 +4696,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>277</v>
@@ -3239,7 +4713,7 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>273</v>
       </c>
@@ -3262,7 +4736,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>275</v>
@@ -3283,7 +4757,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>277</v>
@@ -3300,7 +4774,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>285</v>
       </c>
@@ -3323,7 +4797,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17" t="s">
         <v>288</v>
@@ -3344,7 +4818,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" t="s">
         <v>277</v>
@@ -3361,7 +4835,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>329</v>
       </c>
@@ -3384,7 +4858,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20" t="s">
         <v>331</v>
@@ -3405,7 +4879,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21" t="s">
         <v>277</v>
@@ -3422,7 +4896,7 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>333</v>
       </c>
@@ -3445,7 +4919,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23" t="s">
         <v>335</v>
@@ -3466,7 +4940,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24" t="s">
         <v>277</v>
@@ -3484,6 +4958,7 @@
       <c r="G24"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
   <tableParts count="1">
@@ -3492,7 +4967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -3503,28 +4978,28 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="33" width="8.88671875" style="11" customWidth="1"/>
-    <col min="34" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="16.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="33" width="8.88671875" style="10" customWidth="1"/>
+    <col min="34" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3574,7 +5049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3597,7 +5072,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>36</v>
       </c>
@@ -3617,7 +5092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>40</v>
       </c>
@@ -3637,7 +5112,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>42</v>
       </c>
@@ -3660,7 +5135,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -3680,7 +5155,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>47</v>
       </c>
@@ -3700,7 +5175,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>49</v>
       </c>
@@ -3723,7 +5198,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>52</v>
       </c>
@@ -3743,7 +5218,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>54</v>
       </c>
@@ -3763,7 +5238,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>56</v>
       </c>
@@ -3786,7 +5261,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -3812,7 +5287,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>64</v>
       </c>
@@ -3835,7 +5310,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -3861,7 +5336,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>69</v>
       </c>
@@ -3884,7 +5359,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -3907,7 +5382,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -3930,7 +5405,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>77</v>
       </c>
@@ -3956,7 +5431,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -3979,7 +5454,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>83</v>
       </c>
@@ -4005,7 +5480,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -4040,7 +5515,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -4075,7 +5550,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -4099,6 +5574,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
   <tableParts count="1">
@@ -4118,29 +5594,29 @@
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="11" customWidth="1"/>
-    <col min="10" max="10" width="41" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="11" customWidth="1"/>
-    <col min="13" max="13" width="5" style="10" customWidth="1"/>
-    <col min="14" max="14" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6" style="10" customWidth="1"/>
-    <col min="16" max="16" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="29" width="8.88671875" style="11" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="19" style="10" customWidth="1"/>
+    <col min="2" max="2" width="24" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="10" customWidth="1"/>
+    <col min="6" max="6" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="10" customWidth="1"/>
+    <col min="10" max="10" width="41" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="10" customWidth="1"/>
+    <col min="13" max="13" width="5" customWidth="1"/>
+    <col min="14" max="14" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" customWidth="1"/>
+    <col min="16" max="16" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="29" width="8.88671875" style="10" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4190,7 +5666,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" thickTop="1">
+    <row r="2" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4213,7 +5689,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>36</v>
       </c>
@@ -4233,7 +5709,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>40</v>
       </c>
@@ -4253,7 +5729,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>42</v>
       </c>
@@ -4276,7 +5752,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -4296,7 +5772,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>47</v>
       </c>
@@ -4316,7 +5792,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>49</v>
       </c>
@@ -4339,7 +5815,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>52</v>
       </c>
@@ -4359,7 +5835,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>54</v>
       </c>
@@ -4379,7 +5855,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>56</v>
       </c>
@@ -4402,7 +5878,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -4428,7 +5904,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>64</v>
       </c>
@@ -4451,7 +5927,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -4477,7 +5953,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>69</v>
       </c>
@@ -4500,7 +5976,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -4523,7 +5999,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -4546,7 +6022,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>77</v>
       </c>
@@ -4572,7 +6048,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -4595,7 +6071,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>83</v>
       </c>
@@ -4621,7 +6097,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -4656,7 +6132,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -4691,7 +6167,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -4716,6 +6192,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CD3B" sheet="1"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
   <tableParts count="1">
@@ -4735,23 +6212,23 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="10" customWidth="1"/>
-    <col min="8" max="8" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4795,7 +6272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -4812,7 +6289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>113</v>
       </c>
@@ -4838,7 +6315,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>119</v>
       </c>
@@ -4876,7 +6353,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>113</v>
       </c>
@@ -4902,7 +6379,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>126</v>
       </c>
@@ -4940,7 +6417,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>113</v>
       </c>
@@ -4966,7 +6443,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>128</v>
       </c>
@@ -5004,7 +6481,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>113</v>
       </c>
@@ -5030,7 +6507,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>130</v>
       </c>
@@ -5068,7 +6545,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>113</v>
       </c>
@@ -5094,7 +6571,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>132</v>
       </c>
@@ -5132,7 +6609,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>113</v>
       </c>
@@ -5158,7 +6635,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>134</v>
       </c>
@@ -5196,7 +6673,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>113</v>
       </c>
@@ -5222,7 +6699,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>136</v>
       </c>
@@ -5261,6 +6738,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
   <tableParts count="1">
@@ -5280,24 +6758,24 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="10" customWidth="1"/>
-    <col min="4" max="4" width="7" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="10" customWidth="1"/>
-    <col min="8" max="8" width="4" style="10" customWidth="1"/>
-    <col min="9" max="9" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" style="10" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5341,7 +6819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -5358,7 +6836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>113</v>
       </c>
@@ -5384,7 +6862,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>137</v>
       </c>
@@ -5422,7 +6900,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>113</v>
       </c>
@@ -5448,7 +6926,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>138</v>
       </c>
@@ -5486,7 +6964,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>113</v>
       </c>
@@ -5512,7 +6990,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>139</v>
       </c>
@@ -5550,7 +7028,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>113</v>
       </c>
@@ -5576,7 +7054,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>140</v>
       </c>
@@ -5614,7 +7092,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>113</v>
       </c>
@@ -5640,7 +7118,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>141</v>
       </c>
@@ -5678,7 +7156,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>113</v>
       </c>
@@ -5704,7 +7182,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>142</v>
       </c>
@@ -5743,6 +7221,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
   <tableParts count="1">
@@ -5762,28 +7241,27 @@
       <selection activeCell="Q2" sqref="Q2:Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="46.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="30" width="8.88671875" style="10" customWidth="1"/>
-    <col min="31" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="30" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5805,7 +7283,7 @@
       <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" t="s">
         <v>345</v>
       </c>
       <c r="I1" t="s">
@@ -5836,7 +7314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -5861,11 +7339,11 @@
       <c r="O2" t="s">
         <v>106</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>146</v>
       </c>
@@ -5887,11 +7365,11 @@
       <c r="O3" t="s">
         <v>106</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>146</v>
       </c>
@@ -5913,11 +7391,11 @@
       <c r="O4" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>146</v>
       </c>
@@ -5930,7 +7408,7 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" t="s">
         <v>346</v>
       </c>
       <c r="I5" t="s">
@@ -5942,11 +7420,11 @@
       <c r="O5" t="s">
         <v>106</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>146</v>
       </c>
@@ -5959,7 +7437,7 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" t="s">
         <v>349</v>
       </c>
       <c r="I6" t="s">
@@ -5971,11 +7449,11 @@
       <c r="O6" t="s">
         <v>106</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>146</v>
       </c>
@@ -5988,7 +7466,7 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" t="s">
         <v>350</v>
       </c>
       <c r="I7" t="s">
@@ -6000,11 +7478,11 @@
       <c r="O7" t="s">
         <v>106</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>154</v>
       </c>
@@ -6017,7 +7495,7 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" t="s">
         <v>348</v>
       </c>
       <c r="M8" t="s">
@@ -6026,11 +7504,11 @@
       <c r="O8" t="s">
         <v>156</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>157</v>
       </c>
@@ -6043,7 +7521,7 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" t="s">
         <v>347</v>
       </c>
       <c r="M9" t="s">
@@ -6052,11 +7530,11 @@
       <c r="O9" t="s">
         <v>160</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="Q9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>161</v>
       </c>
@@ -6069,7 +7547,7 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" t="s">
         <v>347</v>
       </c>
       <c r="M10" t="s">
@@ -6078,11 +7556,11 @@
       <c r="O10" t="s">
         <v>163</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="Q10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>164</v>
       </c>
@@ -6095,7 +7573,7 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" t="s">
         <v>347</v>
       </c>
       <c r="M11" t="s">
@@ -6104,11 +7582,11 @@
       <c r="O11" t="s">
         <v>167</v>
       </c>
-      <c r="Q11" s="10" t="s">
+      <c r="Q11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>168</v>
       </c>
@@ -6127,11 +7605,11 @@
       <c r="O12" t="s">
         <v>170</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>171</v>
       </c>
@@ -6150,11 +7628,11 @@
       <c r="O13" t="s">
         <v>173</v>
       </c>
-      <c r="Q13" s="10" t="s">
+      <c r="Q13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>174</v>
       </c>
@@ -6173,11 +7651,11 @@
       <c r="O14" t="s">
         <v>175</v>
       </c>
-      <c r="Q14" s="10" t="s">
+      <c r="Q14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>176</v>
       </c>
@@ -6196,11 +7674,11 @@
       <c r="O15" t="s">
         <v>178</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="Q15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>179</v>
       </c>
@@ -6216,11 +7694,11 @@
       <c r="M16" t="s">
         <v>159</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="Q16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>180</v>
       </c>
@@ -6236,11 +7714,11 @@
       <c r="E17">
         <v>2</v>
       </c>
-      <c r="Q17" s="10" t="s">
+      <c r="Q17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>113</v>
       </c>
@@ -6265,11 +7743,11 @@
       <c r="M18" t="s">
         <v>118</v>
       </c>
-      <c r="Q18" s="10" t="s">
+      <c r="Q18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>343</v>
       </c>
@@ -6303,11 +7781,11 @@
       <c r="P19" t="s">
         <v>124</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="Q19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>182</v>
       </c>
@@ -6333,7 +7811,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>184</v>
       </c>
@@ -6362,7 +7840,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>340</v>
       </c>
@@ -6388,7 +7866,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>341</v>
       </c>
@@ -6414,7 +7892,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>342</v>
       </c>
@@ -6440,7 +7918,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>191</v>
       </c>
@@ -6472,7 +7950,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>195</v>
       </c>
@@ -6492,7 +7970,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>198</v>
       </c>
@@ -6518,7 +7996,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>201</v>
       </c>
@@ -6556,7 +8034,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>208</v>
       </c>
@@ -6585,7 +8063,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>211</v>
       </c>
@@ -6611,7 +8089,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>214</v>
       </c>
@@ -6640,7 +8118,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>218</v>
       </c>
@@ -6666,7 +8144,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>221</v>
       </c>
@@ -6698,7 +8176,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>202</v>
       </c>
@@ -6733,7 +8211,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>208</v>
       </c>
@@ -6762,7 +8240,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>211</v>
       </c>
@@ -6788,7 +8266,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>214</v>
       </c>
@@ -6817,7 +8295,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>229</v>
       </c>
@@ -6846,7 +8324,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>113</v>
       </c>
@@ -6872,7 +8350,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>232</v>
       </c>
@@ -6898,7 +8376,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>234</v>
       </c>
@@ -6924,7 +8402,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>344</v>
       </c>
@@ -6976,31 +8454,30 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="10" customWidth="1"/>
-    <col min="8" max="8" width="7" style="10" customWidth="1"/>
-    <col min="9" max="9" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="10" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="52" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6" style="10" customWidth="1"/>
-    <col min="17" max="30" width="8.88671875" style="10" customWidth="1"/>
-    <col min="31" max="16384" width="8.88671875" style="10"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6" customWidth="1"/>
+    <col min="17" max="30" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7050,7 +8527,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -7076,7 +8553,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>146</v>
       </c>
@@ -7099,7 +8576,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="4" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>146</v>
       </c>
@@ -7122,7 +8599,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" thickTop="1">
+    <row r="5" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>146</v>
       </c>
@@ -7145,7 +8622,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>154</v>
       </c>
@@ -7165,7 +8642,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>157</v>
       </c>
@@ -7185,7 +8662,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>161</v>
       </c>
@@ -7205,7 +8682,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>164</v>
       </c>
@@ -7225,7 +8702,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>168</v>
       </c>
@@ -7245,7 +8722,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>171</v>
       </c>
@@ -7265,7 +8742,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>174</v>
       </c>
@@ -7285,7 +8762,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>176</v>
       </c>
@@ -7305,7 +8782,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>179</v>
       </c>
@@ -7325,7 +8802,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -7342,7 +8819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>113</v>
       </c>
@@ -7368,8 +8845,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
-      <c r="B17" s="10" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>343</v>
       </c>
       <c r="C17" t="s">
@@ -7406,8 +8883,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
-      <c r="B18" s="10" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>182</v>
       </c>
       <c r="C18" t="s">
@@ -7432,8 +8909,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
-      <c r="B19" s="10" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>184</v>
       </c>
       <c r="C19" t="s">
@@ -7461,8 +8938,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="B20" s="10" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>340</v>
       </c>
       <c r="C20" t="s">
@@ -7487,8 +8964,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="B21" s="10" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>341</v>
       </c>
       <c r="C21" t="s">
@@ -7513,8 +8990,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="B22" s="10" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>342</v>
       </c>
       <c r="C22" t="s">
@@ -7539,7 +9016,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>191</v>
       </c>
@@ -7571,7 +9048,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>195</v>
       </c>
@@ -7591,7 +9068,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>198</v>
       </c>
@@ -7617,7 +9094,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>201</v>
       </c>
@@ -7655,7 +9132,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>208</v>
       </c>
@@ -7684,7 +9161,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>211</v>
       </c>
@@ -7710,7 +9187,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>214</v>
       </c>
@@ -7739,7 +9216,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>218</v>
       </c>
@@ -7765,7 +9242,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>221</v>
       </c>
@@ -7797,7 +9274,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>202</v>
       </c>
@@ -7832,7 +9309,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>208</v>
       </c>
@@ -7861,7 +9338,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>211</v>
       </c>
@@ -7887,7 +9364,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>214</v>
       </c>
@@ -7916,7 +9393,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>229</v>
       </c>
@@ -7945,7 +9422,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>113</v>
       </c>
@@ -7971,7 +9448,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>232</v>
       </c>
@@ -7997,7 +9474,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>234</v>
       </c>
@@ -8023,8 +9500,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
-      <c r="B40" s="10" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>344</v>
       </c>
       <c r="C40" t="s">
@@ -8062,6 +9539,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -8076,32 +9554,31 @@
   </sheetPr>
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P19"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40:L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="10" customWidth="1"/>
-    <col min="8" max="8" width="7" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="10" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="52" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6" style="10" customWidth="1"/>
-    <col min="16" max="16" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="30" width="8.88671875" style="10" customWidth="1"/>
-    <col min="31" max="16384" width="8.88671875" style="10"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="30" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8136,7 +9613,7 @@
         <v>107</v>
       </c>
       <c r="L1" t="s">
-        <v>24</v>
+        <v>355</v>
       </c>
       <c r="M1" t="s">
         <v>108</v>
@@ -8151,7 +9628,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -8176,11 +9653,11 @@
       <c r="N2" t="s">
         <v>106</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>146</v>
       </c>
@@ -8202,11 +9679,11 @@
       <c r="N3" t="s">
         <v>106</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="4" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>146</v>
       </c>
@@ -8228,11 +9705,11 @@
       <c r="N4" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>146</v>
       </c>
@@ -8254,11 +9731,11 @@
       <c r="N5" t="s">
         <v>106</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>146</v>
       </c>
@@ -8280,11 +9757,11 @@
       <c r="N6" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>146</v>
       </c>
@@ -8306,11 +9783,11 @@
       <c r="N7" t="s">
         <v>106</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" thickTop="1">
+    <row r="8" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>146</v>
       </c>
@@ -8332,11 +9809,11 @@
       <c r="N8" t="s">
         <v>106</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>154</v>
       </c>
@@ -8355,11 +9832,11 @@
       <c r="N9" t="s">
         <v>156</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>157</v>
       </c>
@@ -8378,11 +9855,11 @@
       <c r="N10" t="s">
         <v>160</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>161</v>
       </c>
@@ -8401,11 +9878,11 @@
       <c r="N11" t="s">
         <v>163</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="P11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>164</v>
       </c>
@@ -8424,11 +9901,11 @@
       <c r="N12" t="s">
         <v>167</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="P12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>168</v>
       </c>
@@ -8447,11 +9924,11 @@
       <c r="N13" t="s">
         <v>170</v>
       </c>
-      <c r="P13" s="10" t="s">
+      <c r="P13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>171</v>
       </c>
@@ -8470,11 +9947,11 @@
       <c r="N14" t="s">
         <v>173</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="P14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>174</v>
       </c>
@@ -8493,11 +9970,11 @@
       <c r="N15" t="s">
         <v>175</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="P15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>176</v>
       </c>
@@ -8516,11 +9993,11 @@
       <c r="N16" t="s">
         <v>178</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="P16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>179</v>
       </c>
@@ -8536,11 +10013,11 @@
       <c r="L17" t="s">
         <v>159</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="P17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>180</v>
       </c>
@@ -8556,11 +10033,11 @@
       <c r="E18">
         <v>2</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="P18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>113</v>
       </c>
@@ -8585,12 +10062,12 @@
       <c r="L19" t="s">
         <v>118</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="B20" s="10" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>343</v>
       </c>
       <c r="C20" t="s">
@@ -8627,8 +10104,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="B21" s="10" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>182</v>
       </c>
       <c r="C21" t="s">
@@ -8653,8 +10130,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="B22" s="10" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>184</v>
       </c>
       <c r="C22" t="s">
@@ -8682,8 +10159,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="B23" s="10" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>340</v>
       </c>
       <c r="C23" t="s">
@@ -8708,8 +10185,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="B24" s="10" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>341</v>
       </c>
       <c r="C24" t="s">
@@ -8734,8 +10211,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="B25" s="10" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>342</v>
       </c>
       <c r="C25" t="s">
@@ -8760,7 +10237,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>191</v>
       </c>
@@ -8792,7 +10269,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>195</v>
       </c>
@@ -8812,7 +10289,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>198</v>
       </c>
@@ -8838,7 +10315,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -8876,7 +10353,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>208</v>
       </c>
@@ -8902,7 +10379,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>211</v>
       </c>
@@ -8928,7 +10405,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>214</v>
       </c>
@@ -8957,7 +10434,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>218</v>
       </c>
@@ -8983,7 +10460,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>221</v>
       </c>
@@ -9015,7 +10492,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>202</v>
       </c>
@@ -9050,7 +10527,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>208</v>
       </c>
@@ -9076,7 +10553,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>211</v>
       </c>
@@ -9102,7 +10579,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>214</v>
       </c>
@@ -9131,7 +10608,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>229</v>
       </c>
@@ -9160,7 +10637,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>113</v>
       </c>
@@ -9186,7 +10663,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>232</v>
       </c>
@@ -9212,7 +10689,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>234</v>
       </c>
@@ -9238,8 +10715,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
-      <c r="B43" s="10" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>344</v>
       </c>
       <c r="C43" t="s">
@@ -9274,6 +10751,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -9282,40 +10760,39 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFFB190-8909-46AA-9BFC-E4B7E4C1095D}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="10" customWidth="1"/>
-    <col min="4" max="4" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="10" customWidth="1"/>
-    <col min="8" max="8" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="11" customWidth="1"/>
-    <col min="12" max="12" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" style="10" customWidth="1"/>
-    <col min="17" max="17" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="34" width="8.88671875" style="11" customWidth="1"/>
-    <col min="35" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="13"/>
+    <col min="13" max="13" width="57.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="32" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9341,22 +10818,22 @@
         <v>143</v>
       </c>
       <c r="I1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" t="s">
-        <v>106</v>
+        <v>352</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>354</v>
       </c>
       <c r="K1" t="s">
+        <v>353</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
       <c r="M1" t="s">
+        <v>355</v>
+      </c>
+      <c r="N1" t="s">
         <v>108</v>
-      </c>
-      <c r="N1" t="s">
-        <v>245</v>
       </c>
       <c r="O1" t="s">
         <v>144</v>
@@ -9368,15 +10845,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>381</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>383</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9385,21 +10862,31 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
-      </c>
-      <c r="L2" t="s">
-        <v>116</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="I2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="K2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N2"/>
       <c r="O2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1">
+        <v>364</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>146</v>
+        <v>382</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>383</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -9408,21 +10895,19 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L3" t="s">
-        <v>125</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N3"/>
       <c r="O3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>146</v>
+        <v>381</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>383</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -9431,21 +10916,31 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" t="s">
-        <v>127</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="I4" t="s">
+        <v>361</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="K4" t="s">
+        <v>363</v>
+      </c>
+      <c r="N4"/>
       <c r="O4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1">
+        <v>364</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>146</v>
+        <v>382</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>383</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -9454,325 +10949,577 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>240</v>
-      </c>
-      <c r="L5" t="s">
-        <v>129</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N5"/>
       <c r="O5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>372</v>
+      </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>369</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>370</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>153</v>
-      </c>
-      <c r="L6" t="s">
-        <v>133</v>
-      </c>
-      <c r="O6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6"/>
+      <c r="Q6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>146</v>
+        <v>393</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L7" t="s">
-        <v>131</v>
-      </c>
-      <c r="O7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" thickTop="1">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>378</v>
+      </c>
+      <c r="J7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="M7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7"/>
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>242</v>
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>378</v>
+      </c>
+      <c r="J8" t="s">
+        <v>379</v>
+      </c>
+      <c r="K8" t="s">
+        <v>380</v>
       </c>
       <c r="L8" t="s">
-        <v>135</v>
-      </c>
-      <c r="O8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>387</v>
+      </c>
+      <c r="M8" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8"/>
+      <c r="Q8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>365</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>373</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>371</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>378</v>
+      </c>
+      <c r="J9" t="s">
+        <v>379</v>
+      </c>
+      <c r="K9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M9" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9"/>
+      <c r="P9" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>378</v>
+      </c>
+      <c r="J10" t="s">
+        <v>379</v>
+      </c>
+      <c r="K10" t="s">
+        <v>380</v>
+      </c>
+      <c r="L10" t="s">
+        <v>387</v>
+      </c>
+      <c r="M10" t="s">
+        <v>183</v>
+      </c>
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>378</v>
+      </c>
+      <c r="J11" t="s">
+        <v>379</v>
+      </c>
+      <c r="K11" t="s">
+        <v>380</v>
+      </c>
+      <c r="L11" t="s">
+        <v>386</v>
+      </c>
+      <c r="M11" t="s">
+        <v>189</v>
+      </c>
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>378</v>
+      </c>
+      <c r="J12" t="s">
+        <v>379</v>
+      </c>
+      <c r="K12" t="s">
+        <v>380</v>
+      </c>
+      <c r="L12" t="s">
+        <v>387</v>
+      </c>
+      <c r="M12" t="s">
+        <v>190</v>
+      </c>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C13" t="s">
+        <v>371</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>378</v>
+      </c>
+      <c r="J13" t="s">
+        <v>379</v>
+      </c>
+      <c r="K13" t="s">
+        <v>380</v>
+      </c>
+      <c r="L13" t="s">
+        <v>388</v>
+      </c>
+      <c r="M13" t="s">
+        <v>206</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" t="s">
+        <v>371</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="B10" t="s">
+      <c r="I14" t="s">
+        <v>378</v>
+      </c>
+      <c r="J14" t="s">
+        <v>379</v>
+      </c>
+      <c r="K14" t="s">
+        <v>380</v>
+      </c>
+      <c r="L14" t="s">
+        <v>389</v>
+      </c>
+      <c r="M14" t="s">
+        <v>172</v>
+      </c>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C15" t="s">
+        <v>377</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>378</v>
+      </c>
+      <c r="J15" t="s">
+        <v>379</v>
+      </c>
+      <c r="K15" t="s">
+        <v>380</v>
+      </c>
+      <c r="L15" t="s">
+        <v>390</v>
+      </c>
+      <c r="M15" t="s">
+        <v>213</v>
+      </c>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>375</v>
+      </c>
+      <c r="C16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>378</v>
+      </c>
+      <c r="J16" t="s">
+        <v>379</v>
+      </c>
+      <c r="K16" t="s">
+        <v>380</v>
+      </c>
+      <c r="L16" t="s">
+        <v>391</v>
+      </c>
+      <c r="M16" t="s">
+        <v>216</v>
+      </c>
+      <c r="N16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17" t="s">
+        <v>385</v>
+      </c>
+      <c r="L17"/>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>369</v>
+      </c>
+      <c r="L18"/>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>113</v>
       </c>
-      <c r="C10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="C19" t="s">
+        <v>371</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>2</v>
       </c>
-      <c r="I10" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" t="s">
-        <v>181</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="I19" t="s">
+        <v>378</v>
+      </c>
+      <c r="J19" t="s">
+        <v>379</v>
+      </c>
+      <c r="K19" t="s">
+        <v>380</v>
+      </c>
+      <c r="L19" t="s">
+        <v>387</v>
+      </c>
+      <c r="M19" t="s">
+        <v>118</v>
+      </c>
+      <c r="N19"/>
+      <c r="Q19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>367</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>371</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>394</v>
+      </c>
+      <c r="J20" t="s">
+        <v>395</v>
+      </c>
+      <c r="K20" t="s">
+        <v>396</v>
+      </c>
+      <c r="L20" t="s">
         <v>117</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M20" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="B11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" t="s">
+        <v>371</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G11" t="s">
-        <v>121</v>
-      </c>
-      <c r="I11" t="s">
-        <v>115</v>
-      </c>
-      <c r="J11" t="s">
-        <v>181</v>
-      </c>
-      <c r="K11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="I21" t="s">
+        <v>394</v>
+      </c>
+      <c r="J21" t="s">
+        <v>395</v>
+      </c>
+      <c r="K21" t="s">
+        <v>396</v>
+      </c>
+      <c r="L21" t="s">
+        <v>117</v>
+      </c>
+      <c r="M21" t="s">
+        <v>233</v>
+      </c>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" t="s">
+        <v>371</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>394</v>
+      </c>
+      <c r="J22" t="s">
+        <v>395</v>
+      </c>
+      <c r="K22" t="s">
+        <v>396</v>
+      </c>
+      <c r="L22" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" t="s">
+        <v>235</v>
+      </c>
+      <c r="N22"/>
+      <c r="Q22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>392</v>
+      </c>
+      <c r="C23" t="s">
+        <v>371</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>394</v>
+      </c>
+      <c r="J23" t="s">
+        <v>395</v>
+      </c>
+      <c r="K23" t="s">
+        <v>396</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="M23" t="s">
         <v>123</v>
       </c>
-      <c r="N11" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="B12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>251</v>
-      </c>
-      <c r="G12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" t="s">
-        <v>115</v>
-      </c>
-      <c r="J12" t="s">
-        <v>181</v>
-      </c>
-      <c r="K12" t="s">
-        <v>122</v>
-      </c>
-      <c r="L12" t="s">
-        <v>252</v>
-      </c>
-      <c r="N12" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="B13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C13" t="s">
-        <v>255</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>256</v>
-      </c>
-      <c r="G13" t="s">
-        <v>121</v>
-      </c>
-      <c r="I13" t="s">
-        <v>115</v>
-      </c>
-      <c r="J13" t="s">
-        <v>181</v>
-      </c>
-      <c r="K13" t="s">
-        <v>122</v>
-      </c>
-      <c r="L13" t="s">
-        <v>257</v>
-      </c>
-      <c r="N13" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="B14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C14" t="s">
-        <v>259</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="B15" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="B16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C16" t="s">
-        <v>339</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="I16"/>
-      <c r="L16"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B62C30-A64E-48E5-B56D-84A03A9E5A42}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="24" width="8.88671875" style="11" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="13"/>
+    <col min="13" max="13" width="57.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="32" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
+    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9789,615 +11536,635 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="K1" t="s">
+        <v>353</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" t="s">
+        <v>355</v>
+      </c>
+      <c r="N1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>381</v>
       </c>
       <c r="C2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+        <v>383</v>
+      </c>
+      <c r="H2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="K2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N2"/>
+      <c r="O2" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H3" t="s">
+        <v>356</v>
+      </c>
+      <c r="I3" t="s">
+        <v>407</v>
+      </c>
+      <c r="J3" t="s">
+        <v>407</v>
+      </c>
+      <c r="K3" t="s">
+        <v>407</v>
+      </c>
+      <c r="N3"/>
+      <c r="O3" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I4" t="s">
+        <v>361</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="K4" t="s">
+        <v>363</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" t="s">
+        <v>383</v>
+      </c>
+      <c r="H5" t="s">
+        <v>357</v>
+      </c>
+      <c r="I5" t="s">
+        <v>408</v>
+      </c>
+      <c r="J5" t="s">
+        <v>408</v>
+      </c>
+      <c r="K5" t="s">
+        <v>408</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C6" t="s">
+        <v>383</v>
+      </c>
+      <c r="H6" t="s">
+        <v>356</v>
+      </c>
+      <c r="I6" s="9">
+        <v>3</v>
+      </c>
+      <c r="J6" s="14">
+        <v>4</v>
+      </c>
+      <c r="K6" s="9">
+        <v>6</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6"/>
+      <c r="O6" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H7" t="s">
+        <v>357</v>
+      </c>
+      <c r="I7" s="9">
+        <v>6</v>
+      </c>
+      <c r="J7" s="14">
+        <v>5</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7"/>
+      <c r="O7" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>261</v>
-      </c>
-      <c r="G4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>270</v>
-      </c>
-      <c r="G5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="12" customFormat="1">
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>270</v>
-      </c>
-      <c r="G8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="M8" s="9"/>
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>277</v>
+        <v>393</v>
       </c>
       <c r="C9" t="s">
-        <v>272</v>
+        <v>371</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>278</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>415</v>
+      </c>
+      <c r="J9" t="s">
+        <v>416</v>
+      </c>
+      <c r="K9" t="s">
+        <v>417</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="M9" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9"/>
+      <c r="P9" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>279</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>371</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>261</v>
-      </c>
-      <c r="G10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>415</v>
+      </c>
+      <c r="J10" t="s">
+        <v>416</v>
+      </c>
+      <c r="K10" t="s">
+        <v>417</v>
+      </c>
+      <c r="L10" t="s">
+        <v>387</v>
+      </c>
+      <c r="M10" t="s">
+        <v>399</v>
+      </c>
+      <c r="N10"/>
+      <c r="Q10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>366</v>
+      </c>
       <c r="B11" t="s">
-        <v>281</v>
+        <v>373</v>
       </c>
       <c r="C11" t="s">
-        <v>269</v>
+        <v>371</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>270</v>
-      </c>
-      <c r="G11" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>415</v>
+      </c>
+      <c r="J11" t="s">
+        <v>416</v>
+      </c>
+      <c r="K11" t="s">
+        <v>417</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="M11" t="s">
+        <v>398</v>
+      </c>
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>277</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
-        <v>272</v>
+        <v>371</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>282</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>415</v>
+      </c>
+      <c r="J12" t="s">
+        <v>416</v>
+      </c>
+      <c r="K12" t="s">
+        <v>417</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="s">
+        <v>400</v>
+      </c>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>283</v>
+        <v>401</v>
       </c>
       <c r="C13" t="s">
-        <v>266</v>
+        <v>377</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>261</v>
-      </c>
-      <c r="G13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>415</v>
+      </c>
+      <c r="J13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K13" t="s">
+        <v>417</v>
+      </c>
+      <c r="L13" t="s">
+        <v>391</v>
+      </c>
+      <c r="M13" t="s">
+        <v>404</v>
+      </c>
+      <c r="N13"/>
+      <c r="Q13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>284</v>
+        <v>402</v>
       </c>
       <c r="C14" t="s">
-        <v>269</v>
+        <v>377</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>270</v>
-      </c>
-      <c r="G14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>415</v>
+      </c>
+      <c r="J14" t="s">
+        <v>416</v>
+      </c>
+      <c r="K14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L14" t="s">
+        <v>391</v>
+      </c>
+      <c r="M14" t="s">
+        <v>409</v>
+      </c>
+      <c r="N14"/>
+      <c r="Q14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>277</v>
+        <v>403</v>
       </c>
       <c r="C15" t="s">
-        <v>272</v>
+        <v>377</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>285</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>415</v>
+      </c>
+      <c r="J15" t="s">
+        <v>416</v>
+      </c>
+      <c r="K15" t="s">
+        <v>417</v>
+      </c>
+      <c r="L15" t="s">
+        <v>391</v>
+      </c>
+      <c r="M15" t="s">
+        <v>410</v>
+      </c>
+      <c r="N15"/>
+      <c r="Q15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>286</v>
+        <v>375</v>
       </c>
       <c r="C16" t="s">
-        <v>266</v>
+        <v>371</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>261</v>
-      </c>
-      <c r="G16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>415</v>
+      </c>
+      <c r="J16" t="s">
+        <v>416</v>
+      </c>
+      <c r="K16" t="s">
+        <v>417</v>
+      </c>
+      <c r="L16" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16" t="s">
+        <v>118</v>
+      </c>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>367</v>
+      </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>269</v>
+        <v>371</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>270</v>
-      </c>
-      <c r="G17" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>411</v>
+      </c>
+      <c r="J17" t="s">
+        <v>412</v>
+      </c>
+      <c r="K17" t="s">
+        <v>413</v>
+      </c>
+      <c r="L17" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" t="s">
+        <v>118</v>
+      </c>
+      <c r="N17"/>
+      <c r="Q17" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="C18" t="s">
-        <v>272</v>
+        <v>371</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>289</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>411</v>
+      </c>
+      <c r="J18" t="s">
+        <v>412</v>
+      </c>
+      <c r="K18" t="s">
+        <v>413</v>
+      </c>
+      <c r="L18" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18" t="s">
+        <v>233</v>
+      </c>
+      <c r="N18"/>
+      <c r="Q18" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>290</v>
+        <v>234</v>
       </c>
       <c r="C19" t="s">
-        <v>266</v>
+        <v>371</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>261</v>
-      </c>
-      <c r="G19" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>411</v>
+      </c>
+      <c r="J19" t="s">
+        <v>412</v>
+      </c>
+      <c r="K19" t="s">
+        <v>413</v>
+      </c>
+      <c r="L19" t="s">
+        <v>185</v>
+      </c>
+      <c r="M19" t="s">
+        <v>235</v>
+      </c>
+      <c r="N19"/>
+      <c r="Q19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>292</v>
+        <v>392</v>
       </c>
       <c r="C20" t="s">
-        <v>269</v>
+        <v>371</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>270</v>
-      </c>
-      <c r="G20" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="B21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C21" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>293</v>
-      </c>
-      <c r="B22" t="s">
-        <v>294</v>
-      </c>
-      <c r="C22" t="s">
-        <v>266</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>261</v>
-      </c>
-      <c r="G22" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" t="s">
-        <v>295</v>
-      </c>
-      <c r="C23" t="s">
-        <v>269</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>270</v>
-      </c>
-      <c r="G23" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" t="s">
-        <v>277</v>
-      </c>
-      <c r="C24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>296</v>
-      </c>
-      <c r="B25" t="s">
-        <v>297</v>
-      </c>
-      <c r="C25" t="s">
-        <v>266</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>261</v>
-      </c>
-      <c r="G25" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" t="s">
-        <v>298</v>
-      </c>
-      <c r="C26" t="s">
-        <v>269</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>270</v>
-      </c>
-      <c r="G26" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="B27" t="s">
-        <v>277</v>
-      </c>
-      <c r="C27" t="s">
-        <v>272</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>300</v>
-      </c>
-      <c r="B28" t="s">
-        <v>301</v>
-      </c>
-      <c r="C28" t="s">
-        <v>266</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>261</v>
-      </c>
-      <c r="G28" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="B29" t="s">
-        <v>302</v>
-      </c>
-      <c r="C29" t="s">
-        <v>269</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>270</v>
-      </c>
-      <c r="G29" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="B30" t="s">
-        <v>277</v>
-      </c>
-      <c r="C30" t="s">
-        <v>272</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>303</v>
-      </c>
-      <c r="B31" t="s">
-        <v>265</v>
-      </c>
-      <c r="C31" t="s">
-        <v>266</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>261</v>
-      </c>
-      <c r="G31" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="B32" t="s">
-        <v>268</v>
-      </c>
-      <c r="C32" t="s">
-        <v>269</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>270</v>
-      </c>
-      <c r="G32" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" t="s">
-        <v>277</v>
-      </c>
-      <c r="C33" t="s">
-        <v>272</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>411</v>
+      </c>
+      <c r="J20" t="s">
+        <v>412</v>
+      </c>
+      <c r="K20" t="s">
+        <v>413</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="M20" t="s">
+        <v>123</v>
+      </c>
+      <c r="P20" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="J2 L9 L10 L17:M19 L20" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\StevenPOL\PythonDev\AutoPlasticOmnium\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48853A8-DB95-4123-848E-8143336DB826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F21AD14-3913-45EA-88CF-D483E2A0B857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,21 @@
     <sheet name="M4" sheetId="5" r:id="rId5"/>
     <sheet name="M6" sheetId="6" r:id="rId6"/>
     <sheet name="SX5GEV" sheetId="7" r:id="rId7"/>
-    <sheet name="UDSonCAN (2)" sheetId="14" r:id="rId8"/>
-    <sheet name="UDSonCAN" sheetId="13" r:id="rId9"/>
-    <sheet name="SX5GEV_EOL" sheetId="8" r:id="rId10"/>
-    <sheet name="ALE_M4" sheetId="9" r:id="rId11"/>
-    <sheet name="ALE_M6" sheetId="10" r:id="rId12"/>
-    <sheet name="ALE_SX5GEV" sheetId="11" r:id="rId13"/>
-    <sheet name="LTT1" sheetId="12" r:id="rId14"/>
+    <sheet name="CalOBC7RaudRate" sheetId="14" r:id="rId8"/>
+    <sheet name="CalOBC7CANID (2)" sheetId="15" r:id="rId9"/>
+    <sheet name="CalOBC7CANID" sheetId="13" r:id="rId10"/>
+    <sheet name="SX5GEV_EOL" sheetId="8" r:id="rId11"/>
+    <sheet name="ALE_M4" sheetId="9" r:id="rId12"/>
+    <sheet name="ALE_M6" sheetId="10" r:id="rId13"/>
+    <sheet name="ALE_SX5GEV" sheetId="11" r:id="rId14"/>
+    <sheet name="LTT1" sheetId="12" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="424">
   <si>
     <t>SuiteName</t>
   </si>
@@ -1303,10 +1304,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>RxIDIndex,GRxIDIndex,TxIDIndex</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1347,10 +1344,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;oGRxID&gt;</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;oTxID&gt;</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1360,6 +1353,30 @@
   </si>
   <si>
     <t>P</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>069A,  0690,  06A4</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>0FFF,	  0FFF,	  0FFF</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>18DA49F9,  	18DBFFF9,  	18DAF949</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>0FFFFFFF,  	0FFFFFFF,  	0FFFFFFF</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,  	4,  	6</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,  	5,  	9</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -2149,7 +2166,10 @@
     <cellStyle name="警告文本 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="注释 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2201,6 +2221,32 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="SX5GEV_EOL" displayName="SX5GEV_EOL" ref="A1:Q16">
+  <autoFilter ref="A1:Q16" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SuiteName"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="StepName"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Keyword"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Retry"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Timeout"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="SubStr1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="SubStr2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Model"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="ID"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="NAD"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="PCI_LEN"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="CmdOrParam"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" name="CheckStr1"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" name="SPEC"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" name="SetGlobalVar"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0600-000010000000}" name="ByPF"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0600-000011000000}" name="Json"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="ALE_M4" displayName="ALE_M4" ref="A1:G33">
   <autoFilter ref="A1:G33" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="7">
@@ -2216,7 +2262,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="ALE_M6" displayName="ALE_M6" ref="A1:G21">
   <autoFilter ref="A1:G21" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="7">
@@ -2232,7 +2278,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="ALE_SX5GEV" displayName="ALE_SX5GEV" ref="A1:G24">
   <autoFilter ref="A1:G24" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="7">
@@ -2248,7 +2294,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="LTT1" displayName="LTT1_" ref="A1:P23">
   <autoFilter ref="A1:P23" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="16">
@@ -2408,9 +2454,9 @@
     <tableColumn id="7" xr3:uid="{100DCFDA-4D56-4F21-B9E2-1FF60202F0BB}" name="SubStr2"/>
     <tableColumn id="8" xr3:uid="{03E7F57F-3606-40EA-B48B-952DA962FEDB}" name="Model"/>
     <tableColumn id="9" xr3:uid="{3EA1023F-513B-4C48-8792-6A81FB14EF5E}" name="RxID"/>
-    <tableColumn id="17" xr3:uid="{6EB59848-7F08-4020-B420-1A6521F078C8}" name="GRxID" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{6EB59848-7F08-4020-B420-1A6521F078C8}" name="GRxID" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{BB53061B-F5BE-42B2-9E79-4B82CF6F5084}" name="TxID"/>
-    <tableColumn id="11" xr3:uid="{05054148-7942-452E-8BD0-A52679635019}" name="PCI_LEN" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{05054148-7942-452E-8BD0-A52679635019}" name="PCI_LEN" dataDxfId="2"/>
     <tableColumn id="12" xr3:uid="{EC64DBF7-CCE5-4711-BDC6-4A213EEACDA9}" name="CmdOrParam"/>
     <tableColumn id="13" xr3:uid="{3DEF6DB2-CF47-45D1-8E2C-3B2FED81FCE2}" name="CheckStr1"/>
     <tableColumn id="14" xr3:uid="{B0EEDB0A-40B9-4064-AA23-605F308A0675}" name="SetGlobalVar"/>
@@ -2422,9 +2468,35 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{73D88F03-D52D-473F-94D0-743D33E8E1D1}" name="SX5GEV13" displayName="SX5GEV13" ref="A1:Q20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E48CA408-77D0-42C3-81F5-D0C4E53D0315}" name="SX5GEV1315" displayName="SX5GEV1315" ref="A1:Q20">
   <autoFilter ref="A1:Q20" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{E3843F8E-6BD1-40F5-89F9-876949E70B49}" name="SuiteName"/>
+    <tableColumn id="2" xr3:uid="{210D6A80-F384-4A1B-8C68-A6AAEDA51FCB}" name="StepName"/>
+    <tableColumn id="3" xr3:uid="{F6E21D27-0FF4-4A34-B9FF-A2F23007EA89}" name="Keyword"/>
+    <tableColumn id="4" xr3:uid="{DC30814A-CB23-41A0-BCD6-253593D2DD9F}" name="Retry"/>
+    <tableColumn id="5" xr3:uid="{A3AEBA84-6AD8-433C-AA3E-12D5DB0DD81F}" name="Timeout"/>
+    <tableColumn id="6" xr3:uid="{E8FDBD8E-9C93-410C-9DEF-99767426DC03}" name="SubStr1"/>
+    <tableColumn id="7" xr3:uid="{F3EC4FC3-D571-40DE-97EA-64B4394E7228}" name="SubStr2"/>
+    <tableColumn id="8" xr3:uid="{79C75198-06C5-4838-96FA-4005D12A654A}" name="Model"/>
+    <tableColumn id="9" xr3:uid="{265AE5F0-20CE-45A0-9254-50FB87870400}" name="RxID"/>
+    <tableColumn id="17" xr3:uid="{A11035E7-5462-4306-A55B-D03D083B1140}" name="GRxID" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{4D052F4B-84A6-4208-9788-560ADC51657F}" name="TxID"/>
+    <tableColumn id="11" xr3:uid="{E52C49F2-A118-4D4A-B9DC-9E2866370A31}" name="PCI_LEN" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{7E4E72BA-6DF2-4C6C-AC7D-50E2EBF14FB4}" name="CmdOrParam"/>
+    <tableColumn id="13" xr3:uid="{D0EDB96F-C5C5-4787-B9BE-94C0B4CD971F}" name="CheckStr1"/>
+    <tableColumn id="14" xr3:uid="{23206DDF-1BB9-447B-BF95-AAAAA588A1F5}" name="SetGlobalVar"/>
+    <tableColumn id="15" xr3:uid="{8C734BF7-C2A8-4CA9-98C8-64367F7AAF63}" name="ByPF"/>
+    <tableColumn id="16" xr3:uid="{417F0788-171C-4100-81C0-5D719DAA4EAD}" name="Json"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{73D88F03-D52D-473F-94D0-743D33E8E1D1}" name="SX5GEV13" displayName="SX5GEV13" ref="A1:P20">
+  <autoFilter ref="A1:P20" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{C2559A15-B6C1-4C53-B557-04A1F90C0C1C}" name="SuiteName"/>
     <tableColumn id="2" xr3:uid="{3F1C22B2-09BE-4958-9869-DF6EE39BA0D3}" name="StepName"/>
     <tableColumn id="3" xr3:uid="{8C6BA8E2-F50E-4ADE-8DA1-3143512123C5}" name="Keyword"/>
@@ -2434,40 +2506,13 @@
     <tableColumn id="7" xr3:uid="{D1E432C6-B803-4190-AD5E-5AA07E3BA8FE}" name="SubStr2"/>
     <tableColumn id="8" xr3:uid="{AB51EFF0-9761-440F-A2BF-EC536B12FE76}" name="Model"/>
     <tableColumn id="9" xr3:uid="{64901502-3174-4C8F-B654-6516C704103C}" name="RxID"/>
-    <tableColumn id="17" xr3:uid="{28B77DE1-5C9F-4EFC-AD58-5740FDBADF94}" name="GRxID" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{250F4844-DD21-4130-B58F-7BF21E9B2175}" name="TxID"/>
-    <tableColumn id="11" xr3:uid="{B5512F7A-69F2-4E94-AB75-AF026ECE1B49}" name="PCI_LEN" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{B5512F7A-69F2-4E94-AB75-AF026ECE1B49}" name="PCI_LEN" dataDxfId="4"/>
     <tableColumn id="12" xr3:uid="{F1C7D58B-1721-4F9F-85A6-06C53B2988CD}" name="CmdOrParam"/>
     <tableColumn id="13" xr3:uid="{C75A9AEA-57DC-4C85-AC8D-0425A90CCF28}" name="CheckStr1"/>
     <tableColumn id="14" xr3:uid="{400AF953-118C-47B0-9767-260F0850EA36}" name="SetGlobalVar"/>
     <tableColumn id="15" xr3:uid="{58DE2151-F047-490D-945F-B87CA11481A3}" name="ByPF"/>
     <tableColumn id="16" xr3:uid="{67F76188-E9B2-4A3B-9699-B99FF1FBAB7D}" name="Json"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="SX5GEV_EOL" displayName="SX5GEV_EOL" ref="A1:Q16">
-  <autoFilter ref="A1:Q16" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SuiteName"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="StepName"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Keyword"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Retry"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Timeout"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="SubStr1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="SubStr2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Model"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="ID"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="NAD"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="PCI_LEN"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="CmdOrParam"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" name="CheckStr1"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" name="SPEC"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" name="SetGlobalVar"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0600-000010000000}" name="ByPF"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0600-000011000000}" name="Json"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2900,6 +2945,614 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B62C30-A64E-48E5-B56D-84A03A9E5A42}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="13"/>
+    <col min="12" max="12" width="57.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" customWidth="1"/>
+    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="31" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J1" t="s">
+        <v>353</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" t="s">
+        <v>355</v>
+      </c>
+      <c r="M1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L2" t="s">
+        <v>418</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H3" t="s">
+        <v>356</v>
+      </c>
+      <c r="L3" t="s">
+        <v>419</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3" t="s">
+        <v>384</v>
+      </c>
+      <c r="P3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H4" t="s">
+        <v>357</v>
+      </c>
+      <c r="L4" t="s">
+        <v>420</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4" t="s">
+        <v>413</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" t="s">
+        <v>383</v>
+      </c>
+      <c r="H5" t="s">
+        <v>357</v>
+      </c>
+      <c r="L5" t="s">
+        <v>421</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5" t="s">
+        <v>384</v>
+      </c>
+      <c r="P5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C6" t="s">
+        <v>383</v>
+      </c>
+      <c r="H6" t="s">
+        <v>356</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="L6" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6" t="s">
+        <v>405</v>
+      </c>
+      <c r="P6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H7" t="s">
+        <v>357</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="L7" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>414</v>
+      </c>
+      <c r="J9" t="s">
+        <v>415</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="L9" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9"/>
+      <c r="O9" t="s">
+        <v>417</v>
+      </c>
+      <c r="P9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>414</v>
+      </c>
+      <c r="J10" t="s">
+        <v>415</v>
+      </c>
+      <c r="K10" t="s">
+        <v>387</v>
+      </c>
+      <c r="L10" t="s">
+        <v>399</v>
+      </c>
+      <c r="M10"/>
+      <c r="P10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>414</v>
+      </c>
+      <c r="J11" t="s">
+        <v>415</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="L11" t="s">
+        <v>398</v>
+      </c>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>414</v>
+      </c>
+      <c r="J12" t="s">
+        <v>415</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>400</v>
+      </c>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>414</v>
+      </c>
+      <c r="J13" t="s">
+        <v>415</v>
+      </c>
+      <c r="K13" t="s">
+        <v>391</v>
+      </c>
+      <c r="L13" t="s">
+        <v>404</v>
+      </c>
+      <c r="M13"/>
+      <c r="P13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C14" t="s">
+        <v>377</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>414</v>
+      </c>
+      <c r="J14" t="s">
+        <v>415</v>
+      </c>
+      <c r="K14" t="s">
+        <v>391</v>
+      </c>
+      <c r="L14" t="s">
+        <v>408</v>
+      </c>
+      <c r="M14"/>
+      <c r="P14" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>403</v>
+      </c>
+      <c r="C15" t="s">
+        <v>377</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>414</v>
+      </c>
+      <c r="J15" t="s">
+        <v>415</v>
+      </c>
+      <c r="K15" t="s">
+        <v>391</v>
+      </c>
+      <c r="L15" t="s">
+        <v>409</v>
+      </c>
+      <c r="M15"/>
+      <c r="P15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>375</v>
+      </c>
+      <c r="C16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>414</v>
+      </c>
+      <c r="J16" t="s">
+        <v>415</v>
+      </c>
+      <c r="K16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" t="s">
+        <v>371</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>410</v>
+      </c>
+      <c r="J17" t="s">
+        <v>412</v>
+      </c>
+      <c r="K17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" t="s">
+        <v>118</v>
+      </c>
+      <c r="M17"/>
+      <c r="P17" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" t="s">
+        <v>371</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>410</v>
+      </c>
+      <c r="J18" t="s">
+        <v>412</v>
+      </c>
+      <c r="K18" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" t="s">
+        <v>233</v>
+      </c>
+      <c r="M18"/>
+      <c r="P18" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" t="s">
+        <v>371</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>410</v>
+      </c>
+      <c r="J19" t="s">
+        <v>412</v>
+      </c>
+      <c r="K19" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" t="s">
+        <v>235</v>
+      </c>
+      <c r="M19"/>
+      <c r="P19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>392</v>
+      </c>
+      <c r="C20" t="s">
+        <v>371</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>410</v>
+      </c>
+      <c r="J20" t="s">
+        <v>412</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="L20" t="s">
+        <v>123</v>
+      </c>
+      <c r="O20" t="s">
+        <v>417</v>
+      </c>
+      <c r="P20" t="s">
+        <v>416</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="K9 K10 K17:L19 K20" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -3367,7 +4020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -4022,7 +4675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -4447,7 +5100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -4967,7 +5620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -7238,7 +7891,7 @@
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q19"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8454,7 +9107,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -9554,7 +10207,7 @@
   </sheetPr>
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K40" sqref="K40:L42"/>
     </sheetView>
   </sheetViews>
@@ -10767,7 +11420,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11487,14 +12140,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B62C30-A64E-48E5-B56D-84A03A9E5A42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189E594A-304C-4477-A5CE-A338495F29C0}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11596,7 +12249,7 @@
       </c>
       <c r="N2"/>
       <c r="O2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q2" t="s">
         <v>44</v>
@@ -11613,20 +12266,20 @@
         <v>356</v>
       </c>
       <c r="I3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N3"/>
       <c r="O3" t="s">
         <v>384</v>
       </c>
       <c r="Q3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11650,7 +12303,7 @@
       </c>
       <c r="N4"/>
       <c r="O4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q4" t="s">
         <v>44</v>
@@ -11667,20 +12320,20 @@
         <v>357</v>
       </c>
       <c r="I5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N5"/>
       <c r="O5" t="s">
         <v>384</v>
       </c>
       <c r="Q5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11705,10 +12358,10 @@
       <c r="M6" s="9"/>
       <c r="N6"/>
       <c r="O6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11727,16 +12380,16 @@
       <c r="J7" s="14">
         <v>5</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>405</v>
+      <c r="K7" s="9">
+        <v>9</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7"/>
       <c r="O7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -11772,13 +12425,11 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
+        <v>414</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9" t="s">
         <v>415</v>
-      </c>
-      <c r="J9" t="s">
-        <v>416</v>
-      </c>
-      <c r="K9" t="s">
-        <v>417</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>386</v>
@@ -11788,10 +12439,10 @@
       </c>
       <c r="N9"/>
       <c r="P9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -11808,13 +12459,11 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
+        <v>414</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" t="s">
         <v>415</v>
-      </c>
-      <c r="J10" t="s">
-        <v>416</v>
-      </c>
-      <c r="K10" t="s">
-        <v>417</v>
       </c>
       <c r="L10" t="s">
         <v>387</v>
@@ -11844,13 +12493,11 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
+        <v>414</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11" t="s">
         <v>415</v>
-      </c>
-      <c r="J11" t="s">
-        <v>416</v>
-      </c>
-      <c r="K11" t="s">
-        <v>417</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>387</v>
@@ -11874,13 +12521,11 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
+        <v>414</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12" t="s">
         <v>415</v>
-      </c>
-      <c r="J12" t="s">
-        <v>416</v>
-      </c>
-      <c r="K12" t="s">
-        <v>417</v>
       </c>
       <c r="L12" t="s">
         <v>117</v>
@@ -11904,13 +12549,11 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
+        <v>414</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13" t="s">
         <v>415</v>
-      </c>
-      <c r="J13" t="s">
-        <v>416</v>
-      </c>
-      <c r="K13" t="s">
-        <v>417</v>
       </c>
       <c r="L13" t="s">
         <v>391</v>
@@ -11920,7 +12563,7 @@
       </c>
       <c r="N13"/>
       <c r="Q13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -11937,23 +12580,21 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
+        <v>414</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14" t="s">
         <v>415</v>
-      </c>
-      <c r="J14" t="s">
-        <v>416</v>
-      </c>
-      <c r="K14" t="s">
-        <v>417</v>
       </c>
       <c r="L14" t="s">
         <v>391</v>
       </c>
       <c r="M14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N14"/>
       <c r="Q14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -11970,23 +12611,21 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
+        <v>414</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15" t="s">
         <v>415</v>
-      </c>
-      <c r="J15" t="s">
-        <v>416</v>
-      </c>
-      <c r="K15" t="s">
-        <v>417</v>
       </c>
       <c r="L15" t="s">
         <v>391</v>
       </c>
       <c r="M15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N15"/>
       <c r="Q15" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -12003,13 +12642,11 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
+        <v>414</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16" t="s">
         <v>415</v>
-      </c>
-      <c r="J16" t="s">
-        <v>416</v>
-      </c>
-      <c r="K16" t="s">
-        <v>417</v>
       </c>
       <c r="L16" t="s">
         <v>117</v>
@@ -12036,13 +12673,11 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>411</v>
-      </c>
-      <c r="J17" t="s">
+        <v>410</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17" t="s">
         <v>412</v>
-      </c>
-      <c r="K17" t="s">
-        <v>413</v>
       </c>
       <c r="L17" t="s">
         <v>117</v>
@@ -12052,7 +12687,7 @@
       </c>
       <c r="N17"/>
       <c r="Q17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -12068,14 +12703,11 @@
       <c r="E18">
         <v>2</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>411</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>412</v>
-      </c>
-      <c r="K18" t="s">
-        <v>413</v>
       </c>
       <c r="L18" t="s">
         <v>117</v>
@@ -12085,7 +12717,7 @@
       </c>
       <c r="N18"/>
       <c r="Q18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -12101,14 +12733,11 @@
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>411</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>412</v>
-      </c>
-      <c r="K19" t="s">
-        <v>413</v>
       </c>
       <c r="L19" t="s">
         <v>185</v>
@@ -12135,13 +12764,11 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>411</v>
-      </c>
-      <c r="J20" t="s">
+        <v>410</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20" t="s">
         <v>412</v>
-      </c>
-      <c r="K20" t="s">
-        <v>413</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>386</v>
@@ -12150,19 +12777,16 @@
         <v>123</v>
       </c>
       <c r="P20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="J2 L9 L10 L17:M19 L20" numberStoredAsText="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/scripts/PLIN-BLF.xlsx
+++ b/scripts/PLIN-BLF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\StevenPOL\PythonDev\AutoPlasticOmnium\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F21AD14-3913-45EA-88CF-D483E2A0B857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B1F929-80EC-41DB-BAF8-1E54ACA1CC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="440">
   <si>
     <t>SuiteName</t>
   </si>
@@ -1377,6 +1377,70 @@
   </si>
   <si>
     <t>6,  	5,  	9</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>SID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF_DID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1 55</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>3E</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>2E</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1 25</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>4&lt;RxIDIndex&gt; &lt;cRxID&gt;</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>4&lt;GRxIDIndex&gt; &lt;cGRxID&gt;</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>8&lt;TxIDIndex&gt; &lt;cTxID&gt;</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -2076,7 +2140,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="24" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2110,8 +2174,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2166,7 +2229,16 @@
     <cellStyle name="警告文本 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="注释 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2454,9 +2526,9 @@
     <tableColumn id="7" xr3:uid="{100DCFDA-4D56-4F21-B9E2-1FF60202F0BB}" name="SubStr2"/>
     <tableColumn id="8" xr3:uid="{03E7F57F-3606-40EA-B48B-952DA962FEDB}" name="Model"/>
     <tableColumn id="9" xr3:uid="{3EA1023F-513B-4C48-8792-6A81FB14EF5E}" name="RxID"/>
-    <tableColumn id="17" xr3:uid="{6EB59848-7F08-4020-B420-1A6521F078C8}" name="GRxID" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{6EB59848-7F08-4020-B420-1A6521F078C8}" name="GRxID" dataDxfId="7"/>
     <tableColumn id="10" xr3:uid="{BB53061B-F5BE-42B2-9E79-4B82CF6F5084}" name="TxID"/>
-    <tableColumn id="11" xr3:uid="{05054148-7942-452E-8BD0-A52679635019}" name="PCI_LEN" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{05054148-7942-452E-8BD0-A52679635019}" name="PCI_LEN" dataDxfId="6"/>
     <tableColumn id="12" xr3:uid="{EC64DBF7-CCE5-4711-BDC6-4A213EEACDA9}" name="CmdOrParam"/>
     <tableColumn id="13" xr3:uid="{3DEF6DB2-CF47-45D1-8E2C-3B2FED81FCE2}" name="CheckStr1"/>
     <tableColumn id="14" xr3:uid="{B0EEDB0A-40B9-4064-AA23-605F308A0675}" name="SetGlobalVar"/>
@@ -2480,9 +2552,9 @@
     <tableColumn id="7" xr3:uid="{F3EC4FC3-D571-40DE-97EA-64B4394E7228}" name="SubStr2"/>
     <tableColumn id="8" xr3:uid="{79C75198-06C5-4838-96FA-4005D12A654A}" name="Model"/>
     <tableColumn id="9" xr3:uid="{265AE5F0-20CE-45A0-9254-50FB87870400}" name="RxID"/>
-    <tableColumn id="17" xr3:uid="{A11035E7-5462-4306-A55B-D03D083B1140}" name="GRxID" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{A11035E7-5462-4306-A55B-D03D083B1140}" name="GRxID" dataDxfId="5"/>
     <tableColumn id="10" xr3:uid="{4D052F4B-84A6-4208-9788-560ADC51657F}" name="TxID"/>
-    <tableColumn id="11" xr3:uid="{E52C49F2-A118-4D4A-B9DC-9E2866370A31}" name="PCI_LEN" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{E52C49F2-A118-4D4A-B9DC-9E2866370A31}" name="PCI_LEN" dataDxfId="4"/>
     <tableColumn id="12" xr3:uid="{7E4E72BA-6DF2-4C6C-AC7D-50E2EBF14FB4}" name="CmdOrParam"/>
     <tableColumn id="13" xr3:uid="{D0EDB96F-C5C5-4787-B9BE-94C0B4CD971F}" name="CheckStr1"/>
     <tableColumn id="14" xr3:uid="{23206DDF-1BB9-447B-BF95-AAAAA588A1F5}" name="SetGlobalVar"/>
@@ -2494,9 +2566,9 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{73D88F03-D52D-473F-94D0-743D33E8E1D1}" name="SX5GEV13" displayName="SX5GEV13" ref="A1:P20">
-  <autoFilter ref="A1:P20" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{73D88F03-D52D-473F-94D0-743D33E8E1D1}" name="SX5GEV13" displayName="SX5GEV13" ref="A1:R20">
+  <autoFilter ref="A1:R20" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{C2559A15-B6C1-4C53-B557-04A1F90C0C1C}" name="SuiteName"/>
     <tableColumn id="2" xr3:uid="{3F1C22B2-09BE-4958-9869-DF6EE39BA0D3}" name="StepName"/>
     <tableColumn id="3" xr3:uid="{8C6BA8E2-F50E-4ADE-8DA1-3143512123C5}" name="Keyword"/>
@@ -2507,8 +2579,10 @@
     <tableColumn id="8" xr3:uid="{AB51EFF0-9761-440F-A2BF-EC536B12FE76}" name="Model"/>
     <tableColumn id="9" xr3:uid="{64901502-3174-4C8F-B654-6516C704103C}" name="RxID"/>
     <tableColumn id="10" xr3:uid="{250F4844-DD21-4130-B58F-7BF21E9B2175}" name="TxID"/>
-    <tableColumn id="11" xr3:uid="{B5512F7A-69F2-4E94-AB75-AF026ECE1B49}" name="PCI_LEN" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{F1C7D58B-1721-4F9F-85A6-06C53B2988CD}" name="CmdOrParam"/>
+    <tableColumn id="11" xr3:uid="{B5512F7A-69F2-4E94-AB75-AF026ECE1B49}" name="PCI_LEN" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{4E6B6B02-2B36-4A4F-A7FE-767EB5603863}" name="SID" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{F43D0DC9-3121-4500-8488-D82EF0E4170B}" name="SF_DID" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{F1C7D58B-1721-4F9F-85A6-06C53B2988CD}" name="CmdOrParam" dataDxfId="0"/>
     <tableColumn id="13" xr3:uid="{C75A9AEA-57DC-4C85-AC8D-0425A90CCF28}" name="CheckStr1"/>
     <tableColumn id="14" xr3:uid="{400AF953-118C-47B0-9767-260F0850EA36}" name="SetGlobalVar"/>
     <tableColumn id="15" xr3:uid="{58DE2151-F047-490D-945F-B87CA11481A3}" name="ByPF"/>
@@ -2949,10 +3023,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2965,17 +3039,19 @@
     <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="13"/>
-    <col min="12" max="12" width="57.44140625" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" customWidth="1"/>
-    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="31" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="33" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3006,26 +3082,32 @@
       <c r="J1" t="s">
         <v>353</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" t="s">
         <v>107</v>
       </c>
       <c r="L1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N1" t="s">
         <v>355</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>108</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>144</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>109</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -3038,18 +3120,20 @@
       <c r="H2" t="s">
         <v>356</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="M2"/>
-      <c r="N2" t="s">
+      <c r="O2"/>
+      <c r="P2" t="s">
         <v>413</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>382</v>
       </c>
@@ -3059,18 +3143,20 @@
       <c r="H3" t="s">
         <v>356</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="M3"/>
-      <c r="N3" t="s">
+      <c r="O3"/>
+      <c r="P3" t="s">
         <v>384</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>381</v>
       </c>
@@ -3080,18 +3166,20 @@
       <c r="H4" t="s">
         <v>357</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="M4"/>
-      <c r="N4" t="s">
+      <c r="O4"/>
+      <c r="P4" t="s">
         <v>413</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>382</v>
       </c>
@@ -3101,18 +3189,20 @@
       <c r="H5" t="s">
         <v>357</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="M5"/>
-      <c r="N5" t="s">
+      <c r="O5"/>
+      <c r="P5" t="s">
         <v>384</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>397</v>
       </c>
@@ -3124,18 +3214,20 @@
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="M6"/>
-      <c r="N6" t="s">
+      <c r="O6"/>
+      <c r="P6" t="s">
         <v>405</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>397</v>
       </c>
@@ -3147,18 +3239,20 @@
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="M7"/>
-      <c r="N7" t="s">
+      <c r="O7"/>
+      <c r="P7" t="s">
         <v>405</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>372</v>
       </c>
@@ -3174,10 +3268,12 @@
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="13"/>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>393</v>
       </c>
@@ -3199,18 +3295,22 @@
       <c r="K9" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="L9" t="s">
-        <v>123</v>
-      </c>
-      <c r="M9"/>
-      <c r="O9" t="s">
+      <c r="L9" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9"/>
+      <c r="Q9" t="s">
         <v>417</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>113</v>
       </c>
@@ -3232,15 +3332,21 @@
       <c r="K10" t="s">
         <v>387</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="12">
+        <v>11</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="N10" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="M10"/>
-      <c r="P10" t="s">
+      <c r="O10"/>
+      <c r="R10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>366</v>
       </c>
@@ -3265,12 +3371,16 @@
       <c r="K11" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="L11" t="s">
-        <v>398</v>
-      </c>
-      <c r="M11"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L11" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>182</v>
       </c>
@@ -3292,12 +3402,16 @@
       <c r="K12" t="s">
         <v>117</v>
       </c>
-      <c r="L12" t="s">
-        <v>400</v>
-      </c>
-      <c r="M12"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L12" s="12">
+        <v>10</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="N12" s="12"/>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>401</v>
       </c>
@@ -3319,15 +3433,21 @@
       <c r="K13" t="s">
         <v>391</v>
       </c>
-      <c r="L13" t="s">
-        <v>404</v>
-      </c>
-      <c r="M13"/>
-      <c r="P13" t="s">
+      <c r="L13" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="O13"/>
+      <c r="R13" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>402</v>
       </c>
@@ -3349,15 +3469,21 @@
       <c r="K14" t="s">
         <v>391</v>
       </c>
-      <c r="L14" t="s">
-        <v>408</v>
-      </c>
-      <c r="M14"/>
-      <c r="P14" t="s">
+      <c r="L14" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="O14"/>
+      <c r="R14" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>403</v>
       </c>
@@ -3379,15 +3505,21 @@
       <c r="K15" t="s">
         <v>391</v>
       </c>
-      <c r="L15" t="s">
-        <v>409</v>
-      </c>
-      <c r="M15"/>
-      <c r="P15" t="s">
+      <c r="L15" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="O15"/>
+      <c r="R15" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>375</v>
       </c>
@@ -3409,12 +3541,16 @@
       <c r="K16" t="s">
         <v>117</v>
       </c>
-      <c r="L16" t="s">
-        <v>118</v>
-      </c>
-      <c r="M16"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L16" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="O16"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>367</v>
       </c>
@@ -3439,15 +3575,19 @@
       <c r="K17" t="s">
         <v>117</v>
       </c>
-      <c r="L17" t="s">
-        <v>118</v>
-      </c>
-      <c r="M17"/>
-      <c r="P17" t="s">
+      <c r="L17" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17"/>
+      <c r="R17" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>232</v>
       </c>
@@ -3469,15 +3609,19 @@
       <c r="K18" t="s">
         <v>117</v>
       </c>
-      <c r="L18" t="s">
-        <v>233</v>
-      </c>
-      <c r="M18"/>
-      <c r="P18" t="s">
+      <c r="L18" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18"/>
+      <c r="R18" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>234</v>
       </c>
@@ -3499,15 +3643,17 @@
       <c r="K19" t="s">
         <v>185</v>
       </c>
-      <c r="L19" t="s">
-        <v>235</v>
-      </c>
-      <c r="M19"/>
-      <c r="P19" t="s">
+      <c r="L19" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19"/>
+      <c r="R19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>392</v>
       </c>
@@ -3529,13 +3675,17 @@
       <c r="K20" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="L20" t="s">
-        <v>123</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="L20" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="N20" s="12"/>
+      <c r="Q20" t="s">
         <v>417</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>416</v>
       </c>
     </row>
@@ -3544,7 +3694,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K9 K10 K17:L19 K20" numberStoredAsText="1"/>
+    <ignoredError sqref="K9:K10 K17:K20" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -11420,7 +11570,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11433,9 +11583,8 @@
     <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="13"/>
     <col min="13" max="13" width="57.44140625" customWidth="1"/>
     <col min="14" max="14" width="13.88671875" style="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
@@ -11445,7 +11594,7 @@
     <col min="19" max="32" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11473,13 +11622,13 @@
       <c r="I1" t="s">
         <v>352</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" t="s">
         <v>354</v>
       </c>
       <c r="K1" t="s">
         <v>353</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" t="s">
         <v>107</v>
       </c>
       <c r="M1" t="s">
@@ -11498,7 +11647,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -11520,7 +11669,7 @@
       <c r="I2" t="s">
         <v>358</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" t="s">
         <v>360</v>
       </c>
       <c r="K2" t="s">
@@ -11555,7 +11704,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>381</v>
       </c>
@@ -11574,7 +11723,7 @@
       <c r="I4" t="s">
         <v>361</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" t="s">
         <v>362</v>
       </c>
       <c r="K4" t="s">
@@ -11961,14 +12110,12 @@
       <c r="B17" t="s">
         <v>385</v>
       </c>
-      <c r="L17"/>
       <c r="N17"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>369</v>
       </c>
-      <c r="L18"/>
       <c r="N18"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -12146,8 +12293,8 @@
   </sheetPr>
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12160,10 +12307,9 @@
     <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="13"/>
-    <col min="13" max="13" width="57.44140625" customWidth="1"/>
+    <col min="13" max="13" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.88671875" style="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.109375" bestFit="1" customWidth="1"/>
@@ -12172,7 +12318,7 @@
     <col min="19" max="32" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12200,13 +12346,13 @@
       <c r="I1" t="s">
         <v>352</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" t="s">
         <v>354</v>
       </c>
       <c r="K1" t="s">
         <v>353</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" t="s">
         <v>107</v>
       </c>
       <c r="M1" t="s">
@@ -12225,7 +12371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -12241,7 +12387,7 @@
       <c r="I2" t="s">
         <v>358</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" t="s">
         <v>360</v>
       </c>
       <c r="K2" t="s">
@@ -12282,7 +12428,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>381</v>
       </c>
@@ -12295,7 +12441,7 @@
       <c r="I4" t="s">
         <v>361</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" t="s">
         <v>362</v>
       </c>
       <c r="K4" t="s">
@@ -12349,7 +12495,7 @@
       <c r="I6" s="9">
         <v>3</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="9">
         <v>4</v>
       </c>
       <c r="K6" s="9">
@@ -12377,7 +12523,7 @@
       <c r="I7" s="9">
         <v>6</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="9">
         <v>5</v>
       </c>
       <c r="K7" s="9">
@@ -12427,7 +12573,6 @@
       <c r="I9" t="s">
         <v>414</v>
       </c>
-      <c r="J9"/>
       <c r="K9" t="s">
         <v>415</v>
       </c>
@@ -12461,7 +12606,6 @@
       <c r="I10" t="s">
         <v>414</v>
       </c>
-      <c r="J10"/>
       <c r="K10" t="s">
         <v>415</v>
       </c>
@@ -12495,7 +12639,6 @@
       <c r="I11" t="s">
         <v>414</v>
       </c>
-      <c r="J11"/>
       <c r="K11" t="s">
         <v>415</v>
       </c>
@@ -12523,7 +12666,6 @@
       <c r="I12" t="s">
         <v>414</v>
       </c>
-      <c r="J12"/>
       <c r="K12" t="s">
         <v>415</v>
       </c>
@@ -12551,7 +12693,6 @@
       <c r="I13" t="s">
         <v>414</v>
       </c>
-      <c r="J13"/>
       <c r="K13" t="s">
         <v>415</v>
       </c>
@@ -12582,7 +12723,6 @@
       <c r="I14" t="s">
         <v>414</v>
       </c>
-      <c r="J14"/>
       <c r="K14" t="s">
         <v>415</v>
       </c>
@@ -12613,7 +12753,6 @@
       <c r="I15" t="s">
         <v>414</v>
       </c>
-      <c r="J15"/>
       <c r="K15" t="s">
         <v>415</v>
       </c>
@@ -12644,7 +12783,6 @@
       <c r="I16" t="s">
         <v>414</v>
       </c>
-      <c r="J16"/>
       <c r="K16" t="s">
         <v>415</v>
       </c>
@@ -12675,7 +12813,6 @@
       <c r="I17" t="s">
         <v>410</v>
       </c>
-      <c r="J17"/>
       <c r="K17" t="s">
         <v>412</v>
       </c>
@@ -12766,7 +12903,6 @@
       <c r="I20" t="s">
         <v>410</v>
       </c>
-      <c r="J20"/>
       <c r="K20" t="s">
         <v>412</v>
       </c>
